--- a/기사데이터/토스/엑셀파일/news(토스, 2023.01.16~2023.01.31).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.01.16~2023.01.31).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2507 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2023.01.26.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>KPMG 발표, 글로벌 불확실성으로 벤처캐피탈 시장 '꽁꽁'</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002141302?sid=105</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 글로벌 벤처캐피털(VC) 투자가 4분기 연속 감소해 2년 만에 최저치를 기록한 것으로 나타났다. 세계적인 회계·컨설팅기업 KPMG 인터내셔널(회장 빌 토마스)이 26일 발간한 보고서(Venture Pulse Q4 2022)에 따르면, 2022년 4분기 글로벌 VC 투자는 7641건의 거래로 756억 달러에 그쳤다. 전 분기 9767건, 1022억 달러 대비 거래 건수와 규모가 모두 급감하며, 2019년 2분기 이후 최저 수준으로 떨어졌다.  보고서는 인플레이션 및 급격한 금리 인상 등 글로벌 불확실성으로 인해 VC 시장이 얼어붙어 있으며, 올 1분기까지 전세계적으로 자금 조달에 어려움을 겪을 것으로 전망했다. 그러나 ESG(환경·사회·지배구조) 및 지정학적 리스크로 인한 에너지 자립의 중요성이 대두되면서 전기차와 같은 대체 에너지 기술 및 발전·분배 등 에너지 분야와 ESG 관련 솔루션에 대한 VC 투자자들의 관심이 쏠리고 있다고 분석했다. 지난해 4분기 VC 투자는 미주지역과 유럽, 아시아 등 모든 지역에서 거래 건수와 투자 규모가 감소했으며, 아시아에 대한 VC 투자는 2022년 3분기 3052건, 304억 달러에서 4분기 2157건, 226억 달러로 투자건수가 30%가량 줄어든 것으로 집계됐다. CVC(Corporate Venture Capital, 기업주도형 벤처캐피털) 투자도 4분기 연속 감소했다. CVC 관련 총 투자액은 2021년 4분기 1080억 달러에서 2022년 4분기 365억 달러로 1년 새 약 70% 줄어든 양상을 보였다. 글로벌 벤처캐피털의 엑시트(Exit, 투자회수) 활동도 2021년 4,174건, 1조4,270억 달러에서 2022년 2997건 3088억 달러로 전년 대비 크게 하락했으며, 엑시트 규모가 7532억 달러에서 714억 달러로 무려 90% 감소한 미국에서 가장 두드러졌다. 2022년은 미국과 유럽의 강력한 자금 조달로 인해 실제 투자 집행이 이루어지지 않은 미투자금을 뜻하는 드라이 파우더(Dry Powder)가 대규모로 축적됐다. 2022년 VC들은 2500억 달러 이상을 모금했으며, 이는 지난 10년 간 세 번째로 큰 규모다. 미국은 1600억 달러의 기록적인 투자금을 유치했다. 반면, 아시아의 자금 조달은 4년 연속 감소했는데, 이는 2014년 이후 최저 수준이다. 2023년 1분기를 앞두고 소비재 중심의 기업들이 가장 부담을 느낄 것으로 예상되는 가운데 전세계 벤처캐피털 투자는 여전히 저조할 것으로 예상했다. 특히 미국의 IPO 장은 올해도 주춤할 것으로 보이며, 기업들의 현금이 마르면서 기존보다 몸값을 낮춰 투자를 받는 다운라운드(Down Round)가 늘고 인수합병(M&amp;A) 활동도 증가할 것으로 내다봤다. 한편, 지난해 4분기 중국의 광저우자동차그룹(GAC) 산하 전기차 브랜드인 아이온(Aion)이 25억6000만 달러의 가장 큰 투자금 유치에 성공했고, 온라인 패션브랜드 셰인(SHEIN) 10억 달러, SPIC 수소에너지 6억3100만 달러, 보야카 테크놀로지(Voyah Car Technology) 6억3000만 달러, 에스윈(ESWIN) 머티리얼 5억6200만 달러, 페이홍 테크놀로지 5억3700만 달러를 조달하는 등 중국이 아시아태평양지역 내 10대 메가딜에서 7개를 차지했다. 한국은 토스(4억500만 달러)가 8위에 올랐다. 삼정KPMG 김이동 부대표는 “유럽의 지속적인 에너지 위기와 기후 변화 등 지속가능성을 고려할 때, 투자자들은 대체 에너지 기술, 전기 및 수소 동력 차량, 배터리 저장 기술 등에 계속 눈길을 돌릴 것”이며, “전세계적으로 사이버보안, 생명공학, 레그테크 및 밀리터리 애플리케이션에도 많은 관심이 몰릴 것”이라고 설명했다. 이어, “장기적으로 인공지능(AI)과 대화형 AI와 같은 게임 분야도 성장할 것으로 전망된다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2023.01.27.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>[IT메가비전2023]경기침체 돌파, 올해 주목해야 할 기술은?</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003074861?sid=105</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>IT 메가비전 행사 주요 발표자 및 연사'IT 메가비전'이 내달 2일 개최된다. 행사는 국내외 경제환경과 산업동향을 예측하고 화두가 되는 혁신기술을 분석해 비즈니스 이정표를 제시해 왔다.과학기술정보통신부·행정안전부·산업통상자원부·중소벤처기업부·방송통신위원회가 후원한다. 각 부처 정책실장이 참석해 경기침체, 수출감소 등 위기에 직면한 우리 경제의 나아갈 방향과 정부 정책을 소개한다.새해를 관통할 첫 번째 이슈로 '웹3.0 시대의 개막'이 다뤄진다. 김지현 SK경영경제연구소 부사장은 '웹3의 기회와 플랫폼 비즈니스의 관성'을 주제로 발표한다. 인터넷 시장이 플랫폼 독점에서 탈중앙화로 나아가는 관점에서 웹3.0 가치를 정의하고 비즈니스 차별성과 특징을 살펴본다. 특히 손에 잡히는 웹3.0 실현을 위해 블록체인 등 기술발전과 메타버스 확산을 분석할 예정이다.정보통신산업진흥원장을 역임한 박수용 서강대 교수는 '블록체인 기반 웹3.0 시대의 시작'을 강연한다. 애플, 아마존, 브레이브, 파일코인 등 선도 기업들의 사례를 통해 2021년 32억달러에서 2030년 815억달러 규모로 가파르게 성장할 웹3.0 시장을 전망한다. 국가 차원에서 웹3.0에 적극적으로 대응하는 중국, 일본 정책을 살펴보고 우리 시장환경 정비방향도 점검한다.김학균 신영증권 리서치센터장은 2023년 국내외 금리동향 및 경제환경을 전망한다. 모두 경기침체를 말하는 현 시점에서 금리·외환, 공급망 및 원자재, 소비동향 등 경제지표 분석을 통해 기업의 대응전략 마련에 시사점을 제공한다.디지털 전환과 관련해서는 강용성 와이즈넛 대표, 유태준 마인즈랩 대표, 강철 지멘스인더스트리소프트웨어 전무가 각각 발제한다. 강 대표는 디지털 전환을 통한 생산성 극대화와 비즈니스 전략을 모색한다. 인공지능, 클라우드 등 최신기술 흐름을 살펴본다. 유 대표는 디지털 전환에 따른 인공지능 기술의 고도화 추세, 신뢰성 및 윤리성 문제의 대두, AI 융합·확산 방향을 진단한다. 강 전무는 제조업 등 기존산업의 디지털 전환 필연성과 산업유형별 DX 핵심이슈를 살펴본다.자율주행 등 미래 모빌리티에 대해서는 한지형 오토노머스에이투지 대표가 글로벌 오토메이커들의 동향을 점검하고 ITSW 기업의 시장공략 기회를 모색한다. 우주항공청 개청으로 미래 먹거리산업으로 부각한 우주항공 분야의 응용기술 산업확산 기회와 대응전략은 이성희 컨텍 대표가 발표한다. 앱 하나로 서비스를 통합하는 '슈퍼앱'에 대해서는 김민우 비바리퍼블리카(토스) IR리더가 강연한다. 지난해 3000억원 투자유치에 성공하며 기업가치와 사업역량을 확충한 토스의 슈퍼앱 전략을 소개할 예정이다.이경록 정보통신산업진흥원(NIPA) 본부장, 김정욱 한국산업기술진흥원(KIAT) 본부장은 각각 과학기술정보통신부와 산업통상자원부의 다양한 R&amp;D 및 공모과제, 민관협력 사업에 대해 소개한다.IT메가비전2023은 온라인 생방송으로 진행되며 'http//www.sek.co.kr/2023/it' 에서사전등록을 통해 시청할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2023.01.18.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>"月 3만원 아끼는데 비싼 요금제 왜 써요?"…MZ 사로잡았다</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004801278?sid=105</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>고물가 여파에 짠테크 유행…'알뜰폰 인기'지난해 알뜰폰 휴대전화 회선 수 120만개 증가알뜰폰 점유율 늘자 이통3사 점유율 지각변동사진=뉴스1#. 20대 직장인 윤모 씨는 최근 이동통신사의 3년 약정이 끝나 알뜰폰 요금제로 바꿨다. 윤 씨는 "진작 갈아타고 싶었는데 위약금 때문에 그러질 못했다. 알뜰폰으로 통신비를 매달 3만원가량 아끼고 있다"며 "친구들도 알뜰폰을 꽤 쓴다. 월 3만원이면 데이터를 무제한으로 쓸 수 있어 주변에 추천하고 있다"고 말했다.경기 불황과 고물가 여파에 소비를 줄이는 '짠테크'가 유행하면서 알뜰폰이 각광을 받고 있다. '효도폰'이라 불리던 시절이 무색할 만큼 MZ세대(밀레니얼+Z세대)에서도 관심이 높아지는 모습이다. 알뜰폰의 달라진 입지에 이동통신 3사의 점유율에도 균열이 가고 있다. 18일 업계에 따르면 지난해 11월 기준 알뜰폰 통신사의 가입자 수는 1263만명으로 전년 대비 200만개가 증가했다. 통신 3사의 증가분을 합한 수치보다 30만개 이상 많은 수치다. 이 중 알뜰폰 휴대전화 회선 수만 120만개 이상 늘었다. 고물가·고금리에 통신비 부담을 느낀 소비자들이 알뜰폰으로 갈아탄 것으로 풀이된다. 알뜰폰 이용자는 꾸준히 증가하고 있다. 2010년 9월 도입된 뒤 2015년 가입자 500만명을 넘어섰고, 2021년 말 1000만명을 돌파했다. 이후 8개월여 만에 1200만명대로 올라섰다. 올해는 가입자 1300만명 돌파가 유력시된다. 정부의 알뜰폰 시장 활성화 정책으로 힘을 받을 전망이다. 알뜰폰의 요금 경쟁력을 강화하는 것이 주요 골자다.먼저 알뜰폰 사업자들이 통신사에 지급하는 도매대가(망사용료)를 최대 20% 인하하기로 했다. 통신사의 요금제를 재판매할 때 지급하는 수익배분 대가율도 최대 2%포인트 인하한다. 이렇게 되면 지난해보다 10~20%가량 낮은 알뜰폰 요금제가 나올 수 있다. 서울의 한 휴대폰 판매 매장에 붙어있는 통신 3사 로고.(사진=뉴스1)이와 함께 △이동통신 3사 선불폰 신규가입 중단 및 단계적 철수 △알뜰폰사에 데이터 QoS(기본 데이터 소진 시 속도제어 데이터 무제한 제공) 신규 도매 제공 △제휴카드 확대 등이 알뜰폰 활성화 대책에 포함됐다.금융사의 알뜰폰 사업 진출도 호재다. 토스는 이달 말 알뜰폰 서비스 '토스 모바일'을 출시한다. 5가지 정도 요금제와 함께 기존 토스 서비스와 연계한 혜택이 있을 것으로 전망된다. 앞서 KB국민은행도 'KB리브엠'으로 알뜰폰 가입자 30만명을 모으면서 상당한 반향을 불러일으켰다.알뜰폰 업계 관계자는 "알뜰폰의 가장 큰 장점은 저렴한 요금제다. 도매대가 인하로 작년보다 저렴한 요금제를 출시할 수 있는 여력이 커졌다"면서 "알뜰폰 시장은 꾸준히 성장할 것"이라고 말했다.알뜰폰의 잇따른 약진에 이동통신업계에는 긴장감이 돈다. 알뜰폰이 입지를 넓히는 만큼 이통3사의 점유율이 줄어드는 탓이다.도입 첫해 0.8% 불과했던 알뜰폰 점유율은 지난해 11월 16.4%까지 늘었다. 알뜰폰의 입지가 커진 반면 통신 3사의 점유율은 줄었다. 작년 11월 이동전화 회선 가입자(기타회선 제외) 점유율은 SK텔레콤 40.2%, KT 22.4%, LG유플러스 20.7%다. 이통업계 1위 사업자인 SK텔레콤은 2021년까지 41%대 점유율을 유지했지만 지난해 40%대로 떨어졌고, 올해는 40% 아래로 내려갈 공산이 커졌다. SK텔레콤은 1996년 이후 26년간 40% 이상 점유율을 유지해 왔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2023.01.24.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>은행들, 코인거래소 실명계좌제휴 경쟁 '후끈'</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005078521?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>빗썸, 3월에 농협과 계약종료카뱅 등 인터넷은행들 눈독자금세탁방지능력이 변수인터넷은행과 가상자산거래소(코인거래소)의 합종연횡이 심상치 않다. 오는 3월로 예정된 국내 2위 가상자산거래소 빗썸과 NH농협은행의 실명 확인 입출금계좌 계약 만료가 한 달여 앞으로 다가오면서 또 다른 인터넷은행의 가상자산 시장 진출이 이뤄질지에 관심이 모아지고 있다.24일 금융업계에 따르면 빗썸은 여러 은행을 후보로 두고 실명 계좌 계약 업체를 물색하고 있다. 이 중 최우선 목표로 공들이고 있는 곳은 카카오뱅크다. 카카오뱅크가 지난해 11월 코인원과 제휴해 가상자산거래소에 진입하면서 '카뱅 효과'를 입증했다. 카카오뱅크와 제휴에 성공한 코인원은 카카오뱅크를 통한 입출금 서비스를 시작한 이후 7일 동안 평균 신규 가입자 수가 사전등록 기간에 비해 177.48% 늘었다. 업계에서는 코빗을 비롯한 원화마켓거래소가 제휴 은행을 토스뱅크로 전환하길 희망한다는 얘기도 나온다.관건은 암묵적으로 존재하는 '1거래소-1은행' 규칙이다. 금융당국은 은행의 자금세탁방지(AML) 능력을 고려해 '1거래소-1은행' 체제가 적합하다고 판단하고 있다.2020년 업비트와 제휴한 케이뱅크가 외형적으론 큰 성장을 이뤘지만 AML 능력이 미흡했던 점도 금융당국의 이 같은 우려를 키우고 있다. 케이뱅크는 2021년 10월 금융감독원에서 AML 운영 체계가 미흡하다는 진단을 받고 금감원과 AML 이행약정(MOU)을 체결했다. 금융당국 관계자는 "최근 가상자산거래소와 제휴하려는 중소형 은행들이 AML 능력을 충분히 갖췄는지 의문"이라며 "카카오뱅크는 지난해 11월 코인원과 제휴하고 2개월밖에 안돼 당국 입장에서는 AML 능력을 관찰할 시간이 필요하다"고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2023.01.27.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>[단독] 토스모바일 요금제 4종 베일 벗었다…"최대 1만원 캐시백"</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002280894?sid=105</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>2만4천800원~5만9천800원...약 7천곳 가맹점서 토스포인트 사용 가능토스 운영사인 비바리퍼블리카가 이달 30일 알뜰폰 브랜드 '토스모바일'을 내놓을 예정인 가운데, 새 요금제의 윤곽이 확인됐다.27일 업계에 따르면, 토스모바일은 총 4종의 요금제다. ▲캐시백 100GB(5만9천800원) ▲캐시백 71GB(5만4천800원) ▲캐시백 15GB(3만5천800원) ▲데이터 7GB(2만4천800원) 등이다. 데이터 7GB를 제외한 요금제는 데이터 사용량에 따른 캐시백을 제공하는 게 특징이다.각 요금제에 따라 세부적인 차이는 있지만 10GB 미만을 사용할 경우 소비자는 1만원 상당의 토스포인트를, 20~30GB 미만을 사용할 경우 5천원 상당의 토스포인트를, 40~70GB 미만을 사용할 경우 2천원 상당의 토스포인트를 받을 수 있다. 또 행사 기간에 가입할 경우 3개월 간 1만~2만원 요금 할인이 주어진다.토스모바일 요금제또 이번 요금제에는 토스모바일 사용자가 '토스페이'를 사용할 경우 사용금액의 10%(최대 5천원)를 돌려주는 내용도 담겼다. 아울러 토스모바일 가입자는 캐시백으로 받은 토스포인트를 현금화하는 것도 가능하다.비바리퍼블리카 측은 무신사 등 7천여곳의 가맹점에서 토스포인트를 사용할 수 있다고 설명했다.토스모바일은 토스와 금융적인 연계는 크지 않을 것이라고 선을 그었다. 이 회사 관계자는 "망 도매대가 이하 요금제를 구성하거나 과도한 경품을 지급하는 등 과도한 출혈 경쟁은 지양할 계획"이라고 밝혔다.실제로 토스모바일이 선보이는 요금제는 최소 2만4천원대에서 최대 5만9천원대로, 타 알뜰폰 기업의 요금제와 크게 다르지 않다. 토스모바일은 24시간 고객센터를 운영하고, 토스 앱 내에서 가입이 가능하도록 꾸리는 등 토스만의 경험을 강화해 승부를 보겠다는 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2023.01.31.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>빅테크 ‘후불결제’ 늘고 연체율 급등</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002097042?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>토스 후불결제 150만명 넘어서연체율 네이버 2%·토스는 3%↑고금리시대 리스크 관리 지원을토스의 후불결제(BNPL) 연체율이 3%를 훌쩍 넘은 것으로 나타났다. 네이버파이낸셜(네이버페이)도 2%를 넘어서며 빅테크 BNPL의 건전성 관리가 시급하다는 지적이다. 업계는 신용카드사 등 다른 금융업권처럼 빅테크의 후불결제도 리스크 관리를 할 수 있도록 형평을 맞추는 금융당국의 정책적 지원이 필요하다는 입장이다.31일 헤럴드경제가 강병원 더불어민주당 의원실을 통해 금융감독원으로부터 확보한 빅테크 후불결제 현황에 따르면 지난해 12월 토스의 후불결제 누적가입자 수는 153만7010명으로 집계됐다. 같은 기간 네이버파이낸셜은 66만341명을 기록했다. 토스가 후불결제 서비스를 운영한 지 5개월여 만에 네이버파이낸셜(네이버페이) 후불결제 이용자를 뛰어 넘은데 이어 이용자 수 추이에서도 두 배 이상 네이버파이낸셜을 따돌린 것이다.후불결제는 일단 구매 후에 나중에 지급을 청산할 수 있는 외상 거래 서비스다. 신용카드와 비슷하지만 고객별 결제 한도 산정방식에 차이가 있다. 신용카드사는 금융정보를 중심으로 결제 한도를 부여하는 반면, 빅테크의 후불결제는 금융거래 정보가 없는 신파일러(금융 이력 부족자)도 이용 가능하다. 토스와 네이버페이는 월 최대 30만원 한도로, 카카오페이는 후불교통카드를 통해 후불결제 서비스를 도입 중이다.최근 은행의 높은 대출금리, 물가상승 등으로 서민의 ‘돈 줄’이 마르자 토스와 네이버파이낸셜의 후불결제 월간 이용금액도 상승세를 이어갔다. 지난해 9월 106억6000만원이던 네이버파이낸셜의 후불결제 월간 이용금액은 12월 143억1400만원으로, 토스는 226억4900만원에서 305억3300만원으로 각각 34%씩 증가했다.문제는 연체율이다. 지난 해 8월 말 기준 1%대이던 각사의 연체율이 2~3%대로 급증한 것이다. 특히 토스의 후불결제 연체율은 지난해 8월 1.15%에서 12월 3.48%로 233bp(1bp=0.01%포인트) 급증했다. 네이버파이낸셜은 같은기간 2.14%로 4개월만에 66bp 증가했다.청년·주부 등 신용이 부족한 신파일러 이용이 급증하자 연체율도 함께 급등하는 현상이 나타나는 것이다. 특히 고금리 기조에 서민들의 이자 부담이 늘어나고 물가 상승으로 소비를 감당하기 어려워진 영향이 빅테크 후불결제까지 덮친 것으로 풀이된다.토스 관계자는 “일정 기간 연체 금액을 연체율 계산에서 제외(상각처리)하는 카드사와 달리, 혁신금융서비스로 제공하는 후불결제는 기간에 관계없이 상환전까지 계속 연체율에 포함되기 때문에 단순비교가 어렵다”고 설명했다.빅테크 측은 후불결제 연체정보를 다른 금융회사와 공유할 수 없고, 또 후불결제를 연체해도 개인신용평가에 전혀 반영이 되지 않기 때문에 연체율 관리를 위한 두 손발이 꽁꽁 묶여있다는 입장이다.앞서 금융당국은 2021년 네이버파이낸셜, 비바리퍼블리카(토스 운영사), 카카오페이를 혁신금융으로 지정 당시 부가조건을 통해 “CB사(개인신용조회회사)에 제공되는 후불결제 연체정보를 제3자(금융회사 등)와 공유를 제한하고 후불결제 연체내역이 CB사의 개인신용평가에 반영되지 않도록 할 것”이라고 제한했다. 이에 빅테크 후불결제 연체자들의 연체정보는 다른 금융사로 전해지지 않고, 또 후불결제 연체 중에도 신용점수에 지장 없이 금융생활이 영위 가능하다.한 핀테크 관계자는 “제도적 불균형 속에서 신용카드와 후불결제의 연체율을 단순 비교해 그 리스크를 지적하는 것은 논리적 모순”이라며 “핀테크사들의 후불결제 연체율에 대한 지적 이전에 타 금융업권 리스크 관리 체계와 형평을 맞추는 금융당국의 정책적 지원이 선행돼야 할 것으로 보인다”고 말했다. 홍승희 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2023.01.20.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>농협금융, 고객중심 초일류 금융지주 도약 강조</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002677093?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>이석준 NH농협금융지주 회장이 19일 경기 고양 소재 NH인재원에서 열린 '2023 신년 경영전략회의'를 주재하고 있다.ⓒNH농협금융지주[데일리안 = 부광우 기자] NH농협금융지주는 지난 19일 경기 고양 소재 NH인재원에서 '2023 신년 경영전략회의'를 개최했다고 20일 밝혔다..이날 회의는 이석준 회장 주재로 개최된 첫 경영전략회의다. 이 회장과 계열사 최고경영자, 전 집행간부 및 주요 부서장 등 약 80여명이 참석해 우수자회사 및 농협금융인상을 시상하고, 올해 그룹 경영전략과 변화혁신 방향을 공유하는 자리를 가졌다.이 회장은 "지난 한 해 불확실한 대내외 여건 속에서도 농협금융이 소기의 경영성과 및 미래성장기반을 확충할 수 있었던 것은 농협금융 임직원 모두가 하나 되어 노력한 결과"라며 격려했다.특히 회의 참석자 전원은 고객과의 소통, 디지털 혁신, 시너지 확대 등을 주제로 자율 토론을 실시해 농협금융을 초일류 회사로 성장시키기 위한 방안을 심도 있게 고민했다.또 외부 특강 순서에서 이승건 비바리퍼블리카(토스) 대표는 향후 디지털금융의 방향성과 중요성에 대해 강의했고, 업계에 혁신을 불러온 금융 빅테크 기업의 DNA를 농협금융에 공유함으로써 참석자들의 큰 관심을 이끌었다.마지막으로 이 회장은 전 계열사와 소통의 시간을 가진 자리에서 "각자가 맡고 있는 업무부터 1등이 되면, 그러한 1등이 모이고 모여 농협금융이 초일류 금융지주가 될 수 있다"고 강조했다.이어 "끊임없이 고민하고, 과감하며, 속도감 있게 실행해야만 우리의 목표를 달성할 수 있다"며 "세계 최초의 금융서비스로 세상을 놀라게 하고, 상생의 가치로 고객을 감동시키자"고 당부했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2023.01.20.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>예금금리 하락세보다 더딘 대출금리 인하, 전달 예대금리차 더 벌어져</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005410280?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>12월 17개 은행 예대금리차, 11곳이 전월대비 커져가계예대금리차는 13곳 확대, 전북·토스 등 순 높아은행들 “단기 현상”, 코픽스 발표 후 대출금리 하락세[이데일리 이명철 기자] 지난달 대출금리보다 예금금리의 인하폭이 더 커지면서 은행들의 예대금리차(대출금리-저축성수신금리)가 더 벌어졌다. 은행 입장에서는 고객에게 줘야 하는 예금 이자보다 대출을 통해 거둬들이는 이자가 더 많아지는 셈이다. 다만 최근 코픽스(COFIX·자금조달비용지수)가 하향 전환하고 금융당국의 압박이 이어지고 있어 대출금리 또한 하향 추세를 보일 것으로 예상된다.지난 12일 서울 한 은행 대출창구에서 직원이 업무를 보고 있다. (사진=연합뉴스)20일 전국은행연합회 공시에 따르면 지난해 12월 기준 씨티은행과 산업은행을 제외한 17개 은행 중 11곳의 정책서민금융 제외 가계예대금리차 전월대비 확대됐다. 주택담보대출 등 대출금리와 예·적금 같은 저축성수신금리간 격차가 더 벌어졌다는 것이다.전월대비 예대금리차가 확대된 은행은 지난해 10월 1곳에 그쳤다가 11월 9곳, 12월 11곳 등 등 점차 늘고 있다. 이는 예금금리가 내려가는 추세인 반면 대출금리는 아직까지 높은 수준을 유지하고 있기 때문으로 풀이된다. 실제 지난달 저축성수신금리가 전월보다 하락한 곳은 17곳 중 9곳이었던 반면 대출금리는 7곳만 내렸다.5대 은행 중 예대금리차는 KB국민은행이 0.61%포인트, 하나은행 0.69%포인트로 전월대비 각각 0.2%포인트, 0.04%포인트 확대됐다. NH농협은행은 0.94%포인트, 우리은행 0.77%포인트, 신한은행 0.63%포인트로 전월대비 각각 0.52%포인트, 0.02%포인트, 0.09%포인트 하락했다.지방·외국계은행은 광주은행(0.29%포인트)·전북은행(0.29%포인트)·제주은행(0.15%포인트)·DGB대구은행(0.02%포인트)·BNK부산은행(0.02%포인트) 등이 확대됐다. SC제일은행(-0.41%포인트)·BNK경남은행(-0.19%포인트)는 예대금리차가 줄었다.인터넷은행의 경우 케이뱅크와 카카오뱅크가 0.19%포인트, 0.17%포인트 확대됐고 토스뱅크는 0.13%포인트 줄었다.가계대출금리에서 저축성수신금리를 뺀 가계예대금리차는 전월과 비교해 13곳이 확대됐다. 전북은행이 6.90%포인트로 가장 높았고 이어 토스뱅크(5.48%포인트), 광주은행(4.99%포인트), 케이뱅크(2.47%포인트) 등 순이다.5대 은행 중에선 우리은행이 1.30%포인트, 농협은행 1.00%포인트, 신한은행 0.91%포인트, 하나은행 0.85%포인트, 국민은행 0.65%포인트 등 순으로 높았다. 우리은행은 예대금리차가 컸던 이유에 대해 상대적으로 대출금리가 높은 햇살론15(연 15.9%) 취급액이 전월보다 크게 늘었기 때문이라고 설명했다.은행들의 예대금리차가 확대되면서 순이자마진(NIM) 등 이익은 늘어날 것으로 예상된다. 소비자들은 은행들이 ‘이자 장사’를 한다며 대출금리 인하를 요구하기도 했다. 금융당국도 은행들이 대출금리를 더 조정할 여력이 있다면서 인하를 압박하는 상황이다.이에 대해 은행연측은 최근 예대금리차가 확대되는 이유는 시장금리가 하락하는 과정에서 예금과 대출의 만기 구조 차이에 따라 빚어진 단기적인 현상이라고 설명한 바 있다. 이후 지난 16일 공시한 지난달 신규취급액 기준 코픽스가 4.29%로 전월대비 하락해 대출금리도 하향 추세를 나타내고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2023.01.29.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>[뉴스잇(IT)쥬]中해커에 뚫린 홈피 12곳…'갤럭시 언팩' 리뷰 유출 소동</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006599844?sid=105</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>中해커 조직 '샤오치잉' 국내 정부기관 홈피 공격토스모바일, 30일 알뜰폰 요금제 신규 서비스 출시해킹 공격을 당한 한국학부모학회 홈페이지.(서울=뉴스1) 남해인 기자 = 지난 설 연휴 기간인 22일쯤 중국 국적으로 추정되는 해커 조직 '샤오치잉(Xiaoqiying)'은 자신들의 텔레그램 채널에 대한건설정책연구원 홈페이지를 해킹한 사실과 24~25일쯤 12개 기관 홈페이지를 해킹한 사실을 공개했다. 이들은 총 2000여개 홈페이지를 해킹하겠다고 예고한 상태라 추가 공격을 감행할지 이목이 쏠린다.삼성전자의 스마트폰 신제품 공개 행사인 '갤럭시 언팩'이 3년 만에 대면으로 열린다. 행사는 코앞으로 다가왔지만, '갤럭시S23'에 대한 기대감이 정점을 찍을 시점에 찬물이 끼얹어졌다. 주요 스펙부터 언박싱 영상까지 대부분의 정보가 '언팩(unpacked)' 된 탓이다. 토스 자회사 토스모바일이 알뜰폰 시장에 출사표를 던지면서 조금 더 저렴하게 통신비를 사용하고자 하는 소비자들의 관심도 높아지고 있다. 업계 안팎에서는 지난 2019년 KB리브엠을 선보인 국민은행 등 연이은 금융사의 진출로 중소 알뜰폰 사업자들이 긴장하는 모양새다.◇中해커 정부기관 홈피 12곳 공격…추가 공격 예고중국 해커 조직 '샤오치잉'(Xiaoqiying)은 지난 24일 텔레그램 채널에서 "한국에 있는 여러 스트리밍 스타들이 날 화나게 했다(Some streaming stars in Korea annoy me)"는 메시지를 공개했다. 자신들이 중국 정부의 배후가 아님을 강조하며 한국 기관 홈페이지를 집중 공격한 배경을 이같이 밝혔다.구체적으로 △대한건설정책연구원△우리말학회 △한국고고학회 △한국학부모학회 △한국교원대학교 유아교육연구소 △한국보건기초의학회 △한국사회과수업학회 △한국동서정신과학회 △대한구순구개열학회 △한국시각장애교육재활학회 △제주대학교 교육과학연구소 △한국교육원리학회 등 12개 홈페이지가 해킹을 당한 것으로 확인됐다.아울러 25일 이들은 텔레그램 채널에 "작업을 시작한다(Start Work)"는 메시지를 남겨 공격을 지속할 것을 암시했다. 팀원을 모집하는 공지를 올리며 이력서를 제출할 주소를 공개하기도 했다. 또한 이들은 26일 '텅 스네이크', '제네시스 데이'와 같은 다른 조직과 '공동행동'을 선언한다고 메시지를 공개했다.보안업계는 이 해커 조직이 홈페이지를 변조하는 일명 '디페이스 해킹'을 펼쳤다는 점에서 이같은 발언은 '관심끌기'에 불과하다고 본다. 추가 피해 가능성이 예상되는 상황이지만 디페이스는 초보적인 해킹 수법이라 영향력은 크지 않을 것으로 업계는 분석한다. 한편 KISA는 홈페이지 공격을 받은 모든 기관과 연락 후 대응 조치에 나섰다. 과학기술정보통신부 역시 이와 관련 비상대응체제를 유지하고 있다. 이종호 과학기술정보통신부 장관도 전날 KISA 인터넷침해대응센터를 방문해, 사이버 공격 대응 현황과 비상대응 체계를 긴급 점검한 바 있다.'갤럭시S23 울트라' 언박싱 유출 영상 (테크드로이더 유튜브 갈무리)◇3년 만에 열리는 대면 '갤럭시 언팩'…리뷰 영상 유출 소동도삼성전자는 한국 시간으로 2월2일 오전 3시 '갤럭시 언팩 2023'을 열고 갤럭시S23 시리즈를 발표할 예정이다. 이번 행사는 3년 만에 미국 샌프란시스코(현지기준 1일 오전 10시)에서 대면으로 열린다.3년 만의 대규모 언팩 행사가 열리자 삼성전자도 홍보에 열을 올리고 있다. 물방울 모양 카메라를 강조한 초대장과 티저 영상을 통해 갤럭시S23에 대한 기대감을 키웠다.그런데 지난 27일쯤 플래그십 모델 언박싱 영상이 유출됐다. 상세 스펙은 물론 제품을 박스에서 뜯고, 실기 제품을 리뷰하는 내용이었다. 유출된 정보에 따르면 이번 갤럭시S23 시리즈는 전작과 마찬가지로 일반 모델, 플러스(+), 울트라 모델 등 3종으로 출시된다.한편 이번 행사 장면은 삼성전자 홈페이지 등을 통해 온라인 생중계될 예정이다.고물가·고금리 시대에 돌입하면서 통신비 절약을 위한 알뜰폰 사용자가 늘어나고 있다. 지난 20일 한국통신사업자연합회에 따르면 지난달 알뜰폰 신규 가입자수는 15만8093명으로 전달 대비 8.4%가량 증가했다. 사진은 21일 서울 시내에 위치한 알뜰폰 스퀘어 매장 모습. 2022.6.21/뉴스1 ⓒ News1 임세영 기자◇토스모바일, 알뜰폰 시장에 출사표...'짠테크족' 들썩28일 통신업계에 따르면 토스의 통신 자회사 '토스모바일'은 오는 30일 신규 서비스 출시를 앞두고 사전 신청을 받고 있다. 토스모바일은 총 4가지 요금제를 출시할 예정이며 요금제는 서비스 오픈 시점에 공개할 방침이다. 토스가 출시 예정인 요금제에는 '알뜰족'을 위한 저렴한 요금제부터 데이터를 무제한으로 사용하는 이용자를 위한 데이터 무제한 요금제 등이 포함될 예정이다.토스는 미사용 데이터 캐시백, 토스페이 연계 캐시백 등의 서비스를 내놓는다는 방침이다. 토스모바일은 미사용 데이터가 있을 경우 이를 토스 포인트로 제공하는 서비스를 준비 중이다. 또한 토스 알뜰폰 요금제 사용자에게 토스로 결제한 금액의 최대 10%를 포인트로 돌려줄 예정이다.한편 그간 중소 알뜰폰 사업자들은 금융사의 알뜰폰 시장 진출에 반대 목소리를 높여왔다. 한국알뜰폰통신사업자협회, 전국이동통신유통협회(KMDA) 등은 금융사가 도매대가 인하의 요금제를 출시하는 등 출혈 경쟁을 유도한다는 이유로 시장 진출에 반대했다.반면 토스의 진출로 알뜰폰 가입자 수가 1300만명을 돌파할 수 있다는 기대감도 나온다. 과기정통부 통계에 따르면 지난해 11월 기준 국내 알뜰폰 가입자 수는 1263만8700여명에 달했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2023.01.16.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>“대중교통비부터 난임시술비·기부 공제 확대”</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/382/0001027829?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>‘13월의 월급’ 연말정산 스타트 작년 하반기 대중교통 공제율 80%↑신용카드 소비증가분, 20% 공제가능임신·출산 의료비 공제율 상향 눈길무주택 세대주 월세액 공제도 확대‘13월의 월급’으로 불리는 연말정산 시즌이 돌아오면서 올해 달라지는 연말정산 제도에 이목이 쏠리고 있다. 간편인증 PASS를 이용해 연말정산 본인인증을 하고 있는 모습. 사진제공｜SK텔레콤‘13월의 월급’으로 불리는 직장인 근로소득 연말정산을 위한 간소화 서비스가 15일 개통한 가운데, 올해 달라지는 연말정산 제도에 관심이 쏠리고 있다. 생계비 부담 완화, 기부문화 활성화, 임신·출산 지원, 주거 부담 경감 등을 위한 공제 확대가 특징이다.●신용카드·전통시장 소비증가분, 추가 공제  먼저 생계비 부담 완화의 경우, 지난해 7월부터 12월까지 지출한 대중교통 이용금액에 대한 소득공제율이 기존 40%에서 80%로 한시적으로 상향된다. 소득공제는 과세 대상 소득을 줄이는 조치로, 총급여에서 소득공제를 뺀 수치가 과세표준이다. 신용카드 소비증가분에 대한 소득공제에 전통시장 사용금액 소비증가분도 포함된다. 소비증가분이란 지난해 사용금액이 전년 대비 5% 초과해 증가한 금액을 말한다. 신용카드 등 소비증가분과 전통시장 소비증가분은 각 20%의 소득공제가 가능하다. 이를 합한 금액에 대해 100만 원 한도로 추가 공제를 받을 수 있다. 단 형제자매는 부양가족으로 등록한 경우에도 신용카드 사용액을 공제받을 수 없으며, 맞벌이 부부는 자녀의 신용카드 사용액을 중복으로 공제받을 수 없다. 아울러 지난해에 이어 기부금 세액공제율 한시 상향을 연장해 적용한다. 세액공제는 세금 자체를 줄이는 공제로, 산출세액에서 세액공제를 제하면 납부해야 할 세금 액수가 나온다. 2022년에 낸 기부금 중 1000만 원 이하 금액은 20%, 1000만 원을 초과하는 금액은 35%의 세액공제를 받을 수 있다. 하지만 100만 원을 초과한 직계존·비속의 기부금은 공제대상이 아니다. 또 정치자금 기부금과 우리사주조합 기부금은 근로자 본인이 지출한 기부금만 공제 받을 수 있다.●간편인증, 총 11종 운영 저출산 해결을 위한 임신·출산 지원 의료비 공제율 상향도 눈에 띈다. 난임시술비 세액 공제가 기존 20%에서 30%로 상향된다. 미숙아와 선천성이상아를 위해 지출한 의료비도 기존 15%에서 20%로 세액공제율이 확대된다.  다만 형제자매가 부모님의 의료비를 나눠 공제 받을 수 없다. 또 미용 및 성형수술 비용, 건강 증진을 위한 의약품 구입비용, 사내근로복지기금이나 실손의료보험금을 지급받은 의료비, 외국 의료기관에 지출한 의료비는 공제 대상에서 제외된다. 주거 부담 경감을 위해 무주택 세대주인 근로자가 주택을 임차하기 위해 차입한 자금의 소득공제 한도를 기존 300만 원에서 400만 원으로 확대했다. 또 월세액 세액공제 범위를 확대했다. 총급여 7000만 원 이하의 무주택 근로자가 지출하는 월세액에 대한 세액공제율이 종전 10% 또는 12%에서 15% 또는 17%로 상향됐다. 다만 월세 공제를 신청한 근로자와 임대차 계약서상 계약자가 동일하지 않으면 혜택을 받을 수 없다.  이밖에도 지난해 도입한 간소화 자료를 회사에 직접 제공하는 일괄 제공 서비스도 유지한다. 회사가 14일까지 신청한 경우에 한하며, 근로자는 홈텍스에서 일괄 제공하는 회사와 제공자료 범위 등을 19일까지 확인하고 동의해야 한다. 간편인증(민간인증서)도 기존 7종(카카오톡, 통신사 PASS, 삼성패스, KB국민은행, 페이코, 네이버, 신한은행)에 더해 4종(토스, 하나은행, NH농협은행, 뱅크샐러드)을 추가했다.  장애인 연말정산 자료는 보건복지부와 국가보훈처에서 수집한 장애인 증명자료를 간소화 자료로 제공한다. 다만 상시적으로 치료가 필요한 중증환자는 간소화 자료를 제공하지 않아 의료기관에서 발행하는 장애인 증명서를 제출해야 한다. 정정욱 기자 jjay@donga.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2023.01.16.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>돌아온 연말정산 시즌…신용카드 공제 확대 등 달라진 점은?</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003961053?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>'13월의 월급'으로 불리는 연말정산 시즌이 돌아왔다. 올해는 신용카드와 대중교통 공제는 더욱 확대되고, 전세대출 원리금 소득공제와 월세·기부금 세액공제도 늘어난다. 지난해 지출 내역을 꼼꼼히 챙긴다면 쌈짓돈을 챙길 수 있는 만큼 올해 달라진 제도 등을 알아둘 필요가 있다.국세청은 15일 홈택스에서 연말정산 간소화 서비스를 시작했다. 지난해와 마찬가지로 근로자가 PDF 파일을 출력해 회사에 직접 제출하지 않아도 되는 등 연말정산 절차가 비교적 간단하다. 근로자는 오는 19일까지 홈택스에 접속해 제공 자료 범위 등을 확인하고 '동의' 버튼을 누르면 된다. 만일 개인정보 보호를 위해 근로자가 회사에 제공하고 싶지 않은 자료가 있다면 해당 자료를 삭제하면 된다. 회사는 동의 절차를 마친 근로자의 간소화 자료를 21일부터 순차적으로 내려받을 수 있다. 올해 연말정산에선 서비스 간편인증(민간인증서) 절차가 지난해보다 확대됐다.기존 인증 7종(카카오톡, 통신사PASS, 삼성패스, KB국민은행, 페이코, 네이버, 신한은행)에 토스, 하나은행, NH농협은행, 뱅크샐러드 등 4종이 추가됐다. 이용자는 총 11종의 간편인증을 활용할 수 있게 됐다. 보건복지부와 국가보훈처에서 수집한 장애인 증명자료도 간소화 자료로 제공된다. 월세를 신용카드로 납부한 경우에는 국세청이 카드사로부터 신용카드로 결제한 월세액 자료를 수집해 제공하는 간소화 자료를 이용할 수 있다.또 신용카드 사용액과 대중교통 지출액에 대한 공제가 더욱 확대된다.세법 개정안에 따르면 지난해 신용카드 사용액과 전통시장 사용액이 그 전해인 2021년보다 5% 넘게 증가한 경우 100만원 한도에서 추가 소득공제를 받을 수 있다. 신용카드와 전통시장 소비 증가분은 각각 20%의 소득공제를 받을 수 있다. 지난해(10%)보다 2배 늘어났다.다만 형제자매를 부양가족으로 등록한 경우 신용카드 등 사용금액을 공제받을 수 없다. 맞벌이 부부의 경우에도 자녀의 신용카드 사용액을 중복으로 공제받을 수 없다.대중교통 이용 금액 소득공제는 2022년 7~12월 이용분에 한해 공제율이 40%에서 80%로 올라간다. 버스와 지하철, KTX, SRT 등이 해당되고, 택시와 비행기는 제외된다.무주택자에 대한 내용도 달라졌다.무주택 근로자가 주택을 임차하기 위해 차입한 자금의 공제한도는 기존 300만원에서 400만원으로 올라간다.총 급여 5500만원 초과 7000만원 이하 무주택 근로자가 지출하는 월세의 세액공제율은 10%에서 15%로 상향 조정된다. 총 급여 5500만원 이하 근로자는 12%에서 17%로 상향된다. 월세액 세액공제를 신청한 근로자와 임대차계약서 계약자가 동일하지 않으면 공제대상에 해당하지 않는다. 근로자 본인 또는 세대원이 2022년 12월 31일 기준 주택을 보유했다면 지난해 지출한 월세액에 대한 세액공제를 적용받을 수 없다.의료비 세액공제 중 난임 시술비는 20%에서 30%로, 미숙아·선천성 이상아를 위해 지출한 의료비는 15%에서 20%로 세액공제율이 상향된다.다만 보험사에서 보전받은 의료비 등은 공제 대상에서 제외된다. 근로자가 직접 지출한 의료비만 공제되기 때문이다.이밖에 지난해 낸 기부금에 대해서 1000만원 이하의 금액은 20%, 1000만원을 초과하는 금액은 35%의 세액공제를 받을 수 있다. 소득 금액이 100만원을 초과한 직계존·비속의 기부금은 공제대상이 아니다. 정치자금 기부금과 우리사주조합 기부금은 근로자 본인이 지출한 기부금만 공제 받을 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2023.01.25.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>넥슨 '블루 아카이브', 日 매출 1위 "서브컬처 본고장도 반했다"</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004843555?sid=105</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>/사진=넥슨게임즈넥슨게임즈의 '블루 아카이브'가 서브컬처 게임 본고장인 일본에서 매출 1위에 오르는 등 흥행돌풍을 이어가고 있다. 넥슨게임즈는 블루 아카이브가 25일 일본 애플 앱스토어 실시간 최고매출 1위를 기록했다고 이날 밝혔다. 지난 22일 진행된 일본 서비스 2주년 기념 생방송은 최고 시청자수가 6만6000명을 기록, 일본 트위터 트렌드 1위를 차지했다. 넥슨게임즈 MX스튜디오가 개발한 블루 아카이브는 2021년 2월 4일 일본에 출시됐다. 학원도시 '키보토스'에 부임한 선생님이 돼 학생 캐릭터와 미션을 수행하는 게임으로, 출시 3일 만에 구글·애플 앱스토어 인기 1위에 올랐다. OST·아트북 매진에 이어 일본 회원제 창작 그림 커뮤니티 '픽시브'에서도 블루 아카이브 2차 창작물이 12만건이나 쏟아질 정도로 일본 시장에 성공적으로 안착했다는 평가다. 블루 아카이브가 일본 애플 앱스토어 실시간 매출 1위에 올랐다. /사진=넥슨게임즈이같은 인기에 힘입어 블루 아카이브는 TV애니메이션으로 제작된다. 이미 애니메이션 프로모션 비디오(PV)가 공개될 때마다 높은 조회수를 기록했다. 넥슨게임즈는 "한국 서브컬처 게임이 세계 최대 규모의 일본 애니메이션 시장에 진출한 사례가 매우 드물다"라며 "이번 애니메이션 제작 발표는 블루 아카이브 IP 경쟁력을 보여준다"라고 강조했다. IP 다각화도 추진한다. 숏폼(짧은 동영상) 플랫폼 틱톡에서 블루 아카이브 음원과 앨범도 선보이고, 일본 대표 피규어 제조사 맥스팩토리와 협업해 메인 캐릭터 피규어를 선보일 예정이다. 일본 최대 굿즈 판매점 '애니메이트'에서 블루 아카이브 굿즈 판매도 준비한다. 세계 3대 눈 축제인 '삿포로 눈축제'에선 블루 아카이브 조각물을 공식적으로 제작·전시하기로 했다. 김용하 넥슨게임즈 MX스튜디오 총괄PD는 "2023년도 블루아카이브가 IP로서 꾸준히 자리매김 해나가는 모습 보여드리고자 한다"며 "게임 서비스는 물론, 게임 외적인 미디어 전개도 기대에 부응할 수 있도록 노력할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2023.01.20.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>토스, '가족 보안 알리미' 서비스 출시</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011653552?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]비바리퍼블리카(토스)의 '가족 보안 알리미 서비스' 이미지(사진=토스 제공)2023.01.20 photo@newsis.com *재판매 및 DB 금지[서울=뉴시스]한재혁 기자 = 비바리퍼블리카(토스)가 '가족 보안 알리미' 서비스를 출시했다고 20일 밝혔다. 이 서비스는 사기 의심거래를 탐지해 이용자가 설정한 가족에게 관련 알림을 보내주는 서비스다. 의심거래 발생 시 피해 발생 날짜와 금융 사고 유형이 토스 애플리케이션(앱) 알림 등을 통해 표시된다.또 계좌·카드 분실신고 등을 안내 받거나 토스 고객센터에 안심보상제를 신청할 수도 있다. 안심보상제는 명의 도용, 보이스피싱 등 금융 피해를 토스가 보상해 주는 제도다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2023.01.27.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>高금리 끝물인데…4%대 ‘1금융권’ 예금 남은곳은?</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000038857?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>1금융권, 4%금리 정기예금 희귀산업은행은 4.1% 예금 판매 중지난 11일 오후 서울 시내의 한 저축은행에 설치된 예·적금 금리 현황판. [연합뉴스][이코노미스트 김윤주 기자] 고금리 예금의 전성 시대가 사실상 끝물에 접어들었다. 지난해 말 5%를 넘었던 주요 시중은행의 정기예금 금리는 모두 3%대로 떨어졌다. 이 가운데 정책금융을 지원하는 산업은행이 여전히 4%대의 예금 상품을 판매하고 있어 눈길을 끈다.27일 은행연합회에 따르면 국민은행·신한은행·하나은행·우리은행 등 4대은행의 대표적인 정기예금 상품 금리는 모두 3%대다. 은행 상품별 12개월 만기 최고우대금리는 ▶하나은행 하나의정기예금 3.85% ▶우리은행 WON플러스 예금 3.79% ▶신한은행 쏠편한 정기예금 3.73% ▶국민은행 KB Star 정기예금 3.68% 등이다. 지난해 11월 5%까지 올랐던 은행의 정기예금 금리는 최근 한국은행의 기준금리 인상에도 역행하고 있다. 금융당국이 수신 경쟁 자제를 주문한데다가, 채권시장이 안정화되면서 은행채 금리가 하락한 영향이다. 이제 은행권에선 4%대 예금도 찾아보기 힘든 가운데, 산업은행은 연 4.1% 금리의 ‘KDB Hi(하이) 정기예금’을 판매 중이다. 이는 인터넷·스마트폰으로 편리하게 가입할 수 있는 온라인 전용 상품이다. 가입기간은 1년, 금액은 100만원 이상이다.또한 산업은행의 ‘KDB dream(드림) 정기예금’은 최고 연 4.0%의 금리를 제공한다. 이 상품의 가입기간은 6개월, 1년, 2년 등이며 영업점과 인터넷뱅킹, 스마트뱅킹을 통해 가입 가능하다. 가입금액은 100만원 이상이며, 가입기간 동안 두 번 분할인출할 수 있다. 특히 해당 상품은 전 은행 현금자동입출금기(CD·ATM) 출금 및 이체 수수료 면제서비스를 제공하는 것이 특징이다. 최근 저축은행권의 예금 금리도 낮아졌지만, 아직 4%대의 예금이 남아 있다. 저축은행중앙회 소비자포털에 따르면 이날 기준 저축은행의 1년 정기예금 평균금리는 4.82%다. 하지만 저축은행은 2금융권, 산업은행은 1금융권으로 금융소비자들이 1금융권을 선호하는 점을 감안하면 산업은행 수신상품의 경쟁력은 높다.이 외에도 산업은행의 수시입출금통장인 ‘KDB Hi 비대면 입출금통장’도 경쟁력 있는 금리를 내걸고 있다. 해당 상품의 금리는 최고 연 2.65%다. 이는 영업점 방문없이 가입 가능한 상품으로, 인터넷뱅킹·스마트폰뱅킹·폰뱅킹 및 자동화기기 이용 수수료를 우대한다.산업은행의 ‘KDB Hi 비대면 입출금통장’은 은행권 내 비교적 높은 금리를 제공하는 인터넷전문은행의 일부 입출금·파킹통장보다도 금리가 높다. 인터넷전문은행 중에선 토스뱅크의 ‘토스뱅크 통장’이 5000만원 초과 금액에 대해 연 4% 금리를 적용해 금리가 가장 높다. 단 5000만원 이하 금액은 연 2.3%를 적용한다. 케이뱅크의 ‘플러스박스’는 3억원 한도 내에서 연 3% 금리를, 카카오뱅크 ‘세이프박스’는 1억원 한도 내에서 연 2.6%를 제공한다. 인터넷전문은행들의 입출금·파킹통장이 높은 금리를 받기 위해선 예치금액 한도가 있는 것과 비교해, 산업은행의 입출금통장은 예치 한도 제한이 없는 점도 특징이다. 다만 산업은행 입출금통장은 1일 거래한도가 200만원이라는 조건이 있다. 산업은행 관계자는 “산업은행은 다른 시중은행과 비교해서 영업점이나 대면시설 등이 적어 고정비가 낮다”면서 “절감된 비용을 고객분들께 혜택으로 돌려드리는 차원”이라고 말했다. 다만 이 관계자는 “시장상황에 따라 추후 수신상품의 금리 조정이 있을 수 있다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2023.01.20.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>하락세 거듭하던 5대 은행 예대금리차...지난달 상승 반전</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000038474?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>12월 5대 은행 평균 예대금리차 0.94%p...전월비 0.06%p↑예적금리 상승세 마감하며 예대금리차 추이도 변화예대금리차 1위 우리은행 1.33%p5대 은행 로고 [연합뉴스][이코노미스트 김정훈 기자] 주요 시중은행의 지난해 12월 가계예대금리차가 전달 대비 상승했다. KB국민·신한·하나·우리·NH농협 등 5대 은행 중 지난달 예대금리차가 가장 큰 곳은 우리은행, 가장 낮은 곳은 KB국민은행으로 나타났다.20일 은행연합회 예대금리차 비교 공시에 따르면 신규 취급한 가계대출금리에서 저축성수신금리를 뺀 가계예대금리차는 5대 시중은행 중 NH농협은행을 제외하고 전달 대비 모두 상승했다. 우리은행은 전달 1.08%포인트에서 1.30%포인트로, 신한은행은 0.84%포인트에서 0.91%포인트로, 하나은행은 0.71%포인트에서 0.85%로, KB국민은행은 0.44%포인트에서 0.65%로 가계예대금리차가 상승했다. 농협은행만이 전달 1.33%포인트에서 1.00%포인트로 가계예대금리차가 하락했다.  5대 시중은행의 가계예대금리차는 지난해 7월 시작한 이후 꾸준히 하락세를 보여왔다. 하지만 지난달 예대금리차 공시 후 처음으로 다시 상승하며 변화가 찾아왔다. 지난달 5대 은행 평균 가계예대금리차는 0.88%포인트였지만 지난달 0.94%포인트로 0.06%포인트 상승했다. 이는 최근 예적금리 상승폭이 줄어들며 주요 은행 예대금리차 추이에도 변화가 생긴 것으로 풀이된다. 5대 은행 중 가계예대금리차는 우리은행이 1.30%포인트로 가장 높았고 이어 농협은행(1.00%포인트), 신한은행(0.91%포인트), 하나은행 (0.85%포인트), KB국민은행(0.65%포인트) 순이었다.인터넷전문은행 가운데 가계예대금리차가 가장 큰 곳은 토스뱅크(5.48%포인트)였으며 이어 케이뱅크는 2.47%포인트, 카카오뱅크는 1.83%포인트 등의 순이었다. 지방은행과 외국계·인터넷은행까지 포함해 공시된 19개 은행 가운데 가계예대금리차가 큰 곳은 전북은행(6.90%포인트)으로 나타났다. 5대 은행 중 정책서민금융을 제외한 가계예대금리차는 농협은행 0.94%포인트 우리은행 0.77%포인트, 신한은행 0.63%포인트, 하나은행 0.69%포인트, 국민은행 0.61%포인트 순으로 나타났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2023.01.18.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>"수집은 최소한만"…토스, 개인정보보호 원칙 공개</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005408480?sid=105</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>개인정보보호 홈페이지 신설하고개인정보 보호 기술과 원칙 공개[이데일리 임유경 기자] 모바일 금융 서비스 토스를 운영하는 비바리퍼블리카(이하 토스)는 토스의 개인정보 보호 활동을 한눈에 확인할 수 있는 개인정보 보호 홈페이지를 신설했다고 18일 밝혔다.토스의 개인정보 보호 홈페이지는 토스 앱 내 ‘홈’ 탭에서 화면 왼쪽 최상단에 위치한 토스 로고를 누르거나, 토스 공식 홈페이지 최하단의 ‘서비스’ 메뉴에서 ‘토스의 개인정보 보호’를 클릭하면 접속할 수 있다. 홈페이지 첫 화면에서는 개인정보 보호를 위한 5가지 핵심 원칙을 확인할 수 있다. 5가지 핵심원칙은 △기획은 치밀하게 △수집은 최소한만 △저장은 안전하게 △이용은 투명하게 △파기는 지체없이다.토스의 개인정보 처리방침은 별도의 메뉴로 구분했다. 개인정보가 어떻게 사용되는지 알기 쉽게 △개인정보 처리방침은 수집·이용 항목과 목적 △제3자 제공과 위탁 처리 △보유기간 및 파기 절차 △정보 주체의 권리 행사 범위 등으로 구성됐다. 이와 더불어 ‘토스 데이터보호 준법 자문위원회’의 활동 내용도 정리해 소개한다. 지난해 11월 출범한 자문위원회는 외부 전문가들로 구성돼 토스의 고객 데이터 처리 활동을 독립적으로 감시하고, 개선안을 권고하는 역할을 수행한다. 홈페이지에서는 자문위원회 구성원 소개와 토스팀과의 협업 과정, 자문위원회 회의록 등을 확인할 수 있다.임희진 토스 프라이버시 사일로 제품 책임자(PO)는 “토스의 쉽고 빠른 금융 서비스 뒤에는 고객 개인정보 보호를 위한 다양한 기술적, 정책적 노력이 있다는 것을 알리기 위해 개인정보 보호 홈페이지를 신설했다”라며 ”홈페이지를 통해 ‘토스 데이터보호 준법 자문위원회’에서 권고한 개선안들도 투명하게 공개하고, 고객과 소통하려는 노력을 이어가겠다”라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2023.01.26.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>470만명 끌어모은 토스증권, 흑자기조 이어갈까</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000038736?sid=101</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>핀테크 증권사 답게 직관적 MTS로 젊은 투자자들 흡수해외주식 덕에 3분기 흑자전환 성공…4분기엔 글쎄서학개미 열기 시들…“브로커리지 의존 탈피해야”토스증권 MTS앱 실행 화면. [사진 토스증권][이코노미스트 마켓in 김연서 기자] 지난해 3분기 흑자전환에 성공한 핀테크 증권사 토스증권이 4분기에도 흑자기조를 이어갔을 지 주목된다. 직관적인 모바일 트레이딩 시스템(MTS)으로 젊은 층을 흡수하며 이용자수는 계속 불려가는 모습이지만, 주요 수익원이었던 해외 주식 중개 부문이 녹록지 않았기 때문이다. 기관 영업 없이 오로지 개인 고객 수수료 수익에 의존하는 사업 구조가 토스증권의 아킬레스건으로 꼽힌다. 26일 금융투자업계에 따르면 토스증권은 지난해 3분기 기준 매출 492억원, 영업이익 22억원, 당기순이익 21억원을 기록했다. 토스증권이 분기 흑자를 달성한 건 회사 출범 후 1년 9개월 만에 처음이다. 매출은 492억원으로 직전 분기보다 30%, 지난해 같은 기간보다 1950% 증가했다.고객 수도 늘고 있다. 지난해 12월 말 기준 토스증권 고객 수는 470만명을 돌파했다. 2021년 3월 모바일트레이딩시스템(MTS) 서비스를 정식으로 오픈한 지 3개월 만에 350만 명이 계좌를 텄다. 이후 지난해 3월 420만 명에서 9월 450만 명으로 증가하는 등 꾸준히 신규 고객을 확보하고 있다. 월간활성이용자수(MAU)수도 200만명 이상을 꾸준히 유지했다.토스증권의 성장 비결로는 사용자 중심 MTS가 꼽힌다. 토스뱅크와 ‘원 앱’으로 사용이 가능한 데다 직관적인 UI·UX로 연령대를 불문하고 손쉽게 이용할 수 있다. 또한 앱 내에 ‘의견 보내기’를 운영해 지속적으로 고객 의견을 반영하고 있다. 토스증권이 지난 12월 한 달간 ‘의견 보내기’ 창구를 통해 고객 의견을 조사한 결과, 전체 의견 8000여 건 중 70%가 토스증권 서비스에 만족하는 것으로 나타났다. 쉽고 직관적인 서비스에 만족한다는 의견이 많았다. 사용자들은 “주식 거래 시 알아야 할 지식을 이해하기 쉽게 설명해 준다”. “UI가 직관적이어서 타 증권사 앱에 비해 빠르고 쉽게 사용할 수 있다”, “매수와 매도가 편하고 가볍게 접근할 수 있어 좋다”고 평가했다. 빠른 개발 능력과 해외 주식이 강점해외 주식은 토스증권이 고객을 끌어모은 핵심 전략 중 하나였다. 국내 주식과 동일하게 기존 고객과 신규 고객이 쉽게 이용할 수 있도록 힘썼다. 해외주식 종목명이 낯설 수 있는 투자자들을 위해 브랜드 및 키워드 검색 기능도 갖췄다. ‘구글’을 검색하면 구글을 서비스하는 ’알파벳’의 기업 정보는 물론, 해당 종목이 포함된 ETF(상장지수펀드), 관련 섹터(IT)의 종목, 최신 뉴스 등을 모두 한 페이지에서 확인할 수 있다. 덕분에 해외주식 서비스는 토스증권의 실적 효자로 자리매김했다. 지난해 토스증권 해외주식 서비스 매출은 전체의 30% 수준을 기록했다. 2022년 1분기만 해도 37억원에 불과했지만 3분기 130억원으로 세 배 이상 급증했다. 같은 기간 해외주식 거래대금도 6조2000억원에서 13조5000억원으로 뛰었다. 또 IT 기반 증권사인 만큼 개발 능력도 강점이다. 해외 주식 서비스 출시 이후 토스증권 딥러닝 전문가들은 ‘해외뉴스 인공지능(AI) 번역 엔진’을 자체 개발했다. 언어가 달라 제한됐던 해외주식 정보에 대한 양과 질을 높이기 위해서다. 토스증권 관계자는 “뉴스 번역에 대한 내부 논의 이후 바로 개발이 진행됐다”며 “빠른 개발로 바로 고객에게 번역 서비스를 제공할 수 있었다”고 설명했다.가파른 성장세에도 과제는 남아있다. 증시 부진과 경기 침체로 전통 증권사들도 영업이익 ‘1조’ 클럽 자리가 위태로운 가운데, 토스증권 수익 구조는 브로커리지(위탁매매) 수수료에 의존하고 있어서다. 전통 증권사들의 수익은 규모가 큰 IB(투자은행) 또는 기관 영업이 차지하고 있다. 리테일 비중이 큰 토스증권은 증시 위축의 직격탄을 맞을 수밖에 없는 구조다. 토스증권이 강점을 가진 해외 주식 투자 열기도 사그라들고 있다. 한국예탁결제원에 따르면 지난 18일 기준 예탁원을 통한 국내 투자자의 2022년 연말 외화증권 보관금액(766억9000만달러)이 전년(1005억9000만달러) 대비 23.8% 감소한 것으로 나타났다. 외화증권 결제금액 역시 3천755억3천만달러로 전년(4천907억1천만달러) 대비 23.5% 감소했다. 이에 토스증권이 해외 시장의 거래 규모 축소에 대비하지 않을 경우 역풍을 맞을 수도 있다는 우려섞인 목소리도 나온다.고객 경험에 집중했지만 고객 관련 잡음도 있었다. 지난해 토스증권은 수익률 표기 오류, 매입 단가 표기 오류, 거래 먹통, 환율 오류 등 수차례 시스템 오류가 발생해 홍역을 치렀다. 당시 토스증권은 내부 모니터링 시스템 강화 등을 통해 재발 방지를 약속했다. 하나은행과 ‘24시간 FX 거래를 위한 전략적 업무협약’을 체결하기도 했다. 브로커리지 수수료 의존과 수익구조 다각화 역시 토스증권이 앞으로 해결해야 하는 과제 중 하나일 것으로 보인다.토스증권은 앞으로 시장 상황에 상관없이 계획적이고 안정적인 투자를 진행할 수 있는 서비스를 출시하겠다는 계획이다. 이미 확보한 고객의 점유율 유지는 물론 주식 투자를 활발히 하고 있는 '프로' 투자자들의 요구도 충족하겠다는 목표다. 토스증권 관계자는 “타 증권사처럼 기관 영업, IB 등 증권업 전반에 대한 비즈니스적 확장은 고민하지 않고 있다”며 “초보 투자자부터 프로 투자자까지 투자자들이 시장 상황에 상관없이 계획적이고 안정적인 투자를 진행할 수 있는 서비스를 제공하고자 노력하고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2023.01.19.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>빗썸, NH농협은행 실명계좌 환승할까…차기 제휴 은행 물색</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006585308?sid=105</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>5년 간 이어온 실명계좌 제휴, 3월 만료…지난해 말부터 제휴 은행 논의'유력 후보'로 KB·카뱅 등 거론…불발 시 NH농협 재계약이 마지노선가상자산 가격이 연일 상승하고 있는 18일 서울 강남구 빗썸고객센터 전광판에 비트코인 등 주요 가상자산(암호화폐) 시세가 표시되고 있다.  2023.1.18/뉴스1 ⓒ News1 장수영 기자(서울=뉴스1) 박현영 기자 = 가상자산 거래소 빗썸이 오는 3월 만료되는 실명확인 입출금계정(실명계좌) 발급 계약 종료를 앞두고 NH농협은행과 이어온 실명계좌 제휴 중단을 검토하고 있다.18일 관련 업계에 따르면 현재 빗썸은 실명계좌 제휴 은행 변경을 적극적으로 검토하고 있다. 단, 한 곳과만 논의할 경우 협상이 불발될 리스크가 있으므로 2~3곳과 논의를 이어가는 중이다. ◇빗썸, NH농협은행서 '환승' 잰걸음…금융당국도 인지빗썸은 지난 2018년부터 5년 간 NH농협은행과 실명계좌 계약을 체결해왔다. 실명계좌를 확보해야 원화마켓을 운영할 수 있도록 한 특정금융정보법(특금법) 개정안이 시행된 이후에도 재계약에 성공하며 국내 2위 거래소 자리를 지켰다. 하지만 빗썸과 함께 NH농협은행과 제휴를 맺어왔던 코인원이 지난해 11월 카카오뱅크로 '환승'하면서 빗썸도 차기 제휴 은행을 적극 물색하기 시작했다. 지난 2021년 NH농협은행이 재계약 조건으로 '해외 거래소 화이트리스트' 등을 요구했던 점을 고려하면, 좀 더 열린 태도의 은행으로 옮겨가는 게 유리할 것이란 판단에서다. 해외 거래소 화이트리스트란 빗썸에서 특정 해외 거래소로의 송금만 허용하는 것을 의미한다.  금융당국 역시 빗썸의 제휴 은행 변경을 인지하고 있다. 금융당국 관계자는 "빗썸이 실명계좌 은행을 변경한다는 것에 대해선 들어본 바 있다"며 "변경해서 신고가 들어오면 담당 부처에서 파악할 예정이다. 구체적으로 어느 곳으로 변경하는지에 대해선 파악하고 있지 않다"고 말했다. 특금법 시행령 제10조의11 제2항에 따르면 '금융정보분석원장이 정하여 고시하는 사항'에 변동이 생기면 금융정보분석원(FIU)에 가상자산사업자 변경신고를 해야 한다. 해당 사항에는 '실명확인이 가능한 입출금 계정에 관한 정보'가 포함된다. 즉, 실명계좌 제휴 은행을 바꾸면 변경 사실을 금융당국에 신고해야 한다는 뜻이다. 당국은 빗썸이 이를 변경해 신고할 경우 검토하겠다는 입장이다.  ◇'유력 후보' KB국민·카뱅…NH 재계약이 '마지노선'현재 업계에서는 제휴 은행 유력 후보로 KB국민은행, 카카오뱅크 등이 거론되고 있다. 앞서 일각에서는 토스뱅크도 거론됐으나 협상에 큰 진전은 없었던 것으로 알려졌다. 이와 관련해 빗썸 관계자는 "은행 한 곳이랑만 논의를 하고 있지는 않다. 현재 거론되는 후보 은행들도 고려 대상이지만 특정 은행으로 확정되지는 않았다"고 설명했다. KB국민은행 측은 말을 아꼈다. 가상자산 거래소와의 제휴는 모든 은행들이 검토하고 있는 사안이므로 KB국민은행 역시 검토 중이나, 당장 제휴를 할 것인지는 확정되지 않았다는 입장이다. 특히 빗썸과 제휴하려면 NH농협은행과의 계약이 끝나는 3월 말부터 KB국민은행이 실명계좌 바통을 이어받아야 하는데, 이를 위한 전산 상 절차나 기술적 테스트는 진행되지 않은 것으로 전해졌다. 카카오뱅크는 이미 코인원과 제휴한 만큼 비교적 '오픈 마인드'라는 게 업계 관계자들의 전언이다. 다만 코인원과의 제휴로 얻은 효과가 아직까지는 미미한 탓에 지난해 말보다는 신중해졌다는 평가가 우세하다. 코인원 입장에서도 카카오뱅크와 제휴 후 오히려 거래량 점유율이 낮아진 것으로 파악된다.카카오뱅크 관계자는 "지난해 가상자산 거래소와의 제휴를 검토하며 빗썸에 대해서도 리서치한 것은 사실"이라면서도 "아직까지 밝힐 만한 진전이 있는 것은 아니다"라고 말을 아꼈다. 사안에 정통한 가상자산 업계 관계자는 "카카오뱅크는 일단 코인원과 제휴한 후 (실적 등에) 효과가 얼마나 있는지 지켜본 후 빗썸과의 제휴도 검토하려 했을 것"이라며 "(카카오뱅크가) 코인원과의 제휴 효과가 미미한 탓에 빗썸과의 논의에 신중해졌다는 관측이 많다"고 전했다. 만약 가장 유력한 두 후보와의 협상이 불발되면 빗썸은 NH농협은행과의 재계약으로 입장을 선회할 수밖에 없다. NH농협은행을 붙잡아두지 못할 경우 특금법에 따라 원화마켓을 운영할 수 없기 때문이다. 내부 사정에 정통한 또 다른 관계자는 "빗썸 측 선택지는 어느 정도 좁혀진 것으로 안다"면서도 "원화마켓을 중단할 순 없으므로 NH농협은행과의 재계약이 마지노선일 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2023.01.30.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>[페이대전]㊦ 떠오르는 BNPL, 과소비·연체율은 과제</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000725090?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>빅테크 3사 BNPL 이용액 300억 육박…카드사도 참전신종 코로나바이러스 감염증(코로나19) 확산으로 전자상거래 시장이 성장하면서 MZ세대를 중심으로 후불 결제(BNPL, Buy Now Pay Later) 서비스가 주목받는다.BNPL은 일단 구매 후 나중에 지급 청산할 수 있는 일종의 외상 거래 서비스다. 신용카드와 비슷하지만, 고객별 결제 한도 산정방식에 차이가 있다. 신용카드사는 금융정보(소득·신용점수 등)를 중심으로 결제 한도를 부여한다.결제 관련 이미지 [사진=아이뉴스24 DB]BNPL은 금융정보 이외 비금융 정보 등을 활용한 대안 신용평가를 통해 결제 한도를 정한다. 이 때문에 신파일러(금융 이력 부족자‧Thin Filer) 등 금융소외계층도 이용할 수 있다.국내에선 빅테크를 중심으로 관련 시장이 성장했다. 지난해 8월 기준 네이버파이낸셜, 카카오페이, 토스 3사의 BNPL 이용액은 281억8천만원으로 두 달 전인 상반기 이용액 규모 202억5천940만원보다 39% 증가했다.카드사들도 최근 BNPL 시장 경쟁에 뛰어들었다. 현대카드는 최근 온라인 패션플랫폼 무신사가 운영하는 플랫폼 '솔드아웃'을 통해 BNPL 서비스를 제공한다. 롯데카드는 베트남 현지 법인 '롯데 파이낸스 베트남'을 통해 BNPL 서비스 운영한다. KB국민카드는 사내 벤처 '하프 하프'에서 다날과 BNPL 서비스를 구축하고 있다.◆과소비·연체율 부작용…"연체 정보 허용해야"복잡한 신용·재정 심사 등의 절차가 없다 보니 이용자들의 과소비를 조장한다는 지적이 있다. 미국, 일본, 싱가포르 등 국내보다 앞서 해당 서비스를 도입한 국가에서도 BNPL 이용자들의 부채 심화 문제가 불거지기 시작했다.미국 소비자금융 보호국은 보고서를 통해 BNPL이 과소비를 유발할 수 있다고 경고했다. 싱가포르는 후불 결제사들이 이용자가 결제 기한을 지키지 않을 때 계좌를 정지시키는 등 고객이 과소비하지 않도록 안전장치를 마련하도록 했다.이용 회원 연체 정보 공유 제한으로 연체율 관리가 어렵다는 문제도 있다. 금융위는 BNPL 서비스를 혁신금융서비스로 지정하면서 부가 조건으로 연체 정보 공유를 제한했다.이용자 연체 정보를 신용평가사 신용평점에 반영하지 못하고, 회사 간 공유도 할 수 없다. 신파일러들이 금융 이용 기회를 제한당하지 않도록 하기 위해서다.하지만 다른 후불 결제사가 연체 사실을 인지할 수 없다는 것을 악용해 연체를 방치하는 등의 도덕적 해이를 조장한다는 부작용이 문제다.실제로 금감원에 따르면 지난해 8월 말 기준 후불 결제 서비스 연체율은 1% 중반까지 올라갔다. 카드사 연체율 0.87%의 두 배 수준이다.업계 관계자는 "갚을 능력이 있는 것으로 보지만 연체를 방치하는 사례가 발생하고 있다"며 "연체율 수준을 낮추고 적절히 관리하기 위해 연체 정보 공유의 정책적 허용이 필요하다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2023.01.30.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>[사설]디지털금융 혁신 경쟁은 이제부터</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003075306?sid=110</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>게티이미지뱅크5대 시중은행이 운용하는 디지털 뱅킹 앱의 월간활성사용자수(MAU)가 지난해 큰 폭으로 늘었다. 우리은행 '우리원뱅킹' MAU가 지난해 1~12월 사이 20% 이상(126만명) 증가, 가장 높은 성장률을 보였다. 기존 MAU가 가장 많은 KB국민은행의 'KB스타뱅킹'도 같은 기간 14%대의 높은 증가세를 유지했다. KB스타뱅킹은 지난해 말 시중은행 가운데 처음으로 MAU 1200만명을 달성했다. 신한은행 '신한쏠'도 지난해 꾸준히 MAU를 늘리며 곧 1000만명 고지를 밟을 것으로 보인다.이 같은 시중은행의 디지털전환은 토스나 카카오뱅크 같은 빅테크 계열의 신규 금융사가 가져온 외부 자극에서 시작됐다. 빅테크가 과거와는 다른 서비스와 상품을 내놓자 기존 시중은행 고객의 이탈이 현실화했다. 이에 자극받은 전통 금융사가 혁신을 시도하면서 빅테크에 빼앗긴 디지털 금융 고객을 빠르게 회복하고 있다. 지난해 본격 시행된 마이데이터(본인신용정보관리업)에 맞춰 다양한 서비스를 내놓은 것이 기폭제가 됐다.앞으로가 중요하다. 시중은행과 빅테크 간 경쟁은 이제 시작이다. 고객의 눈높이도 높아졌다. 초기에는 새로운 서비스라는 이유만으로도 사용자가 관심을 보였지만 이것만으로는 부족하다. 지금부터는 얼마나 많이 실제 혜택 제공과 안정성 및 편의성을 개선할 수 있는가에 따라 은행별 희비가 갈릴 것이다.지난해 시중은행이 디지털 금융 분야에서 가시적인 성과를 거뒀지만 향후에도 혁신의 고삐를 늦추지 말아야 하는 이유다. 디지털 금융 플랫폼의 주도권을 차지하기 위한 은행권의 지속적인 혁신 경쟁을 기대한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2023.01.22.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>"예금은 끝물"이라는데…설상여금·세뱃돈 어디에 넣을까</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006590526?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>저축은행권 4~5%대 예금 남아있어…하락기 대비해 만기는 길게투자처 물색 전 단기예치 원한다면 '파킹통장'도 대안ⓒ News1 윤주희 디자이너(서울=뉴스1) 한유주 기자 = 새해 들어 예금금리가 하락세를 지속하면서 설상여금과 세뱃돈을 굴릴 투자처를 고민하는 소비자들이 늘고 있다. 은행권 예금금리는 3~4%대로 떨어졌지만, 저축은행권으로 눈을 돌리면 5%대 정기예금도 상당히 남아있다. 하루만 맡겨도 금리를 주는 '파킹통장'도 인기다.22일 금융권에 따르면 5대 시중은행의 주요 정기예금 최고금리는 연 3~4%대로 떨어졌다. 시장금리가 하락하고 자금시장 불안을 우려한 금융당국이 예금금리 인상 자제를 은행권에 요청한 결과다. 금리가 급격히 올랐던 지난 추석과 달리 예금금리의 경쟁력이 떨어지자 소비자들은 고민에 빠졌다. 30대 회사원 김형석씨는 "작년부터 올해 설상여금을 받으면 예금에 넣어야겠다고 생각했는데 금리가 생각보다 너무 많이 떨어져서 고민이다"고 말했다.마땅한 투자처를 찾지 못한 소비자들이라면 아직 연 4~5대%의 금리를 제공하는 저축은행권 상품을 추천한다. 자금시장이 안정세를 찾으며 저축은행권도 예금금리가 많이 떨어진 상황이지만, 은행권과 비교하면 금리경쟁력이 있다. 주요 저축은행 중에서는 키움저축은행의 SB톡톡정기예금이 매달 10만원 이상을 납입해 가입기간 2년을 채우면 연 5%의 금리를 제공한다. 인터넷뱅킹(SB톡톡플러스) 전용 상품으로 비대면으로만 가입할 수 있다. NH저축은행의 비대면 정기예금도 우대조건 없이 1년 만기 시 연 5.20%를 제공한다. 13개월~3년으로 만기를 늘리면 4.30%의 금리를 약속한다. 모바일·인터넷에서 가입할 수 있는 비대면 전용상품으로, 매달 10만원 이상 납입할 수 있다. 상품을 고를 때는 금리 하락세를 대비해 만기가 긴 상품을 택하는 것이 유리할 수 있다. 지난해 금리급등기에 금리 인상분을 그때그때 반영할 수 있는 초단기 상품이 인기를 끌었던 것과 반대의 상황이다. 저축은행 예적금은 은행별로 원금과 이자를 합쳐 1인당 5000만원까지 예금자보호가 된다는 점도 기억해둘 필요가 있다.채권, 주식 등에 투자하기 전, 짧게 목돈을 유치하고 싶은 경우라면 '파킹통장'을 추천한다. 파킹통장은 짧은 기간 목돈을 넣어두고 언제든지 찾을 수 있는 통장을 말한다. 최근 들어 당국의 개입으로 수신금리를 쉽게 올릴 수 없는 금융사들이 고금리 파킹통장을 대안으로 내놓고 있어, 금리 면에서도 경쟁력을 갖추고 있다.저축은행 중에는 OK저축은행의 'OK읏백만통장Ⅱ'가 한도 100만원까지 최고금리 연 5.50%를 제공한다. 애큐온저축은행 '머니쪼개기'는 3000만원까지 약정금리 연 4.30%를 준다. 은행권에서도 SC제일은행의 '제일EZ통장'이 최고 4.10%의 금리를 제공한다. 일별 잔액에 2.6%의 기본금리를 제공하고, 첫 거래 고객에게 6개월간 1.5%p의 추가 우대금리를 제공하는 구조다. 인터넷은행 중에는 토스뱅크의 '토스뱅크 통장'이 5000만원 초과 예치금에 연 4%의 금리를 제공한다. 5000만원 이하는 연 2.30%의 금리가 적용된다. 케이뱅크의 '플러스박스'는 한도 3억원까지 연 3%를, 카카오뱅크의 '세이프박스'는 1억원까지 연 2.60%를 제공한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2023.01.20.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>"누가 이자장사 잘했나" 5대 은행 중 예대금리차 가장 큰 곳은?</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000888761?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>사진은 서울 종로구에 위치한 우리은행 지점./사진=뉴스1 지난달 5대 시중은행 가운데 가계대출과 예금의 금리차이가 가장 큰 곳은 우리은행으로 나타났다.20일 은행연합회 공시에 따르면 지난달 신규 취급액 기준 우리은행의 가계 예대금리차는 1.30%포인트로 5대 시중은행 중 가장 컸다.가계 예대금리차는 가계 대출금리에서 저축성수신금리를 뺀 수치다.이어 NH농협은행은 1.00%포인트, 신한은행은 0.91%포인트, 하나은행은 0.85%포인트, KB국민은행은 0.65%포인트로 나타났다.앞서 NH농협은행은 지난해 8월부터 11월까지 4개월 연속 5대 은행 중 가계 예대금리차가 가장 컸지만 지난달엔 우리은행에 이어 두번째로 높았다.우리은행 관계자는 "지난달 햇살론15(연 15.9%) 취급액이 1140억원으로 전월(530억원) 대비 두 배 이상 증가해 예대금리차가 크게 나왔다"며 "지난달 햇살론15 취급액이 다른 은행의 평균에 비해 720억원가량 많다"고 설명했다.인터넷전문은행에선 토스뱅크가 5.48%포인트로 가장 높았다. 이어 케이뱅크는 2.47%포인트, 카카오뱅크는 1.83%포인트 순으로 나타났다.지방은행과 외국계 은행을 포함한 공시 대상 19개 은행 중 가계 예대금리차가 가장 큰 곳은 전북은행으로 6.90%포인트로 나타났다.정책서민금융(햇살론뱅크, 햇살론15, 안전망 대출Ⅱ, 최저신용자 특례보증)을 제외한 가계 예대금리차는 5대 시중은행 중 농협은행이 0.94%포인트로 가장 컸다.이어 우리은행 0.77%포인트, 하나은행 0.69%포인트, 신한은행 0.63%포인트, 국민은행 0.61% 등의 순으로 집계됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2023.01.27.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>보험사들 초비상… 빅테크 보험서비스에 '단기·車·실손·저축' 넣는다</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000889966?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>네카오가 운영할 보험 비교 플랫폼에 단기보험 등 네가지 상품이 들어갈 전망이다./사진=뉴스1  금융당국이 추진하고 있는 네이버와 카카오, 토스 등 빅테크의 보험상품 비교·추천 서비스에 단기보험과 자동차보험, 실손의료보험, 저축성보험(연금보험 제외) 등 네 가지 상품이 포함될 전망이다. 장기보험은 상품구조가 복잡하고 고액이어서 불완전판매 가능성이 크다는 측면에서 제외했다.  27일 금융권에 따르면 금융위원회는 온라인플랫폼사의 보험상품 비교·추천 서비스에 단기보험(가입기간 1년 미만인 상품)과 자동차보험, 실손보험, 저축성보험 등 네 가지 상품을 1차적으로 포함시키는 것을 추진하고 있다. 저축성보험 중 하나인 연금보험 경우 설계사들의 판매 수수료에서 차지하는 비중이 높은 것으로 알려져 있는 만큼 설계사들의 생존권을 고려해 제외시켰다.  금융위원회가 해당 네 가지 상품을 선택한 것은 이들이 표준화돼 있거나 온라인 판매 비중이 높다고 판단했기 때문이다. 즉 다양한 상품을 비교한다는 온라인 플랫폼 서비스의 본래 취지를 살리면서 상품구조도 비교적 단순해 플랫폼으로 중개하는데 문제가 없는 상품을 고른 것이다.  표준화한 상품은 모든 보험사가 국가에서 정한 표준 약관을 적용하는 상품이다. 표준화한 상품에는 실손의료보험과 자동차보험이 해당된다. 온라인 판매 비중이 높은 상품 경우 온라인을 통해 비교가 수월하고 상품구조도 비교적 단순한 상품을 선정했다. 여기엔 단기보험과 저축성보험, 자동차보험 등이 해당된다. 이 가운데 자동차보험 경우 표준화한 상품과 온라인 판매 비중이 높은 상품 두 가지 모두 포함된다. 금융위원회는 온라인 플랫폼의 보험 비교·추천 서비스를 보험업법 법령 개정을 통해 바로 제도화를 하지 않고 우선 혁신금융서비스로 지정해 플랫폼의 보험상품 취급을 허용한다는 방침이다.   금융업계 관계자는 "제도화를 할 경우 상품 취급 범위를 바꾼다는 게 쉽지 않을 것"이라며 "플랫폼의 영향력과 시장충격 등을 고려해 혁신성이 인정되는 경우에 플랫폼의 보험상품 취급을 시범운영하고 운영경과를 충분히 봐가며 보험업법령 개정 등 제도화를 추진해야 할 것"이라고 설명했다. 금융위원회는 표준화한 상품과 CM상품을 우선 판매한 후 TM(텔레마케팅)용, 대면용까지 순차적으로 상품 범위를 늘려나갈 예정이다. 당초 금융위원회는 허용되는 보장범위 내에서 CM용, TM용, 대면용 상품 모두 취급할 계획이었다. 하지만 TM용 상품과 대면용 상품까지 한 번에 허용할 경우 설계사들의 생존권이 위협받을 것이라고 판단해 CM용 상품을 우선 취급할 수 있도록 했다.  금융위원회는 온라인 플랫폼들이 보험상품을 비교·추천하고 받는 수수료 경우 각 상품별로 다르게 책정하는 것을 추진하는 중이다. 현재 구체적인 수치는 정하지 않은 상황이지만 최대 3%가 유력한 것으로 알려져 있다. 그동안 보험사들이 주장해온 2~3%와 사실상 동일한 것이다. 보험사들은 네이버가 네이버쇼핑 등을 소상공인들에게 받는 수수료율인 2~3%를 보험 플랫폼에도 동일하게 적용해야 한다는 논리를 펼쳐왔다.  보험사들은 비대면 채널에서 수수료를 받지 않고 있는 상황에서 플랫폼을 통한 판매가 추가 될 경우 새로운 형태의 수수료가 생겨나고 이에 따른 비용이 보험료 인상으로 이어질 것을 우려하고 있다. 반면 빅테크들은 역마진 등을 우려해 최대 10%의 수수료율을 요구하고 있다.━보험 비교·추천서비스, 왜 뜨거운 감자? ━올 1분기 보험업계에서 뜨거운 감자로 다시 떠오르고 있는 보험 비교·추천 서비스는 온라인 금융플랫폼에서 여러 보험사의 상품을 비교하고 추천하는 것이다. 당초 금융위원회는 지난해 10월 중순부터 1개월여 동안 빅테크의 보험 비교·추천 서비스를 시범운영한 후 11월 말 제도화 할 예정이었다. 하지만 보험대리점과 보험사들의 거센 반발에 일정을 연기했다. 현재 보험업 라이선스가 없는 빅테크는 보험상품을 비교·추천할 수 없는데 이를 혁신 금융 서비스로 지정해 규제를 풀겠다는 것이다. 네이버와 카카오의 보험 비교·추천 서비스 진출은 대면 영업 위주인 보험시장의 비대면 영업 전환을 촉진시킬 가능성이 크다. 금융감독원의 '보험 모집채널별 판매현황'에 따르면 2021년 국내 생명보험사의 신계약 건수는 총 1396만건으로 이 중 85.7%(1197만건)가 대면 채널에서 이뤄졌다. 나머지 14.3%(199만건)가 비대면 채널을 통한 판매였다. 아직 설계사들이 소비자들을 직접 만나 다양한 보험상품을 소개·추천하고 계약을 체결하는 대면영업이 주를 이루고 있는 것이다.하지만 신종 코로나바이러스 감염증(코로나19) 사태 이후 비대면 영업이 활성화 되며 온라인 홈페이지나 모바일 애플리케이션(앱)을 통한 보험 비교·추천 서비스가 주목받고 있다. 특히 자동차보험의 경우 2021년 비대면 채널 신계약 체결 비중이 40.7%로 대면 채널(39.9%)을 0.8%포인트 앞지르는 등 비대면 채널을 통한 가입이 대세로 자리 잡았다. 이미 네이버와 카카오는 보험 비교·추천서비스 시행을 위한 채비를 마쳤다. 네이버는 자회사 NF보험서비스, 카카오는 자회사 카카오페이를 통해 각각 자동차보험료 비교 서비스를 위한 시스템을 구축했다. 보험업계 관계자는 "금융위원회는 가이드라인을 조속히 마련할 생각"이라며 "업계 이야기를 청취하고 있지만 실제로 답은 정해둔 상황"이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2023.01.22.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>초고수 서학개미들도 한결같은 레버리지 사랑…SQQQ 1등</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004147735?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>서학개미 수익률 상위 1000명 거래 종목 분석나스닥 하락 베팅 SQQQ 1등···TQQQ 2등한 해 동안 TQQQ·SOXL 순매수 규모 5.3조“레버리지 맞히기 쉽지 않아 접근 신중해야”[서울경제] 뉴욕증권거래소.연합뉴스서학개미들에게 잔혹한 한해였다. 나스닥이 한 해 동안 33% 하락하는 등 2008년 세계 금융위기 이후 최악의 성적표를 받아들였다. 3배 레버리지가 한 해 내내 순매수 상위권 종목을 차지한 만큼 서학개미들의 한숨이 커질 것이라는 우려가 깊어졌다. 하지만 오히려 서학개미 수익률 상위권이 자주 거래한 종목이 모두 레버리지 상품으로 드러났다. 22일 금융투자 업계에 따르면 토스증권을 통해 해외투자를 진행한 투자자 중 수익률 상위 1000명이 한 해 동안 가장 많이 거래한 종목은 ‘프로셰어즈 울트라프로 숏 QQQ ETF(SQQQ)’로 나타났다. SQQQ는 나스닥100 지수의 수익률을 역방향으로 3배 추종하는 상품이다.2~4위 모두 3배 레버리지 상품이 차지했다. ‘디렉시온 데일리 세미컨덕터 불 3X 셰어즈 ETF(SOXL)’가 2위에 올랐으며 나스닥100 지수의 상승에 베팅하는 프로셰어즈 울트라프로 QQQ ETF(TQQQ), ICE반도체지수의 하루 수익률을 반대로 3배 추종하는 ‘디렉시온 세미컨덕터 베어 3X ETF(SOXS)’가 뒤를 이었다.미국 증시가 녹아내리면서 투자자들의 수익률 우려가 깊어졌다. 하지만 오히려 서학개미들은 적극적인 단기 매매전략으로 수익률을 방어하는 것은 물론, 돈을 벌어들인 꼴이 됐다. 특히 수익률 상위권 투자자들이 가장 자주 거래한 종목이 SQQQ라는 점도 눈에 띈다. 지수 하락에 베팅하는 상품을 통해 하락장에서 수익률을 극대화한 셈이다. 이외에도 나스닥 상승에 베팅하는 TQQQ뿐 아니라 반도체 지수의 상승, 하락을 추종하는 상품들이 상위권에 오르면서 가치·장기투자가 아닌 단기투자 전략이 유효했던 것으로 나타났다.다만 레버리지 투자를 주의해야 한다는 것이 증권가의 중론이다. 단기적인 지수 및 경기 관측에 성공해 높은 수익률을 거둬들일 수도 있지만, 어긋났을 경우 큰 손실에 놓이기 때문이다. 실제 한국예탁결제원에 따르면 지난 한 해 동안 서학개미들의 순매수 상위 2위와 3위는 각각 TQQQ와 SOXL이었다. 모두 나스닥100지수와 ICE반도체지수의 상승을 추종하는 상품이다. 순매수 규모는 무려 43억 달러(5조 3000억 원)에 이른다. 나스닥과 반도체 업종이 일 년 내내 우하향한 만큼 상당수의 투자자들이 마이너스 수익률을 기록한 것으로 추측된다.한편 국내외 투자 난이도가 높아지면서 국내 투자자의 외화증권 보관금액이 크게 감소한 것으로 나타났다. 한국예탁결제원에 따르면 연말 기준 외화금액 보관 금액은 533억 7000만 달러로 집계됐다. 이는 2021년 말에 비해 28.9% 감소한 규모다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2023.01.17.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>이복현 금감원장, 금융권 CEO와 잇단 회동으로 소통 강화</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002676040?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>이복현 금융감독원장이 지난 16일 마포 프론트원에서 열린 가상자산 관련 금융리스크 점검 토론회에서 발언하고 있다.ⓒ금융감독원[데일리안 = 김재은 기자] 이복현 금융감독원장이 새해 들어 금융권 최고경영자(CEO)들과 만나며 시장과의 소통을 늘리고 있다.17일 연합뉴스 보도에 따르면 이 원장은 이날 오전 서울 플라자호텔에서 여신금융협회 주관으로 열리는 신년 조찬 간담회에 참석해 업계 CEO들을 만났다. 이날 회의에는 정태영 현대카드·현대커머셜 부회장을 비롯한 여신금융협회 회원사 대표 58명이 자리했다.이 원장은 이어 같은 날 시내 모처에서 윤호영 카카오뱅크 대표, 서호성 케이뱅크 행장, 홍민택 토스뱅크 대표 등 인터넷전문은행 CEO 3명과 오찬 간담회를 여는 것으로 알려졌다.앞서 지난 13일에는 기관전용 사모펀드 운용사 대표들과 간담회를 열기도했다. 이 원장은 간담회에서 기업 구조조정에서 사모펀드가 주도적인 역할을 해달라고 당부하기도 했다.한편 이밖에도 이번 주 중 이 원장과 다른 금융업계 CEO들과의 간담회 일정도 예정된 것으로 전해졌다.금융권에선 시장과의 만남을 늘리는 행보가 불확실성이 커진 현 금융 상황과 관련있다고 보고있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2023.01.16.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>금융위 "제2금융권, 신규대출 중단 지양해야"</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005205784?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>저축은행·여신전문업체·대부업체 등 신규대출 문 닫아 저소득·저신용자, 불법 사금융 내몰릴 우려금융위 사무처장 "2금융권, 어려워도 서민 금융창구 역할 지속해야"코로나19 유행이 좀처럼 잡히지 않고 있는 29일 서울 종로구 인사동 거리에 대부업체들의 불법대출 명함형 전단이 널브러져 있다. /문호남 기자 munonam@금융당국은 제2금융권이 최근 중·저신용자를 대상으로 한 대출을 줄인 것에 관해 "어려운 환경에서도 서민금융창구의 역할을 지속해달라"며 ""리스크 관리나 수익성 악화를 이유로 신규 대출을 중단하는 등 시장 여건 변화에 따른 위험부담을 금융소비자에게 모두 전가하는 행태는 지양되어야 한다"고 했다. 이세훈 금융위원회 사무처장은 16일 '서민금융 현황 점검 회의'를 통해 "저축은행, 여신전문금융사, 대부업체 등 서민금융기관의 적극적인 서민금융 지원 역할이 중요하다"고 강조했다. 이어 "최근 시중금리 상승으로 서민·취약계층의 금융부담이 가중되고 금융 접근성이 위축되는 상황"이라며 "국민들 금융애로 완화를 위해 전 금융권의 전향적인 노력이 필요한 때"라고 했다.금융당국이 대출 공급을 줄이지 말라고 당부하고 나선 건 제2금융권이 법정최고금리 등을 이유로 작년 4분기부터 대출을 축소해왔기 때문이다. 이로 인해 금융 취약층이 불법 사금융으로 내몰린다는 우려가 커졌다. 이 처장은 "최근 서민금융진흥원 보증료를 낮추면서 금융권의 취급금리는 높이는 등 조치가 시행된 만큼 금융권의 더욱 적극적인 협조가 필요하다"며 "취약계층이 불법사금융으로 밀려나지 않도록 최저 신용자 특례보증 확대 공급, 긴급생계비 소액대출 신규 출시 등도 추진할 방침"이라고 밝혔다.금융당국이 공개한 금융업권별 가계대출 현황을 보면 여신전문회사는 작년 11월 가계대출이 전월 대비 1조원 줄었고, 12월에는 전월 대비 감소 폭이 1조6000억원으로 늘었다. 저축은행도 작년 11월 가계대출이 1000억원 감소한 데 이어 12월엔 5000억원 감소했다. 대부업 상위 10개사 가계대출도 작년 11월 630억원, 12월 421억원 줄었다. 한편 금융위는 정책서민금융상품은 새해 들어 공급 규모가 정상화되고 있다고 평가했다. 작년 11∼12월 중 공급이 감소했었다.금융위는 "서민금융진흥원 보증에도 불구하고 조달금리 상승에 따른 수익성 저하로 저축은행을 중심으로 근로자 햇살론 등 일부 정책서민금융상품 취급을 축소했다"고 밝혔다. 하지만 새해 들어 대출 한도가 확대되고 서민금융상품을 취급하는 금융회사의 취급금리를 1%포인트 안팎으로 올리면서 공급 규모가 다시 증가하는 기조를 보인다. 서민금융 대출상품인 '근로자 햇살론'의 하루평균 공급액은 작년 12월 100억원에 그쳤으나, 새해 들어서는 11일까지 하루평균 142억원까지 늘어났다. 이날 회의에선 정책서민금융 자금공급 실적에 대한 점검도 이뤄졌다. 작년 정책서민금융 공급 규모는 전년보다 1조1000억원 늘어난 9조8000억원(잠정치)으로 역대 최대치를 기록했다. 인터넷 전문은행의 중·저신용자 대상 대출 비중은 작년 말 기준 3개사(카카오뱅크·케이뱅크·토스뱅크) 모두 25% 이상을 달성했다. 은행들은 이 비율을 올해 연말까지 30% 위로 끌어올린다는 계획을 세웠다.중저신용자를 대상으로 한 중금리대출은 작년 3분기까지 누적 공급액이 총 22조8000억원으로 집계됐다. 전년도 연간 공급액(21조6000억원)을 넘어선 수치다. 반면 은행권 자체 재원으로 공급되는 새희망홀씨 대출의 경우 작년 1∼11월 공급액이 2조1천800억원으로 전년도 한 해 공급액(3조1천700억원)에 못 미치는 것으로 나타났다.  이날 서민금융 현황 점검회의에는 금융위원회 외 금융감독원, 서민금융진흥원, 서민금융 관련 금융협회 관계자들이 참석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2023.01.18.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Z세대 사로잡은 'CU 현금충전'…이용건수 4달 만에 4배 폭증</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003254175?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>CU현금충전서비스. 사진 CU           ‘CU현금 충전 서비스’의 이용 건수가 출시 4달 만에 4배 넘게 폭증하는 등 10대 청소년들 사이에서 높은 인기를 끌고 있다.      CU는 고객 결제 편의를 돕는 해당 서비스가 Z세대 간편결제 니즈를 충족하면서 폭발적인 인기를 끌고 있다고 18일 밝혔다.        CU 현금 충전 서비스는 선불 전자지갑 형태로 CU에서 현금을 내고 카드나 바코드로 사용할 수 있는 금액을 충전하는 서비스다. 모바일 앱 바코드를 통해 충전하기 때문에 스마트폰만 있으면 누구나 이용할 수 있다.      충전한 돈은 인터넷 쇼핑을 할 때 바로 온라인에서 사용할 수 있다. 실물 카드나 앱 바코드를 이용해 오프라인 점포에서도 결제가 가능하다.      CU가 현재 운영 중인 현금 충전 서비스는 SEND·네이버페이·KB국민 리브 Next·신한 제페토카드·토스머니 등 총 5종이다.      CU 현금 충전 서비스는 주로 현금으로 용돈을 받아 사용하는 10대 고객들 사이에서 현금 보관의 번거로움이 없고 자유롭게 온∙오프라인 쇼핑을 할 수 있다는 이점이 주목받고 있다고 CU는 설명했다.      지난달 해당 서비스의 전체 이용 건수는 시행 첫 달인 2021년 8월보다 437.1%나 증가했다. 이용 연령을 7세까지 확대한 토스머니 충전 서비스는 지난달 론칭 반년 만에 14배 규모로 늘었다.        CU가 그간 현금 충전 서비스를 살펴본 결과 추석 명절이 있었던 작년 9월에 이용 건수가 전월에 비해 48.4% 증가하면서 큰 폭으로 성장한 것으로 나타났다.      CU가 단독 운영 중인 Z세대 타깃 상품 3종 이용 건수는 전월 대비 77.6% 증가했다. 충전 금액은 2배나 높게 나타났다. 청소년 고객들이 명절 기간 받은 용돈을 편리하게 이용하기 위해 CU 현금 충전 서비스를 사용한 것으로 분석된다.        BGF리테일 관계자는 “Z세대 고객 결제 편의성을 돕기 위해 다양한 제휴사와 함께 현금 충전 서비스를 제공하고 있다”며 “CU는 앞으로도 다양한 형태의 서비스 제휴 및 개발을 통해 업계 트렌드를 이끌겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2023.01.18.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>토스, 개인정보 보호 홈페이지 신설</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011648983?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]비바리퍼블리카(토스)의 개인정보 보호 5대 원칙 이미지(사진=토스 제공)2023.01.18 photo@newsis.com *재판매 및 DB 금지[서울=뉴시스]한재혁 기자 = 비바리퍼블리카(토스)는 개인정보 보호 홈페이지를 신설했다고 18일 밝혔다.이 홈페이지는 토스의 개인정보 보호 5대 원칙과 '토스 데이터보호 준법 자문위원회'의 정기 권고 및 개선사항, 개인정보 처리 방침 등으로 구성됐다.먼저 홈페이지 내에선 토스 개인정보 보호 5대 원칙 내용을 확인할 수 있다.개인정보 처리방침은 수집·이용 항목과 목적, 제3자 제공과 위탁 처리, 보유기간 및 파기 절차, 정보 주체의 권리 행사 범위 등의 내용이 포함됐다.또 토스 데이터보호 준법 자문위원회의 회의록도 조회할 수 있다. 해당 위원회는 지난해 11월 출범해 외부 전문가들로 구성됐다. 현재는 토스의 고객 데이터 처리 활동의 독립적 감시와 개선안 권고 등의 역할을 맡고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2023.01.20.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>토스모바일, 1월 말 출시 확정…알뜰폰 업계 기대 반 우려 반</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002280351?sid=105</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>토스 앱 내부에서 가입 가능…금융상품 연계 없어토스 운영사인 비바리퍼블리카가 알뜰폰 브랜드 '토스모바일'의 출시를 1월 마지막주로 확정했다. 업계에서는 시중은행인 KB국민은행에 이어 인터넷전문은행 토스까지 알뜰폰 업계에 뛰어들며, 업계에는 기대와 우려가 교차하고 있다.20일 업계에 따르면, 비바리퍼블리카는 토스모바일의 구체적인 서비스 내용을 확정하고 1월 말 출격을 준비 중이다. 토스 앱 내부에서 알뜰폰 가입이 가능하며, 요금제는 5종 안팎이 될 전망이다. 최근 비바리퍼블리카가 토스 이용자를 대상으로 한 요금제 선호도 조사 결과를 토대로 한다.비바리퍼블리카는 지난해 알뜰폰 업체 머천드코리아를 인수하며 알뜰폰 사업에 뛰어들었다. 당초 지난해 9월 토스모바일을 런칭할 계획이었으나 서비스 고도화를 위해 일정을 뒤로 늦췄다. 비바리퍼블리카는 초반에는 토스 앱 이용자를 대상으로 알뜰폰 서비스를 진행하고, 추후 타깃을 다른 방향으로 확장한다는 구상이다.비바리퍼블리카는 과도한 출혈 경쟁은 없을 거라고 선을 그었다. 비바리퍼블리카 관계자는 "망 도매대가 이하의 요금제를 구성하거나 과도한 경품을 지급하는 등 지나친 마케팅은 지양할 계획"이라고 밝혔다. 금융상품과의 연계에 대해서도 "아직은 고려하고 있지 않다"고 말했다.비바리퍼블리카는 머천드코리아를 인수하는 과정에서 인력을 조정하지 않았다. 이승훈 머천드코리아 대표도 계속 대표직을 유지하고 있다. 머천드코리아가 기존에 주력으로 삼던 선불폰 사업을 이어가되, 토스 앱을 통한 후불폰 중심의 사업을 강화한다는 계획이다.다만 요금제는 기존 머천드코리아 서비스와는 상당 부분 차이가 있을 전망이다. 비바리퍼블리카 관계자는 "요금제 구성을 심플하게 가져가되 토스만이 제공할 수 있는 상품으로 꾸렸다"며 "앱 내에서 간편하게 가입하는 등 소비자경험(UX)에 중점을 뒀다"고 설명했다.토스모바일은 SK텔레콤, KT, LG유플러스 등 통신 3사 망을 모두 사용할 계획이다. 유심칩은 100% 배송되는 형태로 서비스를 시작한다.토스는 왜 알뜰폰 사업에 진출하려고 할까업계는 비바리퍼블리카가 알뜰폰 시장 진출을 통해 통신상품과 금융상품을 결합해 가입자 이탈을 막는 '락인효과'를 극대화할 수 있을 것으로 보고 있다. 또한 통신 데이터를 확보해 마이데이터 시대에 대비하고, 신용평가도 고도화할 수 있을 것으로 보고 있다.앞서 KB국민은행도 2019년 혁신금융서비스를 승인받고 알뜰폰 서비스 '리브엠'을 선보였다. KB국민은행은 리브엠을 토대로 통신과 금융을 결합해 양쪽으로 소비자를 확보하고 있다. KB국민은행을 주거래 은행으로 사용하거나, 카드 실적이 있는 경우 통신요금을 할인해주는 식이다. 리브엠은 서비스 출시 2년 만에 가입자수 35만명을 돌파하는 등 빠르게 성장했다.비바리퍼블리카는 현재 토스와 토스모바일의 연계 상품을 검토하지는 않고 있다는 입장이다. 다만 토스 앱 내부에서 토스모바일 가입이 가능한 만큼, 추후 어떤 방식으로든 연계될 가능성이 있다는 지적이 나온다. 알뜰폰 업계 한 관계자는 "토스가 2030 사이에서 높은 인지도를 가지고 있는 만큼 금융상품과 알뜰폰을 연계하면 강력한 경쟁력을 갖게 될 것"이라고 말했다.금융업계 한 관계자는 "모두가 휴대폰을 사용하는 세상에서 통신 데이터만큼 신용평가 대안 정보로 활용하기 좋은 데이터가 없다"며 "요금제 종류, 통신비 연체 여부 등을 활용하면 신용평가를 고도화할 수 있다"고 설명했다.토스의 알뜰폰 진출에 엇갈리는 반응비바리퍼블리카의 알뜰폰 진출을 두고 업계 반응은 엇갈리고 있다. 2030 소비자를 다수 확보한 토스가 알뜰폰 업계에 뛰어들면 알뜰폰 시장 전체의 파이가 커질 거라는 의견과, 경쟁 심화로 중소 알뜰폰 사업자들은 더 힘들어질 거라는 전망이 나뉜다.알뜰폰 업계 한 관계자는 "알뜰폰은 시장 자체가 작은 편이라 비바리퍼블리카가 들어와 메기 역할을 한다면 시장이 활성화될 수 있을 것 같다"며 "토스모바일로 유입된 알뜰폰 가입자들이 언젠가 다른 회사 서비스로 옮겨갈 수 있으므로 2030 유인책이 늘어난다는 측면에서 기대된다"고 말했다.과도한 출혈 경쟁이 우려된다는 목소리도 있었다. 업계 다른 관계자는 "인지도와 자본 측면에서 중소사업자들과는 다른 선상에서 사업을 시작하는 만큼 공정한 경쟁 자체가 불가능하게 될 것"이라며 "비바리퍼블리카가 과도한 출혈 마케팅을 하지 못하도록 막을 수 있는 방안이 필요하다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2023.01.21.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>78% “경제적 불안에도 해외여행 떠난다”…조금이라도 아끼려면</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000038493?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>10명 중 8명이 올해 해외여행 계획토스뱅크카드, 해외 결제 시 3% 캐시백국내 혜택 ‘쏠쏠’ 매일 최대 3500원 환급지난달 12일 인천국제공항 1터미널 입국장 모습. [연합뉴스][이코노미스트 김윤주 기자] 지난 21일부터 24일까지 4일 동안의 설 연휴 기간, 해외 여행객이 늘어날 것으로 보인다. 해외 여행지에서 활용하면 더욱 좋은 토스뱅크의 체크카드 혜택이 눈길을 끈다. 21일 여행업계 등에 따르면 한국인 10명 중 8명은 올해 해외여행을 희망하는 것으로 나타났다. 이는 글로벌 온라인여행사(OTA) ‘클룩’이 지난해 말 발표한 2023년 여행 트렌드 설문 조사 결과다.이 조사에서 응답자들 중 78%는 ‘경제적 불안에도 해외여행을 희망한다’고 답했다. 또한 한국인의 35%는 2023년 2회 이상의 해외여행을 계획하는 것으로 나타났다. 특히 설 연휴 기간은 해외여행의 적기로, 이번 연휴에 해외 여행객이 많을 것으로 전망된다.이 가운데 해외 여행지에서 더욱 빛을 발하는 체크카드가 있어 관심이 집중된다. 토스뱅크는 체크카드인 ‘토스뱅크카드’의 해외 결제 혜택이 고객들에게 유용하다고 소개했다. 이 카드로 해외에서 결제하면 금액의 3%가 캐시백된다. 캐시백 금액과 결제 횟수는 ‘무제한’이다. 토스뱅크는 코로나19 사태 이후 사회적 거리두기 완화와 해외결제금액 증가라는 소비 트렌드를 반영해 이 같은 혜택을 제공하고 있다. 또한 토스뱅크는 은행에서 부과하는 해외 ATM 수수료 3달러도 면제한다. 다만 현지 매입사 ATM 출금 수수료는 부과될 수 있다. 해당 카드는 원화 결제 시 즉시 알림 기능으로 편의성을 높였고, 연회비는 없으며 발급 수수료 2000원도 면제된다.토스뱅크의 체크카드인 ‘토스뱅크카드’. [토스뱅크 홈페이지 캡처]이외에도 토스뱅크카드는 국내에서 사용 시 매일 최대 3500원까지 캐시백 혜택을 받을 수 있다는 점도 장점이다. 이 카드를 통해 ▶커피 ▶편의점 ▶택시 ▶패스트푸드 ▶대중교통 ▶영화 ▶디저트 등 총 7개 영역에서 혜택을 받을 수 있다. 전월 실적 조건이 없고, 월 환산 시 최대 10만8500원의 캐시백 혜택을 누릴 수 있다. 토스뱅크 관계자는 “설 연휴 해외여행을 가는 고객이라면 3% 캐시백 혜택이 쏠쏠할 것 같다”면서 “체크카드에 대한 고객들의 경험을 혁신하고 최고의 상품을 제안해 고객들의 기대와 호응에 보답해 나가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2023.01.29.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>박완주 의원 "알뜰폰 가입자 폭증 이유? IoT 회선 증가 때문"</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006599612?sid=105</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>알뜰폰 가입자수 2019→2022년 63% 증가…IoT는 518% 늘어이통3사 알뜰폰 가입자 54% 늘 때 대기업 등 162% 증가(자료=박완주 의원실)(서울=뉴스1) 정은지 기자 = 알뜰폰 가입자 폭증 배경이 IoT(사물인터넷) 가입자 증가에 기인한 것이라는 분석이 나왔다. 이는 알뜰폰 가입자수 증가에 따른 통신 3사의 점유율 하락이 사실이 아니라는 것을 보여준다. 29일 박완주 의원실(무소속)이 과기부로부터 제출받은 자료에 따르면,지난해 알뜰폰 가입자수는 전년 대비 22% 증가한 1273만8794명으로 집계됐다. 2019년의 774만9516명과 비교했을 때 63%가 늘어난 것이다. 알뜰폰 가입자가 급증한 것은 IoT 회선수가 크게 늘어났기 때문이다. 지난해 IoT 회선수는 543만2514명으로 지난 2019년(87만9287명) 대비 518% 늘었다. 같은 기간 알뜰폰 핸드폰 회선 가입자수는 684만7956명에서 720만6280명으로 5% 증가하는 데 그친 것과 대조된다. 이런 가운데 지난해 이통3사 자회사의 알뜰폰 핸드폰 회선 가입자 수 365만404명으로 지난 2019년(236만9553명) 대비 54% 늘었다. 같은 기간 대기업·빅테크 군의 가입자 수도 국민은행 알뜰폰 사업의 영향으로 무려 162% 증가했다. 반면 우체국사업자를 포함한 중소·중견 사업자의 핸드폰 회선 가입자 수는 동기 대비 약 30% 감소했다. 박완주 의원은 "알뜰폰 제도 도입 13년 차를 맞았지만, 도매제공의무·대가산정방식·소비자 보호조치 의무 등 여러 쟁점에 대해 과기정통부가 교통정리에 나서지 않고 있어 제도 공백으로 인한 시장 불안정이 가중되고 있다"고 지적했다.그러면서 "특히 국민은행·토스·신한은행과 같은 금융대기업도 이미 알뜰폰 시장에 진출했거나 진출을 계획하고 있는 만큼, 알뜰폰 생태계 전반을 점검할 필요가 있다"며 "당사자간 견해차가 큰 쟁점인 만큼 조속히 여론 수렴 과정을 거쳐 제도 정착화를 위한 논의를 시작해야 한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2023.01.27.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>앱토스가 무슨 코인?…500% 오른 이유는</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011660739?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>기사내용 요약앱토스, 연초 대비 500% 넘게 올라4300원→2만4500원올해 유망 코인으로 꼽히며 상승 곡선'김프'로 급등했을거란 분석도 제기돼[서울=뉴시스]이지영 기자 = 최근 주목을 가장 많이 받는 앱토스(APT)가 연초 이후로 500% 급등했다. 연휴 직전 상승률 1위 코인에 올랐음에도 현재까지 숨 고르기 없이 질주 중이다. 27일 업계에 따르면 앱토스는 전날 연초 대비 5배 넘게 상승했다. 지난 1일 4300원에서 시작해 이달 내내 꾸준히 오르며 전날 2만4500원을 기록한 것이다. 연초 코인 시장이 2주 가까이 박스권에 갇혀있었던 점을 감안하면 더욱 두드러지는 상승세다. 코인 앱토스, 질주 이유는 업계는 올 초부터 이어진 앱토스의 강세에 대해 '그럴 만하다'는 반응이다. 이미 '경력직 신입'이란 남다른 타이틀로 불리며 올해 유망 코인으로 꼽혔기 때문이다. 특히 메타(전 페이스북)가 진행한 '디엠 블록체인(전 리브라) 프로젝트' 출신 개발자들이 메타에서 나와 별도로 시작한 블록체인 프로젝트라는 점에서 초창기부터 주목을 받았다. 디엠 블록체인은 메타에서 개발한다는 사실만으로도 업계에서 큰 기대를 받은 바 있다.앞서 메타가 디엠 블록체인 백서를 공개한 시점은 지난 2019년 7월이다. 이는 앱토스 팀원들이 이미 이전부터 블록체인 기술에 대해 오랜시간 고민하고 연구했다는 것을 시사한다. 이같은 '경력직 신입'에 업계는 바로 신뢰를 보였다. 메인넷을 런칭하지 않았음에도 바이낸스와 코인베이스 등 글로벌 주요 코인 기업들이 앱토스 위에 서비스를 런칭할 의사를 보인 것이다.김남웅 a41 리서치 리드는 "'안정적인 구조속에서 빠르게 실행하라(Move Fast with Stable Infrastructure)'는 구절은 메타의 모토이기도 하면서 앱토스 블록체인을 가장 잘 설명하는 구절이기도 하다"며 "앱토스가 메타의 블록체인인 디엠 프로젝트의 유전자를 그대로 물려받았다는 사실을 감안하면 메타의 모토가 앱토스를 잘 설명할 수 있는 것은 자연스러운 일"이라고 설명했다.시장의 신뢰는 투자금으로도 증명됐다. 국내외 주요 벤처캐피탈(VC)로부터 총 3억5000만달러(약 4335억원) 규모의 자금을 유치한 것이다. 특히 해당 시기에는 블록체인 인프라인 '레이어1'에 대한 업계 관심이 높았던 점도 유리하게 작용했다. 주요 레이어1 블록체인 플랫폼으로 꼽히는 앱토스에 시선이 쏠릴 수 밖에 없다는 풀이다.국내 주요 가상자산(가상화폐) VC 임원 A씨는 "메타 출신들이 새로운 프로그래밍 언어인 '무브'를 활용하여 시작한 앱토스는 많은 블록체인 생태계 참여자들이 기대하고 참여하려 하고 있다"며 "생태계에 참가하는 투자사의 질과 수 역시 높은 편이다. 생태계의 활성도가 높아질 가능성이 높다고 점칠 수 있다"고 진단했다.김 리드 역시 "앱토스 블록체인은 고성능의 단일 블록체인을 대표하는 블록체인 중 하나"라며 "오랜 기간 연구한 독자 기술을 내세워 확장성과 보안에 포커스를 두고 세상에 나올 준비를 하고 있다"고 분석했다.김프로 급등?최근 앱토스 급등에는 김치 프리미엄(김프) 효과가 있을 거란 분석도 제기됐다. 김프는 국내 가상자산 시세가 해외보다 비싸게 형성되는 현상을 말한다. 일부 투자자는 이를 이용해 해외 가상자산 거래소에서 해당 가상자산을 구매한 뒤 국내 거래소에서 비싸게 매도하기도 한다.실제로 글로벌 블록체인 전문 매체 디크립트는 앱토스 급등 배경으로 이 점을 짚었다. '김치 프리미엄'을 이용한 차익 거래를 목적으로 앱토스 투자자가 늘어났다는 분석이다. 특히 하루에만 47% 급등한 전날에는 앱토스 거래량 규모가 전일 대비 125.28% 증가했다.디크립트에 따르면 전날 앱토스 거래량 20억달러(약 2조4700억원) 중 절반은 국내 가상자산 거래소 업비트에서 나왔다. 당시 업비트에서 앱토스 가격은 18.63달러(약 2만3008원)로, 이는 바이낸스 등 다른 글로벌 거래소보다 0.5달러 높은 가격이다.매체는 이를 두고 "적어도 일부는 차익 거래에서 비롯된다는 신호"라고 분석했다. 다시 말해 업비트에서의 앱토스 가격이 다른 글로벌 거래소보다 높아 차익 거래를 하려는 투자자들이 몰렸다는 해석이다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2023.01.24.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>"이자장사" 집중포화 받은 은행 "수수료 면제"로 소비자 달래기</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004959401?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>비난 수그러들 기미 안보이자취약차주 중도상환·타행 이체 등너도나도 각종 수수료 폐지 선언  '이자 장사' 논란에 눈엣가시로 떠오른 은행권들이 연초부터 각종 수수료 폐지로 소비자 혜택을 늘리고 있다. 인터넷전문은행뿐 아니라 주요 시중은행들은 이체 수수료를 면제했다. 취약차주의 중도상환수수료도 1년간 면제된다.   24일 금융권에 따르면 KB국민·신한·NH농협은행 등 주요 시중은행은 이달부터 모바일 및 인터넷뱅킹에서 타행 이체 수수료, 타행 자동 이체 수수료를 전액 면제하기로 했다.   신한은행은 지난 1일 선제적으로 수수료 면제를 공식화했다. 모바일 및 인터넷 뱅킹에서 타행으로 이체할 경우 건당 500원, 타행으로 자동 이체할 경우 건당 300원씩 납부해야 했던 수수료를 면제한 것이다.   국민은행도 지난 19일부터 KB스타뱅킹을 비롯한 모바일뱅킹 및 인터넷뱅킹의 타행 이체 수수료와 타행 자동이체 수수료를 모두 면제했다. 농협은행도 오는 3월부터 모든 고객을 대상으로 NH올원뱅크의 전자금융 이체 수수료를 완전히 면제하기로 했다.   업계에서는 하나, 우리은행도 수수료 면제 행렬에 동참할 것이라는 관측이 지배적이다. 기존에는 카카오뱅크·케이뱅크·토스뱅크 등 인터넷은행만 수수료 면제 혜택을 제공했다. 그러나 최근 금융당국이 은행의 사회적 책임을 강조하면서 은행들이 대응책 확보에 나설 것으로 보이기 때문이다. 앞서 이복현 금융감독원장은 "은행은 대다수의 국민이 이용하는 서비스인데, 이익의 3분의 2를 주주 환원과 성과급에 사용한다면 3분의 1정도는 국민 몫으로 고민해야 하는 것이 아닌가"라고 지적한 바 있다.   아울러 취약차주의 중도상환수수료도 면제된다. 지난해 말 5대 은행(KB·신한·하나·우리·NH농협)은 취약 차주의 중도상환수수료를 1년간 한시적으로 면제하는 데 합의했다.   우리은행은 지난 2일부터 외부 신용평가사 기준 5구간 이하 저신용자에 대한 중도상환 해약금을 1년간 면제했다. 신한은행도 지난 18일부터 가계대출을 보유한 신용등급 하위 30% 고객의 중도상환 해약금을 면제하기 시작했다.   하나은행은 오는 26일부터 1년 동안 중도상환수수료를 면제한다. 상환일 직전 월말 기준 KCB 신용평점 하위 50% 차주가 대상이다. 가계대출 상품의 중도상환수수료가 면제된다. KB국민은행은 내달 10일부터 가계대출 중도상환 수수료를 전액 면제(신용평가사 5등급 이하 차주)할 방침이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2023.01.21.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>세뱃돈 하루만 넣어도 이자 준다고?…고금리 '파킹통장'에 다 모이겠네</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000196759?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>예·적금 이자율 하향세에…'파킹통장' 인기금융당국의 수신금리 인상 자제령으로 시중은행권의 예·적금 이자율이 하향세를 타면서 상대적으로 높은 금리를 주는 '파킹통장'에 뭉칫돈이 몰리고 있다. /더팩트 DB설 명절 이후 세뱃돈으로 주머니 두둑해진 우리 아이. 금리 상승기로 시장 금리가 높아진 만큼 세뱃돈을 굴리기 위해서는 지금이 적기다.특히 최근 정기예금 금리가 하락하면서 '파킹통장'에 대한 인기가 늘어나고 있다. 파킹통장이란 짧은 기간 목돈을 넣어두고 언제든지 찾을 수 있는 통장을 말한다. 하루만 맡겨도 이자를 받을 수 있다.21일 금융권에 따르면 KB국민·신한·하나·우리·NH농협 등 5대 은행의 주력 정기예금 상품 최고금리는 지난 15일 기준 연 3.81~4.10%로 집계됐다. △하나은행 '하나의 정기예금' 연 4.10% △신한은행 '쏠편한정기예금' 연 4% △ 우리은행 'WON플러스 예금' 연 3.98% △KB국민은행 'KB Star 정기예금' 연 3.98% △농협은행 NH올원e예금 연 3.81% 등이다. 지난 10일 연 3.93~4.30%보다 금리 상단이 0.20%포인트 떨어졌다.지난 13일 한국은행이 기준금리를 기존 대비 0.25%포인트 올려 3.50%로 인상했지만, 5대 은행의 정기예금 금리는 하락세를 보이고 있다. 지난해 10월만 해도 기준금리 인상에 따라 정기예금이나 적금금리가 바로 올랐지만 당국의 개입으로 예금금리가 곤두박질친 것이다. 이에 따라 고금리 파킹통장이 주목받고 있다. 특히 저축은행과 인터넷은행 중심으로 가열되던 파킹통장 경쟁이 1금융권으로도 옮겨가고 있다.◆저축은행·인터넷은행 '파킹통장' 경쟁 치열…4~5%대 금리 제공 눈길가장 높은 금리를 제공하는 파킹통장은 OK저축은행의 'OK읏백만통장Ⅱ'다. 해당 상품은 우대금리까지 포함해 최대 연 5.5%(한도 100만 원) 금리를 적용해 지급한다. 예치금이 100만 원이 넘으면 적용금리가 낮아진다. 5000만 원을 예치하면 실질 최고 이자율 연 4.1%, 6000만 원을 예치하면 연 3.9%의 금리가 적용된다.애큐온저축은행 '머니쪼개기'는 3000만 원까지 금리 연 4.30%를 제공한다. 또한 JT친애저축은행 플러스입출금통장은 연 4.0% 금리를, 대신저축은행의 '더드리고입출금통장'은 연 3.90%, 웰컴저축은행 '웰컴직장인사랑보통예금 연 3.80% 등의 금리를 제공하는 상품이다.금융사가 파킹통장으로 자금 유치에 나서는 것은 최근 금융당국이 수신경쟁 자제를 요청하면서 예·적금 금리 인상이 어려워졌기 때문이다. /더팩트 DB케이뱅크·카카오뱅크·토스뱅크 등 인터넷은행 3사의 경우 저축은행보다 높은 금액한도까지 연3~4% 금리를 제공한다.인터넷은행 3사 중에는 토스뱅크의 '토스뱅크 통장'이 5000만 원 초과 금액에 대해 연 4% 금리를 적용해 금리가 가장 높다. 5000만 원 이하 금액은 연 2.30%를 적용한다. 케이뱅크의 '플러스박스'는 연 3% 금리(한도 3억 원)를, 카카오뱅크 '세이프박스'는 연 2.60%를 보장하고 한도는 최대 1억 원이다.SC제일은행도 '파킹통장' 경쟁에 뛰어들었다.지난 9일 SC제일은행에서 내놓은 제일EZ통장은 첫 거래 고객에게 하루만 맡겨도 최고 4.1%의 금리를 제공한다. 제일EZ 통장은 인터넷뱅킹과 모바일뱅킹에서만 가입 가능한 온라인 전용 상품으로, 일별 잔액에 대해 2.6%의 기본금리를 제공한다. 여기에 SC제일은행과 처음 거래하는 고객에게는 별도의 조건이나 금액 제한 없이 1.5%포인트의 추가 우대금리를 계좌 개설일로부터 6개월 간 적용해 최고 4.1%의 금리를 제공하고 있다.금융사가 파킹통장으로 자금 유치에 나서는 것은 최근 금융당국이 수신경쟁 자제를 요청하면서 예·적금 금리 인상이 어려워졌기 때문이다.앞서 금융당국은 은행권의 수신금리 인상에 제공을 걸었다. 수신금리 경쟁은 은행권 자금쏠림 현상으로 이어진 데다, 수신금리에 연동된 대출금리 상승이 걱정된다는 이유에서다.시중은행 예·적금 금리 하락세가 이어가자 이를 틈 타 저축은행들이 고금리 파킹통장을 앞세워 간접적인 마케팅에 나서고 있다.한 금융권 관계자는 "파킹통장은 언제든지 돈을 넣고 뺄 수 있다"며 "최소 1개월에서 길게는 3년 이상 예치해야 하는 정기예금과 달리 예치기간, 입출금 횟수 등에 제약이 없기 때문에 인기가 높다"고 설명했다.이어 "주식이나 부동산 등 대체제가 될 만한 자산시장이 아직 좋지 않다"며 "마땅한 투자처를 찾지 못한 소비자들이 금리가 높은 '파킹통장'에 몰리고 있는 것으로 풀이된다"고 말했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2023.01.22.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>새해 통신비나 줄여볼까?…내가 몰랐던 알뜰폰이 있었네</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000319659?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>고물가에 알뜰폰 가입자 1200만명 돌파고물가 여파로 인한 부담을 줄이기 위해 알뜰폰에 가입하는 사람들이 늘고 있습니다.18일 통신업계에 따르면 지난해 11월 기준 알뜰폰 통신사 가입자 수는 1263만명입니다. 1년 전보다 약 200만명 증가했는데 같은 기간 이동통신 3사의 증가분을 합친 것보다 30만명가량 많습니다.알뜰폰이란 기존 이동통신사의 통신망을 빌려 통신서비스를 제공하는 휴대전화를 말합니다. 일반적인 통신망보다 저렴하게 이용할 수 있는 것이 특징입니다.알뜰폰 이용자는 지난 2010년 9월 도입된 뒤 2015년 가입자가 500만명을 넘어섰습니다. 이후 지난 2021년 가입자 1000만명을 돌파했고 그로부터 약 8개월 만에 1200만명대로 올라섰습니다. 업계는 올해 안으로 가입자 1300만명을 달성할 것으로 내다보고 있습니다.특히 올해는 알뜰폰 요금 경쟁력을 강화하는 정부의 알뜰폰 시장 활성화 정책도 펼쳐집니다.구체적으로는 알뜰폰 사업자가 통신사에 지급하는 도매대가, 즉 망 사용료를 최대 20% 낮춥니다. 통신사의 요금제를 재판매할 때 지급하는 수익배분 대가율도 최대 2%p 내립니다.아울러 이동통신 3사의 선불폰 신규가입 중단, 알뜰폰 업체에 데이터 QoS 신규 도매 제공, 제휴카드 확대 등도 활성화 대책에 포함됩니다.금융회사들이 알뜰폰 사업에 속속 진출하고 있는 점도 시장을 더 활발하게 만들 전망입니다.토스는 이번 달 말 알뜰폰 서비스 '토스 모바일'을 출시합니다. 약 5가지 정도의 요금제와 함께 기존 토스 서비스와 연계한 혜택도 제공할 전망입니다. 이보다 조금 앞서 KB국민은행이 'KB리브엠'으로 알뜰폰 가입자 30만명을 모은 바 있습니다.알뜰폰 시장이 확대되는 만큼 이동통신 시장에서 기존 3사가 차지하는 비중은 더 줄고 있습니다.지난해 11월 말 기준으로 알뜰폰이 이동통신 시장에서 차지하는 비중은 약 16.4%입니다. 도입 첫해 0.8%였던 것과 비교하면 크게 오른 수치입니다.알뜰폰 업계 관계자는 "가장 큰 장점이 저렴한 요금제인데 도매대가 인하로 작년보다 저렴한 요금제를 출시할 수 있는 여력이 커졌다"며 "알뜰폰 시장은 꾸준히 성장할 것"이라고 말했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2023.01.29.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>알뜰폰 시장 돌풍 ‘토스모바일’…사전신청자 15만명 돌파</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004149785?sid=105</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>29일 0시 기준 15만명 돌파···20만명도 넘어설 듯기존 이통3사 사용자와 MZ 세대가 사전 신청 주도[서울경제] 알뜰폰 통신 서비스를 본격적으로 시작하는 토스모바일 사전신청자가 15만명을 넘어선 것으로 나타났다. 미사용 데이터 캐시백, 24시간 고객센터 등 업계에 없던 새로운 서비스를 선보이는 토스모바일에 사전 신청자가 몰리면서 초기 시장 안착에 녹색불이 켜졌다는 평가다.29일 비바리퍼블리카의 알뜰폰 자회사 ‘토스모바일’은 이날 0시 기준 서비스 사전신청자가 15만명을 넘겼다고 밝혔다.업계에서는 최종 사전 신청자 수가 무난히 20만명을 넘어설 것으로 내다봤다.이번 사전 신청에는 기존 이동통신사업자(MNO)를 이용하고 있는 가입자와 함께 젊은 세대가 주도했다.토스모바일에 따르면 이번 사전 신청에서 기존 이통 3사의 가입자가 약 73％에 달했다.연령별로도 20대가 전체의 약 40％로 가장 많았고 30대(28％)와 40대(21％)가 그 뒤를 따랐다.30일 통신 서비스를 정식으로 내놓는 토스모바일은 미사용 데이터를 캐시백 형태로 최대 1만 원까지 토스포인트로 되돌려주는 서비스가 담겼다. 토스 애플리케이션을 통해 개통이 가능하며 고객센터는 24시간 운영될 예정이다. 토스페이 결제 시 10% 캐시백 혜택도 제공된다.앞서 이승훈 토스모바일 대표는 “토스가 금융 플랫폼으로 간편 송금, 주식거래, 인터넷뱅킹 등 다양한 금융서비스에서 혁신을 이뤄온 것처럼 통신 서비스 영역에서도 소비자들이 불편함을 느꼈던 부분을 개선해 나가겠다”며 “편리하고 직관적인 통신 서비스를 기반으로, 다양한 혜택을 더해 새로운 통신의 기준을 만들겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2023.01.24.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>후불결제 서비스 핀테크, 훌쩍 뛴 연체율에 골머리</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002780056?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>연합뉴스    금융위원회로부터 혁신금융서비스로 지정돼 후불결제(BNPL) 서비스를 제공하고 있는 핀테크 업체들이 연체율 관리에 어려움을 겪고 있다. 핀테크 업계는 혁신금융서비스 지정 시 금융위가 부여한 부가 조건에 따라 금융사 간 연체 정보 공유가 제한된 점이 연체율 관리에 걸림돌이 되고 있다고 지적한다.24일 핀테크 업계에 따르면 업계는 최근 후불결제 서비스 이용자 가운데 상환 능력이 있는 것으로 추정되는데도 연체 상태를 방치하는 이들이 있어 골머리를 앓고 있다. 후불결제 서비스는 신 파일러(금융이력부족자·Thin Filer)도 사용할 수 있는 후불결제 서비스로, 현재 네이버파이낸셜, 토스, 카카오페이등이 최대 30만원까지 서비스를 제공하고 있다. 업계는 신용평가회사(CB) 신용정보에 핀테크사의 비금융데이터를 결합한 대안신용평가(ACSS)로 후불결제 이용 가능 여부를 판단한다.박재호 더불어민주당 의원실이 금융감독원으로부터 제출받은 후불결제 현황에 따르면 지난해 8월 말 기준 후불결제 서비스 연체율(30일 이상 연체된 금액 비율)은 최대 1%대 중반까지 올라섰다.네이버파이낸셜의 후불결제 서비스 연체율은 1.48%로 전년 말(0.65%)보다 2배 이상 상승했고, 토스는 1.15%였다. 정치권에서는 신용카드사의 평균 연체율이 0.87%(작년 9월 말 기준)인 점 등을 고려했을 때 후불결제 서비스의 연체율이 높다고 지적하고 있는데, 업계는 연체 정보 공유가 제한된 점이 연체율 관리 어려움의 원인이라고 토로한다.금융위는 네이버파이낸셜·토스·카카오페이의 후불결제 서비스를 혁신금융서비스로 지정하면서 부가 조건으로 '연체정보 공유 제한' 조건을 달았다. 금융이력부족자가 제도권 금융 이용 기회를 제한당하지 않도록 연체 정보를 신용평가회사 신용평점에 반영하지 못하도록 하고, 타 후불결제사나 금융회사에 공유할 수 없도록 했다. 신용카드사 등 타 금융업권에서 연체자에 대한 정보 공유를 통해 리스크 관리를 하는 것과는 대조적이다.다만 이 조건 때문에 후불결제 연체자는 신용점수 하락 등 불이익을 받지 않으며, 타 후불결제사도 해당 이용자의 연체 사실을 인지할 수 없다. 따라서 상환 능력이 있는데도 고의로 연체를 방치하는 이들이 타 후불결제사로 옮겨 가 서비스를 이용하고, 재차 연체를 방치하는 '도덕적 해이'를 조장한다는 지적이 나온다.간편결제 기업들은 연체채권을 매각할 방법도 없어 사실상 회사 손해로 계산하고 있다. 핀테크 업계 관계자는 "충분히 갚을 능력이 있는 것으로 추정되는데도 연체를 방치하는 사례가 발생하고 있다"면서 "연체 정보 공유가 정책적으로 허용된다면 연체율 수준을 현저히 낮출 수 있을 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2023.01.29.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>데이터 페이백 내세운 '토스모바일'…알뜰폰 시장 '메기' 될까</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004804206?sid=105</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>온라인 금융서비스 '토스'를 운영하는 비바리퍼블리카가 내놓는 알뜰폰 서비스 '토스모바일'이 30일 정식 개통을 앞두고 대규모 사전 신청자들을 모으며 인기를 끌고 있다. 29일 토스모바일에 따르면 이날 0시 기준 사전 신청자 수는 15만명을 넘었다. 기존 이동통신 3사(MNO) 가입자가 73%에 달하는 것으로 집계됐다. 20대(40%), 30대(28%)가 대부분이었고 40대(21%)가 뒤를 이었다.  토스모바일이 내놓는 알뜰폰 서비스는 앞서 KB국민은행이 내놓은 '리브모바일M' 서비스 와 달리 '저렴한 가격'보다는 '편리하고 합리적인' 서비스를 내세운 것이 특징이다. 아예 처음부터 금융상품과의 연계도 강조하지 않고 있다. 토스모바일이 설계한 4가지 요금제는 데이터 7GB 패키지는 월 2만4800원, 15GB는 3만5800원, 71GB는 5만4800원, 100GB는 5만9800원으로 각각 구성됐다. 초기 가입자에게는 가입 후 3개월간 매달 1만~2만원 요금을 깎아준다. 기존 알뜰폰 사업자인 LG헬로모바일의 5G 스탠다드 유심 150GB(월 4만9900원), 리브모바일M의 5G 100GB(KT망 기준 월 4만7500원) 등과 비교하면 더 싼 요금제라고 하기는 어렵다. 대신 데이터를 다 쓰지 않으면 돈을 돌려준다. 100GB 상품을 가입해놓고 월 사용량이 10GB 미만이라면 1만원을, 70GB 미만이라면 2000원을 가입자에게 돌려주는 식이다. 토스모바일 사용자가 토스페이를 이용해 결제할 때도 사용금액의 일부를 토스포인트 형태로 환급해준다. 포인트는 무신사와 CU 등 2030 세대가 자주 이용하는 7000여곳의 가맹점에서 자유롭게 활용할 수 있다. 유심은 가입즉시 무료로 배송된다. 연중무휴 24시간 열려 있는 고객센터도 강점이다. 토스모바일 관계자는 "페이백이 특별한 요청 없이도 즉각 포인트로 돌아오고 사용처가 많다"며 "사용자 친화적인 인터페이스로 가입부터 요금 결제 및 변경 등을 터치 몇 번에 해결할 수 있는 것도 장점"이라고 설명했다.  업계에서는 토스모바일이 알뜰폰 시장의 변화를 주도할 '메기' 역할을 할 것이라는 기대감이 있다. 한 통신사 관계자는 "카카오뱅크가 나오면서 기존 은행 앱의 불편함이 부각되었듯이 토스모바일도 정체돼 있는 통신 시장에 혁신을 불러일으킬 수 있을 것"이라고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2023.01.29.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>박완주 "알뜰폰 가입자 폭증은 IoT 회선 증가 때문"</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002280936?sid=105</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>"알뜰폰 생태계 전반 점검 필요하다" 주장알뜰폰 가입자가 증가한 배경이 사물인터넷(IoT) 가입자 증가에 기인한 것이라는 분석이 나왔다. IoT 회선 수가 518% 증가하며 부풀려져 보였다는 지적이다.29일 국회 과학기술정보방송통신위원회 박완주(무소속) 의원이 과학기술정보통신부로부터 제출받은 자료에 따르면 지난해 알뜰폰 가입자수는 전년 대비 22% 증가한 1천273만8천794명으로 집계됐다. 2019년 774만9천516명에 비해 63% 증가한 수준이다.다만 지난해 IoT 회선수는 543만2천514명으로, 지난 2019년 87만9천287명 대비 518% 증가했다. 같은 기간 알뜰폰 핸드폰 회선 가입자수는 684만7천956명에서 720만6천280명으로 5%만 증가했다.(표=박완주 의원실)지난해 통신 3사 자회사의 알뜰폰 핸드폰 회선 가입자수는 365만404명으로 지난 2019년 236만9천553명 대비 54% 증가했다. 같은 기간 대기업·빅테크 군의 가입자 수는 KB국민은행의 알뜰폰 사업 영향으로 162% 증가했다. 우체국 사업자를 포함한 중소·중견 사업자의 핸드폰 회선 가입자수는 약 30% 감소했다.박 의원은 "알뜰폰 제도 도입 13년 차를 맞았지만, 도매제공의무·대가산정방식·소비자 보호조치 의무 등 여러 쟁점에 대해 과기정통부가 교통정리에 나서지 않고 있다"며 "국민은행·토스·신한은행과 같은 금융대기업이 이미 알뜰폰 시장에 진출했거나 진출을 계획하고 있는 만큼, 알뜰폰 생태계 전반을 점검할 필요가 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2023.01.31.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>'5G 28㎓' 3년 독점권 제공…제4이통 '7전8기' 성공할까</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004150651?sid=105</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>◆정부 신규사업자 지원책 발표거액 투자금 부담···7차례나 좌초전국망 구축시 3.7㎓ 대역 공급稅·자금·단말기까지 패키지 지원이르면 연내 사업자 선정 재도전토스·쿠팡 등 시장 진입 가능성[서울경제] 정부가 ‘제4통신사’ 설립을 적극 지원하고 나섰다. 5세대 이동통신(5G) 28㎓ 대역 뿐만 아닌, 통신 3사가 주력하는 3.5㎓ 인접 주파수도 제공해 전국망의 새로운 이동통신사가 등장할 수 있도록 도울 계획이다. 거액의 투자비 경감을 위해 주파수 할당 납부 부담을 줄이고 기존 통신3사가 구축한 망을 저렴하게 사용할 수 있는 방안도 내놨다. 28㎓ 대역의 빠른 속도를 5G 마케팅에 활용하면서도 투자는 소홀히 한 통신 3사 대해 정부가 강한 경고장을 던졌다는 평가다.31일 과학기술정보통신부는 5G 28㎓ 신규사업자 진입 지원방안을 발표했다. 지난달 할당이 취소된 KT와 LG유플러스의 28㎓ 2개 대역 중 1개에 신규사업자를 모집하는 방안이다. 과기정통부는 ‘전국망 제4통신사’의 등장을 목표로 전폭적인 지원안을 내놨다. 우선 28㎓ 대역 중 800㎒폭을 신규사업자에게 3년간 독점 할당한다. 신호제어와 과금에 사용하는 ‘앵커주파수’도 활용성이 높은 700㎒ 대역과 1.8㎓ 대역 등으로 제공한다.주파수 할당단위는 전국과 지역을 선택할 수 있지만, 신규사업자가 5G 전국망 구축을 희망하면 기존 통신 3사가 사용하는 3.5㎓ 대역과 유사한 3.7㎓ 공급도 검토한다. 이 경우 명실상부한 제4통신사가 등장하게 된다.투자비 경감을 위한 정책도 마련했다. 이동통신망 구축을 위해서는 기지국 설치 뿐 아니라 기지국간 연결을 위한 유선통신망이 필요하다. 과기정통부는 신규 사업자가 한국전력과 기존 통신사들의 관로·광케이블 등을 활용할 수 있도록 지원하고, 기존 통신사에 내야 할 상호접속료도 낮출 수 있는 특례를 마련할 계획이다. 과기정통부 관계자는 “완전 자가구축보다 최대 40% 이상 망 구축비용이 줄어들 것”이라고 했다.또 주파수 할당금의 초기 납부액을 줄이고, 정책금융으로 사업 자금을 저렴한 금리에 확보할 수 있도록 돕는다. 홍진배 과기정통부 네트워크정책실장은 “산업은행 등을 통해 4000억 원 가량의 정책금융을 마련했고 필요하다면 추가 지원도 가능하다”고 강조했다. 단말 공급을 위한 지원안도 준비했다. 28㎓ 지원 자급제 스마트폰 출시를 돕고, 다수 사업자가 선정된다면 장비·단말 공동구매도 지원할 계획이다. 정창림 과기정통부 통신정책관은 “삼성전자도 일정 수준 이상 규모가 확보된다면 28㎓ 지원 기기 출시 의지가 있다”고 전했다.그간 제4통신사 도입 방안은 7차례 가량 논의 됐지만 막대한 투자금에 매번 좌초됐다. 과기정통부는 그 어느 때보다도 신규 사업자를 위한 여건이 활성화 돼 있다는 판단하에 적극적인 지원책을 내놨다고 한다. 통신3사 과점체제가 고착화되자 신규사업자로 판을 흔들겠다는 것이다.홍 실장은 “과거에는 휴대전화 단말 공급을 통신사가 사실상 독점했고 알뜰폰도 없어 제4통신사의 진입장벽이 높았지만 현재는 상황이 다르다”며 “많은 인원이 몰리는 경기장·광장 등 일부 지역에 28㎓ 핫스팟을 설치하고 일반 망은 알뜰폰을 활용하는 동시에 자급제 단말을 적극적으로 활용한다면 투자비를 획기적으로 줄일 수 있다”고 했다. 과기정통부는 신규사업자가 300개 가량의 28㎓ 핫스팟을 설치할 경우 3000억 원 가량의 투자비가 들 것으로 본다.업계는 정부가 적극적인 지원에 나선 만큼, 기존 알뜰폰 사업자들을 중심으로 제4통신사가 등장할 수 있다는 분석을 내놓고 있다. 업계에서는 최근 알뜰폰 시장에 본격 진출한 토스와 자급제 단말기 유통망 1위인 쿠팡을 비롯해 이음5G 사업자 등이 언급되고 있다. 과기정통부는 컨소시엄 형태의 참여도 환영한다는 입장이다. 홍 실장은 “소비자 접점이 많은 기업들이 컨소시엄을 이룬다면 충분히 진입이 가능하다 본다”며 “TF를 통해 잠재사업자들의 의견을 수렴 중이다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2023.01.17.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>돈줄 막힌 스타트업, 'M&amp;A 동아줄' 잡아야</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003073242?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>지난해 투자 유치 11조1404억 그쳐가치평가 하향·초기 단계 투자 몰려하반기 자금 반토막나며 전년比 5%↓투자 심리 위축·모태펀드 축소 악재줄도산 우려 M&amp;A 활성화 대책 시급지난해 하반기 벤처·스타트업 투자시장이 급감한 것으로 집계됐다. 지난해 상반기 7조원이 넘던 투자금이 하반기엔 4조원 아래로 떨어졌다. 올해도 벤처투자 혹한기가 이어져 '스타트업 줄도산'이 우려되면서 인수·합병(M&amp;A) 활성화 등 대책 마련이 필요하다는 지적이다.17일 스타트업 민간 협력 네트워크인 스타트업얼라이언스에 따르면 지난해 국내 스타트업 투자 유치 금액은 총 11조1404억원으로 집계됐다.이는 전년 11조7286억원 대비 약 5%(5882억원) 감소한 수치다. 지난해 상반기엔 5월을 제외하고 매달 1조원 이상 유치하며, 총 7조3199억원 투자금을 달성했다.스타트업얼라이언스 측은 “상반기에 예정된 대규모 투자가 차질없이 진행됐다”고 설명했다.그러나 하반기 들어 분위기는 180도 바뀌었다. 하반기 투자금은 3조8205억원으로 상반기 대비 무려 47% 가량 줄었다. 고금리와 우크라이나 사태 등에 따른 투자심리 위축과 경기침체 우려 등이 스타트업 투자시장에 악영향을 미친 탓으로 분석된다.벤처캐피털(VC)이 보수적 투자 기조로 전환하면서 스타트업 부익부 빈익빈 현상이 가속화하는 추세도 보였다. 지난해 투자 규모는 줄었지만 투자 건수는 1765건으로 오히려 1.5배 증가했다. 투자 건당 투자금액이 줄어든 것이다. 전체적으로 스타트업 밸류에이션(가치평가)이 하향됐고 투자 규모가 작은 초기 단계 스타트업에 투자가 몰린 영향으로 보인다.이런 기조 속에 1000억원 이상 대규모 투자 건수는 23건으로 전년(19건) 대비 소폭 늘었다. 비바리퍼플리카(토스)는 5300억원으로 지난해 가장 많은 투자금을 확보했으며, 버킷플레이스(오늘의집)가 2350억원으로 뒤를 이었다.한 VC 관계자는 “본격적으로 스타트업 옥석 가리기가 시작됐다”면서 “이전엔 여러 스타트업에 투자금을 뿌리는 방식이었다면 이제는 유망 스타트업을 선별해 집중 투자하는 경향이 나타나고 있다”고 말했다.벤처·스타트업계에는 올해가 더 큰 위기다. 민간투자 심리가 크게 경색된 데다 벤처투자 마중물 역할을 한 모태펀드 올해 예산이 40%가량 줄어서다. 실제 스타트업얼라이언스 조사에 따르면 대다수 창업자가 지난해 하반기에 이어 올해 힘든 한 해가 될 것으로 내다봤다. 창업자 40.5%가 지난해 분위기에 변화가 없을 것으로, 37%가 지난해보다 부정적으로 변화할 것으로 예상했다. 긍정적 전망은 22.5%에 그쳤다.올해 자금줄이 막히면서 문을 닫는 스타트업이 늘어날 것으로 전망됨에 따라 스타트업 간 M&amp;A 활성화가 대안으로 떠오른다. 스타트업 천국인 미국에서는 엑시트(투자회수) 수단으로 기업공개(IPO)보다 M&amp;A를 더 선호한다. 한국도 M&amp;A 추세가 뚜렷하다. 지난해 M&amp;A는 126건으로 전년 대비 2.2배 늘었다. 다만 공정거래위원회가 올해부터 온라인 플랫폼 기업 M&amp;A 심사를 일반심사로 전환하겠다는 방침이어서 스타트업계는 M&amp;A 활동이 저해될 것으로 우려한다.최항집 스타트업얼라이언스 센터장은 “자본시장이 악화하면서 사업을 접는 스타트업이 늘어날텐데, 이들이 쌓아온 역량이 그대로 사장되는 건 국가적으로도 바람직하지 않다”면서 “M&amp;A 활성화는 스타트업이 축적한 소중한 자산을 활용할 수 있는 방안”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2023.01.30.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>토스뱅크, '금리인하 요구'로 대출금리 최대 7.3%p↓</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011664426?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]이주혜 기자 = 토스뱅크가 고객들에게 금리인하 기회를 먼저 안내하며 적극적으로 독려한 결과 금리인하를 받은 고객들은 최초 대출 시보다 최대 7.3%포인트가량 금리가 낮아진 것으로 나타났다고 30일 밝혔다.토스뱅크에 따르면 지난해 토스뱅크의 전체 금리인하요구 건수는 총 18만9000건에 달했다. 5대 시중은행(약 8만 건) 대비 2.3배에 달한다. 고객 수 기준으로는 총 8만6000명이 금리인하 요구권을 행사했으며 고객 3명 중 1명(32.1%)이 금리 인하 혜택을 누렸다. 중저신용 고객은 5명 중 2명(39.6%)의 요구가 수용됐다.토스뱅크는 고객에게 선제적으로 금리인하 요구권을 제안하고 쉽게 신청할 수 있도록 한 덕분에 이 같은 결과가 나타난 것으로 분석했다. 토스뱅크 앱 내에서 '금리 낮아질 때 알림받기' 에 동의해 금리인하 알림을 받고 신청한 고객은 2명 중 1명 이상(52%)이 혜택을 누린 것으로 파악된다.금리인하가 승인된 고객은 최대 7.3%포인트 금리가 낮아지는 효과를 누렸다. 금리인하 대상 고객 평균 0.8%포인트 금리 인하 효과를 누렸다. KCB 기준 최대 348점(과거 기준 5개 등급)까지 신용도가 개선돼 '크레딧 빌딩' 효과도 발생했다.금리인하가 거절된 고객들은 연소득이 감소했거나 추가 대출을 받는 등의 사유로 신용점수가 하락한 것이 주원인으로 분석됐다. 토스뱅크에서 대출받은 이후 저축은행, 카드사 등 제2·3 금융권에서 추가 대출을 받은 경우 등이다.대출고객 2명 중 1명(50.7%)은 대출 실행 2개월 이내에 금리인하 요구권을 사용했다. 1개월 이내에 금리인하 요구권을 사용한 고객도 36.4%에 달했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2023.01.22.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>"어린이도 세뱃돈 직접 관리하죠"…계좌같은 선불지급수단 인기</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013714589?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>카카오뱅크 mini 가입자 161만명 돌파…토스 유스카드도 입소문세뱃돈[연합뉴스TV 제공]    (서울=연합뉴스) 오주현 기자 = 초등학교 5학년인 김하린(가명·11)양은 설 명절을 대비해 최근 토스의 '유스카드'를 신청했다.    김 양은 "명절에 받는 세뱃돈을 부모님께 맡기지 않고 직접 카드에 충전해 사용하려고 한다"고 22일 말했다.    금융권과 핀테크 업계에서 어린이·청소년을 위한 선불 전자지급 수단이 다양하게 출시되면서 어린이와 청소년의 세뱃돈 관리 트렌드도 변화하는 추세다.    기존 은행 등에서 미성년자가 계좌를 개설하려면 까다로운 절차를 밟아야 했지만, 카카오뱅크와 토스 등이 더욱 편리하게 개설할 수 있는 선불 전자지급 수단을 잇달아 출시하면서 어릴 때부터 돈 관리를 스스로 할 수 있는 수단이 다양해진 영향이다.    선두주자인 카카오뱅크 mini는 만 14∼18세 전용 선불 전자지급 수단으로 지난 2020년 10월 출시됐는데, 작년 연말 기준 누적 가입자는 161만명에 달한다.    특히 매년 명절 연휴를 앞두고 가입자가 크게 증가하는 것으로 나타났다.    카카오뱅크에 따르면 지난해 설 연휴(명절 당일 포함 3일 기준) 기간 가입자는 직전 3일 대비 89.5% 증가했으며, 입금액은 173.1% 증가했다.    지난해 추석 연휴에도 가입자가 직전 3일 대비 98.2%, 입금액은 94.1% 늘었다.    연휴 이후 청소년들의 소비도 증가하는 것으로 나타났다.    지난해 추석 연휴 직후의 mini카드 결제액은 연휴 전 대비 40% 증가했다.카카오뱅크 mini 카드와 토스 유스카드[홈페이지 캡처. 재판매 및 DB 금지]    토스가 지난해 2월 출시한 '유스카드'는 연령대를 더욱 낮춰 만 7∼16세를 대상으로 한 충전식 카드다.    선불 전자지급 수단인 토스머니와 연동한 카드로, 체크카드처럼 사용할 수 있다.    현금자동입출금기(ATM)로 입금하는 대신, CU편의점에 방문해 현금으로 토스머니를 충전하는 등 방식으로 이용할 수 있다.    토스 관계자는 "특히 10대들 사이에서 유스카드에 대한 입소문이 나면서 카드 발급량이 지속해서 증가하는 추세"라며 "카드 발급자의 평균 이용금액은 월 5만∼6만원 수준으로, 주 사용처는 편의점과 음식점, 프랜차이즈 카페"라고 말했다.    viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2023.01.16.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>인공지능에게 올해 코인 시장 전망을 물어봤습니다[엠블록레터]</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005074987?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>챗GPT가 답하는 올해 코인 시장 전망속속 드러나는 FTX 주주들[엠블록레터] 비트코인이 연초 들어 예상외의 상승세를 보이고 있습니다. 근 한달만에 1만8천달러를 넘어셨는데요. 앱토스, 아발란체, 헤데라, 솔라나 등 주요 레이어1 프로토콜들도 동반 상승하고 있습니다. 코인 시장이 활기를 띨 때 관찰되는 현상 중 하나입니다.이번 상승세가 1년여간 지속된 크립토 윈터의 끝을 알리는 것인지 연초 기대에 따른 반짝 반등인지는 아직 알 수 없습니다. 유동성 회복을 가늠할 수 있는 24시간 거래량이 지난 12월말보다 큰 폭으로 회복되긴 했지만 FTX 사태 이전보다는 아직도 상당히 낮거든요. 좀 더 많은 지표가 코인 시장의 회복을 가리킬 때까지 기다릴 필요가 있겠습니다. 역사적으로도 크립토 윈터는 1년 이상 유지된 적이 많았으니까요.인공지능인 챗GPT가 답하는 올해 코인 시장 전망오늘은 그동안 뉴스레터에서 다뤄왔던 것과는 좀 다른 소재를 전해드리려고 합니다. 바로 장안의 화제인 챗GPT인데요. 챗GPT의 놀라운 성능 때문에 아무 질문이나 물어보고 답을 공유하는 것이 유행하고 있습니다. 그래서 엠블록레터도 한번 해봤습니다. 바로 올해 코인 시장 전망을 물어보는 것이죠. 챗GPT란?챗GPT는 인공지능 개발 기업인 오픈AI가 작년 12월 1일 공개한 머신러닝 알고리즘 기반 챗봇입니다. 좀 더 정확히 표현하면 GPT-3.5 모델을 사용한 대화형 챗봇 서비스입니다. 채팅을 하는 것처럼 사람이 질문을 하면 인공지능이 적합한 답변을 제공하는 방식입니다.Generative Pre-trained Transformer, 즉 생성형 사전훈련 변형모델로 해석되는 인공지능 언어 예측 모델의 3.5버전을 적용해 보다 인간에 가까운 대답을 내놓아 폭발적인 관심을 얻고 있습니다.전망 질문에 대한 챗GPT의 첫번째 답은 다소 실망스러웠습니다. 너무나도 일반적인 답변이어서요. 답변 전문은 다음과 같습니다.· 죄송하지만 언어 모델로서 실시간 재무 예측이나 예측을 제공할 능력이 없습니다.또한 암호화폐 시장은 변동성이 매우 커서 예측하기 어려울 수 있습니다. 자신의 연구를 수행하고 시장에 대한 자신의 예측을 만드는 것이 중요합니다. 투자 결정을 내리기 전에 재무 고문과 상담하는 것도 좋은 생각입니다.·· 죄송해요. 내 훈련 데이터는 2021년까지만 올라가고 현재 정보를 인터넷에서 검색할 수 없기 때문에 Solana 코인의 가격을 상승시킬 특정 이벤트나 개발에 대해 알지 못합니다. 또한 암호화폐 시장은 매우 투기적이며 코인 가격은 시장 정서, 기반 기술의 채택 및 사용, 뉴스 및 발표와 같은 다양한 요인의 영향을 받을 수 있습니다. 암호화폐 시장은 변동성이 크며 가격이 자주 그리고 크게 변동할 수 있다는 점은 주목할 가치가 있습니다. cryptocurrencies에 위험이 없다는 것을 고려하는 것도 중요합니다. 따라서 투자 결정을 내리기 전에 스스로 조사하고 평가하는 것이 중요합니다.이번 답도 역시 구체적인 답변을 받을 수 없었지만 그래도 챗GPT가 코인 시장을 어떻게 보는지는 상당 수준 파악할 수 있었습니다. 코인 가격을 좌우하는 요소로 시장 수요와 분위기(센티멘트), 기술의 채택 여부, 거시 경제 환경, 그리고 새로운 소식을 들고 있네요.시장 수요와 분위기는 크립토 윈터와 직결되는 요소이니 좋을 리가 없구요, 기술 채택은 다양한 수요처에 관련 코인이나 기술이 채택되는 것으로 볼 수 있겠습니다. 스타벅스나 레딧의 웹3에 폴리곤이 도입되는 것을 예로 들 수 있겠습니다. 거시 경제 환경은 긴축이나 경기 회복 등을 들 수 있겠구요. 새로운 소식은 최근 갈라가 드웨인 존슨 등 유명 배우들과 영화 작업을 한다고 공개한 것을 사례로 들 수 있겠습니다. 단, 갈라는 해당 내용이 적힌 트윗을 예고나 해명 없이 돌연 삭제했죠. 새로운 소식의 리스크라고도 할 수 있겠습니다.챗GPT와 같은 인공지능은 분석, 추론을 보다 많은 사람 또는 자료가 가리키는 방향으로 진행하도록 설계돼 있습니다. 따라서 위 네가지 요소는 다수의 많은 사람들이 코인 가격을 좌우하는 요소로 본다는 것으로 해석할 수 있습니다. 각 요소별로 구체적인 답변은 얻진 못했지만 코인 시장을 바라보는 관점을 수립하는 데 참고할 수 있겠습니다. 각자만의 챗GPT 활용 노하우를 만들어본다면 투자에도 조금은 도움이 될 것 같네요.&lt;엠블록레터(Mblock)&gt;[엠블록레터]는 매일경제 블록체인 전문 자회사 '엠블록컴퍼니(Mblock)'의 뉴스레터입니다. 엠블록컴퍼니가 만든 무료 뉴스레터를 구독하시면 디지털 자산 투자의 지침이 될 올바른 정보와 새로운 블록체인 기술 트렌드를 따라잡을 수 있는 심층분석을 수·금 아침 이메일로 받아보실 수 있습니다. 아래 주소로 접속하시면 구독 페이지로 연결됩니다.https://bit.ly/mblockletter</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2023.01.30.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>유명 카페 커피를 회사에서 … 기업고객 1000곳 돌파</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005080974?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>커피 스타트업 스프링온워드야놀자 모델 커피 유통에 적용원두 구독 서비스로 年매출 30억중진공 청년창업사관학교 입교자금·교육 등 사업 초기 큰 도움커피 유통 스타트업 스프링온워드가 '유명 카페 커피를 사무실에서 마신다'는 차별화된 콘셉트로 오피스 커피 시장을 개척해 나가고 있다.  【사진 제공=스프링온워드】커피 유통 스타트업 스프링온워드(대표 정새봄)가 운영하는 커피 구독 및 머신 렌탈 서비스 '원두데일리'가 출시 2년 만에 기업 고객 1000곳을 돌파했다. '유명 카페의 커피를 사무실에서 마신다'는 차별화된 콘셉트로 낙후된 오피스 커피 시장을 프리미엄 사내 카페테리아 문화로 바꿔 나가고 있다.최근에는 코로나19 엔데믹 전환으로 사무실로 복귀하는 직장인이 많아지면서 커피 구독 서비스를 신청하는 기업이 늘고 있다. '런치플레이션'이라는 신조어까지 생겨난 고물가 시대에 모모스커피, 커피리브레, 테일러커피 등 유명 카페 원두를 제공하는 서비스는 직장인에게 복지로 통하기도 한다.정새봄 스프링온워드 대표는 스타트업 분야에서 10년간 일하며 풍부한 경험을 쌓았다. 20대 때 '오픈서베이' 창립 멤버로 시작해 국내 최초 컴퍼니빌더인 '패스트트랙아시아'로 자리를 옮겨 마케팅부터 네트워크까지 다양한 영역에서 스타트업을 지원하는 역할을 맡았다. O2O(Online to Offline) 서비스가 주목받던 시기에 종합 여가 플랫폼으로 성장한 '야놀자'에서 최고마케팅책임자와 사업 개발 담당 임원으로도 활약했다.출산으로 몇 달간 일을 쉬었던 정 대표는 남편의 커피 사업을 도와 커피 구독 모델을 만들었다. '커피 시장에도 야놀자 같은 플랫폼이 있으면 어떨까'라는 남편의 말 한마디가 스프링온워드의 시초가 됐다. 원두 품질과 가격이 천차만별인 커피 시장의 정보 비대칭 문제를 해결하면 분명 상생 플랫폼으로서 스케일업 기회가 있을 것이라고 생각했다. 스프링온워드는 커피 시장 혁신을 목표로 근성 있게 나아가고 있다. 지난해 B2E(Business to Employee·기업과 임직원 간 거래) 전용 쇼핑몰인 '원두랜드'를 열었고, 구독 플랫폼인 써플(SUBPL)을 고도화해 고객 관리 효율을 높였다. 이를 통해 지난해 매출액 30억원을 달성하는 등 전년 대비 300% 이상 성장했다.정 대표는 빠르게 성장할 수 있었던 원동력으로 중소벤처기업부와 중소벤처기업진흥공단이 운영하는 '청년창업사관학교' 입교를 꼽는다. 사업 초기에 직접 영업을 하기 위해 발로 뛰다가 사업 규모가 점차 확대되면서 서비스 운영에 어려움을 겪었다. 정기 배송부터 결제, 고객 관리, 맞춤형 콘텐츠 제공에 이르는 고차원적 커피 구독 서비스를 개발하는 과정에서 2021년 청년창업사관학교 11기 입교기업으로 선정됐다.청년창업사관학교는 창업 초기 사업화에 필요한 자금, 교육, 코칭, 공간, 장비 등을 원스톱으로 지원하고, 졸업 이후의 성장까지 연계하는 창업 지원 프로그램이다. 2011년 개교 후 지난해까지 청년 창업자 6741명을 양성하고, 최근 5년간 누적 매출 3조6818억원을 올리며 1만7150명의 신규 일자리를 창출했다. '토스' '직방' 같은 유니콘 기업을 배출하는 등 대한민국 청년 기술 창업의 대표 양성소로 자리매김했다. 39세 이하 창업 3년 이내인 대표자를 대상으로 하며, 올해 청년창업사관학교 입교 희망자는 다음달 6일까지 K-스타트업 누리집(www.k-startup.go.kr)을 통해 신청할 수 있다.정 대표는 "아이디어는 많지만 실현하기엔 막막했던 창업 초기에 청년창업사관학교 전담교수의 멘토링이 회사 방향성과 경영 계획을 수립하고 사업화하는 데 길잡이가 됐다"며 "이후에는 투자자 대상 기업설명회(IR)를 진행하는 스타트업 피칭페스타나 정책자금 연계 지원도 다음 단계로 도약하는 데 큰 도움이 됐다"고 밝혔다.창업 초기 2명에 불과했던 직원은 이제 20명이 됐다. 올해는 유명 로스터리 업체와 파트너십을 강화해 원두 라인업을 추가하고 고객층도 확대할 계획이다. 누군가에겐 커피 한잔의 여유가 하루를 살아가는 데 큰 힘이 되기도 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2023.01.28.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>"연진아, 난 오늘 신청을 했어"…토스 알뜰폰 등장에 '짠테크족' 들썩</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006598842?sid=105</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>토스모바일, 30일 알뜰폰 출시…안쓴 데이터 포인트 전환메기 등장에 알뜰폰 가입자 1300만명 돌파 가능성(서울=뉴스1) 정은지 윤지원 기자 = 토스 자회사 토스모바일이 알뜰폰 시장에 출사표를 던지면서 조금 더 저렴하게 통신비를 사용하고자 하는 소비자들의 관심도 높아지고 있다. 토스는 지난해 10월 알뜰폰 업체 '머천드코리아'를 인수하고 알뜰폰 시장 진출을 선언했다. 업계 안팎에서는 그동안 통신 3사가 사실상 독점해오던 알뜰폰 시장이 KB리브엠 등 금융권을 중심으로 재편될 가능성도 내놓고 있다. ◇미사용 데이터→토스 포인트로…통신시장 메기 될까 28일 통신업계에 따르면 토스의 통신 자회사 '토스모바일'은 오는 30일 신규 서비스 출시를 앞두고 사전 신청을 받고 있다. 토스모바일은 총 4가지 요금제를 출시할 예정인데, 요금제는 서비스 오픈 시점에 공개할 방침이다. 토스가 출시 예정인 요금제에는 '알뜰족'을 위한 저렴한 요금제부터 데이터를 무제한으로 사용하는 이용자를 위한 데이터 무제한 요금제 등이 포함될 예정이다.토스는 알뜰폰 시장 진출로 가계 통신비 절감을 목표로 내세웠다. 토스는 기존 통신3사 데이터·통화 무제한 요금제 사용 고객이 토스모바일 요금제로 변경할 경우 약 20%의 통신비 절감 효과를 기대할 수 있을 것으로 기대하고 있다. 토스는 토스 이용자가 자사의 알뜰폰을 사용한 데 따른 시너지 효과를 내기 위해 미사용 데이터 캐시백, 토스페이 연계 캐시백 등의 서비스를 내놓는다는 방침이다. 또한 24시간 고객센터를 운영하고 토스 앱에서 간편하게 알뜰폰 서비스를 개통할 수 있도록 해 가입자를 유치할 예정이다.이 가운데 가장 눈길을 끄는 것은 토스와 연계한 캐시백 서비스다. 토스모바일은 미사용 데이터가 있을 경우 이를 토스 포인트로 제공하는 서비스를 준비 중이다. 토스 알뜰폰 휴대폰 요금제를 쓰면서 쇼핑과 결제한 금액의 최대 10%를 포인트로 돌려준다. 업계 관계자는 "데이터 요금제를 이용하는 고객 중 대부분이 제공된 데이터를 다 소진하지 못하거나, 본인이 어느정도 사용했는지를 인지하지 모르는 경우가 많다"고 설명했다. 이렇게 받은 캐시백은 토스 포인트로 받게되는데, 이 포인트는 요기요, 무신사, 야놀자 등 7000개가 넘는 가맹점에서 사용 가능하고 소비자가 원한다면 현금 출금도 가능하다. 실제 토스는 자사 앱을 통해 만보기나, 광고를 보면 포인트를 적립해주는 서비스를 제공하고 있는데 이같은 서비스는 '티끌'까지 모으는 '짠테크'족들에 큰 인기를 끌고 있다. 이승훈 토스모바일 대표는 "토스가 금융 플랫폼으로 간편 송금, 주식거래, 인터넷뱅킹 등 다양한 금융서비스에서 혁신을 이뤄온 것처럼 통신 서비스 영역에서도 소비자들이 불편함을 느꼈던 부분을 개선해 나가겠다"며 "편리하고 직관적인 통신 서비스를 기반으로, 다양한 혜택을 더해 새로운 통신의 기준을 만들겠다"고 말했다.고물가·고금리 시대에 돌입하면서 통신비 절약을 위한 알뜰폰 사용자가 늘어나고 있다. 지난 20일 한국통신사업자연합회에 따르면 지난달 알뜰폰 신규 가입자수는 15만8093명으로 전달 대비 8.4%가량 증가했다. 사진은 21일 서울 시내에 위치한 알뜰폰 스퀘어 매장 모습. 2022.6.21/뉴스1 ⓒ News1 임세영 기자◇'메기' 등장에 우려반 기대반…알뜰폰 가입자 1300만 돌파할까토스라는 메기의 등장에 알뜰폰 시장 내 또 한번의 지각 변동이 예상된다. 특히 지난 2019년 KB리브엠을 선보인 국민은행 등 연이은 금융사의 진출로 중소 알뜰폰 사업자 사이에서는 긴장감이 도는 모양새다.한 알뜰폰 업계 관계자는 "후발주자의 진출로 요금제 및 프로모션 경쟁 등이 더욱 치열해질 것"이라며 "KB리브엠과는 달리 토스는 기존 온라인 플랫폼을 활용하면 되기 때문에 중복 투자할 필요도 없다. 이 돈으로 대신 마케팅을 세게 할 것"이라고 말했다.또 다른 업계 관계자는 "대형사가 막대한 자본력을 기반으로 원가 이하, 페이백 등 손해를 보며 가입자 모집과 사업 확장을 시도하는 경우 시장 가격이 무너져 중장기적으로 알뜰폰 사업 전체에 부정적 영향을 줄 걸로 보인다"고 밝혔다.이 때문에 그간 중소 알뜰폰 사업자들은 금융사의 알뜰폰 시장 진출에 반대 목소리를 높여왔다. 한국알뜰폰통신사업자협회, 전국이동통신유통협회(KMDA) 등은 금융사가 도매대가 인하의 요금제를 출시하는 등 출혈 경쟁을 유도한다는 이유로 시장 진출에 반대했다.반면 토스의 진출로 알뜰폰 가입자 수가 1300만명을 돌파할 수 있다는 기대감도 나온다. 과기정통부 통계에 따르면 지난해 11월 기준 국내 알뜰폰 가입자 수는 1263만8700여명에 달했다.또 다른 알뜰폰 업계 관계자는 "새로운 이용자가 많이 유입될 수 있고 유입된 고객이 결국 타사로 이동하기도 하니까 새로운 고객을 확보할 수 있다는 기대감도 있다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2023.01.16.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>“케이·카카오·토스뱅크 중·저신용 대출 ‘30%’ 로 확대된다"</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004956152?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>16일 ‘서민금융 현황 점검회의 개최’-올해 말 인터넷전문은행 중·저신용대출 비중 30% 상회 목표  사진=연합뉴스[파이낸셜뉴스]케이·카카오·토스뱅크의 중·저신용자 대출 비중이 올해 30%까지 늘어날 전망이다.   금융위원회는 금융감독원·서민금융진흥원·금융협회 등과 함께 ‘서민금융 현황 점검회의’를 개최해 이같은 내용의 금융권의 서민금융 지원 목표를 설립하고 정책서민금융 현황을 점검해 금년 공급계획을 논의했다고 16일 밝혔다.   이날 참석자들은 경기둔화, 통화긴축 등의 영향으로 중·저신용자의 금융이용 여건이 악화되지 않도록 금년에도 서민금융을 꾸준히 공급해 나가기로 의견을 모았다.   우선 인터넷전문은행의 중·저신용자 대출 비중이 올해 연말에 30%를 상회할 수 있도록 추진 중이다. 올해 말 케이뱅크, 카카오뱅크 토스뱅크 등 3개 인터넷전문은행은 모두 중·저신용자 대출 비중 25%를 달성했다.   금융위는 이달부터 정책금융이 정상화될 것으로 보고 있다. 지난해 11월부터 12월 중 서민금융진흥원의 보증에도 불구하고 조달금리 상승에 따른 수익성 저하로 저축은행을 중심으로 근로자햇살론 등 일부정책서민금융상품 공급이 감소했다. 그러나 금융기관 취급금리가 일부 조정되면서 대출 한도가 확대돼 1월부터는 공급규모가 정상화됐다.   이에 지난해 정책서민금융 공급규모는 9조8000억원으로 역대 최대수치를 기록했다. 정책서민금융은 지난 2019년 9억원, 2020년 8억9000만원 2021년 8억7000만원 등 증가하는 추세다.   또 지난해 1월부터 9월까지 중금리대출 공급액은 22조8000억원으로 중금리 대출에 대한 인센티브 제공, 민간중금리 대출 인정 요건 합리화 등을 통해 지속적으로 증가하고 있다. 현재 중금리대출은 2019년 8조2000억원에서 2020년 13조5000억원, 2021년 21조6000억원으로 증가하고 있다. 저축은행·여전사·대부업의 경우 리스크관리, 조달금리 상승 등으로 대출축소 움직임이 지난해 4·4분기부터 나타나고 있다.   이날 이세훈 금융위원회 사무처장은 “저축은행, 여전사, 대부업 등 서민금융기관의 적극적인 서민금융 지원 역할이 중요하며, 어려운 환경에서도 서민들에 대한 금융창구로서의 역할을 지속해달라”면서 “리스크관리나 수익성 악화를 이유로 신규대출을 중단하는 등 시장여건 변화에 따른 위험부담을 금융소비자에게 모두 전가하는 행태는 지양돼야 한다”고 강조했다.   이어 정책서민금융 공급과 관련해서는 “최근 서민금융진흥원 보증료를 낮추면서 금융권의 취급금리는 높이는 등 조치가 시행된 만큼, 금융권의 보다 적극적인 협조가 필요하다”면서 “취약계층이 불법사금융으로 밀려나지 않도록 최저신용자 특례보증 확대 공급, 긴급생계비 소액대출 신규 출시 등도 추진하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2023.01.20.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>바이든 대통령 "피해 지역, 더 잘 재건해야"</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011653296?sid=104</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>[앱토스=AP/뉴시스] 조 바이든 미국 대통령이 19일(현지시간) 캘리포니아주 앱토스의 시클리프 주립공원을 방문해 피해 상황을 둘러본 후 연설하고 있다. 바이든 대통령은 "피해 지역을 완전히 복구하고 재건하는 데 몇 년이 걸리겠지만 단순한 재건이 아니라 더 잘 재건해야 한다"라고 말했다. 2023.01.20.[사진 영상 제보받습니다] 공감언론 뉴시스가 독자 여러분의 소중한 제보를 기다립니다. 뉴스 가치나 화제성이 있다고 판단되는 사진 또는 영상을 뉴시스 사진영상부(n-photo@newsis.com)로 보내주시면 적극 반영하겠습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2023.01.31.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>[社告] 제12회 서민금융대상 기재부장관상 ‘경남은행’</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004962530?sid=101</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>2월 23일 서민금융포럼·시상식  파이낸셜뉴스가 제12회 서민금융포럼 및 서민금융대상을 열고 서민금융 발전에 기여한 단체와 개인의 노고를 격려합니다.   올해는 3高(고물가·고금리·고환율) 위기에 처한 서민들을 위해 서민금융 지원활동을 펼쳐온 국내 금융기관들의 응모작이 대거 접수됐습니다.   기관 부문에서 기획재정부장관상에 경남은행이, 금융위원장상에 신한은행, 금융감독원장상에 신협중앙회, 저축은행중앙회장상에 페퍼저축은행 등이 각각 선정됐습니다. 개인 부문에선 서민금융연구원 장동성 이사가 기획재정부장관상을, 대구은행 차명훈 대리가 금융위원장상, 신한카드 진미경 상무가 금융감독원장상, 토스뱅크 최성희 리더가 서민금융진흥원장상을 받습니다.   시상식은 2월 23일 서울 중구 웨스틴조선호텔에서 서민금융포럼과 함께 열립니다. 시상식에 앞서 서민금융 지원에 앞장서고 있는 금융위원회 김소영 부위원장과 이재연 서민금융진흥원 원장이 축사를, 고승범 전 금융위원장은 '3高 시대 서민금융의 길'에 대해 기조강연을 합니다.   시상식 후에는 남재현 국민대학교 교수, 정선인 금융위원회 서민금융과장, 유재욱 서민금융진흥원 경영혁신본부장, 이형주 카카오뱅크 비즈니스그룹장이 서민금융정책을 진단하고 발전 방향을 모색해 봅니다. 서민금융의 미래를 설계할 제12회 서민금융포럼 및 서민금융대상 행사에 많은 참여와 성원 바랍니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2023.01.16.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>금융위, 지난해 정책서민금융 9조8천억 ‘역대 최대’…“신규대출 중단 지양해야”</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002675838?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>서울 종로구 소재 정부서울청사 내 금융위원회 현관 전경. ⓒ금융위원회[데일리안 = 이세미 기자] 금융위원회는 16일 금융감독원·서민금융진흥원·금융협회 등과 함께 ‘서민금융 현황 점검회의’를 개최하고, 지난해 정책서민금융과 금융권의 중·저신용자에 대한 자금공급 실적을 점검한 결과 정책서민금융 공급규모는 총 9조8000억원으로 역대 최대수준을 기록했다고 밝혔다.금융위는 지난해 11월~12월중 일부 정책서민금융 상품 공급이 감소했으나, 대출한도 확대, 금리 조정을 통해 올해 1월부터는 공급규모가 정상화되는 모습이라는 설명이다.또 인터넷전문은행의 중·저신용자 대출 비중은 ’23년말 30% 상회를 목표로 추진중이며, 3개 인터넷전문은행(케이·카카오·토스) 모두 지난해 말 25% 이상을 달성하는 등 단계적 확대 계획에 따라 차질없이 공급한 것으로 나타났다.지난해 1~9월 중 중금리대출 공급액은 22조8000억원으로, 중금리 대출에 대한 인센티브 제공, 민간중금리 대출 인정 요건 합리화 등을 통해 지속적으로 증가하고 있다.저축은행·여전사·대부업은 리스크관리, 조달금리 상승 등으로 대출축소 움직임이 지난해 4분기부터 나타났다.금융위 사무처장은 “최근 시중금리 상승으로 서민·취약계층의 금융부담이 가중되고 금융접근성이 위축되는 상황인 만큼, 국민들의 금융애로 완화를 위해 전(全) 금융권의 전향적인 노력이 필요한 때”라고 말했다.특히 “저축은행, 여전사, 대부업 등 서민금융기관의 적극적인 서민금융 지원 역할이 중요하며, 어려운 환경에서도 서민들에 대한 금융창구로서의 역할을 지속해 달라”고 당부했다.리스크관리나 수익성 악화를 이유로 신규대출을 중단하는 등 시장여건 변화에 따른 위험부담을 금융소비자에게 모두 전가하는 행태는 지양돼야 한다고도 강조했다.아울러 “은행·저축은행 등 전 금융권에 중·저신용자 대출 공급 및 중금리대출의 금년도 공급 계획을 차질없이 이행해 달라”며 “서민층 자금이용에 애로가 없도록 앞으로도 금융당국이 공급현황을 주기적으로 점검하면서 공급 애로요인에 대해서는 필요한 중금리대출 활성화 방안도 검토해 나가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2023.01.31.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>불붙는 '빅테크 고객DB 판매' 논쟁… 보험권 '일자리 박탈' 우려</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000890916?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>빅테크가 고객DB를 자회사에 판매하는 것에 대한 논란이 재점화 되고 있다./사진=머니투데이 온라인 보험중개플랫폼을 통해 얻은 고객DB(데이터베이스) 판매 허용 여부를 놓고 금융위와 보험사간의 논쟁이 뜨겁다. 금융당국은 빅테크의 고객DB판매를 금지해달라는 보험업계 요구를 거부했다. 고객DB를 기반으로 영업활동을 전개하는 보험사들은 타격이 불가피해졌다. 31일 금융권에 따르면 지난 26일 열린 금융위원회와 보험사의 '온라인 보험 비교·추천 서비스 도입 관련 간담회'에서 "빅테크가 보험중개플랫폼을 통해 자회사에 고객DB를 판매하는 것을 법적으로 금지시켜야 한다"는 보험사들의 주장이 나왔다. 이들은 "빅테크들이 거대 자본과 수천만의 고객 DB확보를 통해 정보 독과점, 높은 소비자 접근성을 내세운다면 보험판매시장에서 단번에 우월적 지위를 확보할 것"이라고 강조했다. 이에 대해 금융위는 "빅테크가 자회사에 고객DB를 판매하는 걸 법적으로 막을 권한은 우리가 가지고 있지 않다"라며 선을 그었다. 힘의 균형이 깨질 것을 우려해 사전대응에 나선 보험사들 손을 금융위가 들어주지 않은 것이다. 보험사들은 대형 플랫폼을 등에 업은 빅테크들에게 중장기적으로 종속될 수 있을 것으로 우려하고 있다. 현재 카카오는 카카오페이손해보험과 KP보험서비스, 네이버는 NF보험서비스, 토스는 토스인슈어런스를 각각 보험 계열사 등으로 두고 있다. 통상적으로 보험업게에서 보험사들이 자회사에 고객DB를 판매하는 것은 사전 마케팅에 동의 한 고객들에 한해서 허용한다. 이를테면 삼성화재가 전속설계사 등을 통해 얻은 고객DB를 자회사형 GA(법인보험대리점)인 삼성화재금융서비스에 판매할 수 있다는 의미다. 하지만 보험사들이 빅테크의 고객DB를 판매하는 것은 온라인 비교·추천서비스의 취지에 위배된다는 것 때문이다. 보험 비교·추천서비스는 온라인 플랫폼이 여러 보험사의 상품을 모아 비교·추천해주고 고객을 보험사나 대리점에 연결해주는 업무다. 이미 존재하는 대출이나 예금 비교 서비스처럼 보험도 금융 소비자들이 직접 비교해 보고 고를 수 있도록 하겠다는 취지에서 금융위원회는 지난해 8월 '제2차 금융규제 혁신회의'에서 보험 비교·추천서비스를 허용하기로 했다. 만일 빅테크가 보험을 비교·추천하는 과정에서 얻은 고객DB를 자회사에 판매한 후 이를 통해 자회사들이 고객확보에 나선다면 빅테크가 직접 보험을 판매하는 것과 동일하다는 것이다. 보험업계 관계자는 "빅테크들이 수익모델을 찾기 위해 방대한 고객DB를 사용해 영세보험 영업인의 보험상권을 침해하게 되면 보험판매업에서 불공정경쟁과 설계사의 소득감소 그리고 일자리 축소가 기정사실화될 수밖에 없다"라고 강조했다. 보험 비교·추천서비스 시행을 앞두고 금융위원회는 GA, 보험업계 등과 최근 간담회를 가졌고 오는 2월 초엔 빅테크들과 만날 예정이다. 금융위원회는 2월 중 관련 가이드라인을 확정하고 이르면 3월 서비스를 개시한다는 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2023.01.26.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>네이버·카카오 등도 중국발 해킹 경계태세…"아직 공격 없어"</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013720910?sid=102</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>금융 플랫폼, 경계태세 강화…카카오뱅크·토스 등 상시 모니터링 태세중국 해커그룹 "41개 데이터베이스 확보…한국 정부가 피해 은폐" 주장 중국 해커조직 공격 잇따라…12개 홈페이지 마비(CG)[연합뉴스TV 제공](서울=연합뉴스) 임성호 기자 = 중국 해킹 그룹이 설 연휴를 전후해 우리나라 학술 기관 등을 사이버 공격한 가운데 네이버와 카카오 등 국내 플랫폼 기업들도 경계를 강화하며 이용자 정보 유출 피해 등을 예방하는 데 주력하고 있다.    주요 포털을 비롯한 플랫폼들은 이번 중국발 사이버 공격과 연관된 피해 사례는 아직 없는 것으로 확인됐다면서도 해킹 그룹이 한국 내에서 광범위한 해킹 시도를 벌일 것이라고 경고한 만큼 긴장을 늦추지 않는 분위기다.    네이버는 26일 현재까지 네이버를 비롯해 네이버클라우드 등 관계사들을 겨냥한 해킹 시도나 피해는 없었다고 밝혔다. 이어 사이버 공격 가능성을 예의주시하면서 사용자들을 위한 다양한 보안 기능을 통해 개인정보 유출을 차단하고 있다고 강조했다.    우선 이용자가 설정한 지역 외에 타지역이나 해외에서 로그인되는 등 정상적이지 않은 로그인 시도를 탐지해 차단하고 있다. 또 아이디와 비밀번호가 타인에게 노출된 것으로 의심되는 경우에 메일이나 주소록 등 개인정보를 저장한 서비스에 접근하지 못하도록 계정을 보호조치 한다.    네이버는 강력한 보안 설정을 원하는 이용자들을 위해 '로그인 전용 아이디'와 2단계 인증, 일회용·QR코드 로그인 등의 서비스를 제공한다. 최근에는 비밀번호 유출에 따른 피해를 막기 위해 비밀번호 없이 본인 인증으로 로그인할 수 있는 '패스워드리스' 방식도 안드로이드 스마트폰에서 시범 도입했다.     카카오 역시 본사와 계열사들에 별다른 해킹 피해는 없다면서, 이용자 보호와 안전한 서비스 이용 환경을 위해 다양한 기술·물리적 보호 조치를 적용하고 있다고 설명했다.중국 해킹그룹, 국내 학술기관 홈페이지 해킹(춘천=연합뉴스) 양지웅 기자 = 우리나라 기관 등에 대한 사이버 공격을 예고했던 중국 해킹 그룹이 실제로 우리말학회, 한국고고학회를 비롯한 12개 학술기관의 홈페이지를 해킹한 것으로 25일 확인됐다. 사진은 강원 춘천시 효자동에 자리한 한국고고학회 사무실. 2023.1.25 yangdoo@yna.co.kr카카오는 계정에 한꺼번에 다수의 로그인이 발생하는 등 비정상적인 시도가 감지되면 계정을 보호조치하고 연결된 카카오톡 또는 카카오 계정 이메일 주소로 알림을 보낸다.    특히 보안이 더욱 중요시되는 카카오뱅크 등 카카오의 금융 계열사들은 이번 해킹 사태 이후 한층 경계 태세를 높여 침입 시도에 대비하고 있다.    카카오뱅크 관계자는 "금융 시스템을 악성코드 감염, 해킹 등 침해 위협이 높은 인터넷 환경으로부터 완전히 분리해 안전하게 관리하고 있으며, 고객 이용 서비스망은 글로벌 수준의 해킹 전문가 및 보안 전문가를 통해 보안 안전성을 수시로 검증하고 있다"고 설명했다.    해커의 공격 시도를 사전에 탐지하고 차단할 수 있도록 24시간 365일 상시 모니터링도 진행하고 있으며, 변화하는 기술 환경에 능동적으로 대응할 기술 체계도 마련했다고 카카오뱅크는 덧붙였다. 이런 조처 덕분에 카카오뱅크는 2017년 7월 서비스 시작 후 현재까지 단 한 건의 보안 사고도 발생하지 않았다고 강조했다.    모바일 금융 서비스 토스를 운영하는 비바리퍼블리카 역시 중국발 해킹 위협에 대응 태세를 강화했다.    토스 관계자는 "현재 금융보안원으로부터 확인한 중국 해킹 조직의 IP에 대해 차단 작업을 완료한 상태"라며 "모든 계열사에 걸쳐 통합보안관제 시스템을 구축해 위협 동향에 대해 상시 모니터링 진행 중이며 보안 취약점 역시 화이트해커로 구성된 보안기술팀을 통해 지속 개선 중"이라고 말했다.    앞서 보안 당국에 따르면 설 연휴 전후 중국 해킹 그룹은 한국 기관 등에 대한 사이버 공격을 예고한 뒤 실제 대한건설정책연구원과 우리말학회 등 12개 기관·학회 홈페이지를 해킹했다.     이 그룹은 이날 텔레그램 대화방에서 "(해킹을 통해) 41개 데이터베이스를 확보했다"면서 "아직 한국 정부는 피해를 본 사이트 전체를 공개하지 않고 있다. 이들이 국민을 속이는 수법으로 피해를 은폐하는지 여부도 공개하지 않고 있다"고 주장했다.     해킹 그룹은 2천여 곳의 정부·공공기관과 언론사 홈페이지 등에 대한 추가 공격도 예고했는데, 당국은 일단 이들이 과장된 목표 등을 제시하며 '세 과시'를 하려 한 것으로 보고 해커들의 정체와 정확한 목적을 확인하고 있다.     sh@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2023.01.19.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>구글코리아 직원행복도 4년째 1위…비결은 '포용성'</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004146832?sid=105</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>[블라인드 지수 2022 발표]구글코리아, 75점으로 4년째 1위포용적 문화·워라밸 등에 고득점기업 평균 40점···코로나 후 하락우수 기업 톱10 중 8개가 IT기업SKT·남동발전·넥슨 등도 상위권[서울경제] 지난해 구성원의 행복도가 가장 높았던 기업은 구글코리아인 것으로 나타났다. 한국 직장인 평균(40점)의 두 배에 가까운 점수(75점)을 얻어 4년 연속 1위를 차지했다. 특히 포용성을 중시하는 사내 문화에 힘입어 ‘심리적 안전감’ 부문에서는 모든 회사를 통틀어 최고점을 기록했다.19일 직장인 익명 커뮤니티 플랫폼 블라인드는 이같은 내용을 담은 직장인 행복도 조사 ‘블라인드 지수 2022’ 결과를 발표했다. 블라인드 지수(BIE·Blind Index of Employees’ Happiness)는 블라인드의 운영사 팀블라인드가 2018년 한국노동연구원 자문위원과 공동 개발한 지표다. 직장인이 회사에서 느끼는 주관적 행복도를 일·관계·사내문화 3가지 영역의 총 11개 항목으로 나누어 측정하며, 해당 기업의 재직자만 조사에 참여할 수 있다. 이번 조사에는 직장인 총 5만7319명이 참여했다.구글코리아의 행복도는 100점 만점 기준 75점으로 조사 대상 기업 가운데 1위를 차지했다. 4년 연속 최고 점수다. 워라밸(75점), 업무중요도(74점), 업무자율성(72점) 등 다양한 항목에서 고득점을 받았다. 특히 심리적 안전감 부문에선 모든 회사를 통틀어 최고점(71점)을 받았다. 심리적 안전감이란 어떤 의견을 제시해도 조직이 부정적으로 평가하지 않을 것이라고 믿는 정도로, 조직의 창의성에 영향을 미치는 요인이다.구글코리아가 4년 연속 1위를 차지할 수 있었던 배경에는 포용적인 조직문화와 이를 뒷받침하는 제도가 있다. 일례로 직원이 500명 안팎인 구글코리아는 사내 소수 그룹에 속한 직원이 소외감을 느끼지 않도록 체계적인 소모임 제도를 운영하고 있다. 소모임의 핵심은 ‘자발성’이다. 직원들이 직접 문제를 발견하고 해결에 나서면 회사는 적극 지원한다. 구글코리아가 최근 사무실 일부에 ‘유니버설 디자인(장애·연령 등과 상관 없이 누구나 편하게 공간을 이용할 수 있는 디자인 원칙)’을 적용하게 된 것도 장애 포용성 소모임의 아이디어에서 시작됐다. 민혜경 구글코리아 인사총괄은 “다양성과 포용성을 위한 노력은 마라톤과 같다”며 “회사가 꾸준한 노력을 기울여야 한다”고 강조했다.한편 구글코리아에 이어 우아한형제들(배달의민족), 비바리퍼블리카(토스) 등 IT기업들이 상위권에 다수 이름을 올렸다. 상위 10개 기업 중 SK이노베이션(096770)과 한국남동발전을 제외한 8개가 모두 IT기업이었다. 전체 직장인 평균 행복도는 40점으로 지난해와 동일한 수준에 머물렀다. 블라인드 측은 “직장인 행복도는 코로나19가 시작된 2020년부터 지속적으로 감소 추세를 보이고 있다”며 “회사에 소속감을 느끼는 정도인 조직 몰입도의 감소가 행복도 감소에 핵심적 영향을 미쳤다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2023.01.26.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>"출근 전 터치만 했는데 어느새 5만원"…티끌 모으기에 빠진 2030</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004843710?sid=102</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>25일 강모씨가 어플리케이션을 통해 모은 포인트들. (왼쪽) 캐시워크 앱에서는 1만1815 캐시를 모았고 (오) 알뜰교통카드에서는 지난해 7월부터 약 5만원을 환급 받았다. / 사진=강모씨 제공 #1. 직장인 강모씨(27)는 대중교통을 탈 때 가장 마지막 순서에 줄을 선다. 교통카드를 찍기 전에 스마트폰 애플리케이션(앱)으로 해야 할 일이 있기 때문이다. 알뜰교통카드 앱을 열고 '출발' '도착' 버튼을 누르면 350원까지 할인 받을 수 있다. 지난해 7월부터 강씨가 이렇게 적립한 돈은 약 5만원. 거기에 사용자 발걸음 수를 측정해 100 걸음당 1 캐시를 적립해주는 앱까지 이용해서 지금 1만1815 캐시까지 모았다. 1캐시는 1.4원으로 환급받을 수 있다. #2. 직장인 김동은씨(30) 역시 친구들과 카페를 가면 가장 마지막으로 계산을 한다. 페이코 앱을 켜고 삼성페이 결제를 하기 위해서다. 페이코로 결제를 하면 최대 10%까지 포인트 적립을 할 수 있다. 여기에 더해 김씨는 매일 토스페이 이벤트까지 참여해서 100원씩 적립 중이다. 지난 5개월 간 이렇게 해서 모은 돈은 약 4만1000원. 김씨는 그동안 모은 포인트 금액으로 4500원짜리 커피를 사 마셨다.최근 앱테크 하는 2030 세대들이 늘어나고 있다. 앱테크는 스마트폰 '앱'과 '재테크'를 합친 말이다. 과거에는 스마트폰 특정 앱을 사용하기만 해도 돈을 버는 활동을 의미했으나 이제는 앱을 이용해 수익을 창출하거나 지출을 줄이는 모든 활동을 지칭한다. 지난해 HR테크 기업 인쿠르트가 성인남녀 1707명을 설문 조사한 결과 75%가 현재 앱테크를 하고 있다고 밝혔다.  이 중 68.5%는 앱테크를 '매일 한다'고 답했으며, '일주일에 3일'(8%), '일주일에 5일'(7.9%)한다는 응답도 있었다.앱테크 유형도 다양해지고 있다. 초기에만 해도 출석체크를 하거나 스마트폰 잠금화면을 해제하면 포인트를 주는 앱이 많았다. 최근에는 걸음 수가 많을수록 포인트가 올라가는 만보기 앱을 비롯해 퀴즈, 게임, 행운의 룰렛 등을 적극적으로 참여하면 포인트가 쌓이는 미션 적립형 앱, 핸드폰을 사용하는 만큼 캐시가 적립되는 방치형 앱테크까지 생겨났다. 앱테크를 혼자서만 즐기지 않고 사람들과 적극적으로 공유하려는 움직임도 이어지고 있다. 온라인 커뮤니티나 카카오톡 오픈채팅방에는 '이번주 네이버페이 포인트 혜택 모음을 정리해서 올린다' 등 앱테크 정보를 다룬 글이 올라온다. 새로운 앱테크가 출시되면 서로 추천해주기도 하고 퀴즈 이벤트의 경우 서로 정답을 공유해주기도 한다. 1000여명이 넘게 모인 앱테크 관련 오픈채팅방만 10여개에 달한다. 2030 세대들은 앱테크에 나서는 이유로 소확행, 가성비 등을 꼽는다. 노력 대비 결과가 꽤 괜찮고 직접적인 보상을 받을 수 있는 테크라는 것이다. 평소 네이버페이와 캐시워크를 애용하는 김채은씨(26)는 "출근, 퇴근, 운동은 일상적인 일인데 버튼 몇 번 누르면 그 일들이 포인트로 쌓이니까 좋았다"고 말했다. 온라인 커뮤니티와 카카오톡 오픈 채팅방에 앱테크 정보를 공유하고 있는 모습. 왼쪽은 네이버페이 적립할 수 있는 링크 모음, 오른쪽은 토스, 타임스프레드 등 앱테크 퀴즈 정답. /사진=김지은 기자 시공간을 제약 받지 않은 점도 좋다고 했다. 토스페이로 앱테크를 하는 이준화씨(27)는 "심심할 때 누르면 되는 거니까 부담이 적다"며 "따로 내가 돈을 벌기 위해 어떤 것을 배우거나 취득하지 않아도 되는 점이 장점"이라고 말했다. 성취감을 끌어 올려준다는 의견도 있었다. 김예진씨(27)는 "만보기 앱 중에는 목표 러닝 시간을 정하는 것도 있다"며 "돈도 벌고 운동도 하고 일석이조"라고 말했다.이영애 인천대 소비자학과 교수는 "요즘 청년들은 새로운 것을 체험하고 그 안에서 재미를 느끼고 사람들과 공유하는 것에 익숙하다"며 "앱테크는 이런 모든 요소를 포함하는 일종의 놀이 겸 테크"라고 말했다.이어 "지금의 청년들은 취업, 내집마련에 어려움을 겪다 보니 이런 앱테크를 통해 직접적인 보상을 받으려는 심리도 있을 수 있다"며 "무분별한 가입으로 개인정보가 노출되는 것도 우려되는 점"이고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2023.01.23.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>카드사 新소비트렌드 ‘BNPL’…“먼저사고 나중에 결제”</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002677463?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>MZ세대‧금융씬파일러에 인기합리적 규제 마련 우선 돼야ⓒ픽사베이[데일리안 = 이세미 기자] 카드업계가 이른바 디지털 외상이라 불리는 선구매후결제(BNPL)에 주목하고 있다. 전 세계적으로 MZ세대들의 이용률이 증가하고 있어 국내서도 수익성 향상을 위해 보편화돼야 한다는 주장이 제기되고 있기 때문이다.다만 일각에선 취약차주들의 연체율을 심화시킬 수 있다는 우려와 함께 국내 BNPL 시장을 주도하고 있는 빅테크와의 규제 형평성 문제를 먼저 해소해야 한다는 지적이 나온다.23일 금융권에 따르면 지난해 6월 네이버파이낸셜과 카카오페이, 토스 3사의 BNPL 이용액은 202억5940만원에서 8월 281억8000만원으로 두 달 만에 39%가 증가한 것으로 나타났다. 카드사들이 지급결제 시장에 밀려나는 동안 빅테크사들이 이를 주도하며 몸집을 키우고 있는 것이다.국내 주요 BNPL 서비스는 네이버파이낸셜(네이버페이), 카카오페이, 토스, 등 빅테크 기업이 시장을 이끌고 있다. 반면 카드사 중에서는 현대‧롯데카드만이 BNPL서비스를 운영하고 있다.BNPL은 상품을 먼저 구매한 후 그 비용을 나중으로 미루는 이른바 ‘외상 거래’다. 신용카드 할부 결제와 구조가 비슷하지만 가입 절차가 간소하고, 연회비가 없어 금융이력이 부족한 MZ세대나 사회초년생, 자영업자, 씬파일러(금융 이력 부족자)들에게 인기다. 다만 신용 평가를 하지 않기 때문에 채무상환을 능력을 알 수 없어서 연체자를 다수 발생시킨다는 우려를 낳고 있다.그럼에도 불구하고, BNPL을 통해 더 많은 고객들이 더 많은 물건을 살 수 있어 카드사 입장에선 놓을 수 없는 시장인 셈이다.현대카드는 최근 온라인 패션플랫폼 무신사가 운영 중인 하위 플랫폼(앱) ‘솔드아웃’을 통해BNPL 서비스를 제공하고 있다. 서비스 이용자는 분할결제 한 금액을 구매 시점에 3분의 1을 결제하고, 나머지 금액을 이후 2개월간 나눠 결제하는 방식이다. 해당 서비스는 10만원 이상 50만원 이하의 단일 상품 결제 건에 적용된다.롯데카드의 베트남 현지 법인인 롯데파이낸스 베트남은 티키(Tiki)와 BNPL 서비스 출시를 위한 전략적 제휴를 맺고 무이자로 또는 비교적 낮은 금리로 2~3개월에 걸쳐 대금을 분할 상환하는 서비스 제공하고 있다.해외서는 이미 BNPL시장이 활성화돼 있다. 하나금융경영연구소에 따르면, 해외 주요 BNPL 기업인 애프터페이, 클라나 등은 지난해 거래 규모가 지난 2020년 대비 각각 98%, 76% 증가한 바 있다.호주 역시 전체 인구의 약 20%인 580만명이 BNPL 서비스 ‘에프터페이(Afterpay)’를 사용하고 있다. 미국, 유럽, 호주 등 해외에서는 신용카드의 대체재로서 BNPL이 새로운 소비 트랜드로 떠오르고 있다.카드사들은 BNPL시장이 미래 먹거리로 떠오르는 만큼 해당 시장에 대한 경쟁력을 키우기 위해 빅테크사와의 동일규제가 마련돼야 한다는 주장이다. 전문가들 역시 BNPL 시장에 대한 합리적인 규제마련이 필요하다고 강조한다. 특히 동일한 후불신용결제 기능이라는 영업행위에 대해 이원적인 규제체계를 둘 경우 규제 형평성 문제가 제기될 수 있다는 지적이다.신경희 자본시장연구원 선임연구원은 “카드사는 금융당국으로부터 카드 수수료율, 대손충당금 등에 대한 강한 규제를 받지만, 전자금융업자들이 수행하는 후불결제업무에 관한 규제는 없다”며 “전자금융업과 신용카드업 간의 규제차익이 발생하고, 신용카드사와 빅테크 간의 공정경쟁도 불가능해 적절한 규제 방안을 모색할 필요가 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2023.01.24.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>"플랫폼 규제 성급하다…하려면 철저히 국민이익 중심이어야"</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005411148?sid=105</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>[만났습니다]①박용후 피와이에이치 대표"EU 빅테크 규제법안 세계적 트렌드 아냐""대구 택시앱보다 카카오T 수수료 사실은 낮아""플랫폼 규제하려면 업종 기득권 아닌 국민입장에서"[이데일리 김현아 기자][이데일리 김태형 기자] 박용후 피와이에이치 대표[이데일리 김현아 기자]  “국민에게 해악이 되는가, 종사자에게 피해를 주는가가 아니면 플랫폼 규제는 신중해야 합니다. 맹목적인 ‘플랫폼 때려잡기’는 세계적인 트렌드가 아니죠.”박용후 피와이에이치 대표는 이데일리와의 인터뷰에서 “공정거래위원회의 ‘온라인플랫폼법’ 제정 같은 움직임은 구한말 일본군과 우리 관군이 힘을 합쳐 동학농민혁명을 탄압했던 슬픈 역사를 반복할 수 있다”면서, 플랫폼 규제에 신중해야 한다고 했다. 박 대표는 30년 동안 IT 산업에 몸담아온 전문가다. 국민의힘 미래산업일자리특별위원회 위원으로 활동 중이고, 기관과 스타트업 등 33곳을 자문하고 있다.플랫폼을 무조건 규제하자는 시각에는 잘못된 정보도 있다고 했다. 그는 “한 정치인이 카카오택시는 20%의 수수료를 받고, 대구택시는 5%의 수수료를 받으니 참으로 훌륭한 일을 한다고 했는데 이는 사실과 다르다”면서 “90% 정도의 일반택시 기사분들은 수수료가 0%다. 카카오모빌리티에 한 푼도 안내고 플랫폼의 혜택만 받는다. 나머지 가맹택시들 역시 20%를 받지만 추후 16.7% 정도를 데이터 제공비, 광고비 등의 명목으로 기사님들께 돌려 드린다. 이는 대구시의 5%보다 떼가는 수수료보다 훨씬 낮은 것”이라고 했다.그러면서 “택시호출 플랫폼이 생기고 나서 승차난이 개선되고 택시 서비스의 품질이 좋아졌다는 것은 많은 사람들이 느낄 것”이라면서 “이런 부분은 감춘 채 모빌리티 플랫폼을 악마화해 투쟁하려고 하는 집단이 문제라고 본다. 배달 앱 역시 코로나19 상황에서 식당들이 생존해 낼 수 있는 환경에 도움을 주지 않았나”라고 반문했다. “플랫폼을 규제하려면 소수의 업종 기득권 집단이 아니라, 국민입장에서, 종사자입장에서 문제가 있으면 규제한다는식으로 바꿔야 한다”고 힘줘 말했다.다음은 박 대표와의 일문일답.-미국과 유럽이 빅테크 규제 법안을 추진하는데 어떻게 보나▲미국 의회가 이른바 ‘빅테크 규제법안’을 논의했고, 유럽연합(EU) 의회 역시 비슷한 법을 통과시키면서 국내 언론엔 ‘글로벌 빅테크 규제’가 세계적인 트렌드인 것처럼 인식됐다. 하지만, 지난해 말 미국에서 빅테크의 자사우대와 불공정한 데이터 이용을 막는 것을 골자로 하는 빅테크 규제법(American Innovation and Choice Online Act, Open App Markets Act)들이 줄줄이 폐기된 사실은 잘 알려지지 않았다. 공화당이 반대했고 민주당이 소극적이었다. 결국, 플랫폼의 자사우대 행위라 해도 소비자의 이익이 증대된다면 허용이 된다는 기존의 소비자 중심의 시장경쟁 논리가 먹힌 것이다.-대통령은 ‘민간 주도의 성장으로 국민행복시대를 열겠다’고 했지만, 온라인 플랫폼 분야에서는 거꾸로 가는 것 같다▲원점이다. 플랫폼 자율규제를 통해 경제발전을 모색한다는 기치를 내걸고 출발한 정부지만 카카오 데이터센터가 입주해 있는 판교 데이터센터에 화재 이후 기조가 확 바뀌었다. 정부기관들은 기다렸다는 듯이 기업을 옥죈다. 전가의 보도처럼 세무조사가 들어오고, 카카오를 압박하는 정치적 행위들이 이어지고 있다.전 세계 수많은 회사가 전산 인프라로 쓰고 있는 아마존 클라우드 서비스인 AWS가 2021년 12월 세계적으로 먹통이 되었던 적이 있다. 이때 미국정부가 나서 AWS 먹통 방지법 만들었나? 아님 UN에서 제재를 했나?-공정위가 빅테크 규제 전선에 다시 뛰어든 이유는 뭘까▲정부 부처가 “뭔가 열심히 하고 있습니다”라는 것을 보여주려는 거라고 밖에는 이해가되지 않는다. 중요한 것은 어찌하면 이런 일이 반복되지 않게 할 수 있을까? 좀 더 슬기롭게 대비할 수 있을까에 대해 생각을 모으는 것이 우선 아닐까? 네이버나 카카오는 정말 빅테크일까? 카카오의 매출은 2021년 기준 6조 1361억으로 597조인 아마존의 100분의 1도 채 되지 않는다.-카카오는 계열사 187개나 되는 문어발 기업이라는 비판도 있는데▲정말 그럴까? 카카오는 사실 본체, 뱅크, 페이, 모빌리티, 게임즈, 엔터테인먼트 등 6개 회사다. 나머진 인큐베이션 하는 거고. 이런 관점은 어떤가. 187개 회사를 6명의 부모가 키우는 거라고. 있는 사업을 쪼갠 게 아니라, 밖에 있던 스타트업들을 제값 주고 인수해 나라에 도움되도록 키운다는 관점 말이다. 카카오엔터테인먼트만 해도 작은, 독립경영을 바라는 50여 개 기획사·제작사들이 합쳐진 회사다.자꾸 문어발 이야기를 하는 건, 더 이상 입양하지 말라는 거다. 네이버 D2SF나 카카오벤처스 등의 투자는 가뭄에 단비다. 종사자들에게도. 배달의 민족에 이런 말이 있다. “최고의 직장은 없다. 최고가 돼 떠나라”. 네이버·카카오가 스타트업 생태계에 도움을 주도록 하는 게 필요하다.-네이버, 카카카오, 토스 같은 플랫폼들은 잘하고 있는 건가.▲솔직히 불쌍하다는 생각이 많이 든다. 이뤄낸 일, 하고있는 일에 비해 비난의 크기가 더 크니까. 모든 정권이 약속이나 한 것처럼 ‘규제철폐’를 목소리 높여 외친다. 그러나 말로만 규제철폐를 외치면서 실제로는 기업을 압박하는 일은 당연하다는 듯 계속한다. 이런 환경에서 누가 창업을 하고, 누가 투자를 할까?빅테크 기업도 반성해야 할 부분이 많다. 카카오는 자사 이익 위주 생태계다. 여러 회사들이 카카오가 만든 멋진 생태계를 공유하면서 더 큰 생태계로 진화해야 한다. 카카오 주주만 200만이 넘는다. “대한민국에 이런 기업이 있어 자랑스럽다”는 말을 들을 수 있도록 여러 기업들이 함께 성장할 수 있는 밑받침이 돼 줄 수 있어야 한다. 네이버나 토스도 마찬가지다. 얼마 전 네이버파이낸셜이 핀다의 API를 베꼈다는 논란이 일었다. 빅테크도 스타트업이었던 시절이 있었다. 입장을 바꿔 생각해 봐야 한다. 스타트업이 고생고생하면서 일군 서비스가 시장의 인정을 받을 무렵 빅테크가 비슷하게 만들어 아무 힘도 들이지 않고 은근슬쩍 진입하는 방식은 공정한 경쟁이 아니다. 그 시장이 탐나면 고생한 기업을 정당한 대가를 주고 사주거나 아니면 협업해서 시장을 함께 키우는 방식이 옳다. [이데일리 김태형 기자] 박용후 피와이에이치 대표-유럽에서 디지털시장법이 내년 4월 상반기 입법된다. 우리나라에서도 유사 규제를 도입하자는 이야기가 나온다▲유럽의 DMA(디지털 시장법, Digital Market Act)와 DSA(디지털서비스법, Digital Service Act)은 미국기업들에 대해 유럽의회 입장에서 행하는 법이다. 바꿔 말하면 자국기업을 보호하기 위해 이런 법이 만들어진다는 의견도 강하다. 그러나 우리나라는 자국 서비스에 대해 자국 정부 입장에서 만드는 규제라는 것을 간과해서는 안 된다.글로벌 기업에는 제대로 된 쓴소리 한마디 못하면서 국내기업은 고양이 쥐 잡듯 한다는 비난을 듣지 않도록 국회나 정부는 노력해야 할 것이다. 우리나라는 전 세계적으로 흔치 않은 자국 플랫폼들이 해외 플랫폼에 맞서 잘 경쟁하고 있는 나라 아닌가.-바람직한 온라인 플랫폼 정책은 무엇일까▲ ‘국민’ 중심으로 생각돼야 한다. 사용자의 일상이 편해지고 좀 더 좋아지는 것이 먼저다. 그다음으로 그 업에 종사하는 분들의 이익이다. 이러한 것을 가장 잘 역설적으로 잘 보여주는 예가 바로 타다 서비스가 정치권에 의해 없어졌던 것이다. 150만명 이상이 이용하고 있었고, 2만명 가까운 종사자가 있었는데도 정치권에서는 일부 이익집단을 위해 없애 버렸다. 그 결과를 우리는 퇴근길 택시대란에서 본 것처럼 불편함이라는 결과로 돌려받았다.-스타트업이 자본시장이 말라붙어 걱정이다.▲위기다. 혹한기는 이미 시작됐다. 기업들의 생태계를 전혀 이해하지 못한 무식한 정치꾼들이 기업들을 두들겨 패고, 손가락질한 결과는 투자위축이라는 결과로 이미 돌아오고 있다. 거기에 세계적 경제위기가 더해지니 거의 절망적이다. 무지한 정치, 못된 정치가 어떻게 경제를 망가뜨리는 지의 한 단면이라고 생각한다. 투자할 수 있는 주체의 팔을 비틀면서 일자리를 만들어라! 경제활성에 앞장서라는 식의 앞뒤가 안 맞는 정치의 태도가 바로잡히지 않는다면 대한민국 스타트업계는 고사하고 말 거다.-앞으로 유망한 스타트업 분야는 어디라고 보는가▲핀테크, 원격의료를 포함한 디지털헬스 분야, 인공지능(AI)관련 분야를 꼽고 싶다. 앞 두 분야는 헤게모니 싸움이 치열한 시장이다. 힘이 센 기득권이 떡 버티고 서서 신박한 아이디어가 넘어갈 수 없는 벽들을 만들어 놓은 분야다. 정치가, 정부가 도와서 이 벽을 부실 수 있어야 새로운 세상이 열릴 수 있다. 원격의료분야는 코로나19로 아주 작은 시도를 해볼 기회를 가졌다. 회사에 반드시 출근해야 업무를 할 수 있다는 관념은 깨졌다. 핀테크 분야도 비슷하다. 스타트업의 시도로 금융이 어떻게 진화할 수 있는지 이미 예고편을 보여줬다.-바람직한 스타트업 정책은 무엇일까▲스타트업을 시작하는 단계에서는 규제샌드박스 등의 활성화를 통해 각 분야에서 더 많은 도전과 시도들이 이뤄질 수 있도록 정부가 도와줘야 한다. 실패와 성공의 크기를 떠나 스타트업들이 개척하거나 만든 시장에 대한 노력을 충분히 인정하고 가치를 보호할 수 있는 제도가 필요하다. 다만, 시장에 빅테크나 대기업이 차별화된 가치 창출 없이 그냥 쉽게 그대로 들어오는 것은 고민해 봐야 한다. 빅테크나 금융지주사 등 대기업 시장 진출 시 윤리의식과 책임을 정성 평가하는 선진화된 장치 도입도 필요해 보인다.-윤석열 정부가 가장 시급하게 해결할 ICT 분야 정책은 무엇이라고 보는가▲제발 겉으로만 ICT기업을 위하는 척하지 말아달라. 기업인을 죄인시 하면서 일자리는 많이 만들라고 하고, 세금도 많이 뜯어낸다. 제가 모 유력정치인에게 들은 말 가운데 들은 가장 충격적인 말은 이 말이었다. 플랫폼 기업을 “서버 몇 대 갖다놓고 통행세 받는 것들”이라는 표현이었다. 제발 세상이 어떻게 바뀌었고, 플랫폼을 통해 어떻게 가치가 이동하고, 세상이 어떻게 바뀌어 갈지 기본적인 개념 정도는 장착하신 분들이 정치를 하셨으면 하는바람이다.△박용후 대표는 (주)피와이에이치 대표이사(관점 디자이너), 국민권익위원회 적극행정위원, 국가정보원 사이버센터 자문위원 등</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2023.01.16.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>취약층 대출절벽에… 100만원 미만 ‘긴급소액대출’ 3월 출시</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003332556?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>1000억 규모 금리 연 15.9% 수준최고금리 개편, 국회 반대에 보류법정 최고금리 추이금융당국이 오는 3월부터 취약 차주들을 대상으로 100만원 미만의 ‘긴급소액대출’을 출시하는 방안을 논의하고 있다.금융당국은 서민 대출의 숨통을 틔우기 위해 오는 3월부터 1인당 50만~100만원 수준의 긴급 생계비 대출 상품 출시를 준비 중인 것으로 15일 알려졌다. 공급 목표는 총 1000억원 규모다. 100만원 기준 최소 10만명이 이용할 수 있다. 금리는 이전처럼 연 15.9% 수준일 가능성이 높지만 경기침체기에 취약계층을 상대로 정부가 너무 높은 이자를 책정한다는 비판도 나올 수 있어 추가 협의 과정을 거칠 것으로 보인다.금융당국 관계자는 “시중금리가 오르면 끝단에 있는 사람들부터 제도권에서 탈락하기 쉽다”며 “상황이 급박하게 돌아가다 보니 긴급 생계비 대출 출시를 최대한 앞당기려고 한다”고 밝혔다.당국이 취약계층을 위한 긴급 소액 대출 출시를 서두르는 것은 제도권 대출 절벽이 현실화됐기 때문이다. 현재 캐피털·저축은행 등 2금융권 업체 10여곳은 토스 등 대출 중개 플랫폼을 통한 대출 신청을 막아 둔 지난 연말부터 계속 막고 있는 상태다. DGB 캐피탈, 웰컴 캐피탈은 신용대출 신청을 받지 않고 있다. 캐피털 업계 1위인 현대캐피탈도 지난해 말 외부 플랫폼을 통한 신규 대출 영업을 중단했다.특히 예가람·대신·고려·DB저축은행 등은 ‘햇살론’ 신청마저 받지 않고 있다. 햇살론은 제도권 금융을 이용하기 어려운 저소득·저신용층을 위한 정책금융상품이다.저축은행 관계자는 “역마진 우려로 햇살론을 취급하기 어렵다”고 말했다. 제도권 금융 최후 보루인 대부업쪽도 상황이 비슷한다. 대부업체 관계자는 “기준금리 인상으로 조달금리는 지속해서 오르고 연체율도 상승하고 있어 현실적으로 금융당국의 대출 재개 권고를 수용하기 어렵다”고 밝혔다.금융당국은 연 20%에 묶인 법정 최고금리가 금리 급등기 오히려 서민을 사채시장으로 몰아갈 수 있다는 지적에 따라 최고 금리를 시장금리에 연동시키는 방안도 검토했으나 국회의 반대로 논의가 보류된 상태다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2023.01.20.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>5대 시중은행 예대금리차, 우리은행 가장 높고 KB 낮아</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011654132?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>기사내용 요약12월 가계예대금리차 우리 1.30%p, 국민 0.65%p은행권 최대 전북은행 6.90%p…기업은행 0.54%p 최저[서울=뉴시스]이주혜 기자 = 지난달 5대 시중은행 중 우리은행의 가계대출과 예금의 금리차이가 가장 큰 것으로 나타났다. 반면 KB국민은행의 가계 예대금리차가 가장 작았다.20일 은행연합회 공시에 따르면 지난달 신규 취급액 기준 우리은행의 가계 예대금리차는 1.30%포인트로 5대 시중은행 중 가장 컸다. 가계 예대금리차는 가계 대출금리에서 저축성수신금리를 뺀 것이다.이어 농협은행 1.00%포인트, 신한은행 0.91%포인트, 하나은행 0.85%포인트, 국민은행 0.65%포인트로 나타났다. 우리은행 관계자는 "지난달 햇살론15(연 15.9%) 취급액이 1140억원으로 전월(530억원) 대비 두 배 이상 증가한 영향에 예대금리차가 크게 나온 측면이 있다"면서 "지난달 햇살론15 취급액이 다른 은행의 평균에 비해 720억원가량 많다"고 설명했다.농협은행은 지난해 8월부터 11월까지 4개월 연속 5대 은행 중 가계 예대금리차가 가장 컸으나 전월보다 금리차가 줄면서 두 번째로 물러났다.인터넷전문은행 중에서는 토스뱅크가 5.48%포인트로 가장 높았다. 케이뱅크는 2.47%포인트, 카카오뱅크는 1.83%포인트로 나타났다.지방은행과 외국계 은행을 포함한 공시 대상 19개 은행 중 가계 예대금리차가 가장 큰 곳은 전북은행으로 6.90%포인트다. 가장 작은 곳은 IBK기업은행으로 0.54%포인트다.정책서민금융(햇살론뱅크, 햇살론15, 안전망 대출Ⅱ, 최저신용자 특례보증)을 제외한 가계 예대금리차는 5대 시중은행 중 농협은행이 0.94%포인트로 가장 컸다. 이어 우리은행 0.77%포인트, 하나은행 0.69%포인트, 신한은행 0.63%포인트, 국민은행 0.61%다.기업대출을 포함한 예대금리차는 우리은행 1.38%포인트 신한은행 1.19%포인트 농협은행 1.15%포인트, 국민은행 1.10%포인트, 하나은행 1.01%포인트로 집계됐다.19개 은행 중 정책서민금융을 제외한 가계 예대금리차가 가장 큰 곳은 전북은행으로 5.71%포인트다. 제주은행이 0.46%포인트로 가장 작았다. 기업대출을 포함한 예대금리차가 가장 큰 은행은 전북은행(6.07%포인트), 최소는 한국씨티은행(0.63%포인트)이다. 예대금리차 공시 대상 중 한국씨티은행은 소비자금융 업무의 단계적 폐지 결정에 따라 지난해 2월15일부터 개인고객 신규 거래가 중단됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2023.01.23.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>[팩트체크] 후불결제 서비스는 연체해도 신용점수 안 떨어진다?</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013714989?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>해외서 대중화한 'BNPL', 국내선 네이버·카카오가 월 15만∼30만원 규모로 제공업체들, '대안신용평가' 거쳐 신용도 낮은 프리랜서·주부 등에 신용 서비스결제대금 연체해도 신용등급엔 영향 안 미쳐…"대책 필요" 지적도(서울=연합뉴스) 정성호 기자 이아미 인턴기자 = MZ 세대 사이에서 당장 돈이 없더라도 상품을 우선 구매한 뒤 일정 기간 후 대금을 갚는 '후불결제' 서비스가 인기를 끌고 있다.    후불결제는 일종의 디지털 외상 거래로, '먼저 사고 나중에 결제한다'(Buy Now, Pay Later)는 뜻에서 BNPL로도 불린다. 미국, 호주 등 해외에선 이미 대중적인 결제 수단으로 자리 잡아가고 있다.    우리나라에선 금융위원회가 2021년부터 네이버파이낸셜, 카카오페이, 비바리퍼블리카(토스)를 '혁신금융서비스'로 지정해 예외적으로 신용카드업 허가를 받지 않고도 후불결제 업무를 할 수 있도록 했다. 혁신금융 지정은 한 차례 기간이 연장돼 2024년까지 특례가 인정된다.    이런 정보통신(IT) 기업은 학생·주부·사회초년생 등 금융거래 실적이 빈약해 신용카드를 발급받기 어려운 '신 파일러'(Thin Filer)를 주 타깃으로 후불결제를 운영하고 있다.    후불결제는 신용카드와 비슷해 보이지만 신용카드보다 이용금액 한도는 낮다. 네이버파이낸셜과 토스의 경우 월 30만원, 카카오페이는 15만원까지 후불결제를 이용할 수 있다. 그러나 이자가 발생하는 한도·리볼빙·현금서비스는 엄격히 제한된다.    혁신금융서비스로 지정된 세 기업 외에도 쿠팡과 일부 중소 쇼핑몰이 BNPL을 표방하며 후불결제 서비스를 속속 내놓고 있다.    하지만 일부 인터넷 커뮤니티에선 우려의 목소리도 나온다. 한 이용자는 "신용카드는 신용도를 조회한 뒤 돈을 빌려주지만, BNPL은 신용불량자든, 미성년자든, 아무나 이용할 수 있는 것"이라고 지적했다.    정말로 후불결제 서비스는 신용평가 절차를 거치지 않는 걸까? 또 후불결제를 이용한 뒤 대금을 연체했을 때 신용등급에는 어떤 영향이 있을까?후불결제 진행과정[국회입법조사처 '전자금융업자의 후불결제 규제 시 고려사항' 캡처]    결론부터 말하면, 기업들은 자체적으로 대안신용평가 모델을 만들어 심사하는 절차를 거치기에 후불결제를 아무나 이용할 수 있는 것은 아니다. 또 현행 법체계에서 후불결제 서비스를 이용한 뒤 대금을 연체해도 신용등급에는 영향이 없다.    핀테크 기업들은 고객이 후불결제 이용을 신청하면 대안신용평가 심사를 한다. 심사를 통과하지 못하면 후불결제 서비스를 이용할 수 없다. 하지만 심사에 탈락하는 고객 비율이 그리 높지는 않다는 게 네이버파이낸셜의 설명이다. 일부 기업은 심사 결과에 따라 이용한도를 차등화하기도 한다.    대안신용평가에는 금융정보(기존 신용평가사로부터 받은 신용정보)는 물론 비(非)금융정보가 사용된다. '페이' 서비스 사용 내역과 구매행동 패턴 등이 비금융 정보에 해당한다. 이를 통해 지급 능력은 있지만 신용카드를 발급받지 못했던 신 파일러를 선별해 고객으로 유치한다.    카카오페이 관계자는 "신용평가사가 제공하는 신용정보, 결제·송금과 같은 카카오페이 이용자 행동 데이터(카카오페이 평점)를 기반으로 대안신용평가 시스템인 'K-CSS(Kakaopay-Credit Scoring System)'를 구축했다"고 밝혔다.    이어 "기존에 금융회사가 가지고 있지 않은 플랫폼 이용 정보를 통해 사회 초년생 등 금융 이력 부족자들도 대안신용평가를 받을 수 있도록 했다"고 설명했다.    네이버파이낸셜도 프리랜서나 자영업자, 주부 같은 신 파일러는 금융 이력이 적을 뿐 신용도가 나쁜 사람이 아니기 때문에 상환 능력은 충분하다고 보고, 후불결제 서비스를 통해 신용카드가 다 충족하지 못하는 수요까지 채워주려 하고 있다.네이버페이 후불결제 신청 화면[재판매 및 DB 금지]    물론 이처럼 대안신용평가를 거쳐 검증된 고객이라고 하더라도 연체의 위험은 언제나 존재한다. 하지만 소비자가 후불결제 대금을 연체하더라도 신용점수가 떨어지진 않는 것으로 확인됐다. 금융위가 혁신금융서비스를 지정할 당시 신용평가와는 연동하지 않는다는 조건을 걸었기 때문이다.    이에 대해 금융위 관계자는 "이용한도가 소액이기도 하고, 후불결제 서비스의 취지 자체가 금융 이력 부족자나 소외계층을 배려하는 것이기 때문에 이들이 연체했다고 해서 신용등급에 영향을 미치게 하지는 않기로 했다"고 말했다. 이어 "하지만 연체가 발생하면 당연히 (후불결제) 서비스는 즉시 중단되고, 기업 차원에서도 (빌려준 돈을 합법적으로 돌려받는 방법을 규정한) 채권추심법에 따라 추심 절차를 진행한다"고 설명했다.    그러나 현재까지는 법적으로 연체를 처리할 수 있는 뾰족한 규정이 없는 실정이기에 기업들은 이자 부과나 혜택 및 서비스 이용 제한 등의 불이익을 주는 것으로 대응하고 있다. 네이버파이낸셜은 후불결제 연체자에 대해 연 12%의 높은 연체이자율을 부과하고 있다. 연체채권은 사실상 회사 손실로 계산된다.    신용카드사는 수개월 이상의 장기연체 채권의 경우 매각 등의 조처를 할 수 있지만, 후불결제 업체의 경우 실질적으로 할 수 있는 건 전화·문자·우편을 통한 서면 통지와 출금 시도 정도다. 카카오페이도 이런 방식으로 연체 대응을 하고 있다.    카카오페이는 또 장기연체 채권에 대해서는 외부 신용정보사로 채권을 위임해 추심을 진행할 예정이라고 밝혔다.    후불결제를 제공하는 기업 간 연체자 정보가 공유되지 않는 점도 문제로 지적된다. 후불결제는 카드사와 빅테크 간, 그리고 빅테크와 빅테크 간에도 연체자 정보 공유가 제도적으로 막혀 있다.    이는 업체 간에 연체 고객 정보가 공유돼 하나의 카드를 장기연체하면 연체하지 않은 다른 카드까지 사용할 수 없게 되는 신용카드와 대비된다. 후불결제는 장기연체를 하더라도 타사의 후불결제 서비스를 여전히 이용할 수 있다.    지난해 4월 국회 정무위원회 소속 국민의힘 윤창현 의원이 금융감독원에서 받은 자료에 따르면 작년 3월 말 기준 네이버페이의 후불결제 연체율은 1.26%로, 2021년 말 국내 카드사의 신용판매 연체율인 0.54%보다 약 2배 높았다.    다만 신용카드는 한도가 수천만원인 데 비해 후불결제의 한도는 최대 30만원임을 고려하면 1대 1 비교는 어려운 측면이 있다.    작년 10월에는 같은 정무위의 이용우 의원(민주당)이 후불결제가 이용자들의 연체 위험을 높일 수 있다며 적절한 규제가 필요하다고 지적했다.    현재 국회에는 전자금융거래법(전금법) 일부 개정안이 계류돼 있지만 여기엔 연체 공유 등에 대한 명확한 내용은 포함되지 않고 있다.    금융위는 후불결제 연체자 정보 공유가 되지 않는 이유를 묻는 연합뉴스의 질의에 "(연체자 정보도) 신용정보이기 때문에 정보가 오고 가기 위해는 고객 동의를 비롯한 적당한 조치가 전제되어야 한다"면서 "연체자 정보 공유를 못 하게 하겠다는 것이 아니라, 추후 검토를 거쳐 진행하게 되지 않을까 싶다"고 말했다.혁신금융서비스 지정 브리핑하는 권대영 금융혁신기획단장(서울=연합뉴스) 권대영 금융위 금융혁신기획단장이 19일 정부서울청사 합동브리핑실에서 새로 지정된 혁신금융서비스에 관해 설명하고 있다. 2019.12.19 [금융위원회 제공. 재판매 및 DB 금지]    한편 금융위의 혁신금융서비스로 지정되지 않은 쿠팡도 '나중결제'라는 이름의 후불결제 서비스를 운영하고 있다. 쿠팡은 운영 방식이 조금 다르다.    직접 BNPL 사업자가 되어 판매자와 소비자를 중개하는 네이버파이낸셜, 카카오페이와 달리 쿠팡은 직매입한 물건에 한해 '외상' 개념으로 후불결제 서비스를 제공한다.    기업이 자체적으로 물건을 사들이고, 외상 판매로 인한 손해가 발생할 경우 손해를 모두 부담하는 구조이기 때문에 쿠팡은 금융위의 규제를 받지는 않고 있다.    쿠팡 역시 자체적으로 후불결제를 이용할 수 있는 고객을 선별하는 과정을 거친다. 그러나 쿠팡은 구체적인 기준은 밝히지 않고 있다. 고객마다 후불결제 한도 금액도 천차만별로 책정된다. 또 네이버파이낸셜과 카카오페이가 할부를 제공하지 않는 것과 달리, 쿠팡은 작년 9월까지는 최대 11개월 후불결제 할부 서비스를 제공하기도 했다.    그러나 쿠팡도 장기 연체자에 대한 뾰족한 해결책은 없는 상태다. 네이버파이낸셜, 카카오페이와 유사하게 후불결제 채무가 금융 채무가 아니다 보니, 금융 관련 법령이나 신용정보 관련 법령을 적용할 수 없다. 외상으로 판매한 물건에 대해 채권 추심이나 양도를 민사로 진행할 수 있는 정도다.    카드업계도 후불결제 시장에 관심이 높다. 현대카드는 작년 7월 국내 카드사 최초로 한정판 마켓 '솔드아웃'에서 후불결제 서비스를 개시한 바 있다.    네이버파이낸셜과 카카오페이는 전자금융거래법상 선불업자에 해당하기 때문에 후불결제를 서비스하기 위해선 금융위의 특례 지정이 필요했지만, 카드사는 별도의 절차 없이도 비회원 신용대출 상품을 취급할 수 있다. 이 때문에 한도와 할부 설정도 비교적 자유롭다. 물론 카드사 간 연체정보 공유도 가능하다.    현대카드 관계자는 통화에서 "현재까지는 후불결제 한도도 크지 않은 상황이고 꼭 필요한 사람들만 사용하는 형태라 신용카드를 경쟁적으로 대체할 것이라 보진 않는다"면서 "후불결제가 기업 입장에서 수익성이 좋은 것은 아니지만, 고객의 편의성을 높이는 차원에서 제공하고 있는 것"이라고 말했다.    meteor3021@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2023.01.20.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>티끌 모아 태산! 쏠쏠한 스마트폰 '앱테크' 꿀팁 (손희애 금융 크리에이터)｜머니클라스</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/437/0000329449?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>■ 인용보도 시 프로그램명 'JTBC 상암동 클라스'를 밝혀주시기 바랍니다. 저작권은 JTBC에 있습니다.■ 방송 : JTBC 상암동 클라스 / 진행 : 이가혁[앵커]경제를 잘 알지 못하는 사람을 위한 당장 내 돈이 되는 지식 '머니클라스' 오늘(20일)의 키워드 먼저 보시죠. &lt; 티끌 모아 태산! 스마트폰 속 쏠쏠한 앱테크 팁 &gt; 물가는 오르고 월급은 '덜' 오르고 경기 전망은 좋지 않고 어째 돈 모으기가 갈수록 더 어려워지는 느낌입니다. 한두 푼이 아쉬운 요즘에 MZ 세대들 사이에서는 말 그대로 티끌 모아 돈 버는 '짠테크'가 대유행이라는데요. 그중에서도 스마트폰만 있으면 언제 어디서나 쉽게 할 수 있는 '앱테크'가 인기입니다. 앱으로 적게는 커피 한 잔, 많게는 치킨 한 마리 값 정도는 벌 수 있는 방법, 전문가와 함께 알아보겠습니다. 부자되는 개념 쏙쏙 알려주는 손희애 금융 크리에이터와 이야기 나눠보겠습니다. 안녕하세요.[손희애/금융 크리에이터 : 안녕하세요.][앵커]돈벌 수 있는 앱이라고 하면 만보기처럼 걸어가는 걸음수 측정해서 포인트 주고 이런 거 있잖아요. 또 어떤 게 있을까요?[손희애/금융 크리에이터 : 우리가 앱이랑 재테크의 합성어라서 앱테크잖아요. 사실 앱으로 포인트 쌓고 또 현금을 쌓아가지고 이걸 현금화까지 할 수 있기 때문에 굉장히 좋은 서비스들인데요. 우리가 대표적으로 앱테크의 3대 주자 그러니까 대표적인 세 개를 제가 한번 우선 설명을 드려보도록 하겠습니다. 우리가 캐시워크라고 걸으면 우리가 만보기처럼 포인트를 받을 수 있는 앱 많이들 들어보셨을 것 같아요. 캐시워크 같은 경우에는 우리가 100보당 1원, 1만보당 100원을 받을 수 있는 포인트를 주는 그런 서비스인데 '에계 100원'이라고 생각하실 수도 있지만 사실 우리가 생각보다 의식하지 못하면서 걷는 걸음수들이 굉장히 많습니다. 아침에 출근하면서 집에서 지하철역까지 간다거나 회사에서 또 점심 먹으러 가기 위해서 식당까지 또 이동하잖아요. 그걸 내가 생각하지 못했던 그런 걸음들이 쌓여서 포인트로 100원으로, 200원으로 들어온다고 하면 또 이거 모아서 커피 한잔 딱 사먹었을 때 얼마나 또 굉장히 뜻깊겠어요. 그렇게 우리가 활용을 하면 될 것 같고요.][앵커]기왕 걷는 거.[손희애/금융 크리에이터 : 그리고 캐시슬라이드라고 우리가 휴대폰에 잠금해제를 하잖아요. 이때 광고를 잠깐 보면서 포인트를 쌓을 수 있는 서비스인데요. 이것도 우리가 2000원 이상 모았을 때에는 현금화를 할 수 있기 때문에 이걸로 편의점에서 돈으로 사용할 수 있어서 굉장히 좋은 서비스라고 볼 수 있습니다. 그리고 또 세 번째로 우리가 설문조사를 하면서 돈을 받을 수 있어요.][앵커]설문조사?[손희애/금융 크리에이터 : 예전에는 길에서 '설문조사 부탁드려요.' 이렇게 했었잖아요. 이제는 자진해서 패널나우 같은 서비스에 들어가서 내가 원하는 서비스. 예를 들어 제가 관심 있는 분야가 있을 수 있잖아요. 그럼 그런 분야에서 설문조사를 골라서 설문조사를 하고 포인트를 받을 수 있고요. 이것도 현금화가 가능하고 제가 대표적으로 패널나우를 캡처해서 가져오기는 했지만 이 외에도 포털사이트에 설문조사 참여라고 검색하시면 많은 사이트들이 있으니까 검색하셔서 참여해 보시면 좋을 것 같습니다.][앵커]걸으면서 돈벌기 그리고 스마트폰 잠금화면 해제하면서 돈 벌고 그리고 설문조사 참여하면서 돈벌기 좋네요. 요새 은행앱에서도 앱테크, 짠테크 서비스 제공한다고 들었거든요.[손희애/금융 크리에이터 : 맞아요. 요즘에 사실 지점을 찾아가기보다는 비대면으로 애플리케이션을 많이 활용하시잖아요. 그러니까 기존에 있던 앱에서 추가로 설치를 해야 되는 게 아니고 기존의 은행 앱에나 짠테크나 앱테크 서비스들과 결합을 해서 그걸 활용하는 것만으로도 포인트를 쌓을 수 있도록 서비스를 제공하는 거예요. 대표적으로 제가 토스에서 만보기 기능을 가져와봤습니다. 이렇게 토스의 앱을 캡처해서 가져온 건데 만보기 기능을 켠 상태에서 우리가 걸으면 특히나 특정 지역에 갔을 때에는 이렇게 상암근린공원에 가면 20원 지급처럼 특정 지역에 갔을 때에 추가 포인트를 받을 수 있는 것도 있거든요. 근린공원 가시면 20원 받으실 수 있습니다.][앵커]좋네요.[손희애/금융 크리에이터 : 이렇게 해서 걸으면서 포인트 같이 쌓을 수 있는 거고요. 또 토스에서는 만보기 기능뿐만 아니라 행운복권 서비스도 제공하고 있어요. 보시는 것처럼 재물운이나 성공운이나 내가 오늘 점치고 싶은 운을 클릭을 해 주시면 이렇게 8원, 그러니까 소액의 포인트를 받으실 수 있는 건데요. 그러니까 재미도 챙기면서 이렇게 포인트까지 쌓을 수 있으니까 괜찮은 앱테크라고 볼 수 있는 거죠.][앵커]액수가 크지 않은 것 같아도 모아 모으면 있으니까요. 또 뭐가 있나요.[손희애/금융 크리에이터 : 인터넷 전문은행인 K뱅크에서도 우리가 행운상자를 제공을 합니다. 신규 회원에게도 100개까지도 지급을 하는데요. 이걸 친구에게 공유를 하면 포인트를 받을 수가 있는 건데 우리가 적게는 20원에서 많게는 10만 원까지.][앵커]10만 원? 센데.[손희애/금융 크리에이터 : 랜덤이긴 하지만. 이분 같은 경우에는 28원을 받으셨습니다. 또 한 번 돌리면 10만 원에 베팅을 해 볼 수 있는 거고요. 재미도 챙기면서 앱에서 포인트 쌓으실 수 있는 거고요. 또 삼성에는 금융앱이 많이 있어요. 삼성에서 운영하고 있는 금융 4사가 통합앱 모니모라는 앱을 운영을 하고 있는데요. 그 앱에서는 우리가 모니모에서 앱테크를 통해서 출석체크를 한다거나 혹은 만보기 기능을 켜둔다거나 혹은 기상, 내가 몇 시에 일어나겠다라고 설정을 해 뒀는데 그 시간에 일어났다라는 걸 인증을 한다거나 다양한 앱에서 우리가 인증을 하면 이 삼성모니모에서는 포인트를 젤리라고 불러요. 그래서 이 젤리포인트를 쌓아서 이것 역시 카드포인트로 카드포인트 실제로 쓴다거나 현금화까지도 할 수 있습니다.][앵커]젊은층 사이에서 무지출 챌린지까지 하잖아요. 하루에 돈을 안 쓰기까지 하니까. 사실 이게 '액수가 적어'라고도 누군가는 볼 수 있지만 이게 기왕 자기가 생활하면서 스마트폰 들고 다니면서 최대 10만 원까지 행운이 있다고 하니까 안 쓸 이유는 없을 것 같기도 합니다. 그리고 카드 결제를 하고 나서요. 저 요새 영수증 안 받거든요. '영수증 버려주세요' 하는데 이것 꼭 챙겨야 된다고 이게 또 돈벌이로 연결된다는 또 말도 있어요.[손희애/금융 크리에이터 : 맞아요. 제가 사실 굳이 요청드리지 않아도 이미 인쇄돼 있는 상태에서 그냥 '버려주세요.' 하는 상황이 많이 있잖아요. 이걸 활용해서 포인트를 쌓고 또 현금처럼 쓸 수 있는 방법이 있는데 대표적으로 네이버의 네이버 마이플레이스를 꼽을 수 있을 것 같습니다. 이 앱에서 우리가 갔던 곳의 영수증을 영수증 리뷰를 터치해서 인증을 하면 이걸로 5회, 10회, 15회 각 구간별로 각자 다른 그런 포인트를 받을 수 있는 건데요. 또 한 달에 한 번은 1000명을 추첨을 해서 최대 1만 포인트를 추가적으로 지급한다고 해요.][앵커]1만 포인트이면 1만 원처럼 쓸 수 있는 거예요?[손희애/금융 크리에이터 : 맞아요. 1포인트가 1원인 거니까 1만 포인트 받아서 식당에서 커피 사먹고 하면 되는 거죠. 그리고 이곳 역시 스탬프를 찍어서 추가 포인트를 받을 수 있는 기능도 있고요. 요즘에는 예전에는 실제 영수증을 사진을 찍어서만 리뷰가 가능했는데 요즘은 카드 내역을 자동으로 당겨오는 것도 가능하기 때문에 카드내역 인증하기 활용하시고 좀 더 간편하게 인증하시면 좋겠습니다.][앵커]이런 것도 있군요. 그리고 영수증 재테크는 이거 말고도 다양한 다른 앱들도 있는 거죠?[손희애/금융 크리에이터 : 맞아요. 스펜더나 머니하나, 캐시카우 등등 다양한 앱도 있으니까 영수증 리뷰는 중복으로도 가능하거든요.][앵커]하나로 네이버에서도 하고 머리에서도 하고.[손희애/금융 크리에이터 : 맞습니다. 한 영수증으로 4번, 5번 이렇게도 가능하시니까 조금 귀찮음만 감수한다면 포인트 얼마든지 쌓을 수 있을 것 같아요.][앵커]좋습니다. 그리고 또 스마트폰으로 돈 벌기 하면 통신사 할인혜택 포인트 이런 건 빼놓을 수 없는데요.[손희애/금융 크리에이터 : 통신사 포인트 정말 우리가 못 챙기는 것 중 하나잖아요. 연간 적게는 한 5만 원 정도, 5만 포인트 정도 많게는 10만 포인트 넘게 들어오기도 하는데 보통은 대부분의 통신사 포인트가 1년의 유효기간을 갖고 있어요. 그래서 내가 이걸 잘 못 챙기다 보면 나도 모르게 이게 그냥 사라지는 경우 굉장히 많거든요. 우리가 통신사 포인트로 베이커리 등등 외에도 많이 활용할 수 있는데 실제로 우리 PD님의 통신사 포인트 연말에 9만 포인트나 공중에 사라진 걸 우리 확인할 수 있습니다. 많이들 이렇게 못 챙기고 계실 텐데요. 각 통신사별로 다양한 혜택들이 있으니까 수시로 적어도 한 달에 한 번 정도는 들어가서 확인을 해 보시는 게 좋겠습니다.][앵커]그럼 대형 3사, 통신사 별로 주요 혜택을 집어주시죠.[손희애/금융 크리에이터 : 일단 SK텔레콤은 여러 가지 혜택이 있는데 이 중에서 나는 이 분야에서 집중적으로 받겠다라고 골라서 혜택을 받으실 수 있는데요. 대표적으로 파리바게트랑 CU 등에서 포인트 혜택 받으실 수 있는데 가령 1000원을 사용하셨을 때 100원의 할인받으신다거나 이렇게 10% 혜택 받으실 수 있고요. 그외에도 우리가 이마트에서 짝수 월에는 7% 할인, 홀수월에는 3% 할인 이렇게 달별로 조금씩 다르게 할인받으시는 방법도 있습니다. 그래서 본인이 유통 쪽에서 할인을 많이 받겠다 혹은 기타 쇼핑 쪽에서 할인을 많이 받겠다 선택해서 혜택 누리시면 되는 거죠.][앵커]그렇군요. KT나 LG U+ 어떤가요?[손희애/금융 크리에이터 : KT는 더블할인 혜택이 가장 유명합니다. 한 달에 한 번은 기존에 있던 제휴사 중에서 나는 이곳에서 2배로 혜택을 받겠다라고 해서 가령 5% 할인되던 걸 10% 할인을 받는다거나 말 그대로 더블로 혜택을 받으실 수 있는 거고요. 보이시는 것처럼 도너츠 할인이라든지 영화 할인이라든지 여러 가지 분야에서 혜택을 받으실 수 있는데 이것도 사실은 다 홈페이지에 나와 있지만 못 챙기시는 경우가 굉장히 많아요. 꼭 포인트 수시로 확인해 보시는 걸 추천을 드리고요. LG U+ 같은 경우에는 체크해 주신 것처럼 고객의 등급과 상관없이 포인트가 무제한이에요.][앵커]그래요?[손희애/금융 크리에이터 : 그래서 이 무제한 혜택까지 받으시면 좋을 것 같은데 LG U+ 같은 경우에는 본인이 앞서서 다른 통신사들처럼 많이 혜택을 받겠다라고 하는 분야를 선택할 수 있거든요. 그래서 내가 구독, 라이프, 영화 등에서 어디에서 혜택을 집중적으로 받을지 선택하시고 포인트 혜택 누리시면 되겠습니다.][앵커]분야를. 이게 알고 있다고 생각해도 중간중간 누가 일깨워줘야 돼요. 통신사 할인혜택은 우리가 까먹는단 말이에요.[손희애/금융 크리에이터 : 맞습니다.][앵커]오늘 아시던 분들도 한번 일깨워주는 그런 좋은 기회가 된 것 같습니다. 지금까지 머니클라스 손희애 금융 크리에이터와 이야기 나눠봤습니다. 고맙습니다.[손희애/금융 크리에이터 : 감사합니다.]</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2023.01.24.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>사망해도 계속 생겨나는 전국 '빌라왕'…배후, 뿌리를 뽑아야</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003730209?sid=102</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>[검은 미로, 전세사기④]전국 뻗친 '빌라왕'은 누군가?계약할 땐 '젊고 부유한 임대사업자'였는데3개월 만에 낡은 빌라서 병약한 모습빌라왕 '바지 집주인' 경우 많지만, 건축회사 회장인 진짜 빌라왕도'건축왕' 딸, 공인중개사에서 전세계약 중개'이름 없는 빌라왕' 전국에 퍼져…피해 규모 계속 커질 듯편집자 주가장 안전하고 포근해야 할 집이 끔찍한 악몽의 장소로 전락한다. 피땀 흘려 모은 전세금은 자취를 감추고 전세대출은 빚더미가 되어 삶까지 위협한다. 치밀한 전세사기 전면에는 소위 '빌라왕'으로 불리는 바지사장들이, 그 뒤에는 '배후세력'들이 판을 주도한다. 경찰이 집중 단속을 나서는 지금 이 시간에도 전세사기꾼들은 '덫'을 놓고 서민들을 유혹하는 중이다. 피해 규모가 천문학적인 수준이라는 관측까지 나오는 가운데, CBS노컷뉴스는 전세사기가 드리운 어두운 그늘을 밀착 취재했다. 파멸로 이끄는 '검은 미로'를 만드는 조직과 체계는 예상보다 더욱 악랄했다.'청년빌라왕' 송씨의 생전 거주지. 김정록 기자▶ 글 싣는 순서①[단독]빌라왕 섭외 '토스실장'의 비밀…직접 취업해보니②무소불위 컨설팅 조직범죄…바지사장·중개사·세입자 '장기판의 말'③[단독]경찰 집중단속 비웃는 '깔세'…막판까지 털어먹는 '전세사기'④사망해도 계속 생겨나는 전국 '빌라왕'…배후, 뿌리를 뽑아야(계속)사회적 문제로 떠오른 전세사기 사태에는 이른바 '빌라왕', '빌라의신' 등 다양한 별명이 등장한다. 이런 별명이 붙은 이들은 대부분 명의를 내준 '바지 집주인'이다. 주로 마땅한 직업이 없는 이들 또는 사회초년생들이 '배후 세력'으로 꼽히는 컨설팅 업체 등으로부터 일정 금액을 받고 명의를 내준 것으로 파악됐다.일부 빌라왕은 사망한 채 발견되면서 이들을 둘러싼 의구심이 커지고 있다. 경찰은 전국적으로 뻗어있는 빌라왕들을 포함해 그 배후에는 어떤 세력이 있는지 등을 중점적으로 놓고 수사 중이다.'명품 파우치' 들고 부유했는데…유서 남긴 '청년빌라왕'의 말로전세사기 피해규모 및 수사상황현재 언급되는 빌라왕은 7명으로, 이 중 3명은 사망한 상태다. 사망한 3명 가운데 유일한 20대로 '청년빌라왕'으로 불리는 송씨가 있다.수도권에 빌라 58채를 소유했던 송씨는 지난해 12월 인천의 한 빌라 2층 거주지에서 사망한 것으로 파악됐다. 1995년생 송씨는 유서에 경제적 어려움을 언급하며 극단적 선택을 한 것으로 알려졌다.송씨가 빌라를 매입한 방식은 전형적인 '동시진행' 수법이었다. 기존 임대인이 임차인과 전세계약한 뒤 임대인과 매매 계약을 체결하는 것이다. 송씨는 분양사무소로부터 신축 빌라 등 매물을 임차인의 전세금으로 매매하기도 했다.동시진행으로 계약이 진행된다는 것을 임차인에게 알리지 않으면서도, 전세계약에 송씨가 직접 나오지 않은 경우도 있었다. 2021년 12월 경기 부천시의 한 오피스텔을 전세계약한 A씨는 계약 당일에서야 자신이 계약한 집주인이 곧 바뀔 것이라는 사실을 알았다.심지어 바뀔 임대인인 송씨를 비롯해 송씨의 대리인조차 볼 수 없었다. A씨는 "당시 공인중개사가 '이 자리에 송씨가 와있는 것입니다'라며 자기가 대신하겠다고 했다"고 말했다.송씨는 다른 사람들에게 자신을 '임대사업자'라고 소개했던 것으로 파악됐다. 지난해 4월 송씨에게 신축 빌라를 분양했던 한 분양사무소 관계자는 CBS노컷뉴스와 통화에서 송씨의 사망에 대해 "그(언론에 나오는) 빌라왕이 송씨인 줄은 전혀 몰랐다"고 말했다.이 분양사무소 관계자는 "매매할 때 송씨가 직접 와서 자신을 임대사업자라고 소개하며 계약을 체결했다. 임대사업자 등록증도 확인하고 (계약을) 진행했다"고 말했다.이어 "송씨가 직접 무갭투자자로 2~3년 후에 시세 차익을 노리고 투자했던 것으로 알고 있다"고 덧붙였다. 다만 송씨를 어떻게 알게됐느냐는 질문에는 답변하지 않았다.송씨의 말로에 대해서는 여전히 의문점이 남는다. 전세세입자, 공인중개사, 분양사무소 등 송씨를 직접 만났던 사람들은 대부분 송씨를 '부유한 젊은 임대사업가'로 기억했기 때문이다.지난해 4월 송씨와 만나 전세계약을 체결한 B씨도 송씨의 첫인상을 "부유해 보였다"고 말했다. B씨는 "당시 송씨는 한 명품 파우치를 들고 왔다. 대화 내용을 들어보면 자동차도 소유했던 것 같다"고 회상했다. 송씨가 사용하던 SNS 프로필 사진에는 고급 요트로 보이는 곳에서 찍은 사진도 남아있다.그런데 불과 3개월이 지난 지난해 7월 보증보험 감정평가서를 받으러 송씨를 찾아간 B씨는 깜짝 놀랐다. 계약 당시 부유해 보였던 송씨가 살던 집이 예상과 다르게 낡은 빌라였기 때문이다.B씨는 "그때 송씨가 건강이 좋지 않아 병원에서 링거를 맞고 있다며 찍은 사진을 보내주기도 했다"며 "실제 당시 만난 송씨는 화장기가 없고 병약한 얼굴이었다"고 말했다.또 "공장에서 12시간 교대근무를 하고있어서 오후 6시 이후에만 전화 통화가 가능하다"고 밝혔다. 실제로 송씨는 오후 6시 이후에는 임차인의 전화를 받기도 했다.실제 송씨가 거주했던 인천 남동구의 한 4층짜리 빌라는 '빌라 58채를 소유한 청년빌라왕'이란 말과는 어울리지 않게 허름해 보였다. 송씨의 '공범'이자 '배후'로 지목되고있는 20대 오모씨도 이 빌라 4층에서 거주했던 것으로 전해졌다.빌라 인근 거주민은 오씨에 대해 "맨날 밤에만 활동을 해서 술집에서 일을 하는 줄 알았다"며 "고급 자동차를 수시로 바꿔 타고 다녔다"고 말했다. 이어 "그 친구들도 초록색 외제차처럼 눈에 띄는 것만 탔다"고 덧붙였다.현재 인천경찰청은 송씨와 오씨 관련해서 수사를 진행 중이지만 둘 사이의 관계에 대해서 구체적으로 드러난 것은 없다는 입장이다. 경찰 관계자는 "오씨가 송씨의 배후라고 볼 근거는 없는 상황"이라며 "아직 피해자가 명확히 누구인지 확정되지 않았고 파악하고 있는 중"이라고 설명했다.수백채 소유한 '임대사업자'…계약 때 얼굴도 안보여숨진 빌라·오피스텔 임대업자 정모 씨 사건과 관련해 실제 집주인, 다시말해 '빌라왕'의 배후로 추정되는 신모씨가 12일 오후 서울중앙지법에서 열린 영장실질심사를 마치고 나서고 있다.  연합뉴스서울 등지에서 빌라 240여채를 소유했던 일명 '강서구 빌라왕' 정모씨는 2021년 7월 제주에서 사망했다. 정씨를 실제로 본 사람들은 정씨에 대해 "매우 평범한 40대로 보였다"고 입을 모았다.거주지가 제주였던 정씨는 수백채 빌라를 소유하면서도 실제로 임차인과 얼굴을 마주한 적이 드물었다. 2021년 4월 정씨와 서울 강서구의 한 빌라를 계약한 C씨는 "정씨는 제주에 거주해서 서울에 와서 계약하기도 어려웠다"며 "저와 계약할 때도 1~2분 간 짧게 얼굴과 신분증을 보고 계약만 한 수준이었다"고 말했다.또 다른 정씨 임차인 D씨는 "(정씨가 임대인으로 있는) 우리 건물에서 실제로 정씨를 봤다는 사람이 없다"며 "대리인이 오거나 인터넷 화상 연결로만 얼굴을 봤다는 사람도 있다"고 설명했다.한편 정씨는 사망 이후에도 잔금을 치루는 등 거래 흔적이 나오기도 했다. 현재 정씨와 관련해서는 서울경찰청이 수사 중이며 최근 배후인 부동산컬설팅업체 대표 신모씨를 구속하고 일당 78명을 검거했다.수도권 등지에 1139채를 소유한 채로 지난해 10월 사망한 김모씨는 가장 유명한 빌라왕이다. 김씨 역시 자본이 없이 갭투자를 하거나, 동시진행 수법으로 빌라를 사들였다.2020년부터 전세사기를 시작했던 김씨는 그 한 해 동안 약 370여채의 주택 명의를 이전받은 것으로 파악됐다. 생전 김씨는 고급 외제차를 렌트해서 타고 다녔으며, 하룻밤 술값으로 1000만 원이 넘는 돈을 쓰기도 했던 것으로 전해졌다.전세사기 이전에도 김씨는 여러 전과가 있었다. 2019년에는 보이스피싱 일당에 계좌를 제공하고, 보이스피싱 전달책으로 활동하다가 징역 2년(집행유예 3년)이 선고되기도 했다.현재 서울경찰청은 김씨와 관련해서 공모한 것으로 보이는 5명에 대해 수사 중이다.'바지 집주인' 빌라왕과 다르다…딸과 함께 사기 친 '건축왕'연합뉴스다른 빌라왕들이 일정 금액을 받고 명의를 내준 이른바 '바지 집주인'이었다면, 인청 등 지역에 2709채 주택을 거느린 '건축왕' 남모씨는 다르다. 본인이 건축회사 회장이면서 직접 신축 매물을 바지 집주인들에게 팔아넘겼다.남씨는 피해자들 사이에서 '남회장'으로 불린다. 남씨는 2013년부터 인천 미추홀구 등지에 아파트와 오피스텔을 지었다. 이 지역에서 주택임대사업으로 모은 자금으로 강원도에 동해경제자유구역 망상 제1지구 개발사업에 나서기도 했다.이 사업에 임차인들의 보증금도 투자됐는데, 해당 사업이 잘 안되고 금리가 오르는 등 어려움을 맞닥뜨렸다. 결국 대출이자를 갚지 못하고 2022년쯤부터 주택이 경매로 넘어가면서 사고가 발생한 것이다.건축왕 남씨 일당은 전세계약을 하면서 근저당이 많이 잡힌 신축 건물을 문제가 없다는 듯 홍보한 것으로 파악됐다. 그 과정에서 임차인들이 근저당에 대해 우려하면 "건물주가 부자다" "공인중개사에서 하면 문제가 없다"며 속이기도 했다.더구나 남씨의 딸이 중개사무소에서 전세계약을 직접 중개하기도 했다. 2021년 남씨 일당의 인천의 한 주택을 전세계약한 E씨는 "당시 집에 잡혀있던 근저당이 너무 많아서 위험하지 않느냐고 물었는데 중개사였던 남씨의 딸이 '이 건물 전체 주인이 2명인데 매우 부자다. 걱정 안해도 된다'고 했다"고 말했다.이어 "'공인중개사 끼고 (계약)하면 돈 떼어먹힐 일 없다. 걱정 말라'고 했다"며 "남씨가 '매매가가 훨씬 높다'고 했는데 실제로 매매가 이뤄진 적이 없었다"고 덧붙였다.그런데 해당 주택에 건축왕 남씨의 이름으로 근저당이 설정되고, 경매에 넘어가는 등 문제가 발생하자 딸인 남씨는 자신의 아버지인 남씨에 대해 "누군지 모른다"고 발뺌하기도 했던 것으로 파악됐다.한편 남씨와 오랫동안 알고지내며 함께 일했던 한 내부 관계자 이모씨는 자신은 말그대로 '바지 집주인'이라며 억울하다는 입장을 밝혔다. 남씨와 10여년 전부터 알고 지냈으며, 7년 전부터 함께 일했다는 이씨는 서류상 남씨의 건물을 소유한 임대인들 중 하나다.이씨는 CBS노컷뉴스와 통화에서 "나는 세입자의 보증금 1원도 받지 못하고 명의만 이용됐다"며 "남씨의 회사 직원으로서, 남씨가 지시하는대로 명의만 썼고, 받은 것은 직원으로서 월급 뿐이다"고 답했다. 이씨는 남씨에 대해 민사소송을 준비하고 있다고 밝혔다.또 이씨는 '전세사기'라기보다는 '부동산 사업 실패'라고 항변하기도 했다. 이씨는 "사기였다면 임대사업을 하지 않고 10여년 전 애초부터 전세금을 갖고 도주하지 않았겠느냐"며 "전세계약을 할 때 근저당 잡힌 내용도 설명한 것으로 안다"고 말했다.하지만 경찰은 이에 대해 전혀 사실이 아니라는 입장이다. 이와 관련해 수사 중인 인천경찰청은 남씨 일당이 임차인에게 이같은 근저당의 위험성을 설명하지 않은 것은 물론, 오히려 적극적으로 속이기까지 했다고 보고있다. 경찰은 건축왕 남씨와 관련해 남씨 등 공범 51명을 수사중이다. 최근 남씨에 대해 구속영장을 신청했으나 법원은 이를 받아들이지 않았다.빌라왕들, 전세사기 전 '불법 도박장'·'보이스 피싱' 전과도스마트이미지 제공'빌라의신' 권모씨 일당은 그 별명대로 '왕'들과는 규모가 다르다. 권씨 일당은 수도권 등지에 3493채를 소유했다. 다른 이들과 다르게 빌라의신은 권씨 한 명이 아니라, 박모씨, 최모씨를 통칭해서 부르는 명칭이다. 이들은 번호 뒷자리가 '2400'으로 끝나는 통일된 대포폰을 사용하기도 해 '2400 조직'이라고 불리기도 한다.최씨는 지난 3년 동안 1297채 주택을 명의 이전받은 것으로 전해졌다. 또 전세사기에 뛰어들기 전부터 사행성 게임기 '바다이야기'를 이용해 불법 도박장을 운영하기도 하고, 뺑소니를 친 범죄 이력도 있다.지난해 9월 경기남부경찰청은 이들을 일당을 구속하고 공인중개사, 브로커 등 48명도 검거했다. 경찰은 현재 이들과 관련된 수사를 확대하고 있다.서울 등 수도권에 413채를 소유한 빌라왕 이모씨는 중개보조원으로 활동하면서 한 공중파 부동산 전문 프로그램에 나와 논란이 일기도 했다. 이씨는 2018년 6월쯤 부동산 관련 법인을 설립해 동시진행이 가능한 매물을 물색해 범행을 저지른 것으로 조사됐다. 실제 이씨가 소유했던 413채는 모두 '깡통전세'였다. 또 이씨는 임차인 118명으로부터 보증금 312억 원을 편취했다.서울경찰청은 이씨를 구속하고 일당 7명을 검거했다. 또 건축업자와 분양대행업자 등 공범 여부도 수사 중이다.이밖에도 빌라왕이라는 명칭은 붙지 않았지만 수십채씩 소유한 것으로 언급되는 바지 집주인들이 다수인 것으로 파악된다. 전세 계약 특성상 임차인이 직접 피해를 인지하는데 시간이 걸리기 때문에 향후 전세사기 피해는 더욱 커질 전망이다.[반론보도]「무소불위 컨설팅 조직범죄…바지사장·중개사·세입자 '장기판의 말'」 등 기사 관련노컷뉴스는 지난 1월 22일자 「무소불위 컨설팅 조직범죄…바지사장·중개사·세입자 '장기판의 말'」, 1월 24일자 「사망해도 계속 생겨나는 전국 '빌라왕'…배후, 뿌리를 뽑아야」, 1월 25일자 「막막한 설 보낸 전세사기 피해자들…"빌라왕 활개, 정부는 뭐했나"」라는 제목의 기사를 보도한 바 있습니다.이에 대해 건축업자 A씨는 "경찰이 가로챘다고 한 보증금 266억원은 아직 피해 금액으로 현실화된 금액이 아니며, 자산 매각 등을 통해 세입자들에게 피해가 가지 않도록 최선을 다하고 있다."고 밝혀왔습니다. 또한 "딸과 함께 사기친 건축왕으로 보도된 부분에 대해서는 딸은 입건된 사실조차 없다."고 알려왔습니다.이 보도는 언론중재위원회의 조정에 따른 것입니다.※CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우, 사건사고와 미담 등 모든 얘깃거리를 알려주세요.이메일 : jebo@cbs.co.kr카카오톡 : @노컷뉴스사이트 : https://url.kr/b71afn</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2023.01.22.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>카카오뱅크 `mini`·토스 `유스카드…어린이 새뱃돈 직접 관리 수단 인기</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002779956?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>계좌같은 선불지급수단으로 사용 편리카카오뱅크 mini 가입자 161만명 돌파…토스 유스카드도 입소문금융권과 핀테크 업계에서 다양한 어린이·청소년을 위한 선불 전자지급 수단이 출시되면서 어린이와 청소년의 세뱃돈 관리 트렌드도 변화하는 추세다.기존 은행 등에서 미성년자가 계좌를 개설하려면 까다로운 절차를 밟아야 했지만, 카카오뱅크와 토스 등이 더욱 편리하게 개설할 수 있는 선불 전자지급 수단을 잇달아 출시하면서 어릴 때부터 돈 관리를 스스로 할 수 있는 수단이 다양해진 영향이다.선두주자인 카카오뱅크 'mini'는 만 14∼18세 전용 선불 전자지급 수단으로 지난 2020년 10월 출시됐는데, 작년 연말 기준 누적 가입자는 161만명에 달한다.특히 매년 명절 연휴를 앞두고 가입자가 크게 증가하는 것으로 나타났다.카카오뱅크에 따르면 지난해 설 연휴(명절 당일 포함 3일 기준) 기간 가입자는 직전 3일 대비 89.5% 증가했으며, 입금액은 173.1% 증가했다.지난해 추석 연휴에도 가입자가 직전 3일 대비 98.2%, 입금액은 94.1% 늘었다.연휴 이후 청소년들의 소비도 증가하는 것으로 나타났다.지난해 추석 연휴 직후의 mini카드 결제액은 연휴 전 대비 40% 증가했다.토스가 지난해 2월 출시한 '유스카드'는 연령대를 더욱 낮춰 만 7∼16세를 대상으로 한 충전식 카드다.선불 전자지급 수단인 토스머니와 연동한 카드로, 체크카드처럼 사용할 수 있다.현금자동입출금기(ATM)로 입금하는 대신, CU편의점에 방문해 현금으로 토스머니를 충전하는 등 방식으로 이용할 수 있다.토스 관계자는 "특히 10대들 사이에서 유스카드에 대한 입소문이 나면서 카드 발급량이 지속해서 증가하는 추세"라며 "카드 발급자의 평균 이용금액은 월 5만∼6만원 수준으로, 주 사용처는 편의점과 음식점, 프랜차이즈 카페"라고 말했다.  연합뉴스</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2023.01.26.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>은행, 디지털 반격 본격화… 물량전은 기본, 전략·전술·조직 확 바꿔</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000872318?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>시중은행 앱 이용자, 빅테크 턱 밑까지 추격비금융 분야 기업 투자·인수합병 활발금산분리 등 규제 혁신 맞춰 전환 가속화        1월 초 미국 라스베이거스에서 열린 세계 최대 가전·IT 전시회 CES 2023에는 금융회사 고위 임원들이 총출동했다. 조용병 신한금융그룹 회장과 함영주 하나금융그룹 회장은 직접 CES 전시장을 방문했다. 신한은행은 메타버스 플랫폼을 내세운 단독 전시관을 설치했다.국내 금융사가 일제히 최고경영자(CEO)까지 나선 수십 명 규모의 참관단을 꾸린 것은 올해가 처음이다. 금융회사도 이제 IT(정보기술)를 필수적인 사업 요소로 챙겨야 한다는 판단에서다. 함영주 회장이 CES 전시장을 둘러본 뒤 캘리포니아주 마운틴뷰 구글 본사를 방문해 “‘전 세계의 정보를 체계화해 모두가 편리하게 이용할 수 있도록 하는 것’이라는 구글의 미션과 ‘하나로 연결된 모두의 금융’이라는 하나금융그룹의 비전이 일맥상통한다”고 말한 것이 이를 잘 보여준다. 더 이상 금융과 IT를 분리해 볼 수 없다는 얘기다.함영주 하나금융그룹 회장(오른쪽에서 2번째)이 지난 5일 미국 라스베거스에서 열린 CES 2023 LG전자 부스에 전시된 OLED 디스플레이를 관람하고 있다. /하나금융그룹 제공        전통적인 금융회사들이 디지털 부문에서 반격을 본격적으로 전개하고 있다. 지난 몇 년간 금융업에서 은행 등 기존 회사들은 구시대의 유물로 취급되곤 했다. 보수적인 성향이 강한 금융사들이 모바일, 핀테크, 플랫폼 기반 서비스의 확산에 적응하지 못하고 어려움에 처할 것이라는 예측도 나왔다. 그런데 금융사들이 풍부한 자원(자본 및 인력)을 바탕으로 디지털 전환에 나서면서 전세(戰勢)가 뒤집히기 시작했다. 은행 모바일 애플리케이션(앱)의 이용자 수가 빠르게 늘어나면서 인터넷 전문은행의 이용자 수와 호각을 겨룰 정도가 된 것이 대표적이다.은행들은 적극적으로 자사 모바일 서비스의 경쟁력을 높이기 위해 투자를 아끼지 않는다. IT회사에서 전문 인력을 대거 영입해 IT 신사업 조직을 맡기는 건 기본이 됐다. 보험, 증권, 자산운용 등 계열사와 함께 통합형 서비스를 디지털로 구축하는가 하면 이동통신사 등 IT회사와 합작사업도 적극적으로 전개한다. 음식배달을 비롯해 헬스케어, 알뜰폰 등 기존 사업과 시너지 효과가 날 만한 비금융 사업 진출도 활발하다.정부의 금융 규제 기조가 변한 것도 유리한 측면이다. 네이버, 카카오 등 플랫폼 기업이 플랫폼 지배력과 규제의 공백 지대를 활용해 직간접적으로 금융업 진출을 꾀하는 걸 계속 방조할 수 없다는 게 금융 당국의 기조다. 또 디지털 산업 변화의 흐름에 맞춰 금산분리 등 전통적인 금융 규제도 바뀌어야 한다는 인식을 갖고 적극적으로 관련 규제 혁신에 나서고 있다.조용병 신한금융그룹 회장이 지난 5일 미국 라스베이거스에서 개막한 ‘CES 2023’에서 메타버스 플랫폼 ‘시나몬’ 부스를 둘러보고 있는 모습. /신한금융그룹 제공  KB국민은행 뱅킹 앱, 1년 만에 토스와 격차 351만명→149만명으로 줄어        이를 대표적으로 보여주는 것이 시중은행 인터넷뱅킹 애플리케이션(앱)이다. 이들 은행 앱 월간활성사용자수(MAU)는 최근 빅테크 뒤를 바짝 쫓고 있다. 빅데이터 플랫폼 기업 아이지에이웍스의 모바일인덱스에 따르면, 지난달 기준 KB국민은행의 뱅킹 앱 KB스타뱅킹 MAU는 약 1215만명으로, 5대 은행 중 가장 빨리 1200만명을 돌파했다. 1년 전(1036만명)보다 200만명이 증가한 것이다.이는 이는 전체 금융 앱 1위 토스(1364만명)와 인터넷전문은행 카카오뱅크(1319만명)를 위협하는 규모다. 1년 전 토스와 KB스타뱅킹 MAU 격차는 351만명에서 149만명으로 크게 줄었다. 성장세를 놓고 봐도 그렇다. 같은 기간 토스MAU는 오히려 23만명가량 감소했다. 카카오뱅크의 경우 2만명 증가하는 데 그쳤다.다른 시중은행들도 KB금융을 이어 빅테크를 추격하는 모습이다. 신한은행 앱 쏠의 지난달 기준 MAU는 945만명으로, 올해 MAU 1000만명을 돌파할 것으로 전망되고 있다. ▲NH농협은행의 NH스마트뱅킹 827만명 ▲우리은행의 우리WON뱅킹 713만명 ▲하나은행의 하나원큐 562만명 등이 뒤를 이었다.금융권의 최대 화두 중 하나인 월간 활성 이용자 수(MAU)는 1개월 동안 한 번 이상 앱을 사용한 이용자 수를 의미한다. 이 지표가 높아질수록 충성 고객을 꾸준히 확보한 것으로 풀이할 수 있다. 한번 고객이 되면 장기 고객으로 발전하는 경향이 있는 금융사 특성상 중요한 지표인 셈이다. 통상적으로 MAU가 최소 1000만명은 돼야 플랫폼으로서 역할을 할 수 있다는 게 업계의 시각이다.일러스트=손민균  타업종 손잡고 핀테크 인수… 초개인화 통한 플랫폼 꿈꾸는 전통 금융        시중은행은 빅테크를 따라잡기 위해 최근 2~3년간 외부 출신 디지털 인재 영입에 공을 들여왔다. 순혈주의가 강한 조직문화로 알려졌지만, 디지털·ICT 분야 인재를 수시 채용하고 비금융업권 전문가를 수혈하는 방식이다. 최근엔 내부 디지털 인재 육성에도 박차를 가하고 있다. 금융에 경험과 지식이 많은 내부 인력을 투입해 사업을 좀 더 고도화하기 위함이다. 이를 위해 은행장 직속의 혁신 조직을 신설하고, 자체적인 교육 시스템을 갖췄다.이들 은행은 축적된 디지털 관련 경험을 바탕으로 빅테크의 ‘원 앱(하나의 앱)’ 전략 등을 벤치마킹하고, 타업종과 적극적으로 손을 잡고 있다. KB금융은 은행 앱에 디지털 지갑 플랫폼 KB월렛 기능을, 카드 앱엔 지급결제 기능을 추가했다. 우리금융도 은행과 카드 앱에 비금융 서비스를 넣는 등 생활밀착형 플랫폼의 기능을 확장한다는 계획이다.비금융 분야와 협력도 활발하다. 신한금융은 지난해 KT와 9000억원 규모의 핀테크 동맹을 맺고 인공지능(AI)·메타버스(3차원 가상 세계) 등 디지털 분야에서 협력한다. 하나금융은 SK텔레콤과 4000억원 규모의 지분을 교환하며 디지털 금융 ‘혈맹’을 맺었다. KB금융은 대출 중계 플랫폼 ‘알다’ 인수를 추진하고 있다. KB·신한·우리·하나 등 4대 금융그룹은 모두 자체적으로 스타트업 투자·육성 플랫폼을 운영하고 있기도 하다.주요 은행 수장들은 올해 신년사에서 디지털 금융을 외치며 초개인화를 강조했다. 뱅킹 앱이 개인의 성향을 분석해 통신·헬스케어·쇼핑 등 비금융 영역 서비스까지 추천하고 제공하는 플랫폼 역할을 하겠다는 것이다.금융권 관계자는 “과거 은행들의 원 앱 전략은 인터넷 뱅킹 서비스를 앱으로 단순 이전시키는 형태에 불과해 빅테크와 격차가 오히려 벌어졌었다”면서 “그러나 최근엔 빅테크에서만 가능했던 간편송금·이체 수수료 면제·고객 맞춤형 상품 추천 등을 제공하면서 뱅킹 앱이 자리 잡은 분위기”라고 말했다.일러스트=정다운  금융사인데 알뜰폰·음식 주문… 금산분리 완화 기조 맞물려 가속화        정부의 금산분리 완화 기조도 은행의 디지털 진출에 우호적인 환경을 만들고 있다. 금산분리란 금융자본과 산업자본이 상대 업종을 소유하거나 지배해서는 안 된다는 원칙이다. 은행이 대기업의 사금고로 전락하거나, 금융지주 회사가 산하 비금융 계열사에 자금을 몰아주는 폐단을 막기 위해 도입됐다. 그러나 이후 등장한 인터넷전문은행은 이를 벗어나는 특례를 받아 성장할 수 있었다.하지만 최근 정부는 금산분리 규제를 완화하는 움직임을 보이고 있다. 산업 간 경계가 흐려진 만큼 금융자본과 산업자본 간에 처져 있던 칸막이를 손질해야 할 필요성이 커지면서다. ‘내 손 안의 금융비서’라고 불리는 마이데이터(본인신용정보관리업) 도입, 클라우드 이용절차 합리화, 망 분리 규제 개선 등이 대표적이다.실제로 금융당국의 혁신금융서비스로 지정된 금융사들은 성과를 내고 있다. KB금융의 알뜰폰 서비스인 리브모바일(Liiv M)의 경우 가입자 수가 2020년 9만1000명에서 지난해 약 35만명으로 증가했다. 신한은행의 음식 주문 중개 플랫폼 땡겨요는 올 상반기 중 영업 구역을 수도권 전역으로 확대할 계획이다. 또 최근 땡겨요의 테이블오더 서비스를 위한 입찰 공고에 나섰는데, 연내 서비스를 내놓기 위해 준비 중인 것으로 알려졌다. 테이블오더는 네이버페이·카카오페이가 전국에서 운영하고 있는 오프라인 주문·결제 서비스다.금융권 관계자는 “규제를 풀어준 빅테크가 오히려 금융서비스를 제공하는데 금융기관은 아닌 이른바 ‘쉐도우 뱅킹(그림자 금융)’이 돼 규제 사각지대 위험성이 크다는 인식이 생긴 것 같다”면서 “반대로 아직도 많은 규제로 발목 잡혀 있는 전통 금융의 경우 빅블러 시대에 맞춰 조금씩 풀어주는 모습”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2023.01.20.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>인터넷은행 중 예대금리차 토스뱅크 5.48%p 최대…은행 전체 1위는 전북은행 5.71%p</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002779875?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>지난달 5대 시중은행 가운데 예대금리차(대출금리-예금금리)가 가장 컸던 곳은 NH농협은행으로 조사됐다.지나친 '이자 장사'를 막자는 취지로 지난해 7월부터 19개 은행의 월별 예대금리차 공시가 시작됐는데, 예대금리차가 상대적으로 크다는 것은 일단 산술적으로 대출·예금 금리 격차에 따른 마진이 많다는 뜻이다.20일 오후 은행연합회 소비자포털에 공시된 '예대금리차 비교' 통계에 따르면 12월 정책서민금융(햇살론뱅크·햇살론15·안전망 대출)을 뺀 NH농협은행의 가계 예대금리차(가계대출금리-저축성수신금리)는 0.94%포인트(p)로 집계됐다.은행권이 작년 7월 첫 공시 이후 저소득·저신용 서민 대상 정책금융상품의 금리가 높아 이를 많이 취급할수록 예대금리차가 커지는 왜곡 현상을 지적하자, 같은 해 8월 통계부터 일부 정책금융상품을 제외한 예대금리차가 따로 공개되고 있다.NH농협에 이어 우리은행(0.77%포인트), 하나은행(0.69%포인트), 신한은행(0.63%포인트), KB국민은행(0.61%포인트) 순으로 가계 예대금리차가 컸다.인터넷은행 중에서는 토스뱅크의 가계 예대금리차(5.48%포인트)가 가장 컸고, 케이뱅크(2.47%포인트)와 카카오뱅크[323410](1.65%포인트)가 뒤를 이었다. 지방은행, 외국계은행을 포함해 이날 공시에 참여한 19개 은행 가운데 가계 예대금리차가 가장 큰 곳은 전북은행(5.71%포인트), 최소 은행은 제주은행(0.46%포인트)이었다.기업 대출까지 포함한 전체 은행의 예대금리차(대출금리-저축성수신금리) 통계에서는 5대 은행 가운데 우리은행이 1.38%포인트로 가장 컸다.2∼5위는 신한은행(1.19%포인트), NH농협은행(1.15%포인트), KB국민은행(1.10%포인트), 하나은행(1.01%포인트) 순이었다.  연합뉴스</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2023.01.19.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>[아이티라떼] 블라인드가 조사한 '행복한 회사'는</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005077244?sid=105</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>우리나라 직장인 행복도가 100점 만점에 평균 40점에 불과하다는 연구 결과가 나왔습니다.19일 팀블라인드가 발표한 '블라인드 지수 2022' 결과에 따르면 지난 한 해 우리나라 직장인 행복도는 전년과 같은 수준인 40점을 기록했습니다. 블라인드는 직장인을 위한 익명 커뮤니티로, 글을 올릴 때 자신이 속한 회사가 공개된다는 점이 특징이죠. 익명성이 보장되는 덕분에 자유롭게 의견을 공유할 수 있다는 장점이 있지만, 무절제한 발언에 대한 책임을 묻기 어렵다는 단점 또한 지니고 있습니다.직장인 5만7319명이 참여한 이번 조사에서 가장 행복도가 높게 나타난 기업은 구글코리아입니다. 구글코리아는 행복도 75점을 기록해 조사 대상 기업 중 1위를 차지했는데요. 어떤 의견을 제시해도 조직이 부정적으로 평가하지 않을 것이라고 믿는 정도를 뜻하는 '심리적 안전감' 부문에서 특히 높은 점수를 받았다고 합니다. 두 번째로 높은 점수를 받은 곳은 배달의민족을 운영하는 우아한형제들이었는데요. 일하는 방식을 자율적으로 조정할 수 있다고 느끼는 정도를 뜻하는 '업무 자율성'이 10% 이상 올라 올해 최초로 10위권에 진입했습니다. 이외에도 금융 서비스 '토스'를 운영하는 비바리퍼블리카, 이동통신사 SK텔레콤이 각각 3, 4위를 기록했습니다. 자문위원을 맡은 이정희 한국노동연구원 연구위원과 노성철 일본 사이타마대 교수는 "직장에서 자유롭게 목소리를 낼 수 있다고 인식하는 사람일수록 조직 만족도가 높다"고 설명했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2023.01.18.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>세뱃돈 받고 편의점 향하는 10대들…CU, 현금 충전 서비스 인기</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004841571?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>CU에서 운영하는 현금 충전 서비스 모습/사진= BGF리테일 제공 편의점 CU가 운영하는 현금충전서비스가 10대 청소년들 사이에서 인기를 끌고 있다.CU는 지난달 현금충전서비스의 전체 이용 건수가 시행 첫 달인 21년 8월에 비해 437.1% 증가했다고 18일 밝혔다.  CU의 현금 충전 서비스는 선불 전자지갑 형태로 CU에서 현금을 내고 카드나 바코드로 사용할 수 있는 금액을 충전하는 서비스다. 모바일 앱 바코드를 통해 충전하기 때문에 스마트폰만 있으면 누구나 이용 가능하다. 이렇게 충전한 돈은 인터넷 쇼핑을 할 때 바로 온라인에서 사용할 수 있으며 실물 카드나 앱 바코드를 이용해 오프라인 점포에서도 쉽게 결제할 수 있다. CU가 현재 운영 중인 현금 충전 서비스는 SEND, 네이버페이, KB국민 리브 Next, 신한 제페토카드, 토스머니 등 총 5종이다.해당 서비스는 Z세대의 간편 결제 니즈를 충족하면서 인기를 끌고 있다. 주로 현금으로 용돈을 받아 사용하는 10대 고객들 사이에서 현금 보관의 번거로움이 없고 자유롭게 온·오프라인 쇼핑을 할 수 있다는 이점이 주목받고 있는 것이다. 특히 CU가 Z세대를 겨냥해 단독 운영 중인 신한 제페토카드(만 14세 이상)는 고객의 아바타로 디자인된 앱카드를 발급해주고 KB국민 리브 Next(만 14~18세), 토스머니(만 7~19세)는 청소년 전용 실물 카드로 오프라인 사용처 범위를 확대하며 높은 인기를 얻고 있다. 이용 연령을 7세까지 확대한 토스머니 충전 서비스는 지난달 론칭 반 년 만에 14배 규모로 늘었다. CU가 그동안의 현금 충전 서비스를 살펴본 결과 추석 명절이 있었던 작년 9월에 이용 건수가 전월에 비해 48.4% 증가하면서 큰 폭으로 성장한 것으로 나타났다. 그 가운데 CU가 단독 운영 중인 Z세대 타겟 상품 3종의 이용 건수는 전월 대비 77.6%나 증가했으며 충전 금액은 2배나 높게 나타났다. 청소년 고객들이 명절 기간 받은 용돈을 편리하게 이용하기 위해 CU 현금 충전 서비스를 사용한 것이다. 박희진 BGF리테일 서비스플랫폼팀 팀장은 "Z세대 고객들의 결제 편의성을 돕기 위해 다양한 제휴사와 함께 현금 충전 서비스를 지원하고 있다"며 "CU는 앞으로도 다양한 형태의 서비스 제휴와 개발을 통해 업계 트렌드를 이끌 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2023.01.17.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>다올인베스트먼트 품는 우리금융그룹</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004956958?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>지분 52% 2000억원대 인수  우리금융그룹이 다올인베스트먼트를 인수한다. 인수가격은 2000억원대 초반이다. 우리금융으로선 비은행 포트폴리오를 확대하게 됐다.   17일 투자은행(IB)업계에 따르면 우리금융그룹은 다올투자증권과 다올인베스트먼트 인수를 골자로 하는 양해각서(MOU)를 체결한다. 다올투자증권이 보유한 다올인베스트먼트 지분 52%가 거래대상이다. 가격은 2100억~2200억원으로 알려졌다.   IB업계 관계자는 "우리금융은 완전 민영화 후 증권사, 보험사 등 비금융 포트폴리오 강화가 숙원사업"이라며 "5대 금융지주 가운데 유일하게 벤처캐피탈(VC) 계열사가 없었던 만큼 이번 인수전의 핵심 플레이어였다"고 설명했다.   다올인베스트먼트 매각에는 우리금융그룹을 비롯해 20개가 넘는 전략적투자자(SI), 재무적투자자(FI)들이 인수의향을 밝혔다.   다올인베스트먼트가 상장사인 점 등을 고려해 가격적 요소보다는 거래 종결성, 중장기적 성장전략 청사진과 사업적 시너지 등을 중점적으로 평가한 것으로 전해졌다. 지분가치 기준 2000억원 중반으로 계산해도 최근 동종업계 내 순자산 멀티플(PBR) 1.7배 하회 수준에 거래될 것으로 보인다.   다올인베스트먼트의 지난해 9월 말 연결기준(미국 다올벤처스 포함) 순자산 장부가액은 2865억원에 이른다. 본사 소재지인 판교테크노밸리 부동산의 실거래가 적용시 장부 대비 약 200억원의 평가이익을 반영하지 않았다. 순현금(무차입) 약 1100억원, 투자자산의 최근 펀딩 밸류 및 향후 매각차익 업사이드 등을 고려하면 거래 종결성에 비중을 높게 뒀다는 분석이다.   다올인베스트먼트는 1981년 정부가 설립한 한국기술개발(KTDC)이 전신인 국내 1세대 벤처캐피탈(VC)이다. 지난해 12월 현재 운용자산(AUM) 총 1조5000억원 규모의 21개 투자조합을 운용하고 있다. 배달의민족, 토스(비바리퍼블리카), 해외 스타트업 등에 대한 트랙레코드(투자이력)를 보유하고 있다.   다올투자증권은 다올인베스트먼트를 포함해 태국 소재 증권지주사인 다올 타일랜드 매각을 추진하고 있다. 다올신용정보는 메이슨캐피탈, 리드캐피탈매니지먼트에 130억원 수준에 매각할 것으로 알려졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2023.01.25.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>금융당국, 대출중개 플랫폼 수수료 논란 진화 나선다</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001079054?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>저축은행업계 이어 핀테크업계 실무진 소집  "중개 수수료 관련 양측 입장 들어볼 것"&lt;앵커&gt;카카오페이나 토스 등 대출중개 서비스를 제공하는 플랫폼사들이 업권별로 수수료 차등을 두는 것을 놓고, 금융당국이 직접 점검에 나서기로 했습니다.은행보다 높은 수수료를 부담하는 제2금융권이 잇따라 대출 중개서비스에서 발을 빼자, 서민들의 급전창구가 사라진다는 지적이 일고 있기 때문입니다.장슬기 기자의 보도입니다.&lt;기자&gt;금융당국이 이르면 이달 중 핀테크업계 실무자들과 만나 대출중개 플랫폼 수수료 현황을 점검하기로 했습니다.최근 저축은행과 캐피탈사 등 제2금융권이 "시중은행보다 4배나 비싼 중개 수수료를 내고 있다"며 플랫폼에서 발을 빼기 시작한 데 따른 조치입니다.실제 웰컴과 페퍼저축은행을 비롯해 현대와 롯데캐피탈 등 캐피탈사, 교보생명 등 일부 보험사들까지도 중개 플랫폼을 통한 신규 대출을 중단한 상태입니다.대출 금리가 가파르게 오르는데다 제2금융권의 대출문턱까지 높아지자, 시장에선 서민들의 급전창구가 줄고 있다는 지적이 이어지고 있습니다.[금융권 관계자 : 사실 각사별로는 (대출을) 하고는 있거든요. 플랫폼 통해서 하는 것만 중단한 건데…우리가 굳이 플랫폼에 수수료를 줘가면서 이 어려운 유동성 시기에…]현재 저축은행이나 캐피탈사들은 시중은행보다 많게는 4배 가량 높은 중개 수수료율을 적용받고 있습니다.업계는 "같은 중개 프로세스를 이용하는 데도 금리가 높다는 이유로 더 비싼 수수료를 내는 것은 불합리하다"고 주장하고 있지만플랫폼사는 "오프라인 대출모집인보다 약 60%나 절감된 수수료인데다, 2금융권에서의 대출고객 모집 효과가 더 뛰어나다"며 팽팽히 맞서고 있습니다.현재 금융당국이 추진 중인 대환대출서비스와 빅테크를 중심으로 한 보험중개서비스 역시 수수료 문제가 맞물려 있는 상황.당국은 "개별사간 수수료 계약에 직접적으로 개입할 수는 없다"는 입장을 고수해 왔지만, 금융사들의 플랫폼 이탈 움직임이 소비자 불편으로 이어지는 만큼 각 업계의 의견 조율을 통한 개선책 마련이 불가피하다고 보고 있습니다.다만 플랫폼 수수료와 관련된 개선책이 단순히 업권별 이익을 위한 것이 아니라, 금융소비자들의 부담 완화로 반드시 이어져야 한다고 당국은 강조합니다.한국경제TV 장슬기입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2023.01.27.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>'가입자 2400만명' 토스, 알뜰폰 진출… 통신 시장 흔들까</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000889935?sid=105</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>핀테크 플랫폼 '토스'가 알뜰폰 시장에 뛰어들면서 통신 시장의 새로운 바람이 불 전망이다. 사진은 서울 강남구 토스뱅크 본사. /사진=뉴스1 핀테크 플랫폼 '토스'의 자회사 '토스 모바일'이 오는 30일 알뜰폰 서비스를 출시하며 통신 시장에 진출한다. 알뜰폰이 경기 불황 속에서도 저렴한 요금제를 앞세워 SK텔레콤, KT, LG유플러스 등 통신 3사를 위협하는 가운데 금융권의 가세로 시장 판도가 한층 흥미진진해질 전망이다. 27일 토스 모바일에 따르면 이달 30일 4가지 종류의 신규 요금제를 선보인다. 미사용 데이터를 캐시백으로 돌려주고 24시간 고객센터를 운영하는 게 특징. 토스 애플리케이션(앱)를 통해 개통도 가능하고 잔여 데이터도 확인할 수 있다. 토스 페이로 결제 시 10% 캐시백 혜택도 있다.기존 통신 3사 데이터·통화 무제한 요금제 사용 고객이 토스 모바일 요금제로 바꾸면 통신비를 약 20% 이상 절감할 수 있다는 게 토스 모바일 측의 설명이다. 동일한 데이터 품질을 제공할 뿐 아니라 토스의 쉽고 편리한 금융 서비스 경험을 이식한 통신 서비스까지 제공하는 게 목표.주요 공략 대상은 2400만명에 달하는 토스 가입자다. 토스 사용자(지난해 마이데이터 연동 기준)중 92%가 이동통신망사업자(MNO) 가입자로 알뜰폰(MVNO) 가입자 비중은 8%에 머물고 있다. 토스의 가세로 성장 곡선을 그리던 알뜰폰 시장이 다시 한번 성장할 계기가 마련됐다는 평가다. 국내 알뜰폰 사업은 2011년 시작된 이후 성장을 거듭해 지난해 가입자 1200만명 시대를 열었다. 하지만 시장 점유율은 16% 정도로 앞으로 개척할 공간은 충분하다. 가입자 약 70%가 20~30대인 점도 토스에겐 호재다. 과거엔 소비자들이 통신 3사를 통해 일정 기간 고가 요금제를 사용하고 대신 휴대폰 보조금을 많이 받는 방식을 선호했다. 통신 3사 역시 출혈경쟁이라 불릴 정도로 보조금을 높여 가입자 유치에 사활을 걸었다. 이제는 '가성비'(가격 대비 성능)가 중요한 MZ세대(1981~1995년 출생한 밀레니얼(M) 세대와 1996~2010년 출생한 Z세대를 통칭)를 중심으로 약정 없이 실제 소비 행태와 맞는 요금제에 가입하는 추세다.세계 경기가 침체 국면에 접어들고 지난해부터 본격화된 고물가 현상도 '알뜰폰 인기'를 이끌었다. 고정 지출을 낮추는 게 어느 때보다 중요해진 만큼 합리적인 요금이 장점인 알뜰폰의 주가가 오른 것이다. 통신업계 관계자는 "알뜰폰의 주력인 롱텀에볼루션(LTE) 요금제가 통신 3사의 5세대 이동통신(5G)보다 저렴하지만 품질 면에서 크게 뒤쳐지지 않아 더욱 각광을 받고 있다"고 말했다.  금융권의 알뜰폰 서비스는 이미 시장에서 경쟁력을 입증했다. KB국민은행은 일찌감치 2019년 알뜰폰 서비스인 리브모바일을 출시했다. 지난해 10월 기준 가입자 수 35만명을 넘어서며 서비스 3년 만에 5위 알뜰폰 사업자로 우뚝 섰다. 결국 금융기업만의 특색있는 전략이 성패를 좌우할 것으로 보인다. 금융 상품과 결합한 알뜰폰 서비스를 내놓는다면 기존 알뜰폰 사업자는 물론 통신 3사와 비교해 경쟁력을 가질 수 있어서다.또 다른 통신업계 관계자는 "토스 페이 10% 페이백이나 24시간 고객센터 운용 등은 알뜰폰 업계에서 찾아보기 힘들었던 시도"라며 "앞으로도 금융 기업이 가진 역량을 동원해 차별화된 통신 상품을 내놓는다면 업계에서 빠르게 성장할 수 있을 것"이라고 짚었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2023.01.17.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>우리금융, '1세대 벤처캐피털' 다올인베스트먼트 우선협상대상자에</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000718871?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>다올투자증권 "3월 내 매각 마무리"우리금융그룹 전경. 우리금융그룹 제공우리금융그룹이 다올인베스트먼트 매각 우선협상대상자로 선정됐다. 다올투자증권은 17일 다올인베스트먼트 지분 매각을 위한 우선협상대상자로 우리금융을 선정하고 양해각서(MOU)를 체결했다고 공시했다.앞서 다올투자증권은 다올인베스트먼스 보유 지분 전량(52%)을 매각하겠다고 발표했다. 희망 매각가는 2,000억 원 이상인데, 최종 매각가는 실사 결과를 반영해 주식매매계약 체결일에 확정할 예정이다. 지분 매각은 3월 내로 완료한다.이번 매각은 "선제적 유동성 확보 차원"이라는 게 다올투자증권 측 설명이다. 같은 취지로 다올투자증권은 지난해 말 정규직 직원 대상으로 희망퇴직을 실시했고, 최근 다올신용정보를 매각했다. 우리금융은 이번 인수로 종합금융그룹으로 발돋움할 것으로 보인다. 손태승 회장은 올해 신년사에서 "지난해 시장이 불안정해 보류한 증권·보험·벤처캐피털 등 비은행 사업 포트폴리오 확대는 올해 속도를 높일 것"이라고 밝혔다. 다올인베스트먼트는 1981년 설립한 1세대 벤처캐피털(VC)로 우아한형제들의 배달의민족, 비바리퍼블리카의 토스에 투자한 것으로 유명하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2023.01.16.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>인터넷은행 3사, 캐시백 혜택 가장 좋은 곳은 케이뱅크</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002279794?sid=105</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>비율 및 최대 금액 가장 높아소비를 줄이기 위해 체크카드를 찾는 금융소비자가 늘어나고 있는 가운데, 캐시백 혜택이 좋은 인터넷전문은행 3사(케이뱅크·카카오뱅크·토스뱅크)의 체크카드가 주목을 받고 있다.16일 인터넷전문은행 3사의 체크카드의 혜택을 비교해본 결과 캐시백 비율과 최대 금액 모두 케이뱅크가 가장 뛰어난 것으로 나타났다.케이뱅크의 '마이 체크카드'는 5천원 이상 결제 시 300원을 돌려준다. 비율로 환산하면 6%인 셈이다. 1일 1회에 한하며 최대 5천원을 돌려받을 수 있다. 전월 실적과 무관하게 캐시백해주기 때문에 큰 금액을 한 번에 결제한다면 케이뱅크 체크카드를 쓰면 좋다.케이뱅크 마이체크카드.다만 케이뱅크의 경우에는 케이뱅크와 제휴한 47개 가맹점에서 결제해야 캐시백을 받을 수 있다. 케이뱅크의 주요 제휴처는 젊은 세대가 잘 이용하는 곳으로 편의점 CU, 스타벅스, 카카오택시 등이다.인터넷전문은행 3사 체크카드 캐시백 비교표.(자료=지디넷코리아)그 다음으로 캐시백 비율이 높은 곳은 토스뱅크다. 1만원 이상 결제 시 300원을 돌려준다. 이 역시 전월 실적과 상관없이 캐시백해주며 최대 3천500원을 받을 수 있도록 설계됐다.토스뱅크서 눈에 띄는 점은 결제 즉시 캐시백이 된다는 점이다. 또 버스와 지하철 등 후불 교통 카드 기능을 통해 대중교통 이용 시 캐시백이 된다. 대중교통 이용 금액은 1~5일 내 캐시백된다.카카오뱅크은 평일과 주말 및 공휴일의 캐시백 비율이 다르게 책정됐다. 주중에는 이용 금액의 0.2%, 주말 및 공휴일에선 0.4%다. 최소 결제 금액이 없기 때문에 소액이면서 결제를 많이 할 때는 카카오뱅크 체크카드가 좀 더 유리할 것으로 관측된다.카카오뱅크 체크카드는 쿠팡·올리브영·GS칼텍스 등 제휴처에 따라 최소 결제 금액과 캐시백 금액이 정해져있다. 쿠팡에서 5만원 이상 결제 시 3천원을 도려주며 배달의 민족에선 2만원 이상 결제 시 3천원을 돌려준다. 휴대전화 요금도 카카오뱅크 체크카드를 통해 납부할 수 있는데 이 경우 5만원 이상 결제 시 3천원을 캐시백해준다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2023.01.24.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>친구 하나둘씩 ‘알뜰’로 갈아타는데…“알뜰폰, 비지떡 아닌가?” [뉴스 쉽게보기]</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005078363?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>서울의 한 휴대폰 판매점 간판에 통신 3사 로고가 붙어있다. [매경DB]분명 지난주에 본 것 같은데 이번 주에도 나오는 ‘가격 인상’ 뉴스, 요즘 생활 물가 오르는 속도가 정말 무서워요. 한꺼번에 늘어난 생활비 탓에 ‘허리띠를 졸라매야 하나’ 고민하는 분들도 많으실 것 같아요.그래서일까요? 매달 부담하는 생활 요금인 ‘통신비’를 아끼려고 노력하는 사람들이 많아지고 있대요. 오늘은 여러분이 한 번쯤 들어보셨거나, 직접 이용 중이실지도 모르는 ‘알뜰폰’ 이야기를 해보려고 해요.정부 정책으로 탄생한 ‘알뜰폰’알뜰폰은 우리나라 주요 이동통신사인 SK텔레콤, KT, LG유플러스보다 저렴한 가격으로 이동통신 서비스를 제공하는 업체들을 말해요. 정식 명칭은 ‘가상 이동통신망 사업자(MVNO)’이지만, 알뜰폰 사업자라는 쉬운 말로 더 잘 알려져 있죠.알뜰폰은 정부의 정책으로 탄생했어요. 우리나라 이동통신 시장은 오랫동안 세 회사가 큰 무리 없이 ‘나눠 먹기’를 해오던 과점 상태였기 때문에, 지난 2010년에 조금이라도 시장의 경쟁을 촉진하기 위해 관련법을 만든 거예요. 원래는 3년간 적용한 뒤 일몰될 예정이었다가 세 차례에 걸쳐 연장하며 유지돼 왔어요. (작년 9월에 일몰됐는데, 국회는 의무제도를 또 연장하거나 영구화할지 다음 달에 논의할 계획이에요. 연장하지 않는다고 해도, 시장이 어느 정도 자리를 잡은 만큼 알뜰폰이 갑자기 사라지지는 않겠지만요)법 내용은 간단히 말해 ‘이동통신 3사는 통신망을 보유하지 않은 회사가 통신망을 빌려달라고 하면, 빌려줘야 한다’는 취지예요. 이걸 ‘도매제공 의무제도’라고 불러요. 우리나라에서 통신망을 딱 3곳만 가지고 있으니까, 다른 사업자들도 이걸 사용해서 사업할 수 있도록 빌려줘야 한다는 거죠. 가격도 정해진 원칙대로 계산한 ‘도매가격’으로 싸게 줘야 해요.이때 적용하는 도매가격은 ‘도매대가(도매제공 이용대가)’라고 부르는데, 이동통신 3사가 일반적으로 판매하는 요금제에서 광고비·유통비 등을 뺀 가격을 말해요. 만약 5만원짜리 요금제를 팔 때 광고비와 유통비 등에 들어간 돈이 2만 5000원이라면, 알뜰폰 사업자는 2만 5000원에 요금제를 사 올 수 있는 거죠. 알뜰폰 사업자가 이걸 조금 더 비싸게 소비자에게 팔면 돈을 벌게 되는 거고요.도매 가격은 통신 3사의 40~60%대도매대가는 1위 사업자인 SK텔레콤의 요금제를 기준으로 삼아 정하는데, 보통 통신 3사 요금제의 40~60%대에서 결정돼요. 1·2·3위 통신사 요금이 비슷하니까요. 저렴한 정도는 요금제에 따라 조금씩 차이가 있어요. SK텔레콤의 ‘LTE 2.5GB 요금제’는 원래 월 4만 3000원인데, 도매대가는 정가의 43.5%에 해당하는 1만 8705원이에요. 알뜰폰 사업자는 이걸 사 와서 1000원쯤 이익을 붙여 팔아도 2만원 이하에 서비스를 제공할 수 있겠죠.알뜰폰 통신 요금은 사업자나 상품별로 좀 차이가 나긴 하지만, LTE 요금을 기준으로 이동통신 3사와 비교하면 보통 절반 수준이에요. (절반보다 더 비싼 것도 있고 한참 싼 것도 있는데, 회사별로 차이가 좀 나는 편이라 잘 비교해보는 게 좋아요. 알뜰폰 요금을 비교해주는 사이트도 쉽게 찾을 수 있어요)스마트폰이 대중화되고 데이터 요금제를 많이 사용하게 되자, 국민의 통신비 부담은 점점 커졌어요. 한동안 별 주목을 받지 못했던 알뜰폰 서비스도 평균적인 통신비가 비싸질수록 인기를 얻게 됐어요. 2017년 30여 개였던 알뜰폰 사업자는 현재 76개까지 늘어났어요.SKT 점유율 40% 붕괴, 진격의 알뜰폰최근에는 사람들이 물가 상승에 더 민감해져서인지 알뜰폰 가입자 증가 추세가 강해지는 모양새예요. 합리적인 소비를 지향하는 청년층이 알뜰폰 시장의 성장을 이끌었다는 분석이 많아요. 알뜰폰 사용자 중 2030세대가 절반에 가깝다고 해요. 자료=과학기술정보통신부지난해 11월 기준 중복 가입자를 포함한 알뜰폰 가입자는 1263만명으로 역대 최고 점유율인 16.4%를 기록했어요. 1년 사이 가입자가 200만명 이상 늘어났는데, 이동통신 3사에서 증가한 가입자 수를 모두 합친 것보다 많았어요. SK텔레콤은 80만명, KT는 10만명, LG유플러스는 70만명 정도 늘어나는 데 그쳤거든요.알뜰폰의 성장세는 이동통신 업계에 지각 변동을 일으키고 있어요. 우리나라 1위 이동통신 사업자인 SK텔레콤은 1994년 사업을 시작한 이래 처음으로 점유율 40%가 무너졌어요. 지난해 11월 기준 점유율이 39.9%였어요. SK텔레콤뿐 아니라 KT와 LG유플러스 점유율도 함께 낮아지는 추세래요. *회선 기준(중복 가입 포함), 자료=과학기술정보통신부특히 알뜰폰 사용자 중에는 LTE 요금제를 선호하는 사람이 많았어요. 5G 요금제는 너무 비싸다는 거죠. LTE 속도 정도면 일상적으로 이용하기에 무리가 없다는 점이 이런 선택에 영향을 준 것으로 보여요.줄줄이 뛰어드는 기업들올해에도 알뜰폰의 성장세는 계속될 것이라는 전망이 우세해요. 소규모 회사가 대부분이던 알뜰폰 시장에 KB국민은행, 토스(비바리퍼블리카)처럼 큰 금융사들도 뛰어들었고, 이동통신 3사 또한 자회사를 차려 알뜰폰 사업을 병행하는 등 다양한 사업자가 적극적으로 나서고 있기 때문이에요. (통신 3사도 알뜰폰 업체들에게 시장 점유율을 빼앗기는 걸 가만히 보고 있을 수만은 없겠죠)알뜰폰 요금제는 사실 가격이 저렴한 만큼 한계도 있는 서비스였어요. 워낙 작은 업체들이 많다 보니 ‘고객 센터에 전화 연결이 되질 않는다’ 같은 지적을 많이 받았어요. ‘싼 게 비지떡’이라는 인식이 있었던 거죠. 소규모 업체들은 여전히 이런 비판을 받고 있고요.하지만 시장이 성장하고 통신3사, 은행 같은 큰 업체들이 계열사를 차려 사업에 나서자 최근에는 신뢰도가 높아지는 모양새예요. 물론 큰 업체들이 돈을 많이 들여 출시한 서비스는 상대적으로 요금이 비싸긴 해요. 그래도 소비자 입장에서 선택의 폭이 넓어졌다는 의미는 분명히 있어요. ‘아주 싸고 불편한 서비스’와 ‘조금 싸고 별로 안 불편한 서비스’ 중에 하나를 택할 수 있게 됐으니까요. *회선 기준(중복 가입 포함), 자료=과학기술정보통신부한국 알뜰폰, 어디까지 성장할까우리나라 알뜰폰 시장이 빠르게 성장하고 있지만, 비슷한 서비스가 존재하는 미국이나 일본과 비교하면 아직 해결하지 못한 한계점이 존재해요. 국내 알뜰폰 회사들은 통신 3사의 요금제를 싸게 사 와서 재판매하는 ‘단순 판매상’에 머물고 있거든요. 알뜰폰 산업이 꽤 성장한 미국에선 시장 공략에 성공한 뒤 설비 투자나 독자적 요금 상품 개발에 나선 업체들도 존재하는데 말이죠.물론 시장 규모 자체가 다르니까 우리나라와 미국을 단순히 비교할 수는 없어요. 그래도 ‘진정한 경쟁과 소비자 편익 증진’을 위해서는 적극적인 투자에 나서는 업체들이 필요하겠죠. 아마 우리는 본격적인 알뜰폰 시장 성장의 초입을 지켜보고 있는 것 같아요. 과연 ‘이동통신’ 하면 3개 통신사 이름만이 떠오르는 한국 시장은 곧 변화를 맞이하게 될까요?&lt;뉴미디어팀 디그(dig)&gt;매일경제 ‘디그(dig)’팀이 연재하는 ‘뉴스 쉽게보기’는 술술 읽히는 뉴스를 지향합니다. 복잡한 이슈는 정리하고, 어려운 정보는 풀어서 쉽게 전달하겠습니다. 무료 뉴스레터를 구독하시면 더 많은 이야기들을 이메일로 받아보실 수 있습니다. ‘디그 구독하기’를 검색하고, 정성껏 쓴 디그의 편지들을 만나보세요. 아래 주소로 접속하셔도 구독 페이지로 연결됩니다.https://www.mk.co.kr/newsletter/</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2023.01.26.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>[단독] 케이뱅크, 고신용자 신용대출 금리 5개월만에 3%p 올렸다</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000889874?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>케이뱅크가 고신용자들에 대한 신용대출, 마이너스통장 대출 금리를 대폭 올렸다. 사진은 서울 을지로 케이뱅크 신사옥 전경./사진=케이뱅크 지난해 3분기 사상 최대 순이익을 거둔 케이뱅크가 고신용자들의 신용대출 금리를 5개월만에 큰폭으로 인상한 것으로 나타났다.  26일 머니S가 은행연합회 공시를 분석한 결과에 따르면 지난해 12월 케이뱅크의 고신용자(KCB기준 신용점수 951~1000점)에 대한 신용대출 평균금리는 7.45%로 지난해 7월(4.41%)보다 3.04%포인트 올랐다.이는 KB국민·신한·하나·우리·NH농협 등 5대 시중은행과 카카오뱅크·케이뱅크·토스뱅크 등 인터넷은행 3곳 중 가장 높은 수준이다.은행별 고신용자 신용대출 평균금리를 보면 지난해 12월 기준 KB국민은행은 6.11%, 우리은행은 6.30%로 지난해 7월 대비 각각 1.70%포인트씩 올랐다.같은 기간 신한은행은 6.35%, NH농협은행은 6.46%로 각각 1.41%포인트, 1.73%포인트씩 상승했다. 하나은행은 2.08%포인트 오른 6.36%로 집계됐다.같은 인터넷은행인 카카오뱅크는 5.73%로 1.08%포인트 올랐으며 토스뱅크는 6.77%로 1.88%포인트 올랐다.이처럼 케이뱅크의 고신용자 신용대출 평균금리가 타행 대비 크게 오른 것은 케이뱅크가 가산금리를 가장 많이 올리면서도 조정금리를 대폭 줄였기 때문이다. 은행 대출금리는 시장금리인 준거금리와 업무 원가 등을 반영한 가산금리를 더한 값에서 조정금리를 차감해 책정된다.케이뱅크는 지난해 7월부터 12월까지 가산금리를 3.17%에서 3.91%로 0.74%포인트 올렸다. 시중은행의 가산금리 인상폭이 0.12~0.47%포인트에 그친 것과 비교하면 인상 폭을 최대 0.62%포인트 더 확대한 셈이다. 같은 기간 카카오뱅크는 가산금리를 오히려 0.24%포인트 축소한 것과 대비된다.그러면서 케이뱅크는 조정금리를 1.30%에서 0.63%포인트로 절반 수준으로 줄였다.신용대출뿐만 아니라 마이너스통장 대출 평균금리도 케이뱅크가 가장 높았다.케이뱅크는 지난해 7월까지만 해도 5대 시중은행(4.95~5.36%)과 토스뱅크(5.22%)보다 낮은 4.75%의 마이너스통장 대출 금리를 고신용자들에게 매겼다. 당시 카카오뱅크는 고신용자에 대한 마이너스통장 대출 판매를 중단한 상황이었다.하지만 5개월만인 지난해 12월 케이뱅크의 고신용자 마이너스통장 대출 금리는 7.37%로 단숨에 2.62%포인트 뛰어올랐다.5대 시중은행(6.56~6.92%)과 토스뱅크(6.84%)가 같은 기간 해당 금리를 1.39~1.76%포인트 올린 것과 비교하면 큰 폭의 상승세다.마이너스통장 대출 역시 케이뱅크가 시중은행(0.06~0.23%포인트)이나 토스뱅크(0.1%포인트) 대비 가산금리를 0.75%포인트로 확대하면서 대출금리가 급등했다.케이뱅크는 중·저신용자 대출을 확대하고 고신용자에 대한 대출을 줄이기 위해 금리가 조정됐다는 설명이다.다만 케이뱅크는 지난 17일부터 신용대출과 마이너스통장 대출의 금리를 신용등급에 따라 최대 0.7%포인트 인하함으로써 이달부터 신용대출 평균금리가 하향 조정될 가능성도 있다.하지만 금융권에선 고신용자에 대한 케이뱅크의 대출 금리가 시중은행 대비 경쟁력 있는 수준으로 떨어지지 않을 것으로 보고 있다.케이뱅크 수익구조를 보면 이자이익 비중이 높기 때문이다. 일정 수준의 예대금리차를 이어가야 흑자기조를 지속할 수 있는 구조다.케이뱅크의 지난해 3분기말 기준 영업수익은 1471억원으로 이중 약 95%(1390억원)는 이자수익이었다.특히 케이뱅크는 2021년 3분기말 1.42%였던 순이자마진(NIM)을 지난해 3분기말 2.44%로 1.02%포인트 확대했다. 이로써 케이뱅크는 지난 2021년 3분기 이후 지난해 3분기까지 5분기 연속 분기 흑자 행진을 이어갈 수 있었다.시중은행 관계자는 "지난해 이후 금리 상승기 속에서 인터넷은행의  대출 금리가 계속 조정되면서 상승세를 보이고 있다"며 "이런 여파로 시중은행 영업점에 대환대출 상담을 받으러 오는 인터넷은행 대출자들이 꾸준히 늘고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2023.01.16.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>냉장고 파먹고 당근 무료나눔 ‘1만원으로 사흘버티기’는 꿈이었다 [만원살이]</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002091368?sid=101</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>교통비 5900원·커피 3368원지출 만회위해 ‘디지털폐지줍기’도편의점서 건전지 구매하며 실패2003~2008년, 1만원으로 일주일을 버티는 MBC 예능 ‘만원의 행복’이 인기리에 방영됐다. 해당 프로그램이 방영된 지 20년이 지난 올해, ‘고물가 시대’에는 1만원으로 최대 며칠을 버틸 수 있을까. 3일 동안 ‘2023년판 만원의 행복’ 챌린지를 해보고 이를 직접 기록했다. 물가 상황을 반영해 이번 챌린지의 목표는 ‘1만원으로 사흘 버티기’로 설정했다.우선 식비 해결이 챌린지의 핵심이었다. 외식과 배달 음식 대신 ‘냉장고 파먹기(집에 남아 있는 식재료를 이용해 음식을 만들어 먹는 것)’와 ‘당근 무료 나눔’을 이용하기로 했다.챌린지 첫날이었던 7일부터 2주 전 시켜 먹었던 배달 음식이 발목을 잡았다. 냉장고에서 상한 배달 떡볶이를 버리느라 음식물 쓰레기 처리 비용으로 19원을 지출했다. 아침에 눈을 뜨자마자 당근마켓 애플리케이션을 켜고 ‘무료 나눔’을 키워드로 틈틈이 검색했다. 오전 10시께 약 50분 전에 올라온 ‘라면 4봉지 무료 나눔’ 글을 보고 나눔 신청했지만, 한발 늦고 말았다. 결국 7일에는 집에서 굴러다니는 사과 한 알로 아침 겸 점심을 해결할 수밖에 없었다.오후에는 가족 행사가 있어 서울 강남구 양재역 인근으로 이동했다. 택시는 언감생심, 대중교통을 이용했다. 그러나 이마저도 만만치 않았다. 신논현역에서 양재역까지 2개 역을 신분당선으로 환승하자 지하철 요금이 2950원으로 두 배로 뛰었다. 그렇게 ‘1만원’ 중에서 교통비로만 벌써 5900원을 지출했다.지출을 만회하기 위해 ‘디지털 폐지 줍기’에 나섰다. 디지털 폐지 줍기란 보상형 모바일 앱을 통해 포인트를 모아 현금화하거나 기프티콘으로 교환하는 것을 일컫는 말로 짠테크를 실천하는 MZ세대 사이에서는 필수다.토스 뱅크 미션을 적극적으로 이용했다. 집앞 10분 거리 미션 장소에 도착해 20원을 획득했다. 이날은 5000보 이상 걸어 20원도 추가로 얻었다.저녁 식사는 보관을 잘못해 물러진 총각김치를 이용해 요리를 해먹기로 했다. 버리면 약 70원가량 음식물 쓰레기 비용이 나갈 터였다. 냉장고에 있던 애호박, 베이컨을 더해 볶음밥을 만들었다. 즉석밥은 금물이다. 자사몰에서 구매해도 1000원을 훌쩍 넘는 즉석밥 대신 냉동실에 얼려둔 밥으로 해결했다.챌린지 둘째 날인 8일에는 외출 없이 총지출 0원, 총수익 885원을 기록했다. 눈을 뜨자마자 아침 운동 겸 앱테크를 위해 미션 장소를 돌아다니며 20원을 획득했다. 이날은 설문조사 앱테크로 800원까지 벌었다. 설문조사를 하면 약 200~300원을 획득할 수 있다. 단, 일정 수준 이상 쌓여야 환급이 가능하다.점심과 저녁 끼니는 전날과 같이 각각 사과 한 개와 상하기 직전인 채소를 넣고 끓인 라면으로 해결했다.챌린지 성패가 갈리는 마지막날인 9일 출근하기 위해 인근 스타벅스로 향했다. 이제 남은 돈은 포인트를 포함해 5000원 남짓. 커피값이라도 아끼기 위해 기프티콘 거래 플랫폼 ‘니콘내콘’을 이용했다. 스타벅스 카페 아메리카노 기본(톨) 사이즈 기프티콘을 21% 할인된 가격에 구할 수 있었다. 여기에 그동안 모았던 토스 포인트를 이용해 3368원에 아메리카노를 마셨다.하지만 미션 종료 약 12시간을 앞두고 결국 챌린지는 실패로 돌아갔다. 무선 마우스의 건전지 수명이 다해 뜻밖의 지출이 발생하면서다. 편의점에서 급히 건전지 구매하면서 니콘내콘 앱을 이용해보려고 했지만 역부족이었다. 한 푼이라도 아끼려는 이들로 편의점 20% 할인 상품권은 진즉 ‘품절’이었다. 건전지값만 3400원, 지출이 그만 1만원을 넘겨 버렸다. 총 지출 1만2887원을 기록하며 당당하게 도전했던 3일간의 ‘만원의 행복’은 다소 허무하게 끝이 나고 말았다. 신주희 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2023.01.27.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>다야몬즈, 인기 애니 원작 '하이큐' 2월 1일 국내 출시</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000724815?sid=105</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>고교 배구 무대로 한 청춘 스포츠 애니메이션이 게임으로[사진=다야몬즈]다야몬즈(대표 김동균)는 배구 소재의 스포츠 애니메이션 '하이큐!!' IP 기반의 모바일 게임 '하이큐!! 터치 더 드림(TOUCH THE DREAM, 이하 하이큐)'의 정식 서비스를 오는 2월 1일 개시한다.하이큐는 원작에 등장하는 고교 배구부 선수들이 각자의 재능으로 코트 위에서 완벽한 승리를 만들어가는 성장과 도전기를 게임으로 표현했다. '카라스노', '네코마', '아오바조사이', 등 애니메이션에 등장하는 캐릭터가 귀여운 3D SD캐릭터로 구현된 점이 특징이다.이 게임은 배구 경기의 핵심이라 할 수 있는 서브, 리시브, 토스, 스파이크, 블로킹 등의 스킬을 통해 전략적이고 박진감 넘치는 플레이를 즐길 수 있을 뿐 아니라 독특한 개성과 매력을 가진 캐릭터들을 통해 남녀노소 누구나 배구의 재미와 육성의 묘미를 느낄 수 있다.김동균 다야몬즈 대표는 "최근 남녀 프로 배구가 한국을 넘어 세계적인 관심과 사랑을 받는 스포츠로 성장하고 있는 상황에서 배구를 소재로 한 게임을 출시하게 됐다"면서 "하이큐를 통해 배구의 재미와 원작 IP의 감동까지 느껴볼 수 게임을 선보일 것"이라고 말했다.한편 애니메이션 하이큐는 2012년부터 일본 만화 잡지 '소년 점프'에 연재돼 시리즈 누계 발행 부수 5천500만부를 돌파한 만화를 2014년에 애니메이션화한 작품이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2023.01.29.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>해외 이통사, 알뜰폰 인수 줄잇는데… 국내는 여전히 규제 `덫`</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002780945?sid=105</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>T모바일, 민트모바일 인수 검토인수땐 가입자 1억400만명으로국내 자회사 알뜰폰 점유율 규제이통업계 "시장 자율성 확대 필요"글로벌 시장에서 해외 이동통신사들은 알뜰폰을 자회사로 두거나 인수해 사업 범위를 넓히고 있다. 정부 차원에서 직접적인 시장점유율 제한 등의 제도를 도입한 곳도 찾기 힘들다. 이와 달리 국내에서는 알뜰폰 사업과 관련해 이동통신사에 '도매제공의무사업자 제도' 등의 규제를 두고 있어 자율성을 확대해야 한다는 지적이 제기된다.  29일 블룸버그통신 등 외신에 따르면, 미국 2위 이동통신사 T모바일이 자사 망을 활용해 알뜰폰 서비스를 제공하는 MVNO(알뜰폰) 사업자 민트모바일 인수를 검토하고 있다. 민트모바일은 2015년 알뜰폰 사업을 시작해 2021년 기준 약 200만명의 가입자를 보유하고 있다. 이 회사는 △데이터 4GB(기가바이트) 제공 15달러(1만8000원) △10GB 20달러(2만4000원) △15GB 25달러(3만원) △데이터무제한 30달러(3만7000원) 등 저렴한 요금제를 앞세웠다. 2020년 통신사업자 스프린트와 합병해 2021년 기준 1억200만명의 가입자를 보유한 T모바일이 민트모바일을 인수할 경우 가입자는 1억400만명으로 증가할 것으로 예상된다. 미국에서는 통신 업종에서 자유로운 경쟁 환경이 조성돼 있어 MVNO 인수를 통한 저가 서비스 확대 시도가 자유롭게 이뤄지고 있다. 실제 미국은 1983년 도입했던 MNO(이동통신 사업자) 도매제공 의무를 2002년 일몰 이후 자율 협상으로 운영하고 있다. 일본에서는 신고만으로 이동통신 자회사의 알뜰폰 진출이 가능하다. 반면, 국내에서는 이동통신사들에게 '도매제공의무사업자 제도'와 자회사의 알뜰폰 점유율 규제가 적용된다. 통신업계 1위 사업자인 SK텔레콤이 알뜰폰 사업자에게 빌려주는 통신망 도매가격을 정부와 협의하도록 한 도매제공의무사업자 제도는 일몰제로 지난해 9월 만료됐지만, 정부가 연장을 추진하고 있다. 정부는 또한 2012년 알뜰폰 시장 진입 조건으로 통신 3사 자회사들에 대해 알뜰폰 시장점유율 50%를 넘길 수 없다는 조건을 붙였다. SK텔링크, KT엠모바일, KT스카이라이프, LG헬로비전, 미디어로그 등이 이동통신 알뜰폰 자회사다. 이들 기업이 규제받는 사이에 금융, 핀테크 등 타 업종의 기업들이 알뜰폰 시장에 진출하고 있다. 이 가운데 이동통신 업계에서는 알뜰폰 가입자가 지난해 11월 기준 1200만명을 돌파해 전체 이동통신 시장의 16.4%에 달하는 만큼 시장에서 자율성이 확대될 필요가 있다는 목소리가 나온다. 최근 국민은행의 리브엠에 이어 토스(비바리퍼블리카)까지 알뜰폰 시장에 진출하면서 위기의식이 커진 것도 이런 배경 중 하나다. 통신업계 한 관계자는 "알뜰폰 외연이 넓어진 만큼 사업자들이 단순 판매상에 머무는 게 아니라 자생력을 길러야 한다"고 말했다. 또 다른 관계자는 "알뜰폰에 대한 규제가 완화되고 자율성이 확대돼야 알뜰폰 사업자들의 투자도 늘어나고 단순한 요금 경쟁을 넘어 서비스 경쟁이 가능해질 것"이라고 말했다. 최근 국회에서도 관련 논의가 이뤄지고 있다. 윤영찬 더불어민주당 의원은 지난 18일 도매대가 규제를 폐지하는 내용을 담은 전기통신사업법 일부개정법률안을 대표발의했다. 정부가 시장에 직접 개입하는 도매제공 의무와 도매대가 규제를 폐지해 시장 자율에 맡기자는 게 법안의 골자다. 도매대가 제도 폐지로 인해 예상되는 시장의 충격 완화를 위해 한 차례에 한해 도매제공 의무를 추가 연장(3년)하는 내용도 담았다. 윤 의원은 "알뜰폰 산업이 지속적으로 성장하려면 정부의 인위적인 지원보다는 시장 내에서 자체적인 경쟁력과 차별성을 확보할 수 있어야 한다"고 말했다. 일각에서는 도매제공 의무가 사실상 가격 상한선으로 작용해 알뜰폰 사업자들의 설비 투자가 미진했고, 중소 사업자들이 난립해 소비자 이익이 떨어지고 있다는 지적도 나온다. 실제로 현재 알뜰폰 사업자는 현재 76개까지 늘어났다. 이동통신망 도매대가에 대해 정부가 개입해 사전규제하는 것이 우리나라가 거의 유일해 시대 흐름에 맞지 않는다는 목소리도 있다. 반면, 알뜰폰 업계는 도매제공 일몰제도와 관련해 일몰제 자체를 폐지하고 영구적인 도매제공이 필요하다고 주장하며 평행선을 달리고 있다. 알뜰폰 업계 한 관계자는 "도매제공 의무가 없어지면 알뜰폰 사업자들이 존립하기 힘든 상황"이라며 "신규 사업자 진입도 어려워질 것"이라고 말했다.윤영찬 의원.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2023.01.16.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>토스뱅크 병역지정업체 선정…전문연구요원 모집 개시</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003072744?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>토스뱅크(대표 홍민택)는 전문연구요원 병역지정업체로 선정됨에 따라, 군복무를 앞둔 전문연구요원을 적극 모집한다고 16일 밝혔다. 선발 인원은 00명이다. 모집분야는 토스뱅크의 개발 및 데이터 관련 직군 전반으로, 코어뱅킹 개발자 등 총 10개 분야에서 선발한다.선발된 전문연구요원은 토스뱅크 임직원과 동일한 근무여건 속에서 근무하며, 처우도 토스뱅크 임직원(정규직)과 동일하다. 급여, 인센티브 등 입사 패키지는 물론 복리후생을 누릴 수 있는 범위 또한 다르지 않다.대상은 이공계 석사 학위 이상을 보유한 군복무 예정자다. 2023년 2월 졸업예정자도 포함이다. 신규편입은 물론 전직이나 보충역도 지원 가능하지만, 전직하는 전문연구요원의 경우 1년 6개월 이상 복무 이력을 갖추고 있어야 한다.토스뱅크 관계자는 “제1금융권의 새로운 길을 열고 있는 토스뱅크가 젊고 참신한 인재들과 함께 '토스뱅크의 미래'를 만들어간다는 측면에서 의미가 있다”며 “이공계 전문인력의 연구 공백을 막고, 토스뱅크가 추구하는 혁신을 이어가는 윈윈(win-win)이 될 것”이라고 말했다.전문연구요원제도는 36개월간 병무청이 지정한 병역 특혜 지정업체에서 연구개발 업무를 수행하며, 군 복무를 인정받는 제도다. 선발된 연구요원은 군 생활 대신 현업에서 연구 개발 역량을 키울 기회를 얻는다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2023.01.16.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>"알고 갑시다" 연말정산 시즌 시작.. 13월의 월급 두둑하게</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/661/0000018946?sid=103</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>연말정산에 필요한 자료를 조회할 수 있는 연말정산 간소화 서비스가 시작됐습니다.연말정산은 근로자가 1년 동안 납부한 근로소득세를 정산하는 절차로, 실소득보다 많은 세금을 냈으면 그만큼 돌려주고, 적개 낸 경우에는 추가 납부해야 합니다.개인별로 '13월의 월급'이 아닌 '13월의 추가 세금'이 되지 않도록 꼼꼼한 확인이 필요합니다.■ 더 편리해진 연말정산 간소화 서비스국세청은 어제(15일)부터 연말정산 간소화 서비스를 개통했습니다.근로자들은 홈택스 사이트를 통해 간소화 자료들을 확인해 내려 받을 수 있습니다.올해는 간소화 서비스 간편인증이 보다 확대됐습니다.카카오톡과 통신사PASS, 삼성패스와 국민은행, 페이코와 네이버, 신한은행 등 기존 인증 7종 외에 토스와 하나은행, 농협과 뱅크샐러드 등 4종이 추가돼 이용자는 11종의 간편인증을 활용할 수 있습니다.보건복지부와 국가보훈처에서 수집한 장애인 증명자료도 간소화 자료로 제공됩니다.월세를 신용카드로 낸 경우에는 국세청이 카드사로부터 신용카드로 결제한 월세액 자료를 수집해 간소화 자료로 이용할 수 있습니다.■ 신용카드 사용액·대중교통 지출액 공제 확대올해 달라진 점을 확인해 적용해 보면 예상 환급액이 늘어날 수 있습니다.우선 받을 수 있는 신용카드와 대중교통 공제가 더욱 확대됐습니다.지난해 신용카드 사용액과 전통시장 사용액이 그 전해인 2021년보다 5% 넘게 늘어난 경우 100만 원 한도에서 추가 소득공제를 받을 수 있습니다.대중교통 이용금액 소득공제는 지난해 7∼12월 이용분에 한해 공제율이 40%에서 80%로 올라갑니다.버스와 지하철, KTX, SRT 등이 포함되고, 택시와 비행기는 제외됩니다.무주택 세대주인 근로자가 주택 임차를 위해 차입한 자금의 공제 한도도 300만 원에서 400만 원으로 확대됐습니다.총급여 7,000만 원 이하 무주택 근로자가 지출하는 월세에 대한 세액공제율은 기존 10∼12%에서 15∼17%로 올라갔습니다.월세 세액공제를 받으려면 지난해 12월 31일 현재 무주택 세대 세대주로서 총급여액이 7,000만 원 이하인 근로자여야 합니다.국민주택규모 이하나 기준시가 3억원 이하인 주택을 임차하고 임대차 계약증서 주소지와 주민등록표 등본 주소지가 같은 경우 월세 세액공제를 받을 수 있습니다.또 난임 시술비는 20%에서 30%로, 미숙아·선천성 이상아를 위해 지출한 의료비는 15%에서 20%로 각각 세액공제율이 올라갔습니다.지난해 낸 기부금에 대해서는 1,000만 원 이하 20%, 1,000만 원 초과는 35% 세액공제가 적용됩니다.■ "영수증도 다시 보자" 누락분 놓치지 말아야연말정산을 잘하려면 간소화 서비스에서 누락된 부분을 잘 챙기는 것이 중요합니다.월세를 비롯해 종교단체 기부금, 부정기적으로 기부하는 기부금 등이 대표적입니다.관련 영수증은 따로 챙겨야 합니다.또 많이 누락되는 것이 자녀의 해외 교육비를 비롯해 안경과 콘택트렌즈 구매 비용, 교복 구매 비용, 보청기와 휠체어 등의 장애인 보장구 구매 비용 등입니다.미취학 아동의 학원비는 교육비 내역에서 조회되지 않는 경우가 있어 별도 확인해야 합니다.특히 암, 치매, 난치성 질환 등 중증환자는 국세청에서 조회가 되지 않아 장애인 증명서를 떼야 200만 원씩 장애인 공제를 받을 수 있습니다.■ "13월의 추가 세금?" 꼼꼼히 살펴야과다 공제도 주의해야 합니다.소득금액이 100만 원이 넘는 부양가족을 인적공제에 포함하거나, 맞벌이 부부가 자녀를 각각 공제 신청해 중복되는 경우, 형제자매가 부모님을 각각 신청해 중복되는 경우가 가장 흔한 사례로 꼽힙니다.동일 부양가족의 의료비와 교육비, 신용카드 공제를 다수의 근로자가 중복 또는 분할해 공제하는 경우, 보험금으로 보전 받은 의료비를 또 공제하는 경우도 마찬가지입니다.과세 기간 개시일 이전 사망한 부양가족에 대한 인적공제 사례도 있습니다.흔히 소득공제 영역에서 신용카드 사용이 총급여의 25%를 초과했다면 공제율이 높은 현금이나 체크카드를 사용하는 것이 유리하다고 여겨지지만, 이는 장기적으로 평소 생활 시 고려해야 할 부분입니다.이 밖에 인적공제 영역에서는 맞벌이 부부일 경우 소득이 많은 쪽으로 몰아 받는 것이 연말정산에서 더 유리합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2023.01.31.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>“인센티브 너무 파격적인데”…제4통신사 팍팍 미는 정부 왜</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005081864?sid=105</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>연내 제4통신사 사업자 선정28㎓ 대역 3년 동안 독점제공신규투자 세제 지원 최대 22%저리 정책자금 등 다양한 지원 통신3사 [사진 = 연합뉴스]정부가 통신3사 과점 체제를 허물기 위해 제4이통사 모집에 적극 나선다. 지난 10년 간 7차례 시도했지만 결국 무산된 바 있는데, 이번엔 성공을 거둘 수 있을지 주목된다.31일 과학기술정통부는 5G 28㎓ 대역 신규사업자 진입 지원방안을 발표했다. 지난해 12월 취소된 28㎓ 2개 대역 중 1개 대역에 신규사업자 진입을 추진하는 것이 골자다. 28㎓ 기지국 구축을 소홀히한 대가로 해당 대역을 정부에 반납했던 KT와 LG유플러스는 앞으로 3년 간 주파수를 받을 수 없게 된다.정부는 오는 2분기 공고를 내고 올해 내로 신규사업자를 선정할 예정인데, 파격적인 인센티브를 내걸었다. 신규투자에 대한 세제지원을 최대 22%(조세특례제한법 개정 전제)까지 해주고, 정책자금도 저리(시중금리 대비 2% 마이너스)로 빌려줄 예정이다. 아울러 28㎓ 전국망을 받더라도 핫스팟에 한해서만 기지국을 구축하면 되고, 전국망이 필요없을 경우엔 대광역권(수도권, 동남권, 호남권 등) 단위로도 주파수를 할당 받을 수 있다.정창림 과기정통부 통신정책관은 “신규 28㎓ 핫스팟을 300개 구축한다고 가정했을 때 약 3000억원의 투자금이 필요하다”고 밝혔다. VR AR 등 메타버스 서비스를 구현하기 위해선 초고속 저지연의 28㎓ 대역이 필요한데, 전국의 콘서트장, 경기장, 전시관 등에 300개를 다 깔아도 비용은 3000억원이라는 것이다. 통신3사가 5G 3.5㎓ 및 28㎓ 대역 주파수를 할당받는 대가로 각각 1조원 이상 쓴 것에 비해선 진입 문턱을 확 낮췄다.신규 사업자는 기본적으로 통신사로부터 망을 공유받아 알뜰폰 사업을 하면서 28㎓ 서비스도 병행할 수 있다. 삼성전자도 과기정통부와 협의해 28㎓용 단말기를 국내에 출시하는 안을 검토하고 있다. 현재 삼성전자 애플 등은 28㎓용 단말기를 지난해 기준 1억대 이상 전세계에 공급한 상황이다.홍진배 과기정통부 네트워크정책실장은 “이미 일부 사업자가 신규 진입과 관련해 관심을 표명했다”며 “알뜰폰 가입자가 1200만명을 넘을 정도로 알뜰폰 시장이 성숙했고, 통신사 약정이 아닌 자급제폰을 통한 가입이 23%에 달하는 만큼, (28㎓ 대역 신규 서비스를 출시하는) 제4이통사가 나올 환경은 갖추었다고 본다”고 강조했다. 홍진배 과학기술정보통신부 네트워크정책실장이 31일 오후 서울 종로구 정부서울청사에서 5G(28GHz) 신규사업자 진입 지원 방안을 발표하고 있다. 2023.1.31 [사진 = 연합뉴스]만일 신규 사업자가 월 3만원 알뜰폰 요금제(LTE 무제한)  회원 200만명을 확보할 경우, 연간 매출액이 7200억원, 영업이익은 360억원(5% 가정)을 얻을 수 있다. 2%대 저금리로 정책자금과 20%대에 달하는 세액공제까지 받는다면, 충분히 주파수 할당 및 이자비용을 감당하면서 신규 서비스를 할 수 있게 된다. 업계선 KB국민은행, 토스 등 금융권 알뜰폰 사업자가 자금력을 바탕으로 신규 진입을 할 수 있다고 내다보고 있다.다만 아직 반신반의하는 의견이 현재로선 강한 상황이다. VR AR 등 메타버스 산업과 자율주행이 보편화되면 5G 28㎓가 쓰임새가 있겠지만, 아직은 해당 시장이 잘 형성되지 못하고 있는 상황이기 때문이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2023.01.20.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>토스, 가족 보안 알리미 서비스 도입</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000871329?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>비바리퍼블리카(토스)는 가족 보안 알리미 서비스를 선보인다고 밝혔다. /토스 제공        모바일 금융 서비스 토스를 운영하는 비바리퍼블리카(이하 토스)는 20일 설 연휴를 앞두고 가족이 함께 금융 범죄에 빠르게 대처할 수 있는 ‘가족 보안 알리미’ 서비스를 선보인다고 밝혔다.토스의 가족 보안 알리미는 사기 의심 거래를 탐지해 이용자가 설정한 가족에게 알림을 보내주는 서비스다. 범죄 상황 노출 시 당사자가 심리적으로 위축되어 사후 처리가 미흡해진다는 점에 착안, 금융 사고 내용을 가족에게 발 빠르게 공유하고 피해를 최소화하기 위해 개발됐다.의심거래가 발생하게 되면, 연결된 가족에게 피해 발생 날짜, 피싱, 중고거래, 명의 도용 등의 금융 사고 유형이 표시된다. 알림은 토스 앱 푸시 혹은 카카오 알림톡으로 전달된다.알림은 물론 발생한 피해를 최소화할 방법도 함께 안내 된다. 계좌와 카드 분실신고, 사고예방 시스템 등록법 등이 담겨있다. 더불어 피해자는 토스 고객센터에 피해 구제를 위한 안심보상제를 신청할 수도 있다고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2023.01.16.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>돌아온 연말정산, 올해 달라진 점은? 신용카드·대중교통 공제 확대</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/310/0000103155?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>연말정산 간소화 서비스 15일 개통카드 사용액 늘었다면 추가 공제대중교통 이용액 공제율 80%로난임시술비 20%→30%로 확대ⓒpixabay'13월의 월급'이라 불리는 연말정산 간소화 서비스가 15일 개통됐다. 올해 연말정산에서 받을 수 있는 신용카드 사용액과 대중교통 지출액 공제는 확대된다.국세청에 따르면 15일부터 홈택스(www.hometax.go.kr)에서 연말정산 간소화 자료를 확인해 내려 받을 수 있다.  간편인증 11종… 지난해보다 확대 올해는 간소화 서비스 간편인증(민간인증서)이 지난해보다 확대된 점이 특징이다.기존 인증 7종(카카오톡, 통신사PASS, 삼성패스, 국민은행, 페이코, 네이버, 신한은행)에 토스, 하나은행, 농협, 뱅크샐러드 등 4종이 추가되면서 이용자는 총 11종의 간편인증을 활용할 수 있게 됐다.보건복지부와 국가보훈처에서 수집한 장애인 증명자료도 간소화 자료로 제공된다.2022년 귀속 연말정산 서비스 일정 ⓒ국세청월세를 신용카드로 납부한 경우에는 국세청이 카드사로부터 신용카드로 결제한 월세액 자료를 수집해 제공하는 간소화 자료를 이용할 수 있다.신용카드 사용액, 대중교통 지출액 공제 확대신용카드 사용액과 대중교통 지출액에 대한 공제는 더욱 확대된다.개정 세법에 따르면 작년 신용카드 사용액, 전통시장 사용액이 그 전해인 2021년보다 5% 넘게 증가한 경우 100만원 한도에서 추가 소득공제를 받을 수 있다.대중교통 이용금액 소득공제는 작년 7∼12월 이용분에 한해 공제율이 40%에서 80%로 올라간다.무주택월세 공제 300만원→400만원무주택 세대주인 근로자가 주택을 임차하기 위해 차입한 자금의 공제 한도도 300만원에서 400만원으로 확대됐다.작년 12월 31일 기준 무주택 세대의 세대주가 주택법에 따른 국민주택규모 주택(주거용 오피스텔 포함)을 임차하기 위해 대출기관 등에서 주택 임차자금을 차입하고 차입금의 원리금 상환액을 지급하는 경우 상환액의 40%를 400만원 한도로 소득에서 공제하는 식이다.총급여 7000만원 이하 무주택 근로자가 지출하는 월세에 대한 세액공제율은 10∼12%에서 15∼17%로 올라갔다.월세 세액공제를 받으려면 작년 12월 31일 현재 무주택 세대 세대주로서 총급여액이 7000만원 이하인 근로자여야 한다.국민주택규모 이하나 기준시가 3억원 이하인 주택을 임차하고 임대차 계약증서 주소지와 주민등록표 등본 주소지가 같은 경우 월세 세액공제를 받을 수 있다.세액공제액은 연 750만원 한도 월세 지급액에 15∼17% 공제율을 곱해 계산하면 된다.난임시술비 20%→30%, 미숙아·선천성 이상아 의료비 15%→20% 상향이외 난임 시술비는 20%에서 30%로, 미숙아·선천성 이상아를 위해 지출한 의료비는 15%에서 20%로 각각 세액공제율이 상향됐다.작년 낸 기부금에 대해서는 1000만원 이하 20%, 1000만원 초과 35% 세액공제가 적용된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2023.01.18.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>'원조 파킹통장'의 굴욕…CMA에 돈이 안 들어온다</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004801086?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>Getty Images Bank증권사 종합자산관리계좌(CMA)에서 자금이 계속 빠져나가고 있다. 저축은행과 인터넷전문은행을 중심으로 파킹통장 열풍이 뜨겁지만 정작 '파킹통장의 원조' 격인 CMA는 기를 못 펴고 있다.18일 금융투자협회에 따르면 국내 CMA 잔액은 지난 16일 기준 총 58조658억원으로 1년 전(66조9316억원)보다 13.2% 줄었다. 증권업계 관계자는 "증시가 위축되면서 증권사 이용 자체가 저조해진 데다 CMA의 수익률 매력이 상대적으로 떨어졌기 때문"이라고 말했다.CMA는 가입자가 맡긴 돈을 증권사가 단기금융상품으로 굴려 수익을 돌려주는 상품이다. 운용 대상에 따라 환매조건부채권(RP)형, 머니마켓펀드(MMF)형, 발행어음형 등으로 나눈다. 투자자들이 가장 많이 선택하는 RP형 CMA의 수익률은 연 2.55~3.55% 선이다. 초대형 투자은행(IB) 네 곳(미래에셋·한국투자·KB·NH투자)만 판매하는 발행어음형 CMA의 수익률은 연 3.7~3.8%로 RP형보다는 다소 높다.하지만 저축은행에서 이보다 금리가 높은 파킹통장이 흔해졌다. OK·애큐온·JT친애저축은행은 수시입출금통장 금리를 연 4.0~5.5%까지 올렸다. 금융당국이 정기예금 금리 경쟁을 자제하라고 요구하자 파킹통장을 활용해 부동자금을 끌어모으는 중이다. 인터넷은행 토스뱅크는 파킹통장 금리를 최고 연 4.0%로 높이는 한편 CMA의 강점이던 일복리 기능까지 추가했다. 금융권 관계자는 "CMA는 증권사가 망하지 않으면 손실 가능성이 거의 없지만 예금자보호 대상이 아니라는 점을 불안해하는 사람도 꽤 있다"고 전했다.사실상 파킹통장의 대체재인 금리 상장지수펀드(ETF)의 돌풍도 CMA의 설 자리를 좁혔다는 분석이다. 양도성예금증서(CD) 91일 금리를 추종하는 'TIGER CD금리투자KIS'와 한국무위험지표금리(KOFR)를 따라 움직이는 'KODEX KOFR금리 액티브'가 대표적이다. 두 ETF의 순자산은 지난해에만 각각 3조원 안팎 불어났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2023.01.31.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>모비두 소스애드, 토스 라이브커머스 광고사업 제휴 파트너 선정</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004845843?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>원스톱 라이브커머스 플랫폼 '소스'(sauce)를 운영하는 모비두(대표 이윤희)가 모바일 금융 플랫폼 '토스' 운영사 비바리퍼블리카의 라이브커머스 광고사업 공식 파트너사로 선정됐다고 31일 밝혔다.모비두는 2021년 4월 라이브커머스 마케팅 대행 서비스 '소스애드'(Sauce Ads)를 론칭한 바 있다. 업체 측은 "소스애드를 통한 2022년 누적 매출은 38억원으로 전년 대비 1500% 수준의 성장세를 보였다"며 "주요 고객사로 지마켓, 엘지유플러스 등이 있다"고 말했다.모비두 관계자는 "소스애드는 라이브 방송 브랜드별로 잠재 고객의 페르소나를 설계하고 이에 부합하는 관심사 및 행동 데이터, 결제 내역 등 정밀 타겟팅 기법을 사용한다"며 "분 단위로 실시간 방송에 유효한 시청자를 유입하는 '핀셋 마케팅' 전략으로 고객사의 라이브 방송 매출 성장을 견인 중"이라고 말했다.이 관계자는 "이번 특화 광고사업 제휴를 통해 양사는 쇼핑 결제 이력 등을 기반으로 실시간 방송 구매 전환율을 향상하는 '전환형' 광고상품의 핵심 파트너로 시너지를 낼 것"이라며 "아울러 단독 제휴를 통한 최저가 제공 등 특별 혜택을 소스애드 고객사에 제공해 광고상품을 이용하는 고객사도 라이브커머스에 드는 광고 비용을 절감할 수 있도록 하겠다"고 말했다.이원준 모비두 마케팅본부장은 "소스애드는 다양한 업종에서 라이브 방송 광고 경험과 전환 성과 데이터 분석을 통해 데이터 기반의 라이브커머스 마케팅 노하우를 쌓았다"며 "특히 라이브 방송 시청자를 정밀하게 타겟팅해 유입하는 것이 핵심"이라고 말했다. 이어 "토스와 같은 플랫폼과의 적극적인 제휴를 통해 정확도를 높이고 고객사에 지속적인 혜택을 제공해 나갈 것"이라고 덧붙였다.사진제공=모비두</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2023.01.31.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>“시즌3 시작?” 코인 다시 뜀박질… ‘쓴 맛’ 본 투자자는 신중</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001583598?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>비트코인 지난달 40% 이상 올라종잣돈 부족한 MZ세대들 솔깃美 연준 금리인하 기대감 겹쳐연초부터 가상자산 가격이 급등하면서 MZ세대의 투자 관심이 다시 코인으로 옮겨가고 있다. 주식도 코스피·나스닥이 10% 이상 오르는 등 상승세를 보였지만 ‘차원이 다른’ 수익률을 올리는 가상자산 시장을 외면하기는 어렵다는 이유에서다. 다만 비트코인 가격이 오르는 정확한 이유를 찾기 어려운 데다 2021~2022년 급상승 후 폭락이라는 뼈아픈 기억 탓에 투자할 결심을 하기는 쉽지 않다. 뜻밖의 변수에 가격이 급등락하는 가상자산의 특성을 고려해 신중하게 투자 여부를 결정해야 한다는 게 전문가들 조언이다.한 달 새 수익률 수백 퍼센트31일 국내 최대 가상자산 거래소 업비트에 따르면 연초부터 가상자산 가격은 널뛰기를 반복하고 있다. 시장의 지수 격으로 대표되는 비트코인은 1월 초 2117만원에서 지난 30일 오후 3시 기준 2971만원으로 40% 이상 상승했다. 비트코인의 시세를 수 배로 추종하는 소규모 ‘알트코인’의 시세 변동은 이보다 극심했다. 앱토스(+468.3%) 디센트럴랜드(+167.6%) 쓰레스홀드(+303.0%) 등 이름도 생소한 코인들의 시세가 수백 퍼센트의 상승폭을 나타냈다. 지난 1월 한 달 동안에만 업비트 원화 시장에 상장된 대부분의 종목들이 최소 50% 이상의 수익률을 기록했다.투자자들은 코인의 급상승 곡선을 보면서 다시 들썩이는 모습이다. 앞서 가상자산거래소 빗썸 산하 빗썸경제연구소는 지난해 7월 “비트코인 반감기와 금리 인상 종료 시기 등으로 미뤄봤을 때 2022년 하반기 비트코인이 바닥을 다지고 재상승할 것”이라고 전망했다. 비트코인은 주식과 달리 ‘채굴’이라 불리는 컴퓨터 계산 작업을 통해 얻을 수 있는데, 동일한 양의 작업으로 얻을 수 있는 비트코인 양은 4년 정도 주기로 반감된다. 시장에 풀리는 비트코인 공급이 줄어드니 가격은 오르고 일부 투자자들은 이 반감기를 예측해 비트코인을 사고파는 식으로 수익을 올린다.갑자기 왜 오르나전문가들이 분석하는 비트코인 상승의 핵심 요인은 인플레이션이다. 미국의 물가 상승세가 서서히 잡히고 있는 만큼 연방준비제도(Fed·연준)가 기준금리 인하에 조만간 나서지 않겠냐는 기대감이 커지고 있다. 미국 노동부가 지난 1월 12일(현지시간) 발표한 12월 소비자물가지수(CPI)는 직전 달 대비 0.1% 포인트 내리며 팬데믹 확산 직후인 2020년 4월 이후 최대 하락폭을 기록했다. 이에 따라 기준금리 정점론이 힘을 받으면서 가격이 폭락했던 가상자산이나 성장주 등에 다시 돈이 몰리지 않겠냐는 관측이 뒤따른다.다만 코인 시장이 폭발적으로 성장했던 2021년 상반기와 달리 올해에는 투자자들이 코인 시장에 선뜻 진입하기를 꺼리는 모습이다. 가상자산 집계 사이트 코인게코에 따르면 지난 30일 기준 업비트의 24시간 거래대금은 18억8680만 달러(약 2조3200억원)에 불과했다. 2021년 5월 금융위원회가 발표한 4대 거래소 거래대금(22조원)과 비교하면 턱없이 낮은 수준이다.코인 투자자들이 ‘컴백’을 망설이는 이유는 최근 2년간 가상자산 가격이 급등락을 반복했기 때문이다. 2021년 4월 비트코인은 사상 최고가인 8199만원을 기록하며 적지 않은 사람들에게 ‘포모(FOMO·Fear of Missing Out) 증후군’을 일으켰다. 나 혼자만 ‘코인 잔치’에서 뒤처진 게 아니냐는 불안감이었다.하지만 코인 시장에서 환호는 오래가지 않았다. 최고가를 경신한 직후인 2021년 5월에는 3000만원대로 폭락했다. 이후 11월 또다시 8200만원을 넘어서며 신고가를 기록했지만 폭락을 거듭해 현재는 2000만원대에 머물러 있다. 비트코인보다 시세 변동이 심한 알트코인들은 상당수가 90% 이상의 손실률을 기록해 말 그대로 ‘휴짓조각’으로 전락한 상태다.코인 시장이 얼어붙는 과정에서 간간이 발생한 ‘데드캣 바운스’(하락장에서의 일시적 반등)가 나타난 것 아니냐는 의구심도 크다. 실제로 비트코인은 지난해 2월(30.1%), 3월(24.0%), 7월(30.0%) 등으로 작지 않은 상승폭을 보였지만 대세 하락장을 벗어나는 데는 실패했다.현재 비트코인 상승세가 일부 고액 거래자를 뜻하는 ‘고래’들에 의한 일시적 현상일 가능성도 있다. 코인 시장 특유의 폐쇄성 탓에 일부 고액 보유자가 거래를 단기간에 크게 일으킬 경우 시세는 출렁일 수 있다. 미 경제매체 CNBC에 따르면 현재 채굴된 전체 비트코인의 14.15%를 상위 97개 지갑이 보유 중이다. 고래들은 이 점을 이용해 단기간 거래로 시세를 높인 뒤 물량을 쏟아내 시세차익을 챙기는 수법을 주로 활용하는 것으로 알려졌다.전반적인 가상자산 가격 상승을 전망하는 전문가들도 예상치 못한 변수에 대비해 신중한 투자 선택을 해야 한다고 조언한다. 이미선 빗썸경제연구소 리서치센터장은 “글로벌 긴축 완화 등에 힘입어 비트코인 시세가 긍정적인 궤적을 그릴 가능성이 크다”면서도 “대형 거래소의 추가적인 파산이나 새로운 대체자산의 등장 등은 변수로 작용할 수 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2023.01.19.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>"구글코리아·배민·토스·SKT, 재직자 행복도 높은 기업"</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013710653?sid=105</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>블라인드 지수 2022 조사2022 블라인드 지수 상위 10개 기업[팀블라인드 제공. 재판매 및 DB 금지](서울=연합뉴스) 임성호 기자 = 직장인 소셜 플랫폼 블라인드는 지난해 재직자 행복도를 살핀 '블라인드 지수 2022' 조사에서 높은 점수를 받은 국내 기업 10개 사를 선정해 19일 발표했다.    100점 만점 중 75점으로 1위를 차지한 구글코리아에 이어 우아한형제들(배달의민족 운영사), 비바리퍼블리카(토스 운영사), SK텔레콤, SK이노베이션, 애플코리아, 한국남동발전, 아마존, 두나무, 넥슨이 순위권에 들었다.    구글코리아는 어떤 의견을 제시해도 조직이 부정적으로 평가하지 않을 거라고 믿는 정도를 나타내는 '심리적 안전감' 부문에서 최고점을 받으며 4년 연속 행복도 최상위 기업으로 선정됐다.    이번 조사는 직장인 총 5만7천319명이 각자 재직 중인 회사에서 느끼는 주관적 행복도를 일·관계·사내 문화 3가지 영역으로 나눠 평가했다.    전체 직장인의 평균 행복도는 40점으로, 2021년과 비슷한 수준이었다.    블라인드 자문 위원인 한국노동연구원 이정희 연구위원과 일본 사이타마 대학교 노성철 교수는 "코로나19 위기를 거치며 한국 직장인들이 일에서 느끼는 만족도는 낮아졌고, 조직과 구성원의 거리는 벌어졌다"고 설명했다.    이들은 "그러나 직장에서 자유롭게 목소리를 낼 수 있다고 인식하는 사람일수록 조직 만족도는 높다는 점이 흥미로웠다"면서 "구성원들의 조직 만족도를 고민하는 많은 기업에 구성원 발언 채널 마련의 필요성을 시사하는 결과"라고 해석했다.    sh@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2023.01.18.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>파킹통장 흥행에…'원조' CMA 눈물</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004801148?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>잔액 58조…1년 새 13% 줄어인터넷銀보다 금리 낮아 외면증권사 종합자산관리계좌(CMA)에서 자금이 썰물처럼 빠져나가고 있다. 높은 금리를 주는 저축은행과 인터넷전문은행 등의 파킹통장이 인기를 끌면서 정작 ‘파킹통장의 원조’ 격인 CMA는 기를 못 펴고 있다는 분석이다.18일 금융투자협회에 따르면 국내 CMA 잔액은 지난 16일 기준 총 58조658억원으로 1년 전(66조9316억원)보다 13.2% 줄었다. 증권업계 관계자는 “증시가 위축되면서 증권사를 통한 자금 거래 자체가 저조해진 데다 CMA의 수익률 매력이 상대적으로 떨어졌기 때문”이라고 말했다.CMA는 가입자가 맡긴 돈을 증권사가 단기금융상품으로 굴려 수익을 돌려주는 상품이다. 운용 대상에 따라 환매조건부채권(RP)형, 머니마켓펀드(MMF)형, 발행어음형 등으로 나뉜다. 투자자들이 가장 많이 선택하는 RP형 CMA의 수익률은 연 2.55~3.55% 선이다. 대형 증권사 네 곳(미래에셋·한국투자·KB·NH투자)만 판매하는 발행어음형 CMA의 수익률은 연 3.7~3.8%로 RP형보다는 다소 높다.하지만 저축은행에선 이보다 금리가 높은 파킹통장이 이미 흔해졌다. OK·애큐온·JT친애저축은행은 수시입출금통장 금리를 연 4.0~5.5%까지 올렸다. 금융당국이 정기예금 금리 경쟁을 자제하라고 요구하자 파킹통장을 활용해 부동자금을 끌어모으는 중이다. 인터넷은행 토스뱅크는 파킹통장 금리를 최고 연 4.0%로 높이는 한편 CMA의 강점이던 일복리 기능까지 추가했다. 금융권 관계자는 “CMA는 증권사가 망하지 않으면 손실 가능성이 거의 없지만 예금자보호 대상이 아니라는 점을 불안해하는 사람이 꽤 있다”고 전했다.사실상 파킹통장의 대체재 역할을 하고 있는 금리 상장지수펀드(ETF)의 돌풍도 CMA가 설 자리를 좁혔다는 분석이다. 양도성예금증서(CD) 91일 금리를 추종하는 ‘TIGER CD금리투자KIS’와 한국무위험지표금리(KOFR)를 따라 움직이는 ‘KODEX KOFR금리 액티브’가 대표적이다. 두 ETF의 순자산은 지난해에만 각각 3조원 안팎 불어났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2023.01.16.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>‘이자 장사’ 5대 은행 직원 평균연봉 1억 넘어</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003474058?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>직원 상위 10% 연봉은 2억 근접2금융권 대출중단… 저신용자 타격당국 “긴급 생계비 대출 2분기 출시”고금리 기조 속에서 역대급 수익을 낸 KB국민·신한·하나·우리·NH농협 등 5대 시중은행 임직원의 평균 연봉이 1억 원을 넘어섰다. 반면 저축은행과 대부업체가 대출을 줄이면서 저신용자들은 ‘대출 한파’를 겪고 있다. 15일 국회 정무위원회 소속 윤창현 국민의힘 의원이 받은 주요 시중은행 총급여 현황 자료에 따르면 2021년 5대 시중은행 직원의 평균 총급여(성과급 포함)는 처음으로 각 사 모두 1억 원을 넘었다. KB국민은행이 1억1074만 원으로 가장 많았고 신한은행 1억529만 원, 하나은행 1억525만 원, 우리은행 1억171만 원, NH농협은행 1억162만 원의 순이었다. 직원 상위 10%의 평균 연봉은 1억8527만∼1억9784만 원으로 2억 원에 근접한 수준이다. 지난해에는 단체협상을 마친 은행들부터 성과급을 더 올리고 있어 직원들의 평균 연봉이 늘어날 것으로 전망된다. 반면 취약층들은 연초에도 대출을 받기 어려운 상황이다. 캐피털·저축은행 등 2금융권 업체 10여 곳은 토스, 카카오페이 등 대출 중개 플랫폼을 통한 대출 신청을 막아둔 상태다. 일부 저축은행에서는 이달 말까지 신용대출 신청을 받지 않고 있는 상황이다. 자금을 조달할 때 드는 비용과 비교해 대출금리 인상분이 적어 역마진 우려가 있기 때문이다. 마지막 제도권 금융인 대부업계 1위 업체인 아프로파이낸셜대부(러시앤캐시)도 지난해 12월 신규 대출을 중단했다. 금융당국은 연체 이력을 따지지 않고 100만 원 안팎의 긴급 생계비를 즉시 대출해주는 프로그램 준비에 속도를 내고 있다. 금융위원회 관계자는 “2분기 초에는 출시될 수 있도록 최대한 빨리 재원을 확정하고 이를 추진하는 것을 목표로 하고 있다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2023.01.17.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>2금융권 대출한파 지속…확 좁아진 '대출문'에 서민 곡소리</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000196010?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>연초 가계대출 할당량 초기화에도 조달금리 급등에 역마진 우려저축은행·캐피털 등 2금융권 중심으로 대출 문턱이 높아지면서 저신용자들의 '대출절벽' 현상이 심화될 것으로 보인다. /더팩트 DB저축은행·캐피털 등 2금융권의 '대출 빙하기'가 지속되고 있다. 대출 자금 조달 비용이 치솟은 데다 차주들의 신용도 하락으로 위험 부담이 커지면서 여신 확대에 적극 나서지 않고 있는 것이다. 금융사들이 대출 문턱을 높이면서 서민들의 곡소리가 이어지고 있는 가운데 불법 사금융으로 내몰릴 걱정이 커지고 있다.17일 금융권에 따르면 웰컴·페퍼·대신등 상당수 저축은행은 토스, 카카오페이 같은 대출 중개 플랫폼에서 '점검 중'이라며 대출 신청을 받지 않거나, '점검 완료' 상태라도 대출 운영을 잠정 중단했다.캐피털사들도 상황은 비슷하다. 롯데·DGB·웰컴캐피탈 등도 외부 플랫폼에서 대출 업무를 중단한 상태다.이들은 각 사 애플리케이션(앱)에선 여신 업무를 하고 있지만 외부 채널을 통한 대출은 중단했다. 특히 저축은행의 경우 외부 플랫폼을 통해 들어오는 이용자가 많은 점을 고려하면 대출 빗장을 풀지 못하고 있는 것이다.최근 금융당국이 공개한 금융업권별 가계대출 현황을 살펴보면 여신전문금융사는 지난해 11월 가계대출이 전월 대비 1조 원 줄었다. 12월에는 전월 대비 감소 폭이 1조6000억 원으로 커졌다. 저축은행도 지난해 11월 가계대출이 1000억 원 줄은데 이어 12월엔 5000억 원 감소했다. 대부업 상위 10개 사 가계대출도 지난해 11월 630억 원, 12월 421억 원 각각 감소했다.그동안 업계 안팎에서는 올해 초부터 대출이 재개될 것이라는 의견이 많았다. 통상적으로 대출 총량 규제를 받는 금융사들이 한도 관리 차원에서 연말에 대출을 축소했다가 연초에 확대하기 때문이다.그러나 여전히 좁아진 대출문을 쉽사리 열지 못하고 있는 것이다.업계 안팎에서는 2금융권이 올해 초부터 대출이 재개될 것이라는 의견이 많았지만 수익성 악화 등으로 쉽게 대출문을 열지 못하고 있다. /더팩트 DB2금융권의 대출 정상화 속도가 더딘 이유 중 하나는 조달금리 인상으로 인한 '수익성 악화'로 분석된다. 저축은행의 경우 법정최고금리가 20%로 묶여 있는 상황에서 조달금리가 연 12% 선까지 올라 마진을 낼 수 없는 상황이 만들어지면서 수수료까지 붙는 외부 플랫폼부터 들어오는 대출을 막은 것으로 풀이된다.실제 현재 저축은행과 캐피털사는 예금 금리, 채권 금리 상승으로 인해 조달금리가 크게 오른 상태다. 저축은행 수신금리는 연 5%대에 형성돼 있고, 여신전문금융채(3년물)의 금리는 지난 13일 기준 연 4.7%를 기록하고 있다. 여신전문금융채의 경우 지난해 10월 대비해 다소 낮아졌지만 지난해 초(연 2.8%)와 비교해 여전히 높은 수준을 보이고 있다.문제는 2금융권에서 대출 빗장을 풀지 못하면서 취약 차주들이 '불법 사금융'으로 내몰릴 가능성이 커지고 있다는 점이다.2금융권에서조차 대출을 받지 못할 경우 대부업체를 찾아야 하지만, 최근 러시앤캐시, 리드코프 등 대형 대부업체들마저 신규대출을 중단하거나 줄였다. 결국 불법 사금융으로 내몰릴 수밖에 없는 것이다.이에 금융당국은 금융사들에게 대출 재개를 압박하고 나섰다.이세훈 금융위원회 사무처장은 지난 16일 '서민금융 현황 점검회의'를 주재하고 "저축은행, 여신전문금융사 등 서민금융기관의 적극적인 서민금융 지원 역할이 중요하다"며 "어려운 환경에서도 서민금융창구로서의 역할을 지속해달라"고 당부했다.한 저축은행 관계자는 "모두가 힘든 시기"라며 "금융사 입장에서도 건전성과 수익성을 따져가며 운영해야 한다"고 말했다. 이어 "다만 최근 금융당국이 대출 재개를 요청하고 있는 만큼 조만간 재개되지 않을까 생각한다"고 전했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2023.01.29.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>한국인 '아파트 사랑' 때문? … 가상화폐 APT 폭등</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005080570?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>한달새 5배 오른 앱토스실제 부동산 관련 없지만이름 비슷해 한국서 인기일각선 "가격 고점 가능성""역시 아파트를 사서 장기 보유(?)했어야 했다." 최근 코인 커뮤니티에서는 이런 말이 나온다. 올해 들어서만 479% 오른 코인 '앱토스'의 종목 코드가 아파트 약자와 같은 'APT'이기 때문이다. 물론 실제 부동산과 관련은 없다. 이더리움처럼 자체 블록체인망을 활용한 생태계 구축이 목표다.소위 말하는 '김치코인'이 아님에도 한국 투자자들의 사랑이 유별나다. 앱토스의 전 세계 거래량 중 30%가량을 한국 거래소인 업비트가 차지하고 있는 것이 그 방증이다. 하지만 코인 업계는 이 같은 상황을 오히려 주의해야 한다고 얘기한다. 앱토스에 뚜렷한 상승 이유가 없고, 최근 앱토스 개발팀이 상당량의 코인을 거래소로 전송하는 등 수익 실현 움직임을 보이고 있어서다.29일 코인 업계에 따르면 앱토스 개발팀은 지난 28일 세계 1위 코인거래소 바이낸스로 약 82만개의 앱토스를 이체했다. 이는 현재 앱토스 가격인 2만3000원 기준으로 189억원에 해당하는 금액이다. 해당 지갑은 약 5454만개의 앱토스(1조2544억원)를 보유 중이다.앱토스 투자자들은 이를 '고점 신호'로 판단한다. 이체한 분량이 3조5000억원에 달하는 앱토스 시가총액에 비하면 소량이지만 개발팀의 수익 실현이 시작됐다는 신호이기 때문이다. 앱토스 개발자들이 가진 물량이 연달아 시장에 나온다면 가격 급락을 피하긴 어렵다.앱토스의 거래량이 한국에 치중된 점도 불안한 지점이다. 그간 도지코인, 이더리움클래식 등 한국 시장 거래량이 크게 늘어나며 인기를 끌었던 코인은 가격 상승이 둔화되는 모습을 보였다. 코인통계사이트 코인마켓캡에 따르면 현재 전 세계 앱토스 거래량의 29.91%는 업비트에서 나온다.앱토스가 크게 상승하던 지난 24~26일에는 업비트에서 하루 거래량 1조원을 넘겼다. 코인 업계에서 "앱토스는 이제 김치코인"이라는 말까지 나온 배경이다.앱토스의 급등 현상에 뚜렷한 이유가 없는 것도 불안 요인이다. 앱토스는 메타(옛 페이스북) 출신 코인으로 유명하다. 메타가 자체 코인을 개발하려고 했던 '리브라 프로젝트'가 취소되면서 해당 개발자들이 별도로 개발한 게 앱토스다. 지난해 10월에는 신규 프로젝트로서는 이례적으로 자체 네트워크 출시와 동시에 바이낸스와 후오비, 업비트 등 글로벌 거래소에 동시 상장되기도 했다.해외 코인 커뮤니티에서는 "앱토스가 상승한 것은 오로지 한국인의 광기 때문"이라는 비판적인 시각도 나온다. 한 코인 업계 관계자는 "현재 시중에 풀린 APT는 총 발행량의 약 14%에 불과하다"면서 "올해 10월이면 현재 유통량의 2배가 시장에 풀리기 때문에 무조건적인 투자는 조심해야 한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2023.01.18.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>토스, 개인정보 보호 홈페이지 신설</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013707651?sid=105</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>토스, 개인정보 보호 홈페이지 개설[토스 제공. 재판매 및 DB 금지](서울=연합뉴스) 임성호 기자 = 모바일 금융 서비스 토스를 운영하는 비바리퍼블리카는 토스의 개인정보 보호 활동을 한눈에 확인할 수 있는 개인정보 보호 홈페이지를 신설했다고 18일 밝혔다.    홈페이지는 토스의 개인정보 보호 5대 원칙과 지난해 11월 출범한 '토스 데이터보호 준법 자문위원회'의 정기 권고 및 개선사항, 개인정보 처리 방침 등을 보여준다.    토스 앱 내 '홈' 탭에서 화면 왼쪽 맨 위의 토스 로고를 누르거나, 토스 공식 홈페이지 맨 아래의 '서비스' 메뉴에서 '토스의 개인정보 보호'를 누르면 접속할 수 있다.    토스 프라이버시 사일로 임희진 PO(제품 책임자)는 "토스의 쉽고 빠른 금융 서비스 뒤에는 고객 개인정보 보호를 위한 다양한 기술적, 정책적 노력이 있다는 것을 알리기 위해 개인정보 보호 홈페이지를 신설했다"고 말했다.토스의 개인정보 보호를 위한 5가지 핵심 원칙[토스 제공. 재판매 및 DB 금지]    sh@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2023.01.26.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>"새 통신 기준 만들 것"…알뜰폰 '토스모바일' 30일 출격</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011658692?sid=105</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>기사내용 요약4종의 데이터 무제한으로 구성…미사용 데이터 캐시백토스 앱서 사전 신청 접수…우선 가입혜택 제공[서울=뉴시스] 토스의 알뜰폰 자회사 '토스모바일'이 이달 신규 서비스 출시에 앞서 사전 접수를 시작했다. (사진=토스모바일 제공) 2023.1.26 *재판매 및 DB 금지[서울=뉴시스]심지혜 기자 = 토스의 알뜰폰 자회사 '토스모바일'이 이달 신규 서비스 출시에 앞서 사전 신청 접수를 시작했다. 토스모바일은 이달 30일 4가지 종류의 신규 요금제를 출시한다고 26일 밝혔다. 토스모바일은 미사용 데이터를 캐시백으로 돌려주고, 24시간 고객센터를 운영하는 게 특징이다. 토스 앱에서 개통할 수 있고, 잔여 데이터 확인도 가능하다. 토스페이로 결제하면 10% 캐시백 혜택을 제공한다. 사전 신청은 토스 앱 내 홈 화면 상단 혹은 전체탭에서 할 수 있다. 사전 신청자에게는 토스모바일 우선 가입혜택을 제공한다. 첫 공략 대상은 2400만 토스 가입자다. 토스 사용자(지난해 마이데이터 연동 기준)중 92%가 이동통신망사업자(MNO) 가입자였으며, 알뜰폰(MVNO) 가입자 비중은 8%에 그쳤다. 토스에 따르면 기존 통신3사 데이터·통화 무제한 요금제 사용 고객이 토스모바일 요금제로 변경할 경우 약 20% 이상의 통신비 절감 효과를 기대할 수 있다. 이승훈 토스모바일 대표는 “토스가 금융 플랫폼으로 간편 송금, 주식거래, 인터넷뱅킹 등 다양한 금융서비스에서 혁신을 이뤄온 것처럼 통신 서비스 영역에서도 소비자들이 불편함을 느꼈던 부분을 개선할 것"이라며 "편리하고 직관적인 통신 서비스를 기반으로, 다양한 혜택을 더해 새로운 통신의 기준을 만들겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2023.01.16.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>금융위 "신규대출 중단은 위험부담 소비자 전가"</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000013094?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>작년말 저축은·여전·대부 등 2금융 대출 줄어"전 금융기관 적극적 지원 역할 필요"금융당국이 전 금융권에 전사적으로 정책 서민금융을 지원해 달라고 당부했다. 최근 시중금리 상승과 함께 서민·취약계층의 금융 부담이 가중되는 상황에서 신규대출이 중단되는 등의 소비자 위험 전가 행태가 나타난 것이 배경이다.금융위원회는 16일 '서민금융 현황 점검 회의'를 개최하고 정책 서민금융과 민간 금융권에서의 서민금융 지원 현황을 점검하고 올해 공급계획을 논의했다고 밝혔다./그래픽=비즈니스워치이날 회의에 참석한 금융감독원·서민금융진흥원과 각 금융협회 등은 경기둔화, 통화 긴축 등의 영향으로 중·저신용자의 금융 이용 여건이 악화하지 않도록 올해 서민금융을 꾸준히 공급해 나가기로 의견을 모았다.이세훈 금융위 사무처장은 "국민들의 금융 애로 완화를 위해 전 금융권의 전향적인 노력이 필요한 때"라며 "저축은행, 여신전문금융사, 대부업 등 서민금융기관의 적극적인 서민금융 지원 역할이 중요하다"고 강조했다.특히 "리스크 관리나 수익성 악화를 이유로 신규대출을 중단하는 등 시장 여건 변화에 따른 위험부담을 금융소비자에게 모두 전가하는 행태는 지양해야 한다"고 지적했다.금융위에 따르면 지난해 정책 서민금융 공급 규모는 9조8000억원으로 역대 최대수준을 기록했다. 2017~2021년 연평균 공급 규모는 7조9000억원이었다.하지만 지난해 11~12월 중 서민금융진흥원 보증에도 불구하고, 조달금리 상승에 따른 수익성 저하로 저축은행을 중심으로 근로자햇살론 등 일부 정책서민금융상품 취급이 축소됐다. 저축은행·여전사·대부업도 리스크 관리, 조달금리 상승 등으로 대출 축소 움직임이 지난해 4분기부터 나타났다. 여전사는 작년 11월과 12월 각각 가계대출이 전월 대비 1조원, 1조6000억원 감소했다. 저축은행은 같은 기간 1000억원, 5000억원 줄었으며 대부업 상위 10개사 가계대출도 작년 11월 630억원, 12월 421억원 각각 감소했다. 이 사무처장은 "서민·취약계층이 자주 접할 수 있는 홍보 수단을 적극 활용하는 등 서민금융 집행 단계에도 많은 신경을 써야 한다"며 "본점에서 수립한 중·저신용자 자금지원 프로그램이 일선 창구에서 제대로 안내되지 않는 사례가 발생하지 않도록 공급 채널을 세심하게 살펴볼 필요가 있다"도 당부했다.금융당국은 인터넷전문은행(케이뱅크·카카오뱅크·토스뱅크)의 중·저신용자 대출 비중도 올해 연말까지 30% 위로 끌어올리겠다고 밝혔다. 이 비율은 지난해 말 기준 25%를 넘기며 단계적 확대를 지속하고 있다.중·저신용자 대상 중금리대출은 작년 3분기까지 누적 공급액이 총 22조8000억원으로 전년도 연간 공급액(21조6000억원)을 넘어섰다. 이는 중금리 대출에 대한 인센티브 제공, 민간 중금리 대출 인정 요건 합리화 등이 배경이라는 설명이다.이 사무처장은 정책 서민금융 공급과 관련해 "취약계층이 불법사금융으로 밀려나지 않도록 최저 신용자 특례 보증 확대 공급, 긴급생계비 소액 대출 신규 출시 등도 추진하겠다"면서 "은행권 자체 재원으로 공급되는 새희망홀씨의 경우도 은행권에서 더욱 적극적으로 노력해달라"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2023.01.19.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>직장인 행복도 40점… TOP3는 구글·배민·토스</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003474983?sid=102</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>익명 앱 블라인드 조사 결과 공개신종 코로나바이러스(코로나19) 감염증 확산 이후 직장인의 행복도가 지속해서 하락하고 있는 것으로 나타났다.직장인 익명 소통 플랫폼 블라인드는 19일 “지난해 한국 직장인의 행복도는 40점(100점 만점)으로 2021년과 비슷한 수준으로 조사됐다”며 “코로나19가 시작된 뒤부터 감소 추세가 이어지고 있다”고 밝혔다.블라인드 조사 기준으로 직장인 행복도 지표는 2020년 47점에서 2021년 40점 등으로 낮아졌다. 블라인드의 운영사인 팀블라인드는 “코로나19 영향으로 회사에 소속감을 느끼는 몰입도가 감소하면서 행복 지표도 낮아진 것으로 보인다”고 설명했다.블라인드의 이번 조사는 지난해 5월부터 12월까지 한국 직장인 5만7319명을 대상으로 이뤄졌다. 블라인드의 운영사 팀블라인드는 2018년 한국노동연구원 자문위원과 ‘블라인드 지수(BIE)’라는 지표를 공동 개발했다. 직장인이 회사에서 느끼는 주관적 행복도를 일, 관계, 사내문화 등 3가지 영역으로 나누어 측정하는 것이다. 이메일 등으로 특정 기업에 재직하고 있는 것이 확인된 이용자만 조사에 참여할 수 있다.지난해 국내에서 가장 행복도가 높은 직장은 구글코리아였다. 구글코리아 직원의 행복도는 75점으로 조사 대상 기업 중 1위를 차지했다. 특히 구글코리아는 ‘심리적 안전감’ 부문에서 가장 높은 점수를 받았다. 심리적 안전감은 구성원들이 어떤 의견을 제시해도 조직이 부정적으로 평가하지 않을 것이라고 믿는 정도를 의미한다. 조직의 창의성에 영향을 주는 지표다. 2021년 조사에서 구글코리아는 3위였다.배달의민족 운영사 우아한형제들은 업무 자율성 부문에서 높은 점수를 받아 2위에 올랐다. 우아한형제들이 블라인드의 조사에서 상위권에 오른 것은 처음이다. 우아한형제들의 뒤를 이은 비바리퍼블리카, SK텔레콤, SK이노베이션도 직원들의 행복도가 높은 상위 5개 기업으로 꼽혔다. 또 애플코리아, 한국남동발전, 아마존, 두나무, 넥슨 등이 블라인드 지수가 높은 기업으로 나타났다.블라인드지수 자문위원인 이정희 한국노동연구원 연구위원은 “코로나19 위기를 거치며 한국 직장인들이 일에서 느끼는 만족도가 낮아졌고, 조직과 구성원의 거리는 벌어졌다는 사실이 증명된 결과”라고 말했다. 노성철 일본 사이타마대 교수도 “직장에서 자유롭게 목소리를 낼 수 있는 환경일수록 직원들의 만족도가 높았다는 점이 흥미롭다”며 “구성원들이 발언할 수 있는 다양한 소통 수단을 마련하는 것이 중요하다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2023.01.27.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>창업 청년 50명 모집합니다! … 경북창업사관학교</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005210194?sid=102</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>중소벤처기업 진흥공단 대구경북연수원은 청년 창업자 육성을 위해 ‘2023년 경북청년창업 사관학교’ 입교생 50명을 2월 6일까지 모집한다.청년창업사관학교는 유망 창업 아이템과 혁신기술을 보유한 우수 청년 창업자를 발굴해 입주공간 제공, 교육·코칭, 사업화 자금 지원 등 창업 전 단계를 패키지로 지원하는 사업이다.중소벤처기업진흥공단 대구경북연수원2011년부터 운영하는 청년창업사관학교는 전국 18개 지역에서 현재까지 6741명의 청년 창업가를 배출했으며, 청년창업사관학교 출신 청년창업가들은 최근 5년간 3조 6818억원의 누적 매출 성과와 1만7150명의 신규 일자리를 창출했다.또 ‘토스’, ‘직방’과 같은 유니콘 기업을 배출하는 등 대한민국 청년 기술창업의 대표 양성소로 자리매김하고 있다.경북청년창업사관학교의 신청 자격은 만 39세 이하 창업 3년 이내 창업기업의 대표자를 대상으로 하며, 2월 6일 오후 2시까지 케이(K)-스타트업 누리집을 통해 신청할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2023.01.26.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>[하루만보 하루천자]돈되는 걷기…이자 오르고 보험료 낮아지고</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005209225?sid=102</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>우리·KB銀, 많이 걸을 수록 우대 금리 제공토스 '만보기', 보험사 '건강관리' 서비스 활발[이미지출처=연합뉴스]은행과 보험사 등 금융권에서 걷기와 연관된 상품과 각종 행사가 등장하고 있다. 성취감과 금융소득, 건강관리까지 결합해 소비자의 이목을 끄는 전략으로 풀이된다.은행권 걷기 특화 상품 연이어 출시우리은행은 최근 '데일리워킹 적금 시즌2'를 출시했다. 지난해 12월 출시한 '데일리워킹 적금'의 후속작 격이다. 약 2주간의 모집 기간 당시 한도 인원 10만명을 훌쩍 뛰어넘는 22만명이 몰릴 정도로 인기를 끌었다. 이에 또다시 모집에 나선 것이다. 이 상품의 하루 최대 적립 가능 금액은 1만원 (월 30만원)이며, 가입 기간은 6개월, 기본 금리는 연 1%다. 매일 1만보 이상 걷고 우리원(WON)뱅킹 상품 전용 페이지에서 미션 성공을 누르면 입금 건별로 연 10%포인트 우대금리를 제공한다.KB국민은행도 지난해 중순 비슷한 상품을 내놓았다. 걸음 수에 따라 우대이율을 차등 적용하는 ‘온국민 건강적금’이다. 월 1만원부터 20만원까지 저축 가능하며 계약기간은 6개월이다. 오는 2023년 6월 14일까지 KB스타뱅킹을 통해 가입할 수 있다. 기본이율은 연 2.0%지만, 매월 10만보를 걸으면 월 0.5%포인트씩 최고 연 3.0%포인트의 우대금리를 받을 수 있다. 이외에도 KB스타뱅킹에서 ‘발자국 스탬프 찍기’를 매월 1회씩 6회 모두 완료한 경우 연 1.0%포인트, 적금 가입 전전월 말 기준 6개월 이상 KB스타뱅킹 로그인 이력이 없는 경우 연 2.0%포인트의 우대금리를 제공해 최고 연 8.0%의 이율을 적용받을 수 있다.특히 고령자들을 위한 우대 조건도 내걸었다. 만 60세 이상 고객은 영업점에서도 가입할 수 있도록 했다. 여기에 더해 목표 걸음 수의 절반인 5만보만 달성해도 동일한 우대이율을 제공한다. 그밖에도 'KB스타뱅킹’ 앱 내 ‘KB 매일걷기’를 통해 일주일에 3만5000보 이상 걸으면 각종 포인트를 지급하는 혜택도 있다.사업에 직접 활용하는 핀테크·보험사핀테크 업체도 '걷기'에 적극적이다. 금융플랫폼 토스가 2019년 7월 내놓은 '토스 만보기' 서비스가 대표적이다. 사용자 휴대폰에서 측정된 걸음 수와 위치 정보를 통해 지정한 장소까지 걸어가면 현금성 포인트 등 각종 보상을 제공한다. 이와 함께 걸으며 소비한 열량을 계산해 같은 성별 및 연령대에서 어느 정도 수준인지도 알려준다. 누적 사용자 수는 2021년 8월 46만명에서 이달 20일 기준 650만명으로 1400% 이상 증가했다.다양한 연령대의 사람들이 보다 토스 애플리케이션(앱)을 자주 이용하고 토스 플랫폼에 머물면서 각종 금융서비스를 자연스레 접하도록 한다는 전략으로 풀이된다. 베트남에서도 이같은 전략을 그대로 내세웠다. 앱에 탑재된 만보기 리워드 기능으로 소비자를 끌어들인 뒤 송금, 계좌 개설 기능과 소액대출 서비스를 앞세워 실질 소비자를 확보하려는 것이다.삼성화재는 지난해 6월 단순한 만보기부터 건강관리 목적으로 이용할 수 있는 '애니핏 플러스' 앱을 출시했다. 삼성화재 가입자만 이용하는 '애니핏'을 일반 이용자들도 이용할 수 있도록 확장한 것이다. 걷기 등 운동 목표를 제시하고 각종 건강수치를 데이터로 분석하면서 사용자가 건강한 생활습관을 만들 수 있도록 돕는 식이다. 교보생명도 헬스케어 서비스 '케어'를 통해 고객 성별과 연령에 따라 목표 걸음 수를 제시하는 등 건강 관리에 힘쓰고 있다.보험사들이 치료비 보장 차원을 넘어 건강 관리를 돕는 개념의 상품과 서비스를 내놓는 것은 헬스케어 시장 진출에 꼭 필요한 고객의 데이터베이스(DB)를 확보하기 위해서다. 나아가 고객의 건강 상태가 좋아지면 질병에 걸릴 확률이 낮아지니 지급할 보험금 부담도 덜면서 손해율 관리 측면에서도 보탬이 될 수 있기 때문이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2023.01.21.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>[2022 연말정산] 홈택스 로그인부터 빨라졌다… 간편인증 살펴보니</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000888798?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>/사진-이미지투데이 직장인의 '13월 월급'으로 불리는 연말정산 시즌이 시작됐다. 올해는 국세청의 연말정산 간소화 서비스는 로그인 하는 순서부터 간편성이 확대됐다. 민간 업체의 간편인증 서비스를 이용하면 3년간 갱신없이 사용할 수 있는 데다 골드바를 받는 경품 이벤트에 참여할 수 있어 일석이조다. 21일 금융권에 따르면 국세청은 연말정산 증명자료를 수집해 홈텍스를 통해 제공하는 연말정산 간소화 서비스를 개통했다. 지난해와 마찬가지로 간소화 자료를 회사에 직접 제공하는 일괄 제공 서비스를 시행한다.근로자는 PDF 파일을 출력해 회사에 직접 제출해야 하는 번거로움이 사라지는 등 연말정산 절차가 비교적 간단해졌다. 특히 홈택스에 접속할 때 이용하는 간편인증(민간인증서) 방식이 추가됐다. 근로자는  기존 7종(카카오톡, 통신사PASS, 삼성패스, 국민은행, 페이코, 네이버, 신한은행)에 더해 4종(토스, 하나은행, 농협은행, 뱅크샐러드)을 이용할 수 있다. ━빅테크, 인증 서비스 받으면 갱신없이 3년━핀테크 업체들은 연말정산시즌에 인증서비스에 가입하는 고객들을 늘리기 위해 인증서비스 이용 시 다양한 혜택을 제공하고 있다. 네이버 인증서는 한 번 내려받으면 매년 갱신할 필요 없이 3년 동안 사용할 수 있다. 또한 간편 비밀번호(PIN) ▲패턴 ▲생체 인증 등 사용자가 기존에 사용하던 휴대전화 잠김 정보를 인증서 비밀번호로 사용할 수 있다.네이버 인증서는 ▲신종 코로나바이러스 감염증(코로나19) 백신 예방접종 예약 및 접종 확인증 ▲학생증 ▲학생동문인증 서비스 ▲출입증 등 생활 밀착형 서비스에 활용되고 있다.황지희 네이버 전자서명인증센터장은 "네이버 인증서는 정식 서비스 시작 3년 만에 3700만 국민 인증서로 자리매김했다"며 "앞으로도 국민들이 본인인증이나 전자서명이 필요한 다양한 상황에서 안심하고 인증서를 사용할 수 있도록 여러 보안 기술을 지속 고도화할 예정"이라고 말했다.━충성고객 잡아라… 은행 간편인증 이벤트 '봇물'━올해 연말정산 간편인증에 추가된 농협은행은 홈택스 간편 로그인진행 고객을 대상으로 추첨을 통해 골드바를주는 이벤트를 진행한다. NH모바일인증서를 처음 발급한 고객 중 NH스마트뱅킹의 이벤트 페이지에 응모하고 홈택스에서 NH모바일인증서 간편로그인을 진행한 고객은 추첨을 통해 ▲골드바 10돈(1명) ▲NH포인트 10만원(5명) ▲NH포인트 3만원(10명)을 제공한다.  KB국민은행도 KB국민인증서로 국세청 홈택스에 로그인한 고객에게 추첨을 통해 ▲골드바 10돈(1명) ▲LG 스탠바이미(3명) ▲LG 디오스 오브제컬렉션 와인셀러(5명) ▲신세계 이마트 상품권(1000명) 등을 제공한다. 은행 관계자는 "민간인증서는 이용자 수가 늘수록 제휴처 확보가 쉬워지고 제휴처가 늘수록 신규 이용자 확보에 유리한 플랫폼 사업"이라며 "인증서 이용자들은 은행의 다른 서비스로도 유입될 수 있어 다양한 경품 이벤트를 진행할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2023.01.20.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>이석준 농협금융 회장 "개개인 1등되면, '초일류 금융지주' 될 것"</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002295609?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>19일 李회장 주재 '신년 경영전략회의'... 개개인의 초일류 강조李 "세계 최초 금융서비스로 세상 놀라게 하고, 상생가치로 고객 감동" ◆…이석준 농협금융지주 회장이 19일 신년 경영전략회의에서 특강을 진행하고 있다.［사진=NH농협금융 제공］이석준 NH농협금융지주 회장이 임직원들에게 "각자가 맡고 있는 업무부터 1등이 되면, 그러한 1등이 모여 농협금융이 초일류 금융지주가 될 수 있다"고 강조했다.   농협금융 수장으로서 농협금융이 대도약(퀀텀 점프)을 위해선 개개인이 초일류가 돼야 함을 강조한 것이다.   이 회장은 지난 19일, 경기 고양 소재 NH인재원에서 열린 ‘신년 경영전략회의’에 참석해 이 같이 언급한 뒤, "끊임없이 고민하고, 과감하며, 속도감 있게 실행해야만 우리의 목표를 달성할 수 있다"며 "세계 최초의 금융서비스로 세상을 놀라게 하고, 상생의 가치로 고객을 감동시키자"고 당부했다.   이날 회의는 지난 3일 임기를 시작한 이 회장 주재로 개최된 첫 경영전략회의로 이 회장과 계열사 CEO, 전 집행간부 및 주요 부서장 등 약 80여명이 참석해 우수자회사 및 농협금융인상을 시상하고, 올해 그룹 경영전략과 변화혁신 방향을 공유하는 자리다.    ◆…이석준 농협금융지주 회장 주재로 19일 열린 신년 경영전략회의에서 우수자회사 및 농협금융인상을 수상한 수상자들이 함께 기념촬영을 했다.［사진=NH농협금융 제공］이날 회의 참석자 전원은 ‘고객과의 소통’, ‘디지털 혁신’, ‘시너지 확대’ 등을 주제로 자율 토론을 실시해 농협금융을 초일류 회사로 성장시키기 위한 방안을 심도 있게 고민한 것으로 전해졌다.   또한 이승건 비바리퍼블리카(토스·TOSS) 대표를 초대해 향후 디지털 금융의 방향성과 중요성 관련 강의를 들었다. 업계에 혁신을 불러온 금융 빅테크 기업의 DNA를 농협금융에 공유함으로써 참석자들의 큰 관심을 이끌었다는 게 농협금융 측 관계자의 설명이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2023.01.27.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>가상자산 폭락장에도 5배 뛴 코인 등장…판도 재편·신기술 기대감 반영</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000872716?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>페이스북 인력이 만든 앱토스, 올해 들어 410% 가격 상승 ‘웹3′ 선두 솔라나, FTX 사태 이후 부활 시동  갈 곳 잃은 자금, 새로운 시장 질서 기대에 몰려        ‘크립토윈터(cypto-winter·가상자산의 겨울)’라고 불릴 정도로 침체를 겪고 있는 가상자산 시장에서 1월 들어 몇몇 암호화폐가 급등하는 현상이 발생하고 있다. 이번 달에만 5.1배 가격이 오른 앱토스가 대표적이다. 기술적인 잠재력이 커 시장 판도를 기대감에서다. 갈 곳 잃은 자금이 특정 상품에 몰리는 양상이기도 하다.        ◆메타 개발자들이 만든 앱토스… 업계 새 판짜기 및 시세 차익 기대감으로 급등올해 가상자산 업계에서 가장 관심을 모으는 암호화폐는 앱토스다. 앱토스는 메타(舊 페이스북)가 진행하던 가상자산 개발 프로젝트를 맡던 이들이 해당 프로젝트가 무산되자 독립해 만들었다. 메타는 2019년 리브라(Libra)라는 명칭으로 자사 서비스 내에서 쓸 수 있는 가상자산을 개발하겠다고 나섰다가, 디엠(Diem)이라는 명칭의 스테이블코인(미국 달러화와 가치가 연동된 가상자산)을 만드는 것으로 방향을 바꾸었었다. 결국 2022년 1월 관련 사업을 정리했다. 앱토스는 이 프로젝트에 참여한 이들어 출시 전부터 주목을 받았다.2022년 10월 미국에서 거래가 시작된 앱토스는 올 1월 9일 쯤부터 가파르게 올랐다. 1월 초 3.45달러였던 가격은 27일 오후(한국 시간 기준) 현재 17.6달러다. 5.1배 뛴 것이다. 메타 개발자들이 오랫동안 가상자산 개발을 진행하면서 쌓은 기술력에 대한 기대가 반영된 것이다.앱토스 미디엄 블로그 갈무리        국내 거래소 업비트 시세는 2만2500원(27일 오후 1시 43분 현재)으로 역외 거래소 바이낸스(2만2163원)보다 1.5% 높다. 국내 가격이 해외보다 높은 이른바 ‘김치 프리미엄’이 존재한다. 이 때문에 바이낸스 등에서 앱토스를 산 뒤 전자지갑(디지털 월렛)에 담아 국내로 반입하는 방식으로 차익 거래를 노리는 사람들도 늘어나고 있다.◆이더리움 창시자 등 지지에 2배 뛴 솔라나미국 가상자산거래소 FTX의 회계 부정 및 파산 사건의 직격탄을 맞은 솔라나는 올해 화려하게 부활에 성공했다. 솔라나는 지난해 초 92.2달러에서 지난해 말 11.1달러로 급락했었다. FTX가 적극적으로 후원하고 거액을 투자하는 등, 사업적으로 깊은 관계를 맺고 있던 게 부메랑으로 돌라왔기 때문이다. 그런데 27일 현재 가격은 23.9달러로 한 달 새 2배가량 뛰었다./인터넷 캡처        솔라나가 반등에 성공한 가장 큰 원인은 비탈릭 부테린 이더리움 창시자 등 가상자산 업계 거물들이 솔라나 프로젝트를 지지한다고 밝혔기 때문이다. 부테린은 “솔라나 블록체인이 다시 번성할 수 있도록 공정한 기회를 받길 바란다”며 “솔라나 생태계에는 성실한 개발자들이 있고, 솔라나 체인의 미래는 밝다”라고 주장했다.솔라나는 블록체인 기반의 인터넷인 ‘웹3′ 시대를 선도하는 가상자산 중 하나다. 처리 속도가 빠르고 탈중앙화에 철저하다. 하지만 네트워크 안정성이 떨어져 기술적으로 완성되어 있지 않다는 평가도 존재한다. 솔라나의 개발·운영을 맡는 ‘솔라나 프로젝트’는 올해 솔라나와 교환이 가능한 또 다른 가상자산 봉크를 출시했는데, 봉크가 성공한 것도 솔라나 반등에 영향을 미쳤다.◆실효성 입증 못하면 다시 가격 하락할 수도… “낙관하기엔 일러”하지만 이들 가상자산의 상승세가 계속될지 회의적인 전망을 내놓는 관계자들이 상당하다. 갈 곳을 잃은 가상자산 업계의 자금이 기대감에 몰린 것 아니냐는 것이다. 네트워크 오류, 생태계 확장 등 이전부터 지적된 문제를 해결하지 못하면 언제든지 가격이 주저앉을 수 있어서다. 가격이 급등할 만한 명확한 근거가 없다는 것도 회의론이 제기되는 배경이다.솔라나의 경우 FTX 사태 등으로 인해 기존에 개발에 참여하던 이 가운데 90%가 손을 떼면서 개발자 커뮤니티가 와해됐다. 가상자산이 신기술을 개발하고 기능을 추가하기 위해서는 우수한 개발자들이 대거 참여하는 커뮤니티를 유지해야 한다. 솔라나는 이전부터 네트워크 오류, 해킹 등으로 몸살을 앓아었다. 개발자 이탈이 솔라나 입장에서 더 문제가 될 수밖에 없다.앱토스는 거래가 시작된 지 3달 밖에 안됐다. 향후 성장 가능성을 예측하기 어렵다. 전체 발행량 가운데 80% 이상이 앱토스 재단, 기관 투자자들이 보유하고 있다. 실제 유통 물량이 적기 때문에 가격이 급락할 가능성도 상당하다.가상자산 전문 분석업체 원더프레임의 김동환 대표는 “몇몇 가상자산 가격이 오른 것은 미국 연방준비제도이사회(FRB)의 기준금리 인상이 조만간 멈출 것이라는 기대감 외에는 뚜렷한 근거가 없다”며 “오른 만큼 다시 크게 하락할 수 있다는 의미”라고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2023.01.18.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>“비대면 멘탈 헬스케어 플랫폼으로 승부…일본에도 진출”</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000870564?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>[이코노미조선]Interview ‘마인드카페’ 운영사 아토머스 김규태 대표 코로나19 팬데믹(pandemic·감염병 대유행) 장기화에 따른 우울감, 상실감 등을 겪는 소위 ‘코로나 블루’가 확산하며 멘탈 헬스케어(정신 건강 관리) 산업이 급성장하고 있다. 세계보건기구(WHO)가 지난해 6월 발표한 ‘세계 정신 건강 보고서’에 따르면, 전 세계 우울증 환자는 2020년 2억4600만 명으로 팬데믹 발생 이전인 2019년보다 28% 늘었고, 같은 기간 불안 장애 환자도 3억7400만 명으로 26% 증가했다. 과거 정신 질환은 사회적 시선 탓에 대면 상담이나 치료를 꺼리는 경우가 많았다. 그러나 코로나19 기간 비대면 서비스 사용이 일상화하고, 관련 기술이 발전한 가운데 멘탈 헬스케어 애플리케이션(앱) 등을 사용하는 이들이 늘고 있다. 정신 건강 관리는 더 이상 개인만의 문제가 아니다. WHO와 국제노동기구(ILO)에 따르면, 우울증 같은 정신 건강 문제가 세계 경제에 미치는 연간 손실은 약 1조달러(약 1270조원)로 추정된다. 최신 기술로 무장한 멘탈 헬스케어 기업들은 이런 문제의 중요한 해결사로 주목받고 있다. 이코노미조선이 멘탈 헬스케어 테크 기업의 현주소와 발전 가능성을 조망해봤다. [편집자주]김규태 아토머스 대표. UCLA 국제학과. /아토머스        “다양한 산업군별 맞춤형 멘탈 헬스케어(정신 건강 관리) 서비스를 제공하는 것이 목표다.”비대면 멘탈 헬스케어 플랫폼 ‘마인드카페’ 운영사 아토머스의 김규태 대표가 12월 23일 인터뷰에서 밝힌 포부다. 보건복지부가 조사한 ‘2021년 정신 건강 실태’에 따르면 성인 네 명 중 한 명은 최소 한 번 이상 우울장애, 불안장애 등 정신 건강 문제를 경험한다. 하지만 정신 장애를 진단받은 사람 중 실제 정신 건강 서비스를 이용한 비율은 12.1%에 그치고 있다. 정신 건강 관련 서비스에 대한 거부감이 큰 탓이다. 이런 문제에 주목해 등장한 기업이 아토머스다.2016년 익명 정신 건강 커뮤니티로 출발한 마인드카페는 현재 국내 150만 명 이상이 사용하는 국내 최대 규모 정신 건강 서비스로 성장했다. 인공지능(AI), 빅데이터 기술에 기반한 심리검사와 개인·그룹 상담, 코칭 정신 건강 커뮤니티 기능을 제공하며, 직영으로 운영하는 오프라인 상담 센터에서 필요에 따라 대면 치료도 받을 수 있다. 2021년부터는 B2B(기업 간 거래)로 사업을 확대해 200여 개 기업 및 기관을 대상으로 서비스를 제공하고 있다.특히 코로나19 사태로 멘탈 헬스케어 시장이 폭발적으로 성장하는 가운데 마인드카페도 투자 업계의 주목을 받고 있다. 마인드카페가 유치한 총투자액은 약 350억~400억원에 달한다. 이는 국내 멘탈 헬스케어 분야 스타트업이 유치한 투자액 중 최대 규모다. 김 대표는 “코로나19를 계기로 전 세계적으로 멘탈 헬스케어 산업이 폭발적으로 성장하는 가운데 서비스 접근성 향상과 인식 개선에 앞장서는 기업이 시장을 선점할 것”이라며 “올해는 오프라인 거점과 B2B 사업을 확장해 기존 운영하던 플랫폼에서 좀 더 시너지를 내고 싶다”고 말했다. 다음은 김 대표와 일문일답.창업 계기가 궁금하다.”어려서부터 창업을 꿈꾸긴 했다. 멘탈 헬스케어 분야에 관심을 갖게 된 건 미국에서 대학 생활을 할 때다. 국제학을 전공했지만, 심리와 관련한 과목에도 관심을 가졌다. 또 유학 당시 스트레스로 심리적 어려움을 겪었을 때 학교에서 심리 상담을 받았는데, 이런 경험이 쌓이면서 이 시장의 가능성을 공감하고 발견했던 거 같다. 고민 끝에 2016년 익명 커뮤니티 형태로 마인드카페를 시작했다. 국내의 경우 정신 건강 문제에 대한 인식이 좋지 않은 게 사실이기에 관련 의료 서비스에 대한 심리적 진입장벽도 높다. 그런데 익명으로 서비스를 운영하다 보니 사람들이 비교적 쉽게 접근할 수 있었다. 이런 커뮤니티의 형성은 지금도 마인드카페만의 특장점이다.”단순 커뮤니티 형태라면 수익성은 없었을 텐데. 어떻게 사업화했나.”2019년 비대면 전문가 유료 상담을 본격 시작했다. 이후 3년 동안 연평균 매출이 세 배 이상씩 성장했다. 2021년에는 분당, 한남, 강남에 국내 최대 규모 오프라인 심리케어센터도 열어 오프라인까지 아우르는 멘탈 헬스케어 플랫폼으로의 성장 발판을 마련했다. 이듬해 B2B 사업에도 진출했다. 삼성전자, 네이버, 현대중공업, 신한금융투자, 지그재그, 무신사, 토스, 샌드박스 등 현재 200여 개 기업을 고객사로 두고 있다. 서울시, 창원시, 국방부, 수원시 등과 협업하는 B2G(기업과 정부 간 거래)도 확장하고 있다. 이 밖에 정신과 전문의, 임상심리 박사 등 전문 연구개발(R&amp;D) 인력을 둔 업계 최대 정신 건강 연구소를 운영하고 있다.”‘마인드카페’ 앱. /아토머스 B2B 서비스는 어떤 방식으로 제공하나. 실제 효과는 어떤가.”진단, 상담, 치료를 제공하는 서비스 본질 자체는 똑같다. 여기에 더해 AI 기반 빅데이터 기술로 시각화·통계화된 조직 진단 보고서도 제공한다. 이를 바탕으로 조직의 심리적 안정감이나 업무 적합성 등을 개선 방안에 대한 분석도 전달한다. 특히 중요시하는 것이 이용자의 개인 프라이버시나 익명성 보장이다. 기업 근로자가 이런 서비스를 이용할 때 가장 불안감을 가질 수 있는 부분이기 때문이다. 기업 근로자의 반응도 좋은 것으로 알고 있다. 효과도 긍정적이다. 마인드카페 서비스를 이용한 기업 근로자의 업무 생산성은 36% 증가했고, 불안 증세나 업무 시간 손실은 50% 줄어든 것으로 나타났다.”코로나19 사태로 멘탈 헬스케어 시장이 급성장하고 있다는데.”사실 멘탈 헬스케어 수요는 원래부터 컸다. 하지만 대면 치료나 상담에 대한 부담 때문에 문턱이 높은 게 사실이었다. 그런데 코로나19로 많은 사람이 자연스럽게 비대면 서비스를 경험하다 보니 원격 진료 시장도 주목받았고, 멘탈 헬스케어 관련 비대면 플랫폼 사용도 늘었다(실제로 미국 최대 원격 진료 플랫폼 기업인 텔레닥(Teladoc)의 전체 매출 40%가량이 정신 건강 분야라고 한다). 시공간 제약 없이 익명으로 양질의 서비스를 제공받을 수 있다는 사용자 인식 개선을 이끌어낸 셈이다. 이에 만족한 사용자는 자연스럽게 대면 서비스도 이용하게 된다. 즉, 전체 멘탈 헬스케어 서비스 시장의 최전방 밸류체인이 구축된 것이다. 마인드카페도 그 시장 구축에 일조하고 있고, 또 선점 효과를 누리고 있는 것 같다. 결국에는 이 시장과 기존 대면 상담 센터, 병원과 연계도 강화될 것이다. 이에 아토머스 역시 온·오프라인 하이브리드 시스템을 강화하고 있다. 또 팬데믹(pandemic·감염병 대유행)을 계기로 사회적이나 제도적으로도 정신 건강이나 심리 문제에 대한 관심도가 높아진 것 같다. 최근에는 TV에도 이런 문제와 관련한 콘텐츠가 많아졌고, 중대재해처벌법 시행과 재택근무 확대 등에 따라 근로자 정신 건강 중요성이 주목받은 것도 기회가 된 것 같다.”멘탈 헬스케어 산업은 어떤 방향으로 발전할까.”멘탈 헬스케어는 기술적으로 혁신할 여지가 큰 분야다. AI, 빅데이터 등 기술 적용으로 초개인화, 상담 데이터 통계화·시각화 등이 가능해졌다. 아토머스는 디지털 치료제 시장 발전도 주목하고 있다. 조만간 디지털 치료제를 실제 대중화하고 상용화하기 위해 소비자가 어떤 니즈를 갖고 있는지에 관해 진행한 설문 프로젝트를 세브란스병원과 협력해 논문화할 예정이다.”해외에도 진출했다고. 반응은 어떤가.”2022년 9월 일본에 진출했다. 한국에서 초기에 제공했던 것과 같은 형태의 익명 커뮤니티를 선보였고, 하루 평균 100건가량 상담 글이 올라오고 있다. 한국보다는 훨씬 빠르게 활성화하고 있다. 언젠가 수익 모델을 갖추게 되면 일본에 법인을 세울 계획도 있다. 유교권인 아시아 국가는 북미 지역보다 여전히 멘탈 헬스케어에 대한 접근성이 떨어진다. 달리 말하면 인식이나 접근성 문제만 풀어주면 더 폭발적인 성장과 시장 선점이 가능하다. 이에 우선 아시아권에 집중해 시장을 여는 플레이어 역할을 하고자 한다.”앞으로 목표는.”일단은 한국과 일본에서 안정적으로 시장 선점을 하는 게 단기 목표다. 또 올해는 오프라인 센터를 더 늘리고 B2B를 강화해 기존에 운영하던 마인드카페 플랫폼에서 좀 더 시너지를 내고 싶다. 그리고 2024년에는 이 솔루션 결합을 통한 수익성 확대를 노리고 있다. 장기적으로는 다양한 산업군별 특징을 감안한 맞춤형 EAP(근로자 지원 프로그램) 서비스를 제공하는 것이 목표다. 예를 들어 콜센터, 상담직 같은 감정 노동 서비스 산업에는 멘탈 강화, 위험도가 높은 공사 현장이나 공장 같은 곳에는 안전 민감도를 높일 수 있는 커리큘럼을 제공하는 식이다.”-더 많은 기사는 이코노미조선에서 볼 수 있습니다.Part 1. 멘탈 헬스케어 테크가 뜬다①'황금알 낳는 거위’ 멘탈 헬스케어②[Infographic] 정신 질환 팬데믹과 헬스케어 혁신Part 2. 멘탈 헬스케어 앞장선 기업들③[Interview] 멘탈 헬스케어 유니콘 스프링헬스 공동 창업자 에이프릴 고④[Interview] ‘마인드카페’ 운영사 아토머스 김규태 대표⑤[Interview] 안용직 스타벅스코리아 파트너행복추진팀 팀장Part 3. 전문가 제언⑥[Interview] 마이클 어윈 UCLA 세멜 신경과학·인간행동연구소 소장⑦[Interview] 전상원 강북삼성병원 기업정신건강연구소 소장⑧[Interview] 이헌정 고려대 안암병원 정신건강의학과 교수</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2023.01.30.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>돈 줄 마르자 '후불결제' 늘고, 연체율도 급등…빅테크 후불결제까지 덮친 고금리[머니뭐니]</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002096368?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>토스 후불결제 누적가입자 수 150만명 돌파연체율 네이버 2%, 토스는 3% 넘어[게티이미지뱅크][헤럴드경제=홍승희 기자] 토스의 후불결제(BNPL) 연체율이 3%를 훌쩍 뛰어 넘은 것으로 나타났다. 네이버파이낸셜(네이버페이)도 2%를 넘어서며 빅테크 BNPL의 건전성 관리가 시급하다는 지적이다. 업계는 신용카드사 등 타 금융업권처럼 빅테크의 후불결제도 리스크 관리를 할 수 있도록 형평성을 맞추는 금융당국의 정책적 지원이 필요하다는 입장이다.‘돈 줄’ 말라 후불결제 늘었다…토스, 네이버페이에 압승30일 헤럴드경제가 강병원 더불어민주당 의원실을 통해 금융감독원으로부터 확보한 빅테크 후불결제 현황에 따르면 지난해 12월 토스의 후불결제 누적가입자 수는 153만7010명으로 집계됐다. 같은 기간 네이버파이낸셜은 66만341명을 기록했다. 토스가 후불결제 서비스를 운영한 지 5개월여 만에 네이버파이낸셜(네이버페이) 후불결제 이용자를 뛰어넘은데 이어 이용자 수 추이에서도 두 배 이상 네이버파이낸셜을 따돌린 것이다.후불결제는 일단 구매 후에 나중에 지급을 청산할 수 있는 외상 거래 서비스다. 신용카드와 비슷하지만 고객별 결제 한도 산정방식에 차이가 있다. 신용카드사는 금융정보를 중심으로 결제 한도를 부여하는 반면, 빅테크의 후불결제는 금융거래 정보가 없는 신파일러(금융 이력 부족자)도 이용 가능하다. 토스와 네이버페이는 월 최대 30만원 한도로, 카카오페이는 후불교통카드를 통해 후불결제 서비스를 도입 중이다.최근 은행의 높은 대출금리, 물가상승 등으로 서민들의 ‘돈 줄’이 마르자 토스와 네이버파이낸셜의 후불결제 월간 이용금액도 상승세를 이어갔다. 지난해 9월 106억6000만원이던 네이버파이낸셜의 후불결제 월간 이용금액은 12월 143억1400만원으로, 토스의 경우 226억4900만원에서 305억3300만원으로 각각 34%씩 증가했다.청년·주부 이용 급증에 연체율도 급등…건전성 관리 시급문제는 연체율이다. 지난 해 8월 말 기준 1%대이던 각사의 연체율이 2~3%대로 급증한 것이다. 특히 토스의 후불결제 연체율은 지난해 8월 1.15%에서 12월 3.48%로 233bp 급증했다. 네이버파이낸셜은 같은기간 2.14%로 4개월만에 66bp 증가했다.청년·주부 등 신용이 부족한 신파일러 이용이 급증하자 연체율도 함께 급등하는 현상이 나타나는 것이다. 특히 고금리 기조에 서민들의 이자 부담이 늘어나고 물가 상승으로 소비를 감당하기 어려워진 영향이 빅테크 후불결제까지 덮친 것으로 풀이된다.토스 관계자는 이에 대해 “일정 기간 연체 금액을 연체율 계산에서 제외(상각처리)하는 카드사와 달리, 혁신금융서비스로 제공하는 후불결제는 기간에 관계없이 상환전까지 계속 연체율에 포함되기 때문에 단순비교가 어렵다”고 설명했다.빅테크 측은 후불결제 연체정보를 다른 금융회사와 공유할 수 없고, 또 후불결제를 연체해도 개인신용평가에 전혀 반영이 되지 않기 때문에 연체율 관리를 위한 두 손발이 꽁꽁 묶여있다는 입장이다.앞서 금융당국은 지난 2021년 네이버파이낸셜, 비바리퍼블리카(토스 운영사), 카카오페이를 혁신금융으로 지정 당시 부가조건을 통해 “CB사(개인신용조회회사)에 제공되는 후불결제 연체정보를 제3자(금융회사 등)와 공유를 제한하고 후불결제 연체내역이 CB사의 개인신용평가에 반영되지 않도록 할 것”이라고 제한했다. 이에 빅테크 후불결제 연체자들의 연체정보는 다른 금융사로 전해지지 않고, 또 후불결제 연체 중에도 신용점수에 지장 없이 금융생활이 영위 가능하다.한 핀테크 관계자는 “제도적 불균형 속에서 신용카드와 후불결제의 연체율을 단순 비교해 그 리스크를 지적하는 것은 논리적 모순”이라며 “핀테크사들의 후불결제 연체율에 대한 지적 이전에 타 금융업권 리스크 관리 체계와 형평을 맞추는 금융당국의 정책적 지원이 선행되어야 할 것으로 보인다”고 말했다.후불결제 관련 입법에 대한 필요성도 제기된다. 강 의원은 “제도권 금융 밖 저신용자들의 간편 이용을 보장하면서도 부정거래 및 높은 연체율을 함께 잡을 방안 마련이 절실하다”며 “이미 상당부분 활성화되었으며, 부작용도 커지고 있는만큼 혁신금융서비스 단계를 넘어 후불결제업무를 종합적으로 관리할 입법이 조속히 필요하다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2023.01.16~2023.01.31).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.01.16~2023.01.31).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2023.01.20.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>5대 은행 12월 평균 가계 예대금리차 축소</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000319591?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>5개월째 가장 높은 가계 예대금리차(대출금리와 저축성 수신금리의 차이)를 보이고 있는 NH농협은행이 폭을 크게 줄이면서, 지난달 시중 5대 은행의 평균 가계 예대금리차는 줄어든 것으로 나타났습니다.  다만 KB국민은행과 하나은행은 예대금리차가 확대되기도 했습니다. 오늘(20일) 은행연합회 공시에 따르면, 12월 5대 은행의 평균 가계 예대금리차(정책서민금융 제외)는 0.72%p로, 전달 0.77%p보다 0.05%p 줄었습니다. 개별 은행 중에서는 농협은행이 0.94%p로, 공시제가 시행된 이래 5개월째 가장 격차가 컸습니다. 하지만 전달 1.29%p에 비해선 0.35%p나 간극을 좁혔습니다. 신한은행도 0.72%p에서 0.63%p로, 우리은행도 0.79%p에서 0.77%p로 폭이 좁아졌습니다. 반면, 국민은행은 0.41%p에서 0.61%로, 하나은행도 0.65%p에서 0.69%p로 폭이 더 벌어졌습니다. 공시가 이뤄진 17개 은행(씨티은행 제외)으로 범위를 넓혀 보면, 이 중 10개 은행의 예대금리차가 전달에 비해 확대된 양상을 보였습니다. 개별 은행 가운데는 전북은행이 여전히 예대금리차가 가장 큰 것으로 나타났습니다. 지난달 전북은행 가계 예대금리차는 5.71%p로 전달 5.42%p보다 0.29%p 더 벌어졌습니다. 인터넷전문은행인 토스뱅크가 뒤이어 5.48%p로 높았는데, 전달 5.61%p와 비교해선 폭이 좁아졌습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2023.01.18.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>토스, 개인정보 보호 홈페이지 신설</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002676394?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>토스가 실설한 개인정보 보호 홈페이지 소개 포스터.ⓒ비바리퍼블리카[데일리안 = 부광우 기자] 모바일 금융 서비스 토스를 운영하는 비바리퍼블리카는 토스의 개인정보 보호 활동을 한눈에 확인할 수 있는 개인정보 보호 홈페이지를 새롭게 선보인다고 18일 밝혔다.개인정보 보호 홈페이지는 토스의 개인정보 보호 5대 원칙과 토스 데이터보호 준법 자문위원회의 정기 권고 및 개선사항, 개인정보 처리 방침 등으로 구성됐다.토스는 고객의 개인정보 보호를 위해 서비스 초기 기획 단계부터 치밀한 정책을 세우고, 엄격하게 관리를 진행하고 있다. 이러한 맥락에서 홈페이지 첫 화면에서는 개인정보 보호를 위한 5가지 핵심 원칙을 확인할 수 있다.토스의 개인정보 처리방침은 별도의 메뉴로 구분했다. 개인정보 처리방침은 수집·이용 항목과 목적, 제3자 제공과 위탁 처리, 보유기간 및 파기 절차, 정보 주체의 권리 행사 범위 등으로 구성됐다. 토스는 해당 내용을 통해 어떤 개인정보가 어떻게 사용되는지 궁금해 하는 고객들의 궁금증을 해소하고자 했다.이와 더불어 토스 데이터보호 준법 자문위원회의 활동 내용도 정리해 소개한다. 지난해 11월 출범한 자문위원회는 외부 전문가들로 구성돼 토스의 고객 데이터 처리 활동을 독립적으로 감시하고, 개선안을 권고하는 역할을 수행한다. 홈페이지에서는 자문위원회 구성원 소개와 토스팀과의 협업 과정, 자문위원회 회의록 등을 확인할 수 있다.임희진 토스 프라이버시 사일로 제품 책임자는 "토스의 쉽고 빠른 금융 서비스 뒤에는 고객 개인정보 보호를 위한 다양한 기술적, 정책적 노력이 있다는 것을 알리기 위해 개인정보 보호 홈페이지를 신설했다"며 "홈페이지를 통해 토스 데이터보호 준법 자문위원회에서 권고한 개선안들도 투명하게 공개하고, 고객과 소통하려는 노력을 이어가겠다"고 전했다.토스는 개인정보 보호와 이용 투명성 제고를 위한 다양한 활동을 전개하고 있다. 이번 달 초에는 서비스 이용과정에서 조회되는 개인정보 내역을 고객이 언제든 확인할 수 있는 개인정보 안심리포트 서비스를 출시했다.개인정보 안심리포트는 고객이 제공에 동의한 개인정보가 언제, 왜, 누구에게 제공됐는지를 일목요연하게 확인할 수 있는 제품이다. 이러한 정보들은 일반적으로 사업자가 적극적으로 공개하는 것을 꺼려하는 정보로, 이에 대해 토스는 모든 개인정보 이용 내역을 투명하게 공개하고 사용자의 동의하에 꼭 필요한 정보만 활용하겠다는 의지를 반영했다고 설명했다.토스의 개인정보 보호 홈페이지는 토스 앱 내 홈 탭에서 화면 왼쪽 최상단에 위치한 토스 로고를 누르거나, 토스 공식 홈페이지 최하단의 서비스 메뉴에서 토스의 개인정보 보호를 클릭하면 접속할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2023.01.26.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>얼어붙은 글로벌 벤처캐피털 시장.. 2년來 '최저'</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002295858?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>KPMG 'KPMG Venture Pulse Q4 2022' 발간 글로벌 벤처캐피털 투자 4분기 연속 감소글로벌 VC 투자회수 규모 전년 대비 급감.. 美VC 엑시트(Exit) 1년새 90% 줄어글로벌 VC '드라이 파우더' 10년來 세 번째 높아 아시아 자금 조달은 2014년 이후 최저 수준亞太 10대 VC 메가딜에 중국이 7개 차지.. 한국 '토스' 8위 삼정KPMG "대체 에너지 기술 및 AI 분야 VC 투자 관심 지속될 것" ◆…글로벌 VC 투자 동향 (제공 삼정KPMG)글로벌 벤처캐피털(VC) 투자가 4분기 연속 감소해 2년 만에 최저치를 기록한 것으로 나타났다.   세계적인 회계·컨설팅기업 KPMG 인터내셔널(회장 빌 토마스)이 26일 발간한 보고서(Venture Pulse Q4 2022)에 따르면, 2022년 4분기 글로벌 VC 투자는 7641건의 거래로 756억 달러에 그쳤다. 전 분기 9767건, 1022억 달러 대비 거래 건수와 규모가 모두 급감하며, 2019년 2분기 이후 최저 수준으로 떨어졌다.   보고서는 인플레이션 및 급격한 금리 인상 등 글로벌 불확실성으로 인해 VC 시장이 얼어붙어 있으며, 올 1분기까지 전세계적으로 자금 조달에 어려움을 겪을 것으로 전망했다. 그러나 ESG(환경·사회·지배구조) 및 지정학적 리스크로 인한 에너지 자립의 중요성이 대두되면서 전기차와 같은 대체 에너지 기술 및 발전·분배 등 에너지 분야와 ESG 관련 솔루션에 대한 VC 투자자들의 관심이 쏠리고 있다고 분석했다.   지난해 4분기 VC 투자는 미주지역과 유럽, 아시아 등 모든 지역에서 거래 건수와 투자 규모가 감소했으며, 아시아에 대한 VC 투자는 2022년 3분기 3052건, 304억 달러에서 4분기 2157건, 226억 달러로 투자건수가 30%가량 줄어든 것으로 집계됐다.   CVC(Corporate Venture Capital, 기업주도형 벤처캐피털) 투자도 4분기 연속 감소했다. CVC 관련 총 투자액은 2021년 4분기 1080억 달러에서 2022년 4분기 365억 달러로 1년 새 약 70% 줄어든 양상을 보였다.   글로벌 벤처캐피털의 엑시트(Exit, 투자회수) 활동도 2021년 4174건, 1조4270억 달러에서 2022년 2997건, 3088억 달러로 전년 대비 크게 하락했으며, 엑시트 규모가 7532억 달러에서 714억 달러로 무려 90% 감소한 미국에서 가장 두드러졌다.   지난해는 미국과 유럽의 강력한 자금 조달로 인해 실제 투자 집행이 이루어지지 않은 미투자금을 뜻하는 드라이 파우더(Dry Powder)가 대규모로 축적됐다. 지난해 VC들은 2500억 달러 이상을 모금했으며, 이는 지난 10년 간 세 번째로 큰 규모다. 미국은 1600억 달러의 기록적인 투자금을 유치했다. 반면, 아시아의 자금 조달은 4년 연속 감소했는데, 이는 2014년 이후 최저 수준이다.   올해 1분기를 앞두고 소비재 중심의 기업들이 가장 부담을 느낄 것으로 예상되는 가운데 전세계 벤처캐피털 투자는 여전히 저조할 것으로 예상했다. 특히 미국의 IPO 장은 올해도 주춤할 것으로 보이며, 기업들의 현금이 마르면서 기존보다 몸값을 낮춰 투자를 받는 다운라운드(Down Round)가 늘고 인수합병(M&amp;A) 활동도 증가할 것으로 내다봤다.   한편, 지난해 4분기 중국의 광저우자동차그룹(GAC) 산하 전기차 브랜드인 아이온(Aion)이 25억6000만 달러의 가장 큰 투자금 유치에 성공했고, 온라인 패션브랜드 셰인(SHEIN) 10억 달러, SPIC 수소에너지 6억3100만 달러, 보야카 테크놀로지(Voyah Car Technology) 6억3000만 달러, 에스윈(ESWIN) 머티리얼 5억6200만 달러, 페이홍 테크놀로지 5억3700만 달러를 조달하는 등 중국이 아시아태평양지역 내 10대 메가딜에서 7개를 차지했다. 한국은 토스(4억500만 달러)가 8위에 올랐다.   삼정KPMG 김이동 부대표는 "유럽의 지속적인 에너지 위기와 기후 변화 등 지속가능성을 고려할 때, 투자자들은 대체 에너지 기술, 전기 및 수소 동력 차량, 배터리 저장 기술 등에 계속 눈길을 돌릴 것"이라고 말했다.   이어 "전세계적으로 사이버보안, 생명공학, 레그테크 및 밀리터리 애플리케이션에도 많은 관심이 몰릴 것"이라며 "장기적으로 인공지능(AI)과 대화형 AI와 같은 게임 분야도 성장할 것으로 전망된다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2023.01.26.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>토스가 만든 알뜰폰, ‘토스모바일’ 사전신청 시작</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000038748?sid=105</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>잔여 데이터 캐시백부터 24시간 고객센터 운영, 토스페이 혜택 등 제공 이달 30일 사전신청자에 토스모바일 우선 개통 혜택토스모바일 로고 [사진 토스][이코노미스트 김다운 기자] 26일 토스의 통신 자회사 ‘토스모바일’이 새 서비스 출시를 앞두고 사전신청을 시작했다. 지난해 10월 모바일 금융 플랫폼 비바리퍼블리카(토스)의 자회사로 편입된 토스모바일은 가계 통신비 인하를 넘어 새로운 통신 기준이 되겠다는 포부를 밝혔다. 이달 30일 토스가 내놓을 통신 서비스는 미사용 데이터 캐시백을 시작으로 24시간 고객센터 운영 등 업계에서 새롭게 선보이는 서비스가 특징이다. 토스 앱에서 쉽고 빠른 개통경험을 제공하며 잔여 데이터 확인 등도 손쉽게 가능하다. 또한, 토스페이 결제시 10% 캐시백 혜택을 제공한다.  앞으로 토스모바일은 기존 이동통신망사업자(MNO) 사업자인 통신 3사 망을 이용해 동일한 데이터 품질을 선보이는 것은 물론, 토스의 쉽고 편리한 금융 서비스 경험을 이식한 통신 서비스까지 제공한다. 토스모바일 세부 요금제는 서비스 오픈 시점 공개 예정이며 총 4가지 타입으로 출시된다. 토스는 2400만 사용자를 대상으로 가계 통신비 절감 목표를 돕겠다는 포부다. 토스 사용자(지난해, 마이데이터 연동 기준)중 92%가 이동통신망사업자(MNO) 가입자였으며, 가상 이동 통신망 사업자(MVNO) 가입자 비중은 8%에 그쳤다. 토스에 따르면 기존 통신3사 데이터·통화 무제한 요금제 사용 고객이 토스모바일 요금제로 변경할 경우 약 20% 이상의 통신비 절감 효과를 기대할 수 있다. 국내 알뜰폰 시장은 2011년 도입 이후 가입자가 꾸준히 늘어나며 지난해 1200만 명을 돌파했지만, 아직 시장 점유율은 16% 가량으로 성장 여력이 있는 것으로 평가된다. 가입자 약 70%가 20~30대에 집중돼 있기도 하다. 이승훈 토스모바일 대표는 “토스가 금융 플랫폼으로 간편 송금, 주식거래, 인터넷뱅킹 등 다양한 금융서비스에서 혁신을 이뤄온 것처럼 통신 서비스 영역에서도 소비자들이 불편함을 느꼈던 부분을 개선해 나가겠다”며 “편리하고 직관적인 통신 서비스를 기반으로, 다양한 혜택을 더해 새로운 통신의 기준을 만들겠다"고 말했다.사전 신청은 토스 앱 내 홈 화면 상단 혹은 전체탭에서 할 수 있다. 사전신청자에게는 토스모바일 우선 가입혜택을 제공한다. 한편 토스모바일은 사천신청 오픈에 맞춰 통신 서비스의 특징을 담은 티저 영상도 공개했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2023.01.17.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>새해 스킨십 나선 금감원장…여전사·인터넷銀 등과 소통행보</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011648232?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>기사내용 요약사모펀드 이어 여전사·인터넷은행 CEO들과 잇딴 간담회여전업계에 "실수요자 자금이용에 애로 없도록" 당부[서울=뉴시스] 최동준 기자 = 이복현 금융감독원 원장이 16일 서울 마포 프론트원에서 열린 가상자산 관련 금융리스크 점검 토론회에서 모두발언을 하고 있다. 2023.01.16. photocdj@newsis.com[서울=뉴시스] 김형섭 기자 = 이복현 금융감독원장이 새해 들어 금융권과의 접촉면을 넓히고 있다. 최근 사모펀드 대표(CEO)들을 만난 이 원장은 17일 여신전문금융사(여전사)와 인터넷전문은행 CEO들을 잇달아 만나며 소통 행보를 확장하는 모습이다.이 원장은 이날 오전 서울 플라자호텔에서 여신금융협회가 주최한 여전사 CEO 신년 조찬 간담회에서 "서민·소상공인에 대한 맞춤형 금융 지원 등 금융회사로서의 사회적 책무를 다 해 주시기 바란다"고 밝혔다.이 원장은 "최근 일부 여전사들이 유동성 확보, 리스크 관리 등을 위해 대출 취급을 축소함에 따라 서민·취약계층의 어려움이 가중되지 않을까 우려된다"며 "금융권의 지원이 꼭 필요한 실수요자의 경우에는 자금이용에 애로가 없도록 세심히 살펴봐 주셨으면 한다"고 말했다.이어 "자체 채무조정 프로그램을 통해 취약차주의 경제적인 어려움을 덜어주고 소상공인에 대해서도 만기 연장 등 자금 지원 뿐만 아니라 경영 컨설팅 서비스를 제공하는 등 다각적인 지원을 해 주시기를 당부드린다"고 했다.서민들의 '급전 창구'인 카드·캐피탈 등에 서민대출 축소 자제와 취약차주 금융지원을 당부한 것이다.이는 기준금리 인상으로 자금조달 비용 부담이 커진 저축은행과 여전사 등이 수익성 악화를 우려해 속속 대출문을 걸어 잠그고 있는데 따른 것이다.특히 좁아진 대출문으로 인해 저신용자와 서민들의 부채 부실화 가능성이 커질 뿐만 아니라 이들이 고금리 불법 사금융으로 내몰릴 가능성이 커진다는 점을 금융당국은 우려하고 있다.이 원장은 "유동성 및 신용 리스크 등에 선제적으로 대응할 수 있도록 충분한 위기대응 능력을 확보해 주시기 바란다"며 여전사 건전성 제고 노력도 주문했다.이 원장은 "여전사는 시장성 차입 의존도가 높아 금융시장 변동에 취약한 구조적 약점이 있기 때문에 금융시장 불확실성을 반영해 비상자금 조달계획을 충실히 보완하고 자산·부채 관리시스템(ALM)을 실효성 있게 개선해 주시기 바란다"며 "위기 발생시 여전업계 차원의 자체 위기대응체계를 구축하는 방안도 고민해 주셨으면 한다"고 당부했다.또 "실물경기가 위축될 경우 한계차주를 중심으로 상환여력이 악화될 가능성이 높다"며 "연체전이율 등 선행지표를 활용하거나 스트레스테스트를 주기적으로 실시해 위험요인을 선제적으로 파악할 필요가 있고 이를 통해 대손충당금을 보수적으로 적립하고 충분한 사내유보 금액을 확보하는 등 손실흡수능력 확충에 최선의 노력을 기울여달라"고 말했다.그는 "금융당국도 여전사의 유동성 애로 해소를 위해 모든 역량을 집중했다"며 채권시장안정펀드 집행과 프라이머리채권담보부증권(P-CBO) 지원대상 확대, 금융규제 유연화 조치 등의 시장안정 프로그램 성과를 설명했다.이 원장은 "이러한 노력의 결과로 최근 여전사의 자금조달 여건이 다소 개선되고 있어 다행스럽게 생각한다"며 "다만 올해에도 금리인상 기조가 이어지는 가운데 프로젝트파이낸싱(PF) 대출 잠재리스크 우려 등으로 당분간 실물경제 및 금융시장 불확실성이 지속될 것으로 보이는데 금융당국과 여전업계 모두 긴장감을 늦추지 말고 시장상황을 예의주시하면서 취약요인에 대해 철저히 대비해야 한다"고 강조했다.여전사 경쟁력 강화 지원과 관련해서는 "여전사와 빅테크가 공정하게 경쟁할 수 있는 환경을 조성하기 위해 규제체계 전반을 세심하게 살펴보고 규제차익을 해소해 나가겠다"며 "그간 축적된 빅데이터를 활용해 새로운 수익원을 발굴할 수 있도록 적극 뒷받침하고 데이터를 활용하는 과정에서 법규미비로 혼란이 초래되거나 걸림돌이 있는 경우 개선하겠다"고 약속했다.그러면서 "혁신적이고 창의적인 아이디어가 실제 비즈니스 모델로 구현될 수 있도록 혁신금융서비스 지정을 확대하는 한편, 부수업무도 폭 넓게 허용하고 심사도 신속히 진행하겠다"고 전했다.이날 조찬 간담회를 통해 여신금융협회 회원사 대표 58명을 만난 이 원장은 인터넷전문은행 대표들과 오찬 간담회도 진행했다.윤호영 카카오뱅크 대표, 서호성 케이뱅크 행장, 홍민택 토스뱅크 대표 등이 참석한 이날 오찬은 신년 인사를 위한 자리였지만 인터넷전문은행들이 원하고 있는 중·저신용자 대상 중금리 대출 비중 요건 완화 건의가 있었던 것으로 알려졌다.금융당국은 중금리대출 활성화라는 당초 설립 취지를 충족하도록 인터넷전문은행의 올해 중·저신용자 대출 비중을 30% 이상으로 맞추도록 요구하고 있다.그러나 인터넷전문은행들은 금리 인상기 중·저신용자의 연체율 증가 등 부실 가능성이 커지고 있는 만큼 중금리대출 확대에 부담을 느끼는 분위기다.앞서 이 원장은 지난 13일에는 기관전용사모펀드 운용사 CEO들을 만나 구조조정 등 기업 구조개선에 있어 주도적인 역할을 해달라고 당부한 바 있으며 오는 18일에는 은행장들과 간담회를 가질 예정이다.이 원장이 연초부터 나선 소통 행보를 놓고 금융권에서는 금융시장의 불확실성이 새해에도 지속되고 있는 가운데 계속된 금리 상승으로 서민들의 고통이 가중되는 상황 속에서 금융사들의 원활한 협조를 이끌어내기 위한 것이란 분석이 나온다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2023.01.31.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>새해 들어 40% 치솟은 비트코인…랠리 계속될지 관심 집중</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004805096?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>美 금리 인상 속도 둔화 예상암호화폐 투자심리 개선사법·부실 리스크 여전히 상존"단기 급등…추가상승 여력 없다"2일 FOMC가 분수령 될 수도"긴축 종료 신호 나오면 계속 뛴다"비트코인이 3000만원에 육박하고 있다. 암호화폐 전체 시가총액은 1조달러를 넘어섰다. 미국 중앙은행(Fed)의 기준금리 인상 속도가 둔화될 것으로 예상되면서 암호화폐 투자심리가 개선된 덕이다. 300%, 400%씩 폭등한 암호화폐도 등장했다.Getty Images Bank그렇다면 이제 투자해도 되는 걸까. 단기간에 너무 많이 올랐다는 덴 이견이 없다. 최근 상승세도 기존 악재들이 해소된 것에 불과하다는 게 대체적인 의견이다. 사법 리스크와 부실 리스크는 여전히 존재한다. 암호화폐거래소를 이용한 자금세탁, 업계에 만연한 회계부정과 부실 이슈는 언제든 불거질 수 있다. 투자자들이 선뜻 신규 투자금을 암호화폐에 넣지 않는 이유다. 다만 2일 예정된 미국 연방공개시장위원회(FOMC)가 단기적으로 분수령이 될 것이란 의견도 나온다.○6배 오른 앱토스…재연된 투기장?업비트에 따르면 비트코인은 지난 30일 오후 2시 기준 2967만원으로 1주일 전에 비해 3.7% 올랐다. 작년 말에 비해서는 40.8% 폭등했다. 3000만원에 근접한 것은 미국 FTX 사태가 터지기 직전인 작년 11월 5일(2975만원) 이후 처음이다.이더리움은 204만4000원으로 같은 기간 35.0% 올랐다. 화제의 코인으로는 앱토스가 꼽힌다. 앱토스는 작년 말 대비 514% 올라 2만2600원을 기록했다. FTX가 대량으로 보유한 탓에 작년 11월 폭락한 솔라나는 3만1800원으로 258% 급반등했다. 두 코인 모두 자체 블록체인 네트워크를 보유한 ‘레이어1 암호화폐’로 처리속도가 빨라 이더리움의 대체자로 분류된다.글로벌 인플레이션 둔화 추세가 뚜렷해지면서 위험자산 회피 심리가 누그러진 게 상승세의 원인으로 분석된다. 같은 기간 나스닥100 지수는 11.21% 상승했다. 특히 1억8400만달러어치 비트코인을 보유한 테슬라의 주가는 작년 연말 대비 44.42% 올랐다.일각에서는 앱토스를 놓고 ‘투기장’이 재연되고 있다는 비판도 있다. 앱토스는 지난 26일 하루 만에 47% 급등했다. 이날 국내외 암호화폐 시세차를 나타내는 ‘김치 프리미엄’은 40%에 이르렀고 앱토스의 국제 거래량(약 2조4700억원) 중 국내 거래 비중이 절반에 달했다. 업계 관계자는 “김치 프리미엄이 50%에 달했던 2018년 말과 비슷한 현상”이라며 “앱토스의 기술력이 우수하더라도 지금과 같은 ‘이상 급등’은 폭탄 돌리기에 가깝다”고 말했다. 암호화폐 투자심리를 나타내는 업비트 공포·탐욕지수는 30일 63.00으로 ‘탐욕’ 단계에 접어들었다.○“사법 리스크 크다” vs “FOMC 봐야”비트코인도 추가 상승 여력에 대해 회의적으로 보는 의견이 많다. 암호화폐거래소나 투자업계의 사법 리스크가 언제든 현실화될 수 있기 때문이다. 체이널리시스에 따르면 불법 암호화폐 거래(238억달러) 중 절반이 거래소를 통해 이뤄졌다. 해킹 등으로 취득한 암호화폐가 현금화되거나 세탁되는 창구로 주로 조세피난처에 있는 대형 거래소들이 이용되고 있다는 평가다.당장 바이낸스는 미국 법무부로부터 기소될 가능성이 큰 상황이다. 약 7000억원 규모 자금 세탁으로 기소된 러시아계 거래소 비츠라토로부터 비트코인이 대량 유입된 사실이 확인됐기 때문이다. 백훈종 디에이그라운드 최고운영책임자(COO)는 “현재 상승장은 FTX나 제네시스캐피털 등 예상 가능한 악재들이 이미 반영된 것”이라면서도 “향후 또다시 관련 악재가 돌출하면 하락과 반등이 반복적으로 일어날 수 있다”고 예상했다.신규 투자금이 유입될 만한 재료가 없다는 점도 랠리가 제한적일 것이라는 전망에 힘이 실리는 이유다. 영국 암호화폐 운용사인 코인셰어스의 멜텀 드미러스 최고전략책임자(CSO)는 “시장 분위기를 반전시킬 유동성 유입은 제한적”이라며 “FTX 파산으로 시작된 매도 공세는 거의 끝났지만 상승 여력은 별로 없다”고 주장했다.코빗 리서치센터는 “금리 상승기 동안 기업들이 잉여현금을 비트코인에 투자하려 하지 않을 것”이라며 “오히려 비용 지급이나 채무 이행 등을 위해 채굴자들이 보유 비트코인을 대거 매도할 수 있다”고 내다봤다.Fed의 금리 인상 여부는 변수로 꼽힌다. 당장 2일로 예정된 FOMC에서 대부분의 투자자들은 ‘베이비스텝’(기준금리 0.25%포인트 인상)을 점치고 있다. 여기에 FOMC 직후 제롬 파월 Fed 의장의 기자간담회에서 “기준금리 인상이 마무리되고 있다”는 취지의 발언이 나오면 신규 자금이 유입될 수 있다는 관측이다. 암호화폐 투자사인 오안다의 에드워드 모야 분석가는 “전 세계 중앙은행들의 긴축 주기가 거의 끝났다는 시그널이 나오면 비트코인의 랠리도 지속될 수 있을 것”이라고 전망했다. 앤서니 스카라무치 스카이브리지캐피털 최고경영자(CEO)는 “앞으로 2~3년 안에 5만~10만달러에 도달할 수 있다”는 희망 섞인 예측까지 내놨다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2023.01.16.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>금융위 "서민금융 대출 중단 안 돼…금융창구 역할 해야"</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000722914?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>이세훈 금융위 사무처장 "리스크 소비자에게 전가 말아야"금융당국이 저축은행 등의 신규 대출 중단과 관련해 어려운 환경에서도 서민들에 대한 금융창구로서 역할을 지속해야 한다고 주문했다.이세훈 금융위 사무처장은 16일 '서민금융 현황 점검'에서 "국민들의 금융 애로 완화를 위해 전 금융권의 전향적인 노력이 필요한 때"라며 "서민금융기관들이 리스크 관리나 시장 여건 변화에 따른 위험부담을 금융 소비자에게 모두 전가하는 행태는 지양해야 한다"고 강조했다.금융위원회 간판 현판 이미지. [사진=아이뉴스24 DB]금융위에 따르면 지난해 정책서민금융 공급 규모는 9조8천억원으로 역대 최대 수준을 기록했다. 그러나 지난해 4분기부터 저축은행·여전사·대부업권이 리스크 관리와 조달금리 상승 등을 이유로 대출 축소 움직임을 보였다.금융당국은 전 금융권에 중·저신용자 대출 공급과 중금리 대출의 올해 공급 계획을 차질 없이 이행해달라고 당부했다. 공급 애로 요인에 대해서는 필요한 중금리 대출 활성화 방안을 검토하기로 했다.금융당국은 인터넷전문은행의 중·저신용자 대출 비중을 올해 말 30% 이상을 목표로 추진하고 있다. 케이뱅크와 카카오·토스뱅크 등 3개 인터넷전문은행 모두 지난해 말 25% 이상을 달성한 것으로 나타났다.중금리대출 공급액은 지난해 1~9월 중 22조8천억원이다. 중금리 대출에 대한 인센티브 제공과 민간 중금리 대출 인정 요건 합리화 등을 통해 지속해 증가하고 있다. 중금리 대출 공급 규모는 2019년 8조2천억원에서 2021년 21조6천억원으로 증가했다.이 밖에 당국은 은행권 자체 재원으로 공급되는 '새희망홀씨' 제도에 대해 은행권에서 더 적극적으로 노력해 달라고 요청했다.이 사무처장은 "최근 서민금융진흥원 보증료를 낮추면서 금융권의 취급금리는 높이는 조치가 시행돼 금융권의 더 적극적인 협조가 필요하다"면서 "취약계층이 불법사금융으로 밀려나지 않도록 최저 신용자 특례보증 확대 공급과 긴급생계비 소액대출 신규 출시 등도 추진하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2023.01.25.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>명절에 생긴 세뱃돈·떡값, 연 5.5% 파킹통장에 넣어볼까</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005411251?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>하루만 넣어도 이자 주는 '파킹통장'···최고 연 5.5%저축은행 3~5%대 금리 제공···토스·케이뱅크 3%대시중금리 불확실한 상황, 예치금·기간 따라 선택해야[이데일리 유은실 기자] 30대 직장인 박예원(가명)씨는 설날을 맞아 회사에서 받은 ‘떡값(상여금)’을 잠시 묶어둘 곳을 고민하고 있다. 아주 큰 돈은 아니지만 금리 혜택을 받으면서도 급할 때 사용할 수 있는 여윳돈으로 활용하고 싶기 때문이다. 아이가 있는 가정주부 김수선(가명)씨도 설 명절 자녀들이 받은 세뱃돈을 어떻게 활용해야 할지 고민이다. 자녀들이 학교에 들어가기 전까진 받은 용돈을 차곡차곡 모아주는 게 좋겠다는 생각에서다.설 연휴 전후로 생긴 여윳돈을 어떻게 활용할지에 대한 소비자들의 고민이 깊어진다. (사진=이미지투데이)파킹 통장으로 몰리는 ‘금리 노마드족’설 명절은 상여금이나 세뱃돈·용돈 등이 한꺼번에 들어오는 시기다. 목돈 관리에 관심이 높아질 수밖에 없다. 하지만 두 달 전까지만 해도 최고 5.5%대 금리로 금융소비자를 유혹하던 시중은행들의 정기예금 금리는 최근 3%대로 뚝 떨어졌다. 이에 조금이라도 높은 금리를 찾아 떠나는 ‘금리 노마드족’과 마땅한 투자처를 찾지 못한 이들이 ‘파킹(parking) 통장’이라는 선택지로 몰리고 있다. 파킹 통장이란 차를 잠시 주차하는 것처럼 하루만 돈을 넣어도 이자를 받을 수 있는 금융상품이다. 수시로 돈을 넣다 뺐다 할 수 있어 금리 예측이 힘든 상황에 목돈을 특정 은행, 특정 상품에 넣기보다 시장 변화에 빨리 대응할 수 있다는 특징이 있다. 정기예금 금리보다 더 높은 금리를 제시하는 곳들도 적지 않다. 예금자보호법에 따라 원금과 소정의 이자를 합해 1인당 최고 5000만원까지 예금자보호도 가능하다.24일 금융권에 따르면 OK저축은행은 최고 연 5.5% 금리를 받을 수 있는 파킹통장 ‘OK읏백만통장2’를 운영 중이다. 이 통장은 100만원 이하의 여윳돈이 생긴 고객이라면 가입을 고려해볼 만하다. ‘오픈뱅킹 등록’이라는 우대금리 조건만 충족하면 고금리 혜택을 누릴 수 있어서다. 100만원 이하 예치금에 대해선 기본 연 5.0%, 100만원 초과~500만원 이하 금액엔 4.5%의 금리를 제공한다. 타행 오픈뱅킹을 등록하면 0.5%포인트의 우대금리를 추가로 적용받을 수 있다. 목돈이 크다면 애큐온저축은행의 모바일앱 전용 파킹통장 상품 ‘머니쪼개기’를 선택할 수 있다. 금리는 연 4.3%로 별다른 조건 없이 고금리를 주고 3000만원까지 예치가 가능하다. 시중은행의 정기예금 상품 금리와 비슷한 수준인 3% 중반대 금리를 제시하는 파킹통장들도 있다. 대신저축은행의 ‘더드리고입출금통장’은 연 3.6%, 다올저축은행의 ‘Fi저축예금’은 연 3.5%의 금리를 제공한다. 우대조건을 맞출 수 있다면 조금 더 높은 금리를 주는 상품도 있다. 웰컴저축은행의 ‘웰컴직장인사랑보통예금’은 최고 3.8% 금리 혜택을 받을 수 있다. 다만 100만원 이상 급여이체 실적 등 조건 세 가지를 충족해야 한다. [이데일리 문승용 기자]인터넷뱅크 맡겨도 2~4%대 금리 혜택인터넷전문은행들도 파킹통장을 운영하고 있다. 카카오뱅크의 세이프박스 금리는 연 2.6%다. 세이프박스에 넣을 수 있는 금액은 최대 1억원이다.  케이뱅크의 ‘플러스박스’는 연 3.0% 금리로 3억원까지 적용 가능하다. 현재 고객이 일 복리 효과를 누릴 수 있도록 ‘지금 이자받기’ 서비스를 제공한다. 파킹통장 플러스박스의 한 종류인 ‘기분통장’은 최대 10개까지 개설이 가능하다. 금리는 플러스박스와 마찬가지로 하루만 맡겨도 연 3.0%의 금리를 제공한다. 매일 느끼는 기분을 반영한 감정 이모지를 선택, 일기처럼 메시지를 적은 후 저금할 금액을 직접 정할 수 있다는 특징이 있다. 토스뱅크의 ‘토스뱅크 통장’은 연 2.3% 금리를 제공한다. 기존에 모아둔 여윳돈이 있다면 설날 목돈과 합쳐 운용하는 것도 방법이다. 토스뱅크 통장은 지난해 12월부터 5000만원 넘는 금액에 대해선 연 4.0%의 이자를 주고 있다. 이 통장은 만기나 최소 납입금액 등 조건을 줄이고 자유로운 입출금이 가능한 수시입출금 통장인데, 여윳돈을 모으거나 규칙대로 잔돈을 모을 수 있는 ‘모으기 기능’이 따로 있다는 특징이 있다. 별도의 통장을 만들 필요 없이 모으기 탭을 통해 목돈 관리가 가능하다. 한 금융권 관계자는 “여유 자금을 단기로 운용하고자 하는 수요가 높아지면서 파킹통장의 금리가 높아지고 다양한 기능들도 추가되고 있다”며 “자금 운용 기간이 짧고 소액이라면 기존 은행의 파킹통장을 사용해도 되지만 자금을 좀 오래 넣어둘 예정이라면 유리한 금리를 제공하는 파킹통장을 활용할 수도 있다”고 조언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2023.01.19.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>고개 드는 금리정점론…예적금 막차탈까</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004958091?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>채권 시장 경색 완화되면서 정기예금 상품 금리도 낮아져 사진=연합뉴스 [파이낸셜뉴스] 인터넷은행과 지방은행도 예금 금리를 4%대로 낮추고 있다. 지난주만 해도 연 5%대 금리였다. 정기예금 최고 금리가 떨어지면서 '지금이 가장 높은 이자'라는 생각에 '예테크'족의 발걸음도 빨라지고 있다.   19일 금융권에 따르면 케이뱅크는 지난 18일부터 코드K 정기예금 금리를 기존 연 4.7%(12개월 기준)에서 4.4%로 0.3%p 낮췄다. 이에 앞서 지난 12일에도 기존 연 5%에서 4.7%로 0.3%p 낮췄다. 정기예금 최고 금리가 일주일 만에 0.6%p 낮아진 것이다.   이에 따라 인터넷은행은 일제히 4%대 정기예금을 취급하게 됐다. 카카오뱅크가 연 4.5%로 가장 높은 금리를 제공한다. 케이뱅크 정기예금 금리는 4.4%다. 정기예금 상품이 없는 토스뱅크는 수시입출금 통장 '토스뱅크 통장'에 예치한 5000만원 이상 금액에 대해 연 4% 금리를, 그 이하 예치금에는 연 2.3%를 제공한다.   지방은행에서도 연 5%대 금리 정기예금이 사라졌다. 지난 18일 기준 주요 최고 금리 상품은 △대구은행 'DGB함께예금' 연 4.95% △부산은행 '더 특판 정기예금' 연 4.65% △광주은행 '호랏차차디지털예금' 연 4.55% △제주은행 'J정기예금' 연 4.20% 등이다.   5대 은행(KB국민·신한·하나·우리·농협은행)에서 정기예금 최고 금리가 떨어지고 있던 것이 전 은행권으로 확산된 모습이다. 5대 은행 예금금리가 낮아지면서 '더 높은 금리'로 고객을 유인할 이유가 줄어든 것이다.   실제 지난 18일 기준 5대 은행의 금리는 연 3.70~4.10% 수준으로 집계됐다. 지난해 12월 연 4.79~4.93%로 5%대를 넘보던 금리가 한달여 만에 상·하단 각각 0.83%p, 1.03%p 낮아졌다. 은행별로 하나은행(4.1%), 우리은행(3.96%), 신한은행(3.95%), KB국민은행(3.86%), NH농협은행(3.78%) 순이었다.   이는 채권 시장 경색이 완화되면서 시장금리에 연동된 정기예금 상품 금리도 낮아진 영향이다. 그간 은행은 우대금리 없이 은행채 등 시장금리에 연동한 예금상품을 주력으로 내세우고 있었다. 채권시장 경색이 정점을 찍던 지난해 11월 평균 5.348%까지 올랐던 은행채(1년물, AA등급) 금리는 지난 17일 4.14%까지 하락했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2023.01.24.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>[금융라운지] '연체막기 서비스' 인기끌자 토스뱅크로 자동이체 몰려</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005078516?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>"파킹통장을 바꿀 때마다 자동이체를 일일이 옮겨야 하는 게 토스는 한 번이면 되니 정말 편하네요."최근 금융권에서 고금리 수시 입출금 통장(파킹통장) 경쟁이 격화하는 가운데 토스뱅크의 '다른 계좌로 연체 막기(연체 막기)' 서비스가 의도치 않은 반사 이익을 누리고 있다. 파킹통장을 옮겨 갈 때 드는 수고로움을 해결해주면서다.24일 금융권에 따르면 토스뱅크가 지난해 8월 은행권 최초로 도입한 '연체 막기' 서비스가 입소문을 타면서 인기를 모으고 있다. 현재 누적 사용자는 1만4000여 명이다. '연체 막기'는 토스뱅크 계좌에서 카드 대금이나 펀드 납입 시 자동이체 전 잔액이 부족하면 사전에 등록한 타행 계좌 돈을 끌어와 미납을 방지하는 서비스다. 각종 연체로 고객들의 신용도가 떨어지는 것을 막기 위해 토스뱅크가 은행권에서 처음으로 도입했다.고객들은 이를 응용해 토스뱅크 계좌를 '대금 납부용'으로 활용하고 있다. 각종 자동이체건을 토스뱅크 계좌에 물린 다음 토스뱅크 계좌에 채워 넣을 통장을 파킹통장으로 지정하는 식이다. 기존에는 자동이체 건수만큼 파킹통장을 옮길 때마다 일일이 다시 연결해줘야 했지만 토스뱅크를 활용할 경우 토스뱅크 등록 계좌만 새로운 파킹통장으로 교체하면 돼 품이 적게 든다. 최근 OK저축은행, 애큐온저축은행, SC제일은행 등에서 잇달아 연 4%대 고금리 파킹통장을 내놓자 주계좌 이동이 빈번하게 일어나고 있는데, 이 방법이 각광을 받는다. 이에 더해 토스뱅크는 자동납부를 간편하게 가져오는 서비스를 제공해 자사 계좌로의 고객들 이동을 독려한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2023.01.29.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>“알뜰폰 가입자 폭증은 IoT 회선 때문…휴대폰은 3년간 5% 증가”</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000872992?sid=105</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>서울 시내에 위치한 알뜰폰 스퀘어 매장 모습. /뉴스1         알뜰폰 시장이 커지고 있는 것으로 보이지만 실상은 사물인터넷(IoT) 회선이 주를 이루는 것으로 분석됐다. 게다가 휴대폰 가입 회선은 통신 3사의 자회사들이나 금융권이 주를 이루고 있어 알뜰폰 시장 전반에 대해 제도 점검과 개선이 필요하다는 지적이 나왔다.29일 국회 과학기술정보빙송통신위원회 박완주 무소속 의원이 과학기술정보통신부로부터 제출받은 자료에 따르면 알뜰폰 가입자 수가 증가한 실제 요인은 IoT 회선 증가 때문인 것으로 나타났다. 2019년부터 2022년까지 518% 늘어났다. 휴대폰 회선 수는 같은 기간 5% 증가하는데 그쳤다.박 의원 분석에 따르면 지난해 이통 3사 자회사의 알뜰폰 휴대폰 회선 가입자 수는 2019년 대비 54% 증가했다. 대기업·빅테크 군의 가입자 수도 국민은행 알뜰폰 사업의 영향으로 162%나 늘었다. 반면 우체국사업자를 포함한 중소·중견 사업자의 휴대폰 회선 가입자 수는 동기 대비 약 30% 감소했다.전체 알뜰폰 가입자 수 중 IoT 회선을 제외하면 이통3사 자회사 점유율은 2019년 35%에서 2022년 51%로 약 16% 증가했다. 알뜰폰 시장에서도 이통3사의 영향력이 큰 것이다.알뜰폰 민원이 잇따르고 있다는 점은 개선점으로 지적했다. 실제로 국민권익위원회에 접수된 알뜰폰 민원은 2018년 611건에서 2021년 1714건으로 181% 증가했다. 지난해에는 1114건이었다.박 의원은 “알뜰폰 제도 도입 13년 차를 맞았지만, 도매제공의무·대가산정방식·소비자 보호조치 의무 등 여러 쟁점에 대해 정부가 교통정리에 나서고 있지 않아 제도 공백에 따른 시장 불안정이 가중되고 있다”며 “특히 국민은행·토스·신한은행과 같은 금융대기업도 이미 알뜰폰 시장에 진출했거나 진출을 계획하고 있는 만큼, 알뜰폰 생태계 전반을 점검할 필요가 있다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2023.01.17.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>[단독][fn마켓워치] 우리금융, 다올인베스트먼트 인수</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004956801?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>인수금액 2100~2200억원 규모    [파이낸셜뉴스] 우리금융그룹이 다올인베스트먼트를 인수하게 됐다. 인수 가격은 2100억~2200억원대다. 우리금융으로선 비은행 포트폴리오를 확대하게 됐다.   17일 투자은행(IB) 업계에 따르면 우리금융그룹은 다올인베스트먼트 인수를 확정한다. 다올인베스트먼트 지분 52%가 거래 대상이다.   IB업계 관계자는 "우리금융그룹은 완전 민영화 후 증권사, 보험사 등 비금융 포트폴리오 강화가 숙원 사업"이라며 "5대 금융지주 VC(벤처캐피탈) 계열사가 없었던 만큼 이번 인수전에 핵심 플레이어였다"고 설명했다.   앞서 다올인베스트먼트 매각 측은 제한된 잠재투자자들을 대상으로 매각을 진행한 결과 우리금융지주 등 20여개 이상의 다양한 전략적투자자(SI), 재무적투자자(FI)들이 인수의향을 밝혔다. 금융지주사·증권사, 기업형벤처캐피탈(CVC) 신설을 검토중인 대기업, 외형 확장을 모색중인 메이저 사모펀드(PEF) 운용사 등이 대상이다.   다올인베스트먼트가 상장사인 점 등을 고려해 가격적요소 보다는 거래종결성, 중장기적 성장전략 청사진과 사업적 시너지 등을 중점적으로 평가하는 것으로 전해졌다. 거래규모는 거래 대상 52%의 지분가치 기준 2000억원 중반으로 알려져 있다. 최근 동종업계 내 순자산 멀티플(PBR) 1.7배 하회 수준이다.   다올인베스트먼트의 2022년 9월 말 연결기준(미국 실리콘밸리 소재 다올벤처스 포함) 순자산 장부가액은 2865억원이다. 현 본사 소재지인 판교테크노밸리 부동산의 최근 인근 실거래가 적용시 장부대비 약 200억원의 평가익을 반영하지 않았다. 순현금(무차입) 약 1100억원, 투자 자산의 최근 펀딩 밸류 및 향후 매각차익 업사이드 등을 고려하면 거래 종결성에 비중을 높게 두고 있다는 평가다.   다올인베스트먼트는 과거 정부가 1981년 설립한 한국기술개발(KTDC)이 전신인 국내 1세대 벤처캐피탈(VC)다. 2022년 12월 현재 AUM(운용자산) 총 1조5000억원 규모의 21개 투자조합을 운용 중이다. 배달의민족, 토스(비바리퍼블리카), 해외스타트업 등에 대한 트랙레코드(투자이력)를 보유하고 있다.   모회사인 다올투자증권은 다올인베스트먼트를 포함해 태국 소재 증권지주사(증권, 자산운용, 리츠, 여신업 영위 자회사 보유)인 다올 타일랜드 매각을 추진 중이다. 다올신용정보는 메이슨캐피탈, 리드캐피탈매니지먼트에 130억원 수준으로 매각할 것으로 알려졌다.  #우리금융 #다올인베스트먼트</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2023.01.19.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>평균 인하 폭도 공시…'무용지물' 금리인하 요구권 활성화될까</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003254552?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>인터넷 블로거 A씨는 최근 금리인하 요구권을 썼다가 거절당한 사연을 자신의 블로그에 올렸다. 시중은행에서 받은 전세대출의 금리가 지난해 말 연 4% 수준이었는데 올해 들어 연 6%대로 오르자 A씨는 조금이라도 이자 부담을 덜고자 금리 인하를 은행에 요구했다. 하지만 은행은 “내부신용 평가 결과가 금리 인하로 이어질 만큼 개선되지 않았다”라며 수용할 수 없다는 답을 했다. 그는 “속상하다, 월급쟁이들은 (금리 인하권) 승인 나기 어렵단다”라고 썼는데, 한 누리꾼은 댓글에 “인하권 되는 사람 한 번도 못 본 것 같다”라고 적었다.     지난 16일 은행연합회에 따르면 지난해 12월 신규 취급액 기준 코픽스는 11월(4.34%)보다 0.05%포인트 낮은 4.29%로 집계됐다. 사진은 17일 서울 시내 은행에 대출금리 안내문 모습. 연합뉴스     ━   금리인하 요구권 수용률 5.6~57.9%       이르면 다음 달부터 은행이 금리인하 요구권을 통해 얼마나 금리를 내렸는지가 공개된다. 금리인하 요구권 제도의 실효성을 높이기 위한 조치다. 금융 소비자의 부담을 낮추기 위해 도입됐지만, 수용률이 높지 않아 ‘무용지물’이란 평가를 받는 데 따른 것이다.      19일 금융권에 따르면 이르면 다음 달부터 은행들은 고객의 대출금리 인하 요구를 수용해 얼마나 금리를 내렸는지를 보여주는 평균 금리 인하 폭을 공시해야 한다. 금융감독원은 이런 내용으로 ‘은행업 감독업무 시행세칙’을 고치기로 했다. 현재는 신청·수용 건수, 이자감면액, 수용률만 공개하고 있다. 이에 건수 위주의 ‘생색내기 공시’라는 지적이 나왔다.       또 은행들은 신용·담보·주택담보대출별로 수용률을 따로 공시해 정보 제공을 확대한다. 현재는 가계‧기업 대출만 분류해 놓았다. 이외에 비대면 신청률도 추가로 공시된다.      금리인하 요구권은 신용 상태나 상환 능력이 개선된 대출 고객이 금융사에 대출금리를 내려 달라고 요구할 수 있는 권리다. 금리인하 요구가 가능한 구체적인 사유로는 직장의 변동, 연 소득의 변동, 직위 변동, 전문자격증 취득, 자산증가 또는 부채감소 등이 있다. 고객의 금리인하 요구권은 지난 2019년 6월 법제화했다. 특히 최근 대출 금리 급등으로 이자 부담이 커진 금융 소비자 입장에선 금리인하 요구권이 요긴한 제도가 될 수 있다.     그래픽=김영옥 기자 yesok@joongang.co.kr       하지만 현재까지 이 제도는 실효성 논란에서 자유롭지 못했다. 기대만큼 높지 않은 수용률 때문이다. 금리 인하를 신청해도 실제 이자율 조정으로 이어지는 경우가 많지 않다는 뜻이다.      현재 은행연합회에 공시된 지난해 1~6월 가계대출 기준 시중은행과 지방은행, 인터넷은행의 금리인하 요구권 수용률은 5.6~57.9%다. 신한은행(31.3%), 하나은행(32.3%) 등 9개 은행이 30%대 수용률을 보였다. 카카오뱅크(19%), 토스뱅크(17.8%)와 같은 인터넷은행의 수용률은 낮았다. “다른 은행에 비해 비대면 신청 비중이 높아 중복 신청이 많다”는 게 인터넷은행 업계의 설명이다.      이복현 금융감독원장이 지난 18일 오전 서울 중구 은행회관에서 열린 은행장들과의 간담회에서 모두발언을 하고 있다. 뉴스1     ━   이복현, “금리인하 수용 여부 투명하게 이뤄져야”       은행이 왜 금리인상 신청을 거부했는지 소비자 입장에서 알기 어려운 것도 문제다. 이복현 금융감독원장이 지적한 부분이기도 하다. 이 원장은 지난 18일 국내 은행장들과 간담회를 갖고 “은행의 금리인하 수용 여부가 보다 객관적이고 합리적인 기준에 따라 투명하게 이뤄질 수 있도록 업무 프로세스를 적극 개선해 주시길 당부드린다”고 말했다.       금리인하 요구권이 여전히 여러 소비자에겐 낯선 제도라는 것도 개선해야 할 점으로 꼽힌다. 소비자리서치 전문기관 컨슈머인사이트가 지난해 8월 말~9월 초에 한 ‘금융 플랫폼 기획조사’ 에 따르면금리인하 요구권에 대해 20~69세 금융소비자 27.7%만 ‘알고 있다’고 답했다.      전문가들은 공시 강화 등과 같은 조치도 필요하지만 결국 실제로 은행 등 금융기관이 실제로 행동에 나서도록 해야 금리인하 요구권 제도의 취지를 살릴 수 있다고 조언한다. 강형구 금융소비자연맹 사무국장은 “금리인하 요구권은 결국 소비자가 먼저 요구하지 않으면 작동이 되지 않는 데, 은행 입장에서는 금리를 내리면 수익이 줄기 때문에 고객에게 이 제도를 적극적으로 홍보할 필요가 없다”라며 “소비자의 신용 평가가 상승할 경우 은행이 소비자에게 이를 안내하는 방안 등을 검토할 필요가 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2023.01.16.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>토스뱅크, 전문연구요원 병역지정업체 지정</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011644179?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>기사내용 요약이공계 석사학위 이상 보유자 선발[서울=뉴시스] 이정필 기자 = 토스뱅크가 전문연구요원 병역지정업체로 선정됐다. 경쟁력 있는 우수 인력을 모집해 대고객 금융 서비스를 기획하고 고도화하는 데 앞장선다는 계획이다.토스뱅크는 전문연구요원 병역지정업체로 선정됨에 따라 군복무를 앞둔 전문연구요원을 적극 모집한다고 16일 밝혔다. 선발 인원은 두 자릿수다. 정보기술(IT) 경쟁력을 갖춘 우수 인재 채용을 확대하고 양성하는 데 앞장선다는 방침이다.사측에 따르면 모집분야는 개발과 데이터 관련 직군 전반이다. 총 10개 분야로 핵심 IT 기술 영역이다. 선발된 전문연구요원들은 토스뱅크의 임직원과 동일한 여건 속에 근무하면서, 다양한 프로젝트에 참여하게 된다.처우도 정규직과 동일하다. 급여, 인센티브 등 입사 패키지와 복리후생을 누릴 수 있는 범위도 같다. 대상은 이공계 석사 학위 이상을 보유한 군복무 예정자다. 오는 2월 졸업예정자도 포함된다. 전직이나 보충역도 지원 가능하다. 전직하는 전문연구요원의 경우 1년6개월 이상 복무 이력을 갖춰야 한다.전문연구요원제도는 36개월간 병무청이 지정한 병역 특혜 지정업체에서 연구개발 업무를 수행해 군 복무를 인정받는 제도다. 선발된 연구요원은 군 생활 대신 현업에서 연구 개발 역량을 키울 기회를 얻는다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2023.01.29.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>박완주 "알뜰폰 급증? IoT착시…핸드폰은 2년간 5% 늘었다"</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004844815?sid=105</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>/사진=뉴스1최근 알뜰폰 가입자가 급증한 배경이 IoT(사물인터넷) 가입자가 증가한 영향이라는 분석이 나왔다. 최근 3년간 알뜰폰 핸드폰 가입자 수는 겨우 5% 증가했다는 설명이다. 29일 국회 과학기술정보통신위원회 소속 박완주 의원실(무소속)이 과학기술정보통신부로부터 제출받은 자료에 따르면 지난해 알뜰폰 가입자는 1273만8794명으로, 2019년(774만9516명) 대비 63% 증가했다.이중 IoT 회선 가입자는 543만2514명으로 2019년(87만9287명) 대비 518% 급증했다. 같은 기간 핸드폰 회선 가입자는 684만7956명에서 720만6280명으로 5% 증가하는 데 그쳤다. 사실상 알뜰폰 가입자 폭증은 IoT 회선 가입률 확대에 따른 '착시효과'라는 설명이다. ━"알뜰폰 시장 내 이통3사 영향력 여전"━/사진=박완주 의원실이통3사 자회사의 알뜰폰 핸드폰 회선 가입자는 365만404명으로 2019년(236만9553명) 대비 54% 늘었다. 대기업·빅테크 군의 가입자도 국민은행 알뜰폰 사업 영향으로 162% 증가했다. 반면 우체국사업자 등 중소·중견 사업자의 핸드폰 회선 가입자는 약 30% 감소했다.전체 알뜰폰 가입자 중 IoT 회선을 제외하면 이통3사 자회사 점유율은 2019년 35% 에서 2022년 51% 로 약 16% 증가했다. 일각에선 알뜰폰 가입자가 늘면서 이통3사 점유율이 하락했다고 지적했으나, 여전히 이통3사 영향력이 높다는 평가다. 다만 중소·중견 사업자의 매출액은 2021년 약 3850억원으로 2019년 대비 23% 증가해 이동통신 자회사의 증가율(19%)을 넘어섰다. 박 의원은 "중소사업자도 설비투자 및 이용자 보호·편의를 위한 최소한의 의무를 법제화해야 한다는 주장이 제기되는 이유"라고 설명했다. 박 의원은 "알뜰폰 제도 도입 13년 차를 맞았지만, 도매제공의무·대가산정방식·소비자 보호조치 의무 등 여러 쟁점에 대해 과기정통부가 교통정리에 나서지 않고 있어 제도 공백으로 인한 시장 불안정이 가중되고 있다"고 지적했다. 이어 "국민은행·토스·신한은행과 같은 금융대기업도 이미 알뜰폰 시장에 진출했거나 진출을 계획하고 있는 만큼, 알뜰폰 생태계 전반을 점검해야 한다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2023.01.25.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>막막한 설 보낸 전세사기 피해자들…"빌라왕 활개, 정부는 뭐했나"</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003730356?sid=102</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>[검은 미로, 전세사기⑤]"어떻게 구한 신혼집인데"…피해자들의 호소전세사기 피해자들의 막막한 설 연휴"높은 대출 이자 감당 못해, 신용불량자 되기도""바지 집주인 세금 문제로 경매도 어려워"나쁜 임대인 신원 공개…'배드랜드로스' 등장까지 "빌라왕 활개칠 동안 정부는 뭐했나"…대책 필요편집자 주가장 안전하고 포근해야 할 집이 끔찍한 악몽의 장소로 전락한다. 피땀 흘려 모은 전세금은 자취를 감추고 전세대출은 빚더미가 되어 삶까지 위협한다. 치밀한 전세사기 전면에는 소위 '빌라왕'으로 불리는 바지사장들이, 그 뒤에는 '배후세력'들이 판을 주도한다. 경찰이 집중 단속을 나서는 지금 이 시간에도 전세사기꾼들은 '덫'을 놓고 서민들을 유혹하는 중이다. 피해 규모가 천문학적인 수준이라는 관측까지 나오는 가운데, CBS노컷뉴스는 전세사기가 드리운 어두운 그늘을 밀착 취재했다. 파멸로 이끄는 '검은 미로'를 만드는 조직과 체계는 예상보다 더욱 악랄했다.연합뉴스▶ 글 싣는 순서①[단독]빌라왕 섭외 '토스실장'의 비밀…직접 취업해보니②무소불위 컨설팅 조직범죄…바지사장·중개사·세입자 '장기판의 말'③[단독]경찰 집중단속 비웃는 '깔세'…막판까지 털어먹는 '전세사기'④사망해도 계속 생겨나는 전국 '빌라왕'…배후, 뿌리를 뽑아야⑤막막한 설 보낸 전세사기 피해자들…"빌라왕 활개, 정부는 뭐했나"(끝)'전세사기' 피해자들의 설 연휴는 춥고 막막하기만 했다. 전 재산을 털다시피 마련한 전세금은 회복이 요원하고 높아진 대출 이자는 숨통을 조여오는 상황이다. 피해자들은 '빌라왕' 등 전세사기 일당들의 범죄 후폭풍을 고스란히 맞으며 경매 처분을 기다리거나 회생 방법을 알아보는 등 백방으로 뛰는 상황이다.24일 CBS노컷뉴스 취재를 종합하면 사태가 이 지경에 이르기까지 정부는 사실상 방관했다는 게 공통적인 지적이다.주택도시보증공사(HUG)의 공시가격 150%에 이르는 전세보증보험은 전세사기 일당이 '깡통전세'를 설계하는 구조를 가능하게 했고, 수많은 주택을 대상으로 범죄를 저지를 동안 아무런 관리·감독이 이뤄지지 않았다는 비판이 나온다. 전문가들은 '나쁜 임대인'을 관리하고 범죄를 사전 예방할 수 있는 정부 차원의 대책이 필요하다고 주문한다.전세사기 피해자들의 막막한 설 연휴…'감옥'이 된 신혼집설날을 하루 앞둔 지난 21일, 피해자 A(33)씨는 통화에서 한숨부터 내쉬었다. 그가 서울 강서구 방화동의 한 빌라에 전세 계약을 맺은 시점은 2021년 6월. 그로부터 집주인이 새로 바뀐 시점은 한달 후인 7월쯤이다. 그리고 얼마 지나지 않아 집주인이 사망했다는 소식이 들려왔다. 해당 집주인은 서울 등지에서 빌라 240여채를 소유해 '강서구 빌라왕'으로 불리는 '바지 집주인' 정모씨였다. 정씨는 2021년 7월 제주에서 돌연 사망했다.A씨는 "정씨를 보긴 봤는데 생김새도 멀쩡했고 노숙자도 아니었고 전혀 수상한 점도 없었다"며 "죽는다는 건 전혀 예상하지도 못했다"라고 밝혔다. 집주인이 사망하면서 신청을 해놓았던 전세보증보험도 쓸모가 없어졌다.큰 희망을 갖고 신혼집으로 마련한 2억9천만 원의 전셋집은 그렇게 벗어날 수 없는 '감옥'이 됐다. 9.5평의 크기에 그 사이 태어난 아이 두 명과 함께 네 식구가 그대로 눌러 앉아야 하는 상황에 놓였다. A씨는 "경매로 나가도 아무도 안 살거 같아서 그대로 떠 안아야 될 것 같다"며 "대출 이자가 계약 때는 2%였는데, 이제는 6%가 넘었다. 2년 살고 딱 나가려 했는데 돈이 묶여 있어서 다른 집도 못 구하고 낑겨서 계속 살아야 하는 상황"이라고 토로했다.클릭하거나 확대하면 원본 이미지를 보실 수 있습니다.  인천 미추홀구에 사는 안상미(44)씨 역시 설 연휴에 가족들을 집에 오지 못하게 했다. '구제 방안 촉구' 등 집 앞에 내걸려 있는 현수막을 보고 걱정을 할까봐서다. 인천 미추홀구 전세사기 피해대책위원장을 맡고 있는 안씨는 "피해 회복은 못하고 있는 상황이고 경매로 나가더라도 1순위 근저당이 잡혀 있는 상태라 우리는 2순위"라며 "대출을 받은 사람들은 만기가 됐거나 연장을 해야 하는데 은행마다 안해주는데도 있어서 신용대출로 막은 사람도 있고, 신용불량자가 된 사람도 있다"라고 말했다.안씨가 해당 아파트 단지에 이사 온 시점은 2020년 2월. 전세 보증금 7천여만 원에 아무 문제 없이 살면서 지난해 2월 재계약을 했는데, 불과 5개월이 지나 아파트가 통째로 법원 경매에 넘어갔다는 청천벽력과 같은 소식을 들어야 했다. 해당 아파트는 인천 등 지역에 2709채 주택을 거느린 '건축왕' 남모씨 일당 소유였다. 남씨는 지인 등으로부터 명의를 빌려 아파트나 빌라 건물을 새로 지은 뒤 전세보증금과 주택담보 대출금을 모아 또 주택을 신축하는 식으로 부동산을 늘려갔다. 지난해부터 자금 사정이 악화됐지만 무리하게 전세 계약을 추진해 결국 대형 전세사기 사태가 벌어진 것이다.안씨는 "피해자들이 하나 같이 터지고 나서 남씨 소유란 것을 알았다"며 "경매 소문이 돌자 그 전에 다른 집으로 이사간 사람도 있었는데 그 집 역시 남씨 소유였다. 한 마디로 이 지역을 독점한 것"이라고 말했다.그는 "남씨 일당이 인근 빌라나 오피스텔을 엄청 많이 갖고 있으니 시세도 자유롭게 조정할 수 있었다고 본다"며 "경찰 수사가 어떻게 진행되는지 답답하기만 하다. 현재까지도 피해 건물 1층에 분양상담실이 차려져서 매매 상담을 진행하고 있다"라고 분통을 터트렸다.전세사기 피해를 입고 경매로 한가닥 희망을 걸었지만 집주인의 세금 때문에 활로가 막힌 피해자도 있다. 경기도 광주시에 사는 손정환(37)씨는 "집주인이 세금이 너무 많다보니까 경매 자체가 열리지 않고 있다"며 "발로 뛰면서 이것저것 해결책을 알아봤는데 웃프게도 정말 아무 것도 할 수 없고 그대로 있을 수밖에 없는 상황"이라고 한숨을 쉬었다. 집주인은 '빌라의신' 권모씨다. 권씨 일당은 수도권 등지에 3493채의 빌라 등을 소유하며 사기를 벌였다. 이들은 번호 뒷자리가 '2400'으로 끝나는 통일된 대포폰을 사용하기도 해 '2400 조직'이라고 불리기도 한다.손씨는 "지방에 있다가 '영끌'을 해서 겨우 경기도에 와서 첫 신혼집을 마련한 게 이렇게 피해를 보게 됐다"며 "전 세입자가 1년만 채우고 집을 내놔서 그 배경이 궁금했는데 지금 와서 보니까 '폭탄 돌리기'를 한 것 같다"라고 밝혔다.연합뉴스지난해 10월 사망한 '빌라왕' 김모씨 피해자 B(35)씨 역시 막막하긴 마찬가지다. 그는 "피해 집에 대한 경매가 진행되면 되는 상황인데, 문제가 이런 집이 여러 채가 한꺼번에 터지는 바람에 그것도 문제"라며 "집이 팔릴 수 있을까 걱정이 된다"라고 말했다.김씨가 당시 사망한 사실을 듣고 피해자들은 모두 경악을 금치 못했다고 한다. B씨는 "장례식장도 찾아가고 김씨 부모까지도 찾아갔다"며 "그 전에 집주인이 바뀌었다는 사실을 부동산에서 제대로 알려주지도 않았다. 부동산도 그런 점에 있어선 공범이라고 할 수 있다"라고 말했다. 직장인인 B씨는 직접 해결책을 알아보느라 연차까지 모두 소진해가며 백방으로 뛸 수밖에 없었다고 한다.분노에 찬 피해자들이 직접 '나쁜 집주인' 사이트를 만드는 경우도 생겼다. '배드랜드로스' 인터넷 사이트에는 나쁜 집주인 명단, 피해자 모임, 언론 기사, 제보 등의 항목이 있다. 해당 사이트에는 일부 '빌라왕'들의 사진과 실명, 집 주소 등이 적혀 있기도 했다. 이 사이트를 이용한 한 피해자는 "전세금을 못 돌려받아서 길바닥에 나앉을 판이었다"며 "공익적 목적으로 나쁜 집주인들의 신상을 공개할 필요가 있다"고 밝혔다."빌라왕 활개칠 동안 정부는 뭐했나"…'방관'이 전세사기 원인피해자들은 정부 차원의 적극적인 대책을 촉구하고 있다. A씨는 "LH나 정부에서 전세사기 주택을 매입해주는 것을 제일 필요로 하지만 만약에 안된다면 이자 지원이라도 해줬으면 하는 바람"이라며 "한 달에 나가는 지출이 너무 크니까, 1~2%대만 지원해줘도 그래도 숨통이 트일 수 있을 것"이라고 밝혔다.손정환씨는 "어찌됐건 피해자들은 한 푼이라도 받을 수 있는 길을 찾아야 하는데, 바지 집주인이 세금이 많다고 그 피해를 고스란히 피해자들이 떠맡는 건 말도 안되는 일"이라며 "세금 문제를 좀 해결해주거나 경매에 나올 수 있게 문턱을 낮춰주는 방안이 필요하다"라고 강조했다.정부의 '방관'이 사기 피해를 눈덩이처럼 불게 했다는 지적도 나온다. 안상미씨는 "허그에서 150%의 전세 보증을 인정해줘서 전세사기단들이 깡통전세나 시세를 조작할 수 있게끔 한 게 컸다"며 "거기에 감정평가서까지 이용하면 더 높은 전세금을 책정할 수 있는 구조"라고 밝혔다.B씨 역시 "전세사기 일당들이 임대 사업자로 등록해 세제 혜택도 가지고 가고 주택을 불릴 동안 정부는 방관을 한 것"이라며 "허그에서 이미 블랙리스트로 올라 와 있어도 거래에 전혀 문제가 없었던 점이 피해자들이 가장 화가 난 부분"이라고 말했다.이어 "허그에서 좀 블랙리스트 관리를 좀 더 면밀하게 하던지, 국세청과 합동으로 임대인들의 체납 사실 등 문제점을 명확히 파악해야 한다"라고 강조했다.전문가들은 정부의 '모니터링' 강화 등 다양한 정책과 전세사기에 대한 강력한 처벌이 필요하다고 주문한다.김인만부동산경제연구소 김인만 소장은 "에스크로(제3자가 중개하는 매매 보호 서비스) 제도를 도입해 가령 세입자가 보증보험을 가입해 허그로 계약금을 입금하면 허그가 안전성을 확인하고 임대인에게 돈을 입금하는 구조가 필요하다"며 "문제가 있는 임대인에게 돈이 가지 않도록 만들어야 한다"라고 밝혔다.이어 "사회 초년생들이 세금이나 계약이나 권리 관계 등을 어떻게 확인할 수 있겠느냐"며 "부동산에 물어도 부동산 역시 같은 편일 수 있으니까, 정부 차원에서 임대인이 세금 완납을 했는지, 과거에도 전세금을 돌려주지 않은 이력이 있는지 등을 검사를 해야 하는 것"이라고 강조했다.서진형 경인여대 MD비즈니스학과 교수(공정주택포럼 공동대표)는 "임대인과 임차인의 정보비대칭을 많이들 얘기하는데, 임대인 체납 정보 등은 국가에서 촉탁등기를 통해 등기 부동산에 표시하는 방법이 있다"며 "허그의 공시지가 150% 전세 보증은 오히려 위험하다. 시가의 70% 이하 정도가 안전하다"라고 밝혔다.형사정책연구원 승재현 연구위원은 "이자 대납 등 전세세입자를 구하는 브로커들의 수법을 특히 경계해야 한다"며 "한 사람이 과도하게 빌라를 소유했거나 문제가 있는 거래는 국가적으로 적극적인 모니터링이 있어야 한다. 전세사기로 얻은 불법 수익은 철두철미하게 환수할 수 있다는 제도도 필요할 것"이라고 말했다.한편 정부는 전세사기 피해자를 위해 인천 113호 등 수도권에 200호의 공공임대 주택을 확보했다. 또 주택도시기금을 활용한 '저리 긴급 자금 대출'(연 1.2~2.1% 금리)도 마련했다. 하지만 공공임대 주택 물량은 턱없이 부족하고, 대출의 경우 보증보험 미가입자 피해자 중 보증금 2억 원 이하의 새로운 집을 구할 때만 실행돼 현실성이 떨어진다는 지적이 나온다.정부는 또 설 연휴 이후인 이달 말, 악성임대인 등 위험 거래를 판단할 수 있는 정보를 안심전세앱을 내놓겠다는 계획이다. 정확한 시세 정보와 악성임대인 정보, 건축물 정보 등을 앱에 담지만 '악성임대인 명단'은 들어가기 어려운 실정이다. 명단 공개를 위해선 주택도시기금법 또는 민간임대특별법 개정이 필요하지만 현재 국회에 계류 중이기 때문이다.[반론보도]「무소불위 컨설팅 조직범죄…바지사장·중개사·세입자 '장기판의 말'」 등 기사 관련노컷뉴스는 지난 1월 22일자 「무소불위 컨설팅 조직범죄…바지사장·중개사·세입자 '장기판의 말'」, 1월 24일자 「사망해도 계속 생겨나는 전국 '빌라왕'…배후, 뿌리를 뽑아야」, 1월 25일자 「막막한 설 보낸 전세사기 피해자들…"빌라왕 활개, 정부는 뭐했나"」라는 제목의 기사를 보도한 바 있습니다.이에 대해 건축업자 A씨는 "경찰이 가로챘다고 한 보증금 266억원은 아직 피해 금액으로 현실화된 금액이 아니며, 자산 매각 등을 통해 세입자들에게 피해가 가지 않도록 최선을 다하고 있다."고 밝혀왔습니다. 또한 "딸과 함께 사기친 건축왕으로 보도된 부분에 대해서는 딸은 입건된 사실조차 없다."고 알려왔습니다.이 보도는 언론중재위원회의 조정에 따른 것입니다.※CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우, 사건사고와 미담 등 모든 얘깃거리를 알려주세요.이메일 : jebo@cbs.co.kr카카오톡 : @노컷뉴스사이트 : https://url.kr/b71afn</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2023.01.21.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>NH농협·우리은행, 12월 가계 예대금리차 1·2위</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003776313?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>지난달 5대 시중은행 중 정책서민금융 상품을 제외한 가계대출 기준 예대금리차(대출금리-예금금리)가 가장 컸던 곳은 NH농협은행인 것으로 나타났다.     20일 은행연합회 공시에 따르면, 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 지난해 12월 말 기준 가계 예대금리차(정책서민금융 상품 제외)는 0.61∼0.94%포인트로 집계됐다. 가계 예대금리차란 해당 월에 신규 취급한 가계 대출금리에서 저축성수신금리를 뺀 것을 말한다.      은행별로는 NH농협은행의 가계 예대금리차가 0.94%포인트로 가장 높았다. 이어 우리은행(0.77%포인트), 하나은행(0.69%포인트), 신한은행(0.63%포인트), KB국민은행(0.61%포인트) 순으로 가계 예대금리차가 컸다.     앞서 은행권에선 지난해 7월 예대금리차 첫 공시 이후 저소득·저신용 서민 대상 정책금융상품의 금리가 높아 이를 많이 취급할수록 예대금리차가 커지는 현상에 대한 지적이 나왔고, 같은 해 8월 통계부터는 일부 정책금융상품을 제외한 예대금리차가 따로 공개되고 있다.     지난달 정책서민금융(햇살론뱅크, 햇살론15, 안전망 대출Ⅱ, 최저신용자 특례보증) 상품을 포함한 5대 시중은행의 가계 예대금리차는 0.65∼1.30%포인트로 나타났다. 우리은행의 금리차가 1.30%포인트로 5대 은행 중 가장 컸다. 지난달 햇살론15 취급액이 1140억원으로 전월(530억원)보다 크게 늘면서 예대금리차가 확대됐다는 것이 우리은행 측의 설명이다. 이어 NH농협은행 1.00%포인트, 신한은행 0.91%포인트, 하나은행 0.85%포인트, 국민은행 0.65%포인트 순이었다.     인터넷전문은행 중에서는 토스뱅크의 가계 예대금리차(정책서민금융 상품 포함)가 5.48%포인트로 가장 높았다. 케이뱅크는 2.47%포인트, 카카오뱅크는 1.83%포인트로 집계됐다.     지방은행과 외국계 은행을 포함한 공시 대상 19개 은행 중 가계 예대금리차가 가장 큰 곳은 전북은행으로 6.90%포인트다. 가장 작은 곳은 IBK기업은행으로 0.54%포인트다. 19개 은행 중 정책서민금융 상품을 제외한 가계 예대금리차가 가장 큰 곳도 전북은행(5.71%포인트)이었으며, 제주은행이 0.46%포인트로 가장 작았다.      기업 대출까지 포함한 예대금리차 통계에서는 5대 은행 가운데 우리은행이 1.38%포인트로 가장 컸다. 2∼5위는 신한은행(1.19%포인트), NH농협은행(1.15%포인트), KB국민은행(1.10%포인트), 하나은행(1.01%포인트) 순이었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2023.01.16.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>플랫폼 대출 늘린 저축은행, 작년 1400억원 비용 줄였다</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003072894?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>ⓒ게티이미지뱅크국내 저축은행들이 대출중개 서비스를 제공하는 국내 25개 빅테크·핀테크 플랫폼에서 작년 한 해 동안 수수료와 광고비 등 약 1400억원 규모 비용을 절감한 것으로 나타났다. 오프라인 대출모집인 대비 수수료가 저렴하고 검색·배너광고 대비 효율성이 높아 기존 대비 비용을 약 56% 절감한 셈이다.본지가 국내 빅테크·핀테크 플랫폼 기업과 신용정보업계 등의 자료를 취합한 결과 작년 한 해 동안 국내 저축은행들이 대출중개 플랫폼에서 취급한 개인 신용대출에서 기존 방식 대비 약 1400억원 규모 비용절감 효과를 누린 것으로 나타났다.플랫폼에서의 대출상품 중개는 2021년 9월 금융소비자보호법이 시행하면서 법제화됐다. 현재 빅테크인 카카오페이, 네이버파이낸셜, 토스 외에 핀다, 뱅크샐러드, NHN페이코, 핀크, 깃플 등 약 24개 기업이 대출중개 서비스를 제공하고 있다.저축은행은 모바일에서 다양한 개인신용대출 상품을 비교할 수 있는 대출중개 플랫폼에 입점하면서 기존 오프라인 방식 대비 수수료를 절감하고 광고 효과는 높인 것으로 나타났다.수수료의 경우 대출상담사나 대출모집법인 등 오프라인 대출 모집이 약 3% 수준인데 플랫폼은 1.7~1.8%로 더 저렴하다. 상품 특성이나 금융·플랫폼사 간 제휴 범위에 따라 1% 미만 수수료가 책정된 사례도 있다고 알려졌다.한 플랫폼 기업 관계자는 “저축은행에 대한 대출중개 플랫폼 수수료가 통상 1.7~1.8%이지만 제휴관계 등에 따른 최종 수수료를 감안하면 평균 1.3% 내외로 파악된다”며 “플랫폼이 등장하면서 오프라인 대출모집 대비 절반 이상 수수료를 낮추는 효과가 발생한 셈”이라고 설명했다.플랫폼 수수료는 대출 신청자인 개인이 아닌 금융사가 지급한다. 수수료를 절감할수록 금융사 이익이 높아진다. 금융사는 절감한 수수료만큼 대출 신청 고객에게 금리를 인하해줄 여력을 확보할 수 있다.업계는 작년 저축은행이 플랫폼에서 실행한 신용대출 취급액 비중이 2021년 36.8%(약 7조8000억원)에서 2022년(1~11월, 12월 제외) 50.2%(약 8조2000억원)로 증가한 것으로 추산했다. 플랫폼 이용 효과로 저축은행 대출상품 접근성이 높아진데다 저축은행도 다른 채널 대비 플랫폼 유입 사용자의 계약 실행률이 우수해 적극적으로 플랫폼을 이용한 것으로 해석된다.익명을 요구한 한 핀테크 기업 관계자는 “빅테크·핀테크 플랫폼에서는 대출상품 비교 검색뿐만 아니라 마이데이터를 이용한 자산관리와 신용관리도 제공하고 있어 기존 대출모집이나 광고 대비 자산·신용관리에 관심이 높은 고객이 유입되는 효과가 있다”며 “각 플랫폼마다 차이는 있지만 상대적으로 플랫폼에서 유입된 고객의 연체율 관리 효과가 좋다는 평가가 나온다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2023.01.26.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>못 쓴 데이터는 캐시백… 알뜰폰 내놓은 토스</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002780543?sid=105</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>토스모바일 티저 이미지 갈무리.    토스의 MVNO(알뜰폰) 자회사 '토스모바일'이 30일 새 서비스를 출시한다. 금융 사업자의 알뜰폰 시장 진출은 국민은행의 '리브엠'에 이어 두 번째다. 토스 운영사 비바리퍼블리카는 이달 30일 신규 알뜰폰 요금제를 출시를 앞두고 사전신청을 시작한다고 26일 밝혔다. 사전신청자에게는 토스모바일 우선 가입혜택을 제공한다. 사전신청은 토스 앱 내 홈 화면 상단이나 전체 탭에서 할 수 있다.토스모바일은 이동통신 3사의 통신망을 모두 제공한다. 미사용 데이터를 캐시백으로 돌려주고, 24시간 고객센터를 운영하는 것이 특징이다. 또 토스 앱에서 빠르게 개통할 수 있고 잔여 데이터 확인도 가능하다. 토스페이로 결제하면 10% 캐시백 혜택을 제공한다. 토스모바일 세부 요금제는 서비스 오픈 시점 공개 예정이며, 총 4가지 타입으로 출시된다.   토스모바일은 2400만명 토스 가입자를 대상으로 가계 통신비 절감을 돕겠다고 밝혔다. 토스 사용자 중 92%가 이동통신망사업자(MNO) 가입자였으며, 가상 이동통신망 사업자(MVNO) 가입자 비중은 8%에 그쳤다. 토스모바일은 "기존 통신3사 데이터·통화 무제한 요금제 가입자가 토스모바일 요금제로 변경할 경우 20% 이상의 통신비 절감 효과를 기대할 수 있다"고 설명했다. 이승훈 토스모바일 대표는 "토스가 금융 플랫폼으로 간편 송금, 주식거래, 인터넷뱅킹 등 금융서비스에서 혁신을 이뤄온 것처럼 통신서비스 영역에서도 소비자 불편을 개선해 나가겠다"며 "편리하고 직관적인 통신 서비스를 기반으로, 다양한 혜택을 더해 새로운 통신의 기준을 만들겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2023.01.16.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>금융당국, 서민층 대출한파에 "신규대출 중단 지양하라"</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013703189?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>저축銀·여전·대부 대출 감소에 불법 사금융 내몰릴 우려금융위 사무처장 "2금융권, 어려워도 서민 금융창구 역할해야"서울 시내 거리의 대출 전단 [연합뉴스 자료사진](서울=연합뉴스) 이지헌 기자 = 제2금융권이 최근 중저신용자를 대상으로 한 대출을 줄인 것과 관련해 금융당국이 "어려운 환경에서도 서민금융창구로서의 역할을 지속해달라"고 당부했다.    이세훈 금융위원회 사무처장은 16일 '서민금융 현황 점검회의'를 주재하고 "저축은행, 여신전문금융사, 대부업체 등 서민금융기관의 적극적인 서민금융 지원 역할이 중요하다"며 이처럼 말했다.    이 처장은 "최근 시중금리 상승으로 서민·취약계층의 금융부담이 가중되고 금융 접근성이 위축되는 상황"이라며 "국민들 금융애로 완화를 위해 전 금융권의 전향적인 노력이 필요한 때"라고 말했다.    그는 "리스크 관리나 수익성 악화를 이유로 신규 대출을 중단하는 등 시장 여건 변화에 따른 위험부담을 금융소비자에게 모두 전가하는 행태는 지양되어야 한다"고 강조했다.    이 처장은 금융당국이 서민금융 공급 현황을 주기적으로 점검하는 한편 중금리대출 활성화 등 애로 해소 방안도 검토해 나가겠다고 밝혔다.    그는 "최근 서민금융진흥원 보증료를 낮추면서 금융권의 취급금리는 높이는 등 조치가 시행된 만큼 금융권의 더욱 적극적인 협조가 필요하다"며 "취약계층이 불법사금융으로 밀려나지 않도록 최저신용자 특례보증 확대 공급, 긴급생계비 소액대출 신규 출시 등도 추진할 방침"이라고 밝혔다.    금융당국이 대출 공급을 줄이지 말라고 당부하고 나선 것은 제2금융권을 중심으로 작년 4분기부터 대출을 축소하는 움직임이 나타나면서 금융 취약층이 불법 사금융으로 내몰린다는 지적이 커진 탓이다.    금융당국이 공개한 금융업권별 가계대출 현황을 보면 여전사는 작년 11월 가계대출이 전월 대비 1조원 줄었고, 12월에는 전월 대비 감소 폭이 1조6천억원으로 커졌다.    저축은행도 작년 11월 가계대출이 1천억원 감소한 데 이어 12월엔 5천억원 줄었다.    대부업 상위 10개사 가계대출도 작년 11월 630억원, 12월 421억원 각각 감소했다.    한편 금융위는 작년 11∼12월 중 공급이 줄었던 일부 정책서민금융상품은 새해 들어 공급 규모가 정상화되고 있다고 평가했다.    금융위는 "서민금융진흥원 보증에도 불구하고 조달금리 상승에 따른 수익성 저하로 저축은행을 중심으로 근로자 햇살론 등 일부 정책서민금융상품 취급을 축소했다"고 설명했다.    그러나 새해 들어 대출 한도가 확대되고 서민금융상품을 취급하는 금융회사의 취급금리를 1%포인트 안팎으로 상향 적용하면서 공급 규모가 정상화되는 분위기다.    대표적인 서민금융 대출상품인 근로자 햇살론의 하루평균 공급액은 작년 12월 100억원에 그쳤으나, 새해 들어서는 11일까지 하루평균 142억원이 공급됐다.    이날 회의에선 2022년도 정책서민금융 자금공급 실적에 대한 점검도 이뤄졌다.    2022년 정책서민금융 공급 규모는 전년보다 1조1천억원 늘어난 9조8천억원(잠정치)으로 역대 최대 수준을 기록했다.    인터넷 전문은행의 중·저신용자 대상 대출 비중은 2022년 말 기준 3개사(케이·카카오·토스) 모두 25% 이상을 달성했고, 이 비율을 올해 연말까지 30% 위로 끌어올린다는 계획을 세웠다.    중저신용자를 대상으로 한 중금리대출은 작년 3분기까지 누적 공급액이 총 22조8천억원으로 전년도 연간 공급액(21조6천억원)을 넘어섰다.    은행권 자체 재원으로 공급되는 새희망홀씨 대출의 경우 작년 1∼11월 공급액이 2조1천800억원으로 전년도 한 해 공급액(3조1천700억원)에 못 미치는 것으로 나타나 금융당국이 은행권에 적극적인 공급 노력을 당부했다.    이날 회의에는 금융위 외 금융감독원, 서민금융진흥원, 서민금융 관련 금융협회 관계자들이 참석했다.    pan@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2023.01.26.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>30일 등판하는 '토스 알뜰폰'..메기효과 기대감↑</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004960222?sid=105</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>오늘부터 사전신청..잔여 데이터 캐시백24시간 고객센터·토스페이 혜택 등 제공 토스모바일  토스모바일 [파이낸셜뉴스] 토스의 알뜰폰(MVNO) 서비스가 이달부터 제공된다. 토스판 알뜰폰은 잔여 데이터 캐시백과 토스페이 연계 혜택 등을 함께 제공할 예정이다.   26일 관련 업계에 따르면 모바일 금융 플랫폼 비바리퍼블리카(토스) 통신 자회사 토스모바일은 오는 30일 새로운 알뜰폰 요금제를 선보인다. 이를 앞두고 이날부터 서비스 사전신청을 시작했다.    토스모바일 앞서 토스는 지난해 10월 토스모바일 전신인 알뜰폰 업체 '머천드코리아'를 인수, 통신 시장 진출을 선언한 바 있다. 토스모바일은 가계통신비 인하와 더불어 새로운 통신 기준을 제시하겠다는 포부다.   토스모바일의 새로운 통신 서비스는 △미사용 데이터 캐시백 △24시간 고객센터 운영 △토스페이 결제 시 10% 캐시백 혜택 등을 제공할 예정이다.   향후 토스모바일은 이동통신망사업자(MNO) 사업자인 SK텔레콤, KT, LG유플러스 망을 이용해 동일한 데이터 품질을 선보일 계획이다. 토스모바일 세부 요금제는 서비스 오픈 시점에 공개될 예정이며, 총 4가지 타입으로 출시된다. 토스는 이번 통신 사업을 통해 2400만 사용자 대상으로 가계통신비 절감을 뒷받침하겠다는 목표도 제시했다. 지난해 마이데이터를 연동한 토스 사용자 중 92%가 MNO 가입자였다. MVNO 가입자 비중은 8%에 그쳤다.   토스는 "기존 통신3사 데이터·통화 무제한 요금제 사용 고객이 토스모바일 요금제로 변경할 경우 약 20% 이상의 통신비 절감 효과를 기대할 수 있다"고 설명했다.    토스 유튜브 캡처  토스 유튜브 캡처  토스 유튜브 캡처 한편 국내 MVNO 시장은 2011년 도입 이후 가입 회선 수가 꾸준히 늘어나며 지난해 1200만 회선을 뛰어넘었다. 토스는 알뜰폰 회선의 시장 점유율은 여전히 16%가량인 점을 감안했을 때 성장 여력이 있는 것으로 판단했다. 가입자의 약 70%가 20~30대에 집중돼 있는 것도 공략 포인트다.   이승훈 토스모바일 대표는 "토스가 금융 플랫폼으로서 간편송금, 주식거래, 인터넷뱅킹 등 다양한 금융서비스에서 혁신을 이뤄온 것처럼 통신 서비스 영역에서도 소비자들이 불편함을 느꼈던 부분을 개선해 나가겠다"며 "편리하고 직관적인 통신 서비스를 기반으로 다양한 혜택을 더해 새로운 통신 기준을 만들겠다"고 강조했다. #MVNO #토스 #통신 #알뜰폰 #요금제 #토스모바일</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2023.01.16.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>취약층 소액 긴급자금대출 한파…당국, 3월 1000억 원 공급 추진</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/658/0000030501?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>최대 100만 원 연 15.9% 검토- 일부 2금융권, 플랫폼 영업 중단- 역마진 우려 대부업계도 몸사려기준금리 인상으로 2금융권·대부업권 대출 중단 흐름이 심화하면서 저신용 서민이 불법 사금융으로 내몰릴 수 있다는 우려가 나온다. 이에 금융당국은 저신용층을 대상으로 한 ‘긴급 소액대출’ 출시를 서두르고 있다.15일 현재 캐피탈·저축은행 등 2금융권 업체 10여 곳은 토스 카카오페이 등 대출 중개 플랫폼을 통한 대출 신청을 막아둔 상태다. DGB캐피탈 웰컴캐피탈은 이달 말까지 신용대출 신청을 받지 않는다. 캐피털 업계 1위 현대캐피탈도 지난해 말부터 외부 플랫폼을 통한 신규 대출 영업을 중단했다.예가람·대신·고려·DB저축은행 등은 ‘햇살론’ 신청도 받지 않는다. 햇살론은 저소득·저신용층을 위한 정책금융상품이다. 금융당국은 지난해 말 조달금리 급등으로 역마진이 우려된다는 금융사들 의견을 반영해 햇살론 대출금리 상한을 이달 초부터 연 10.5%에서 11.5%로 1.0%포인트 올렸다. 햇살론 최고금리 인상은 7년 만이다. 그러나 업계는 원가 상승 대비 인상분이 적어 역마진 우려가 여전하다고 주장한다.대부업계도 마진이 남지 않는다며 대출 취급을 중단하고 있다. 업계 1위 아프로파이낸셜대부(러시 앤 캐시)는 지난달 26일 신규 대출을 중단했다. “대출 취급 중단은 바람직하지 않다. 유연하게 대응해 달라”는 금융당국의 공개 메시지가 먹히지 않고 있다. 이 때문에 급전이 필요한 서민이 연 수십~수백% 살인적 금리를 적용하는 무등록 대부업체나 사채 시장으로 이동할 가능성이 제기된다. 금융감독원 불법 사금융 피해 신고센터의 신고 건수는 2020년 7351건에서 2021년 9238건으로 늘었고, 지난해는 8월까지 6785건에 달했다. 금감원의 불법 사금융 수사 의뢰 건수도 2020년 52건에서 2021년 633건으로 급증했고, 지난해는 8월 기준으로 314건이었다.이에 금융당국은 정책금융을 확대하기로 했다. 우선 연체 이력을 따지지 않고 50만~100만 원의 긴급 생계비를 즉시 대출해주는 프로그램을 이르면 오는 3월 출시한다. 총공급 목표는 1000억 원이다. 금리는 연 15.9%를 적용할 것으로 보인다. 신용점수 하위 10% 이하인 최저 신용자를 대상으로 특례 보증 상품 공급도 늘린다. 지난해 9월 출시된 이 보증 상품은 3개월 만에 1000억 원 이상 취급됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2023.01.26.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>글로벌 VC 투자 4분기 연속 감소…2년만에 최저치</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002094922?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>KPMG 보고서투자회수 규모도 전년比 급감삼정KPMG 제공[헤럴드경제=김상훈 기자] 글로벌 벤처캐피털(VC) 투자가 4분기 연속 감소해 2년 만에 최저치를 기록한 것으로 나타났다.글로벌 회계·컨설팅기업 KPMG 인터내셔널이 26일 발간한 보고서(Venture Pulse Q4 2022)에 따르면, 2022년 4분기 글로벌 VC 투자는 7641건의 거래로 756억 달러에 그쳤다. 전 분기 9767건, 1022억 달러 대비 거래 건수와 규모가 모두 급감한 것으로 2019년 2분기 이후 최저 수준으로 떨어졌다.보고서는 인플레이션 및 급격한 금리 인상 등 글로벌 불확실성으로 인해 VC 시장이 얼어붙어 있으며, 올 1분기까지 전세계적으로 자금 조달에 어려움을 겪을 것으로 전망했다. 다만 ESG(환경·사회·지배구조) 및 지정학적 리스크로 인한 에너지 자립의 중요성이 대두되면서 전기차와 같은 대체 에너지 기술 및 발전·분배 등 에너지 분야와 ESG 관련 솔루션에 대한 VC 투자자들의 관심이 쏠리고 있다고 분석했다.글로벌 벤처캐피털의 엑시트(투자회수) 활동도 2021년 4174건, 1조4270억 달러에서 2022년 2997건 3088억 달러로 전년 대비 크게 하락했으며, 엑시트 규모가 7532억 달러에서 714억 달러로 무려 90% 감소한 미국에서 가장 두드러졌다.올해 1분기를 앞두고 소비재 중심의 기업들이 가장 부담을 느낄 것으로 예상되는 가운데 보고서는 전세계 벤처캐피털 투자가 여전히 저조할 것으로 예상했다. 특히 미국의 IPO 장은 올해도 주춤할 것으로 보이며, 기업들의 현금이 마르면서 기존보다 몸값을 낮춰 투자를 받는 다운라운드가 늘고 인수합병(M&amp;A) 활동도 증가할 것으로 내다봤다.한편, 지난해 4분기 중국의 광저우자동차그룹 산하 전기차 브랜드인 아이온이 25억6000만 달러의 가장 큰 투자금 유치에 성공했고, 온라인 패션브랜드 셰인 10억 달러, SPIC 수소에너지 6억3100만 달러, 보야카 테크놀로지 6억3000만 달러, 에스윈 머티리얼 5억6200만 달러, 페이홍 테크놀로지 5억3700만 달러를 조달하는 등 중국이 아시아태평양지역 내 10대 메가딜에서 7개를 차지했다. 한국은 토스(4억500만 달러)가 8위에 올랐다.김이동 삼정KPMG 부대표는 “유럽의 지속적인 에너지 위기와 기후 변화 등 지속가능성을 고려할 때, 투자자들은 대체 에너지 기술, 전기 및 수소 동력 차량, 배터리 저장 기술 등에 계속 눈길을 돌릴 것”이며 “전세계적으로 사이버보안, 생명공학, 레그테크 및 밀리터리 애플리케이션에도 많은 관심이 몰릴 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2023.01.16.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>보험 비교 서비스 출시 '깜깜'…대리점 반발에 '미궁'</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002675853?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>금융위, 업권별 간담회로 '재시동'GA "상품 구조 어려워 효율성 낮아"서울 시내의 한 교차로 횡단보도 앞에서 한 시민이 보행자 신호를 기다리며 스마트폰을 바라보고 있다.(자료사진) ⓒ연합뉴스[데일리안 = 김재은 기자] 금융당국이 온라인에서 보험 상품을 비교하고 추천할 수 있도록 하는 방안을 공식 추진한 지 벌써 반 년이 다 돼 가고 있지만, 실질적인 서비스 개시는 여전히 '함흥차사'다. 보험대리점(GA)업계의 생존권을 위협한다는 반대의견이 나오면서 플랫폼사와의 이견이 좁혀지지 않고 있어서다.금융위원회가 간담회 등 소통의 자리를 다시 마련하고 있지만, 빠른 시일 내 각자의 의견 차이를 극복하는 건 어려울 것이란 전망이다.16일 금융권에 따르면 지난해 8월 혁신금융서비스로 지정된 온라인 보험 비교·추천 서비스는 여전히 출시가 미뤄지고 있다. 업권별 간담회를 지속적으로 진행하고 있음에도 불구하고 구체적인 실행 방안이 나오지 않고 있다.이는 GA업계의 거센 반발 때문이다. 플랫폼사가 보험 시장에 진출할 경우 설계사들의 소득이 줄고 결국 일자리 감소까지 이어질 수 있기 때문이다.지난해까지 신종코로나바이러스감염증으로 대면 영업에 어려움을 겪어왔던 설계사들이 보험 비교 서비스 출시에 또 한번 난관을 맞은 셈이다.보험 상품을 비교 및 추천해주는 것은 본래 설계사들의 몫이었다. 상품이 다양하고 복잡한 탓에 소비자가 일일이 비교하는 것보다 설계사들의 도움을 받는 것이 빠르고 편하기 때문이다. 효율성에 대한 논의도 필요하다. 현재 자동차보험 외에는 상품이 복잡하고 이해하기 어려워 온라인채널에서 판매가 잘 되지 않고 있다.한국보험대리점협회는 지난해 10월 온라인플랫폼 보험진출 저지 2차 결의대회에서 "온라인플랫폼의 비교추천만으로는 소비자가 원하는 상품을 제공할 수 없으며, 온라인플랫폼을 위한 사업비 부과로 인한 소비자의 보험료 부담이 증가한다"며 "보장 내용이 복잡하고 불완전판매 가능성이 높은 장기 보장상품 취급으로 민원 유발 등 소비자 편익성이 저하될 것"이라고 강조했다.이들은 "은행·증권과 달리 보험산업에만 모집조직이 존재하는 건 전문적인 설명과 안내가 필요한 보험의 보장기능 때문"이라며 강력한 입장을 고수하고 있다.올해도 이 같은 입장에는 변화가 없을 것으로 보인다. 조경민 한국보험대리점협회장은 신년사를 통해 "지난해 우리는 온라인플랫폼의 보험진출 저지활동에 45만 보험영업인이 한마음이 돼 개인보험대리점과 법인보험대리점, 영업가족 6000여명이 광화문에 집결해 보험대리점업계 의견을 강력히 천명하고 관철시키는 성과를 이뤄냈다"며 "올해도 빅테크,핀테크 등 온라인플랫폼의 보험진출에 대해 적극 대응하겠다"고 밝혔다.조 회장은 "지난해 네이버, 카카오, 토스 등 온라인플랫폼의 보험상품 비교·추천을 통한 보험시장 진출을 일시 저지하는 성과를 이뤘으나 2023년도에도 다시 한번 단합된 힘과 큰 목소리가 필요하다"며 적극적인 연대를 독려했다.업계에 따르면 금융위는 지난 13일부터 온라인 보험 비교·추천 서비스와 관련해 다시 간담회를 추진하고 있다. 다만 GA업계의 입장이 강경한 만큼 이견을 좁히는 것은 쉽지 않을 것으로 전망된다.보험업계 관계자는 "서비스 개시와 관련해 첫 상품이나 수수료율 등도 주요 쟁점"이라며 "해결해야 할 과제가 산적해있어 당장 시행하기는 힘들 것"이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2023.01.30.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>한빛소프트 그라나도에스파다, 석궁 심판관 ‘안젤릭’ 출시</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002141502?sid=105</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>[디지털데일리 오병훈 기자] PC 다중접속역할수행게임(MMORPG) ‘그라나도에스파다’에 새로운 원거리 공격 캐릭터가 추가된다.   한빛소프트는 아이엠씨게임즈(IMCGAMES)에서 개발한 그라나도에스파다에 올해 첫 신규 캐릭터 ‘안젤릭’이 출시됐다고 30일 밝혔다.   안젤릭은 ‘아르모니아 교단’ 내 징벌 조직인 ‘칼룸 그라디오’ 견습 심판관으로, 은신이 특기이며 17세 어린 나이지만 타고난 재능으로 거대한 석궁을 자유롭게 다루는 캐릭터다.   안젤릭은 다른 능력치에 비해 기술 능력치가 높은 편이며, 민첩 능력치도 준수하다. 방어구는 로브 또는 코트를 입는다. 전용 스탠스로는 백색 감시자 마력을 계승한 ‘아탈란테’를, 직업 스킬로 ‘크리셀라카토스’를 사용한다. 직업 스킬은 사용 때마다 공격 능력치를 올려주는 ‘스코페프티스’ 또는 은신 상태가 되는 ‘크리보’로 변경된다.   그라나도에스파다 관계자는 “강력한 딜량을 보유한 석궁 캐릭터를 5년만에 선보이게 됐다”며 “안젤릭과 함께 올해도 새로운 모험과 전투를 경험하길 바란다”고 말했다.   한편, 그라나도에스파다'는 일반적으로 1개 캐릭터를 조작·육성하는 기존 MMORPG와는 달리 3개 캐릭터를 동시 운영하는 멀티캐릭터컨트롤(Multi Character Control) 시스템을 채택한 PC 게임이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2023.01.20.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>세뱃돈 보관하러 편의점 간다…CU 충전서비스 인기</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/658/0000030990?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>간편 결제 선호하는 10대 호응…세븐일레븐은 세뱃돈봉투 출시세뱃돈 받는 10대를 겨냥해 편의점 업계가 다양한 서비스를 내놨다.세븐일레븐이 판매하는 ‘산리오 캐릭터즈 팬시 봉투’와 스티커. 세븐일레븐 제공CU는 현금으로 받은 세뱃돈을 애플리케이션에 넣어 보관·사용할 수 있는 ‘현금 충전 서비스’가 인기를 끌고 있다고 19일 밝혔다. 이 서비스는 CU에서 현금을 내면, 카드나 바코드에 금액을 충전할 수 있다. 충전된 금액은 온오프라인에 관계없이 사용할 수 있다. 현재 운영 중인 현금 충전 서비스는 ▷SEND ▷네이버 페이 ▷KB국민 리브 Next ▷신한 제페토카드 ▷토스 머니 등 5종이다.서비스는 간편 결제를 선호하는 Z세대에 초점을 맞췄다. 10대는 주로 현금으로 용돈을 받아 생활한다. 온라인 쇼핑이 보편화된 상황에서, 온오프라인에 구애받지 않고 쓸 수 있는 이점이 호평받았다. 실제로 지난달 서비스 이용 건수는 처음 시행했던 2021년 8월보다 437.1% 증가했다. CU 관계자는 “Z세대 고객의 결제 편의를 돕기 위해 제휴사와 함께 서비스를 제공하고 있다. 현금 유통이 많은 명절 기간에도 유용하게 서비스를 이용했으면 한다”고 말했다.세븐일레븐은 10대에게 인기가 높은 ‘산리오’를 활용한 세뱃돈 봉투 ‘산리오 캐릭터즈 팬시 봉투’를 제작해 다음 달 28일까지 한정 판매한다. 이번에 공개한 제품은 ▷캐릭터즈 ▷마이멜로디 &amp; 쿠로미 총 2종이다. 각각 봉투 2매와 스티커 2매로 구성됐다. 5000원 이상 구매 때 1000원에, 별도로 구매하면 3000원에 살 수 있다. 세븐일레븐은 이번 팬시 봉투 출시를 시작으로 올 한 해 산리오와 함께 콜라보레이션 아트 워크(브랜드를 위해 단독으로 제작되는 아트 소스) 시리즈로 푸드 음료 등 다양한 카테고리 상품 및 콜라보 굿즈 시리즈를 선보일 계획이다.세븐일레븐 관계자는 “오랜 기간 사랑받아온 산리오 캐릭터인 만큼 아이들을 위한 세뱃돈 봉투로도, 다꾸(다이어리 꾸미기)에 진심인 MZ세대들을 위한 스티커 보관용 봉투로도 활용할 수 있을 것으로 기대한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2023.01.16.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>‘13월의 보너스’ 연말정산 서비스 개통</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003474125?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>간편인증 ‘토스’ 등 추가돼 11개로무주택자 월세 공제 17%까지 확대연말정산에 필요한 자료를 조회할 수 있는 연말정산 간소화 서비스가 15일부터 열렸다. 국세청은 이날부터 국세청 홈택스에서 신용카드 사용액 등 연말정산용 자료를 PDF 파일로 내려받거나 종이로 출력할 수 있다고 밝혔다. 소득·세액공제 자료는 매일 오전 8시부터 밤 12시까지 조회할 수 있다. 특히 올해는 간편 인증이 지난해보다 확대됐다. 카카오톡, 통신사 패스(PASS) 등 기존에 활용할 수 있었던 인증 수단 7개에 토스, 하나은행, 농협, 뱅크샐러드 등 4개가 추가됐다. 총 11개의 간편 인증을 활용해 간소화 서비스에 접속할 수 있게 된 셈이다. 이번 연말정산에선 무주택 근로자의 월세에 대한 세액공제율이 높아졌다. 연봉 5500만 원 이하 세입자의 경우 월세 공제율이 12%에서 17%로, 연봉 5500만 원 초과 7000만 원 이하 세입자는 10%에서 15%로 각각 확대됐다. 예컨대 연봉이 5000만 원인 직장인이 매월 50만 원씩 월세를 냈다면 세액공제액이 72만 원에서 102만 원으로 30만 원 늘어난다. 지난해 낸 기부금에 대해선 1000만 원까지는 20%, 1000만 원이 넘는 금액은 35%까지 세액공제가 가능하다. 난임 시술비는 20%에서 30%로, 미숙아 및 선천성 이상아를 위한 의료비는 15%에서 20%로 각각 공제율이 높아졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2023.01.26.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>[기고] 대체재와 보완재가 필요한 고향사랑e음</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002677972?sid=110</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>[데일리안 = 데스크] 2023년 1월 1일, 전격 시행된 ‘고향사랑기부제’는 지역소멸 대응과 지역경제 활성화를 도모하는 제도로서 이목이 집중되고 있다. 고향사랑기부제는 지역이 스스로 재원을 확보하여 지역문제를 해결하는 혁신적인 제도이다.고향사랑e음 홈페이지ⓒ우리보다 앞서 제도를 시행한 일본 고향세 사례를 보면, 재난재해시 구호 재원을 신속하게 마련하고 지원 사각지대에 있는 사람들을 도울 수 있었다. 재해구호법 상 제약을 넘어, 피해 복구를 위한 다양한 프로젝트를 진행하고 빠른 일상회복을 꾀하는데 일등공신 역할을 해냈다는 평가도 받고 있다.행정안전부의 모금 플랫폼 ‘고향사랑e음’은 관리자의 편의성에 주목하여 구성된 것으로 보인다. 현재 우리 국민은 지자체명을 보고 기부한 뒤, 답례품 쇼핑몰에서 물건을 고르는 형태로만 이 제도에 참여할 수 있다.‘ㅇㅇ지역 고향사랑기부제는 어떤 지역문제를 해결하려고 운용되는가?’와 ‘나의 기부가 어떻게 지역문제 해결에 보탬이 되는가?’를 주도적으로 설명하는 것이 모금 플랫폼이어야만 한다. 기부자 마음을 관통해야 혁신적인 제도는 건강하게 우리 사회에 안착할 수 있을 것이다.고향사랑e음 Q&amp;A_600건 이상 질문은 대부분 기부 직관성과 결제 오류 등의 내용이다ⓒ일본 고향세는 왜 민간 플랫폼을 선택했을까.우리보다 앞서 제도를 시행한 일본은 40여개 고향세 민간 플랫폼이 제도의 취지와 성격에 맞춰 8조원이 훌쩍 넘는 재원을 모금 중에 있다.지난 해 12월, 폭설로 피해 입은 에히메현 구만코겐쵸는 긴급히 고향세 모금을 시작했다. 이들은 일본 고향세 민간 플랫폼인‘후루사토초이스’의 힘을 빌렸다. 후루사토초이스는 재난재해 모금을 위한 별도 페이지를 운영하기도 한다. 재난재해 모금의 경우, 기부자도 답례품을 받길 원하지 않는 경우가 많고, 모금하는 지자체 역시 재난 대응에 매진하느라 답례품 발송 업무 처리 등이 어려워 답례품을 제공하지 않는 경우가 많다.참고로, 고향사랑e음은 기부하면 기부금액의 30%가 답례품 쇼핑몰 포인트로 발생된다. 답례품은 말 그대로 ‘답례’의 성격인데, 이렇게 접근하면 상품으로 인식되고 가격이 노출되는 문제가 생긴다. 물량이 적고, 소농 내진 소상공인이 참여할 것으로 보이는 답례품 공급망은 일반 쇼핑몰에 비해 가격이 비쌀 가능성이 있다. 답례품은 답례품으로만 인지되게 설계를 치밀하게 해야 할 필요가 있다.일본 최대 민간플랫폼 후루사토초이스_재난재해를 위한 모금 페이지가 별도로 있다. 재난재해의 경우, 상당수 기부자들은 답례품을 선택하지 않고 온전히 기부한다ⓒ가고시마현 이즈미시는 지난해 11월, 조류독감 9건이 발생해 산란계의 40%에 해당되는 120만마리 닭을 살처분했다. 이즈미시는 양계농가를 지키기 위해 역시 후루사토초이스에 모금함을 연다. 재난재해의 경우, 모금 후 2일 내에 모금액이 지자체로 지급된다. 고향세 모금은 어떤 법에도 저촉 받지 않고, 지자체가 정의한 적재적소에 지원되는 강점을 가지고 있다. 해당 모금은 즉각적으로 이즈마시 농가에 수산화칼슘, 소독액 배부, 차량 소독 등 방역 및 피해복구에 쓰이게 된다.후루사토초이스는 기부자에게 기부 이후 소식도 충실히 전달하고 있다. 우리법에서 금지한 전자적 전송매체(이메일)를 통해 기부금이 어떻게 쓰이는지, 지역의 어떤 변화와 혁신이 일어나는지 등을 피드백한다. 이런 피드백이 기부자의 만족도를 높여 지속적인 기부로 연결되는 역할을 한다.일본 지자체가 민간 플랫폼을 활용하는 이유는 기민하게 대응하고 효과적인 모금을 해내기 때문이다. 지역에 위급한 문제가 발생하면 지역 공무원은 현장에서 발 빠르게 움직여야 한다. 일본의 민간 플랫폼은 지역의 위급한 문제가 발생하면 효과적인 모금 방식을 제안하며 곧장 대응한다.일본 최대 민간 플랫폼 후루사토쵸이스 지정기부 페이지_네이버해피빈과 유사하게 메인 화면이 구성되어 있다ⓒ혹자는 민간 플랫폼이 취하는 모금 수수료를 비판하는 경우가 있다. 고향사랑e음은 243개 지자체에게 분담금을 걷어 만들어진 시스템이다. 243개 지자체에게 구축비용 70억 3000만원, 운영비용 20억원 가량을 균등하게 걷었다는 보도를 접했다. 개선비용과 운영비용은 매년 걷어야만 하는 비용일 것이다.일본은 모금 액수의 일정 비율을 수수료로 민간 플랫폼에 지급하는 구조이다. 우리나라 기부단체 역시 대행을 맡길 때, 법으로 정해진 일정 비율의 수수료를 지급한다. 효율성을 따져볼 필요가 있다.지난 해 11월, 행정안전부와 울산광역시가 주최한 ‘2022 고향사랑기부제 국제 포럼: 청년의 새로운 기회와 지역활성화’에서 일본 민간 플랫폼이 중요한 역할을 하게끔 제도를 지원한 후루카와 야스시 중의원이 발언이 인상적이었다."고향세 민간 플랫폼은 기부자 입장에서 직관적으로 기부하기 쉽게 설계되어 있다. 특히 트렌드에 맞춰 (플랫폼을)운영하려면 막대한 비용과 인력이 드는데, 공공이 운영하는 것은 효율적이지 않다"고향사랑e음과 다르게 모금 주제부터 분명히 밝히고 있는 네이버해피빈_한국은 연간 민간기부 시장이 14조원에 달하는 나라이다ⓒ고향세 민간플랫폼의 등장과 고향세 성공일본 고향세 제도는 2008년부터 시행된다. 시행 초기 모금액은 100억엔 수준에 머물렀다. 민간 플랫폼 후루사토초이스 등장 이후, 모금액은 비약적으로 성장한다. 사토후루, 후루나비, 라쿠텐후루사토납세 등 민간 플랫폼이 연이어 증가하면서, 모금 초기에 비해 100배 이상 성장해 왔다.모든 것을 민간에 맡기자는 것이 아니다. 정치후원금은 중앙선거관리위원회 ‘정치후원금센터’에서 낼 수 있지만, 지난 지방선거 때 민간 플랫폼 ‘토스(toss)’나 ‘도너스’에서도 낼 수 있었다. 일반기부금은 행정안전부 ‘1365 기부포털’에서 낼 수 있지만, 국민들은 민간 플랫폼 ‘네이버 해피빈’이나 ‘다음 같이가치’에서 기부하길 선호한다.고향사랑e음이 현재와 같이 설계된 데에는 관리의 용이함이 존재할 것으로 보인다. 민간 플랫폼과 공존의 방향 역시 존재할 것으로 보인다. 어렵게 시작한 고향사랑기부제는 위기의 지역에 희망이 될 수 있다. 행정안전부가 고향사랑e음을 대체하고 보완할 수많은 플랫폼의 산파가 되길 기원한다.글/정법모 부경대학교 국제지역학부 교수(itwins@pknu.ac.kr)</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2023.01.19.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>“직원이 이래도 돼?” 당구 치고 게임하고…살맛나는 회사 어디길래</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002093247?sid=105</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>구글코리아 본사 '게임룸'. 직원들이 자유롭게 쉬면서 당구를 치거나 게임을 할 수 있다. [구글코리아 공식 유튜브 채널][헤럴드경제=박로명 기자] 직장인 소셜 플랫폼 블라인드는 지난해 재직자 행복도를 살핀 '블라인드 지수 2022' 조사에서 높은 점수를 받은 국내 기업 10개 사를 선정해 19일 발표했다.100점 만점 중 75점으로 1위를 차지한 구글코리아에 이어 우아한형제들(배달의민족 운영사), 비바리퍼블리카(토스 운영사), SK텔레콤, SK이노베이션, 애플코리아, 한국남동발전, 아마존, 두나무, 넥슨이 순위권에 들었다.구글코리아 본사. [구글코리아 공식 유튜브 채널]구글코리아 식당 점심 메뉴. [구글코리아 공식 유튜브 채널]구글코리아는 어떤 의견을 제시해도 조직이 부정적으로 평가하지 않을 거라고 믿는 정도를 나타내는 '심리적 안전감' 부문에서 최고점을 받으며 4년 연속 행복도 최상위 기업으로 선정됐다.구글코리아는 직원들을 위한 자유로운 근무환경 마련에도 앞장서고 있다. 구글코리아 본사에는 카페·마이크로키친·식당뿐 아니라 당구대·축구 게임기 등이 있는 게임룸도 마련돼 있다. 지난해엔 레트로 게임기를 빌려와 게임 대회를 열기도 했다.구글코리아 본사 [구글코리아 공식 유튜브 채널]구글코리아 본사 '게임룸'. 직원들이 자유롭게 쉬면서 당구를 치거나 게임을 할 수 있다. [구글코리아 공식 유튜브 채널]한편 이번 조사는 직장인 총 5만7319명이 각자 재직 중인 회사에서 느끼는 주관적 행복도를 일·관계·사내 문화 3가지 영역으로 나눠 평가했다. 전체 직장인의 평균 행복도는 40점으로, 2021년과 비슷한 수준이었다.블라인드 자문 위원인 한국노동연구원 이정희 연구위원과 일본 사이타마 대학교 노성철 교수는 "코로나19 위기를 거치며 한국 직장인들이 일에서 느끼는 만족도는 낮아졌고, 조직과 구성원의 거리는 벌어졌다"고 설명했다.이들은 "그러나 직장에서 자유롭게 목소리를 낼 수 있다고 인식하는 사람일수록 조직 만족도는 높다는 점이 흥미로웠다"면서 "구성원들의 조직 만족도를 고민하는 많은 기업에 구성원 발언 채널 마련의 필요성을 시사하는 결과"라고 해석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2023.01.19.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>‘알뜰폰 도매대가 규제 폐지’ 논란 2라운드 돌입</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004958139?sid=105</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>과기정통부, 도매대가 인하 등 알뜰폰 활성화 vs.국회 과방위 윤영찬 의원 단계적 폐지 입법 추진   서울 시내에 위치한 알뜰폰 스퀘어 매장 모습. 2022.6.21/뉴스1 ⓒ News1 임세영 기자 /사진=뉴스1[파이낸셜뉴스] 과학기술정보통신부 등 정부가 도매대가 인하와 도매제공 의무제도 유효기간 연장 등 알뜰폰(MVNO) 활성화에 나선 가운데 국회가 알뜰폰 도매대가 규제 폐지를 추진하고 나섰다. 알뜰폰 도매대가 논란이 새 국면을 맞은 모습이다. 도매대가는 SK텔레콤 등 기간통신사업자가 알뜰폰 사업자에게 통신 서비스를 위한 망을 빌려주는 대가로 받는 요금을 말한다.   19일 업계에 따르면 국회 과학기술정보방송통신위원회(과방위) 더불어민주당 윤영찬 의원이 대표발의한 알뜰폰 도매대가 규제 폐지 법안은 정부 정책과 대립각을 세우고 있다. 앞서 윤 의원은 전기통신사업법 일부개정을 통해 도매대가 규제를 단계적으로 폐지, 시장자율에 맡기겠다고 밝혔다.   이른바 ‘도매제공의무사업자 제도’는 이동통신 시장 개편과 통신요금 경감 등을 위해 2010년부터 시행된 알뜰폰 지원 제도다. 제도 시행 후 알뜰폰 가입자는 2022년 기준 약 1263만명을 돌파, 전체 이동통신 시장의 16.4%를 차지하는 등 안정적인 성장세에 접어들고 있다. 당초 이 제도는 3년 일몰제로 지난해 9월 만료됐지만 정부는 도매대가의무 유효기간 연장을 추진하겠다고 밝혔다.   하지만 알뜰폰 산업이 지속적으로 성장하기 위해서는 알뜰폰 사업자도 규모에 맞는 설비 투자를 통해 소비자들에게 양질의 서비스를 제공해야 한다는 게 윤 의원 측 설명이다. 실제 도매제공 의무제도와 대가규제는 경쟁상황이나 해외사례 등에 비춰봤을 때 과도한 규제라는 주장도 나온다. 또 도매제공 의무제도에 따라 규제 이익에 기댄 일부 중소 사업자가 난립, 시장 왜곡과 이용자 피해가 발생하고 있다는 지적이다.   또 도매대가 규제 폐지로 인해 대가가 인상될지도 모른다는 알뜰폰업계 우려를 해소하기 위해 윤 의원은 정부 심사에 따라 협정신고(통신사와 알뜰폰사간 도매 대가 약정)를 반려할 수 있게 하는 ‘시정명령권’도 부여했다.   업계 역시 도매제공 의무제도가 당장 폐지되더라도 이동통신시장 경쟁이 위축되지 않을 것이란 분위기다.   의무가 폐지되더라도 SK텔레콤 등이 기존 계약을 일방적으로 해지하거나 도매 제공을 중단하는 것은 불가능하다는 것이다. 또 지금 SKT처럼 의무 사업자가 아닌 KT, LG유플러스도 적극적인 도매제공에 나서고 있어 의무화 근거가 약하다는 주장도 설득력을 얻고 있다.   업계 관계자는 “KB국민은행은 물론 토스 알뜰폰 ‘토스 모바일’도 나오는 등 자금력을 갖춘 금융권의 알뜰폰 추가 진입이 예상되고 있어 향후 알뜰폰 시장 경쟁은 더욱 격화될 것”이라며 “의무제도가 폐지되더라도 알뜰폰 시장 존속이나 경쟁 위축이 이뤄질 가능성은 낮다”고 말했다.   사후규제를 통해 시장 경쟁을 촉진해야 한다는 지적도 나온다. 또다른 업계 관계자는 "도매제공 의무와 사전적인 대가규제를 폐지해 역량을 갖춘 사업자가 차별화 전략을 통해 시장에서 경쟁하도록 유도해야 한다"고 전했다. #윤영찬 #알뜰폰 #도매대가</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2023.01.27.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>글로벌 벤처캐피털 빙하기… 아시아 투자 석달 새 30% 줄어 226억달러</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000889955?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>지난해 4분기 글로벌 VC 투자가 7641건, 756억달러를 기록해 직전 분기(9767건·1022억달러) 대비 급감했다. /사진=이미지투데이 글로벌 벤처캐피털(VC) 투자가 4분기 연속 감소해 2년 만에 최저치를 기록한 것으로 나타났다. 아시아에 대한 투자는 1분기 만에 30%가 감소했다.글로벌 회계·컨설팅기업 KPMG 인터내셔널은 지난 26일 발간한 보고서에서 지난해 4분기 글로벌 VC 투자가 7641건, 756억달러를 기록했다고 밝혔다. 직전 분기(9767건·1022억달러) 대비 거래 건수와 규모가 급감해 2019년 2분기 이후 최저 수준으로 떨어졌다.  보고서는 인플레이션과 금리 인상 등 경제 불확실성으로 인해 VC 시장이 얼어붙고, 올 1분기까지 전 세계적으로 자금 조달에 어려움을 겪을 것이라고 전망했다. 그러나 ESG(환경·사회·지배구조)와 지정학적 리스크로 인한 에너지 자립의 중요성이 대두되면서 전기차와 같은 대체 에너지 기술, 발전·분배 등 에너지 분야와 ESG 솔루션에 대한 VC 투자자들의 관심이 쏠리고 있다고 분석했다. 지난해 4분기 VC 투자는 미주와 유럽, 아시아 등 모든 지역에서 거래 건수와 투자 규모가 감소했다. 아시아에 대한 VC 투자는 2022년 3분기 3052건, 304억달러에서 4분기 2157건, 226억달러로 투자 건수와 금액 둘 다 30%가량 줄어든 것으로 집계됐다. CVC(Corporate Venture Capital·기업주도형 벤처캐피털) 투자도 4분기 연속 감소했다. CVC 관련 총 투자액은 2021년 4분기 1080억달러에서 2022년 4분기 365억달러로 1년 새 약 70% 줄어든 양상을 보였다.글로벌 벤처캐피털의 엑시트(투자회수) 활동도 2021년 4174건, 1조4270억달러에서 2022년 2997건, 3088억달러로 전년 대비 하락했다. 미국 시장의 엑시트 규모는 7532억달러에서 714억달러로 무려 90% 감소했다.소비재 중심 기업들이 가장 부담을 느낄 것으로 예상되는 가운데 올해에도 전 세계 벤처캐피털 투자는 여전히 저조할 것으로 예상됐다. 특히 미국의 기업공개(IPO) 시장은 올해도 주춤할 것으로 전망된다. 인수·합병(M&amp;A) 활동은 증가할 것으로 보인다. 중국이 아시아태평양 내 10대 메가딜 상위 7개를 차지한 가운데 한국은 토스(4억500만 달러)가 8위에 올랐다. 김이동 삼정KPMG 부대표는 "유럽의 에너지 위기와 기후 변화 등을 고려할 때 투자자들은 대체 에너지 기술, 전기·수소 차량, 배터리 저장 기술 등으로 눈길을 돌릴 것"이라며 "사이버보안, 생명공학, 레그테크(규제·기술 합성어), 밀리터리 앱에도 많은 관심이 몰릴 것"이라고 전망했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2023.01.20.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>이석준 농협금융 회장, 첫 경영전략회의 "초일류 금융지주" 강조</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003252951?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>NH농협금융지주는 19일 경기 고양 소재 NH인재원에서 2023 신년 경영전략회의를 개최하고, 우수 자회사를 시상했다. 이석준(왼쪽부터) NH농협금융지주 회장, 최광수 NH저축은행 대표, 서옥원 NH농협캐피탈 대표, 임동순 NH-Amundi 자산운용 대표, 최문섭 NH농협손해보험 대표, 박병규 NH농협은행 수석부행장이 시상 후 기념촬영을 하고 있다. NH농협금융지주이석준 NH농협금융지주 회장이 첫 경영전략회의에서 '초일류 금융지주'를 강조했다.농협금융은 지난 19일 경기 고양 소개 NH인재원에서 '2023 신년 경영전략회의'를 개최했다고 20일 밝혔다.이번 회의는 이달 임기를 시작한 이석준 회장 주재로 개최된 첫 회의에는 이 회장을 비롯한 계열사 대표이사(CEO), 전 집행간부 및 주요 부서장 등 약 80여명이 참석했다.이 회장은 "지난해 불확실한 대내외 여건 속에서도 농협금융이 소기의 경영 성과 및 미래 성장 기반을 확충할 수 있었던 건 농협금융 임직원 모두가 하나돼 노력한 결과"라고 격려했다.아울러 이날 회의 참석자 전원은 고객과의 소통, 디지털 혁신, 시너지 확대 등을 주제로 자율 토론을 실시했다. 이승건 비바리퍼블리카(토스) 대표가 외부 특강 연사로 나서 디지털 금융의 방향성 및 중요성에 대해 강의하기도 했다.이 회장은 전 계열사와 가진 소통 자리에서 "각자가 맡고 있는 업무부터 1등이 되면 그 1등이 모이고 모여 농협금융이 초일류 금융지주가 될 수 있다"며 "끊임없이 고민하고 과감하며 속도감 있게 실행해야만 우리 목표를 달성할 수 있다"고 말했다. 그는 이어 "세계 최초의 금융 서비스로 세상을 놀라게 하고, 상생의 가치로 고객을 감동시키자"고 당부했다.권지예 기자 kwonjiye@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2023.01.16.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>토스뱅크, 전문연구요원 병역지정업체 선정…두 자릿수 선발</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006578141?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>(서울=뉴스1) 서상혁 기자 = 토스뱅크는 병무청으로부터 전문연구요원 병역지정업체로 선정됐다고 16일 밝혔다. 이를 통해 두자릿수 규모의 전문연구요원을 선발할 계획이다.모집 분야는 토스뱅크의 개발 및 데이터 관련 직군 전반이다. △Core Banking Developer △Data Analyst △Data Engineer △DevOps Engineer △Frontend Developer △ML Engineer △ML Modeler △Node.js Developer △Server Developer 등 총 10개 분야다.선발된 전문연구요원들은 토스뱅크의 임직원과 동일한 근무여건 속에서 근무한다. 처우 역시 정규직 직원과 동일하다.대상은 이공계 석사 학위 이상을 보유한 군복무 예정자다. 2023년 2월 졸업예정자도 포함된다. 신규편입은 물론 전직이나 보충역도 지원 가능하지만, 전직하는 전문연구요원의 경우 1년 6개월 이상 복무 이력을 갖추고 있어야 한다. 토스뱅크 관계자는 "젊고 참신한 인재들과 함께 '토스뱅크의 미래'를 만들어간다는 측면에서 의미가 있다"며 "이공계 전문인력의 연구 공백을 막고, 토스뱅크가 추구하는 혁신을 이어가는 윈윈(win-win)이 될 것"이라고 말했다.전문연구요원제도는 36개월간 병무청이 지정한 병역 특혜 지정업체에서 연구개발 업무를 수행하며, 군 복무를 인정받는 제도다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2023.01.20.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>"엄마폰에서 피싱이?"…토스, '가족 보안 알리미' 서비스</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005409930?sid=105</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>유저가 가족으로 등록하면 이상 거래 발생 시 알림 메시지(사진=토스)[이데일리 김국배 기자] 금융 앱 토스를 운영하는 비바리퍼블리카가 구정 연휴를 앞두고 ‘가족 보안 알리미’ 서비스를 내놨다.이는 사기 의심 거래를 탐지해 이용자가 설정한 가족에게 알림을 보내주는 서비스다. 의심 거래가 발생하면 연결된 가족에게 피해 발생 날짜, 피싱, 중고 거래, 명의 도용 등의 금융 사고 유형이 표시된다. 알림은 토스 앱 푸시나 카카오톡 알림톡으로 전달된다.회사 측은 “범죄 상황 노출 시 당사자가 심리적으로 위축돼 사후 처리가 미흡해진다는 점에 착안해 금융 사고 내용을 가족에게 발빠르게 공유하고 피해를 최소화하기 위해 개발됐다”고 설명했다.알림 뿐 아니라 피해를 최소화할 방법도 안내된다. 계좌·카드 분실 신고, 사고 예방 시스템 등록법 등이 담겨있다. 피해자는 토스 고객센터에 피해 구제를 위한 안심 보상제를 신청할 수 있다.토스 관계자는 “나날이 진화하는 범행 수법으로부터 소중한 자산을 지키기 위해서는 다양한 사전 예방책과 사후 해결책이 필요하다”며 “토스는 금융 의심 거래의 패턴을 확인하고 사고의 시작부터 끝까지 책임지는 서비스를 지속적으로 만들어 나갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2023.01.19.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>카드·캐피탈 대출금리 요지부동 왜?</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002093046?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>은행은 내리는데 18% 고공행진‘여전채’ 불확실성 아직도 상존연체율도 높아 신규대출 꺼려시중은행의 대출금리가 내리고 있지만, 카드사와 캐피탈사 등 제2 금융권의 금리는 여전히 고공행진 중이다. 레고랜드 사태 등으로 경색됐던 자금시장이 안정을 되찾고 있다는 점을 감안하면 선뜻 이해가 되지 않는 대목이다. 지난해 6% 넘게 치솟았던 여신전문금융채권(여전채)가 최근 하락세로 전환했지만, 정작 대출금리는 요지부동이어서다.불확실성이 원인이라는 분석이다. 한전채와 은행채를 비롯해 우량 회사채의 경우에는 수요가 되살아나고 있다고 하지만, 여전채의 경우에는 그렇지 못하다는 것이다. 여기에다 PF(프로젝트파이낸싱) 등 부실채권으로 여신전문금융사(여전사)들이 연체율 관리를 위해 대출 빗장을 꼭꼭 걸어 잠그고 있는 것도 한 몫하고 있다.▶신용 1등급 대출금리가 18%...여전히 ‘빗장’=19일 여신금융협회에 따르면 국내 13개 캐피탈사(오케이·한국·BNK·DGB·KB·롯데·메리츠·우리금융·하나·현대·JB우리·NH농협·미래에셋)는 900점을 초과한 신용점수를 가진 차주들에게 평균 10.72~18.30%에 신용대출을 제공하고 있다. 신용 1등급의 소비자에게 법정최고금리에 가까운 최대 18%대 대출이 취급되고 있는 것이다. 여기에 총 대출 차주 중 90%에게 16~20%대 금리로 대출을 취급하는 캐피탈사가 2곳에 달했다.대출을 취급하지 않는 곳도 있다. 대출중개플랫폼 토스에 따르면 저축은행 4곳과 캐피탈 3곳, 각각 1곳의 카드사와 보험사가 대출을 제공하지 않고 있다(NICE신용평가상 신용점수 930점 이상 기준). 카드사들도 현금서비스(단기대출)와 카드론(장기대출)의 한도를 대폭 줄여 엄격한 대출관리에 들어간 상황이다.▶여전채 연말 대비 0.765%포인트 떨어졌지만 수요↓=제2금융권의 대출금리가 내려오지 못하는 건 여전사들이 자금 조달에 애를 먹고 있기 때문이다. 은행의 경우 은행채 발행이 원활해지고, 또 당국이 예금금리 인하를 주문하면서 대출금리가 하락·안정화에 들어섰지만, 여전채의 경우 낮은 신뢰도 때문에 여전히 시장에서 수요가 낮다는 설명이다. 카드사는 은행의 예·적금처럼 수신기능이 없어 채권 등을 발행해 자금을 조달하는데, 대출금리가 안정화되기엔 아직 채권시장의 불확실성이 해소되지 못한 것이다.금융투자협회에 따르면 지난 13일 여전채(AA-) 3년물 금리는 5.256%로 지난해 말(6.021%) 대비 0.765%p(포인트) 내렸다. 통상 카드사들의 채권에 해당하는 금융채(AA+)도 4.766%로 이 역시 지난해 말(5.531%) 대비 0.767%포인트 내린 상황이다.그럼에도 시장에서 체감하는 여전채 시장은 여전히 얼어붙어 있다. 한 여전사 관계자는 “투자자 입장에서는 AA+ 이상 정도는 신뢰도 있는 채권이라고 생각하겠지만 그 밑으로는 더 리스크가 있다고 판단할 것”이라며 “기준금리가 안정되고, 아무리 여전사들의 신용대출 금리가 높더라도 시장이 어떻게 더 어려워질지 모른다는 불확실성이 남아있기 때문에 굳이 위험한 채권을 매입하려고 하지 않을 것”이라고 설명했다.PF대출 비중이 높은 캐피털사들이 자체적으로 건전성관리에 돌입한 것도 대출이 중단된 이유 중 하나다. NICE신용평가사에 따르면 지난 3분기 말 기준 국내 캐피탈사의 요주의이하자산비율은 3.3%로 지난해 동기 대비 0.2%포인트 올랐다. 부실채권 비중이 높아지고 있다는 뜻이다.한 캐피탈 업계 관계자는 “조달비용이 높고 연체율이 높아지는 상황에서 신규 대출을 늘리는 게 수익성에 도움이 안 돼 회사 내부적으로 고민이 많다”고 귀띔했다. 홍승희 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2023.01.19.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>직원들 행복한 회사 Top 3는 구글·배민·토스</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/586/0000051070?sid=101</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>구글 100점 만점에 75점으로 1위…4년 연속 행복도 최상위구글코리아가 4년 연속 직원 행복도 최상위 기업으로 선정됐다. ⓒ블라인드 제공직장인 소셜 플랫폼 블라인드는 지난해 재직자 행복도를 살핀 '블라인드 지수 2022' 조사에서 높은 점수를 받은 국내 기업 10개 사를 선정해 19일 발표했다.조사 결과, 구글코리아가 100점 만점 중 75점으로 1위를 차지했다. 이어 우아한형제들(배달의민족), 비바리퍼블리카(토스), SK텔레콤, SK이노베이션, 애플코리아, 한국남동발전, 아마존, 두나무, 넥슨 등이 10위권 내에 들었다.구글코리아는 '심리적 안전감' 부문에서 최고점을 받으며 4년 연속 행복도 최상위 기업으로 선정됐다. 심리적 안전감은 사내에서 어떤 의견을 제시해도 조직이 부정적으로 평가하지 않을 거라고 믿는 정도를 나타내는 지수다.이번 조사는 직장인 5만7319명이 각자 재직 중인 회사에서 느끼는 주관적 행복도를 일·관계·사내 문화 3가지 영역으로 나눠 평가했다. 지난해 전체 직장인의 평균 행복도는 40점으로, 2021년과 비슷한 수준이었다.블라인드 관계자는 "직장에서 자유롭게 목소리를 낼 수 있다고 인식하는 사람일수록 조직 만족도는 높다는 점이 흥미로웠다"며 "구성원들의 조직 만족도를 고민하는 많은 기업에 구성원 발언 채널 마련의 필요성을 시사하는 결과"라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2023.01.29.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>[ZD브리핑] 이번 주 꼭 챙겨봐야 할 뉴스</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002280933?sid=105</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>갤럭시S23 시리즈 언팩 주간...실내 마스크 착용 의무에서 권고로 변화2억 화소 갤럭시S23 시리즈 언팩 공개...실적 발표 이어져2월을 여는 이번 주에도 삼성전자(31일), SK하이닉스(1일) 등 주요 기업들의 실적 발표가 이어질 예정입니다. 앞서 삼성전자는 4분기 영업이익이 전년동기 대비 69% 가량 감소하는 '어닝 쇼크' 수준의 실적을 발표한 바 있습니다. 올해 1분기에도 반도체 경기불황의 지속으로 삼성전자와 SK하이닉스의 실적 악화는 지속될 전망입니다.삼성전자가 1일(현지시간) 미국 샌프란시스코에서 ‘갤럭시 언팩’ 행사를 열고 플래그십 스마트폰 '갤럭시S23' 시리즈 등 신제품을 공개합니다. 갤럭시S23 시리즈는 갤럭시S23, 갤럭시S23+, 갤럭시S23 울트라 등 모두 3종입니다. 특히 울트라 모델에는 세계 최초로 2억 화소 이미지 센서 '아이소셀 HP3'가 장착돼 카메라 성능이 크게 향상될 전망입니다.갤럭시S23 울트라 이미지 (사진=롤랜드 퀀트 트위터 @rquandt)아울러 '갤럭시북3' 시리즈도 함께 공개될 것으로 기대됩니다. 삼성전자는 '갤럭시S23' 출시를 통해 연초 프리미엄 스마트폰 시장 및 매출 확대에 박차를 가할 것으로 예상됩니다.간편송금에서 이젠 알뜰폰...토스모바일 뜬다토스가 이달 말 알뜰폰 시장에 진출합니다. 비바리퍼블리카가 토스 서비스를 내놓으면서 핀테크 서비스의 새로운 지평을 열었습니다. 알뜰폰이 새로운 수익 사업이 되기는 어려워 보이지만 기존 모바일 금융 서비스와 연계해 이용자를 묶어두는 전략이 예상됩니다.토스모바일 요금제토스의 알뜰폰 시장 진출도 초미의 관심사이지만, 기존 금융권의 알뜰폰 시장 진출 촉매가 될 수도 있습니다. 소비자 입장에선 통신 서비스 시장의 경쟁 확대에 따라 다양한 선택지를 둘 수 있지만 금융자본의 타 산업 잠식이란 금산분리 우려가 씻기지 않고 있는 터라 토스 자체보다는 그 이후의 시장 움직임을 주목할 필요성이 커지고 있습니다.2월부터는 통신업계의 연간 실적이 발표됩니다. 3일 가장 먼저 실적을 발표하는 LG유플러스는 창사 이후 처음으로 연간 영업이익 1조원을 넘어설 것으로 관측됩니다. 2021년에도 1조원 영업이익에 근접했었고, 재무적 성과는 더욱 좋아졌기 때문에 영업이익 1조원 돌파는 무난할 것으로 예상됩니다.카카오모빌리티 '가맹 택시 우대‘ 혐의, 공정위 심판대 오른다공정거래위원회가 카카오모빌리티의 택시 승객 호출 몰아주기 혐의와 관련해 2월1일 전원회의(법원 1심 기능)를 열고 제재 여부와 수위를 결정할 예정입니다.공정위는 국내 택시 호출 시장을 과반 이상 점유한 카카오모빌리티가 자사 택시 플랫폼 알고리즘을 조정, 가맹택시에 유리한 배차를 한 것으로 보고 있습니다. 이에 독점 규제 및 공정거래에 관한 법률상 시장지배력 지위 남용 행위로 간주해 왔습니다. 이 혐의는 2020년 택시 사업자단체 4곳이 카카오모빌리티가 가맹택시에 호출을 몰아주는 불공정행위를 하고 있다는 신고를 통해 공론화 됐습니다.(사진=카카오모빌리티)반면 카카오모빌리티는 관련 혐의를 적극 부인해 왔습니다. 카카오모빌리티 투명성 위원회는 지난해 9월 ‘알고리즘 코드 검증 결과를 내놓고 카카오T 택시 콜 이력 17억건을 조사한 결과 알고리즘상 조작이 없었다고 설명했습니다.대규모 플랫폼 기업에 대한 규제 수위를 높이려는 규제 당국 분위기와 맞물려, 이번 카카오모빌리티에 대한 제재 여부와 수위에 업계 관심이 더욱 커질 전망입니다.실내 마스크 착용 권고로...개인 건강 위해서는 착용이 도움이번주는 코로나19 팬데믹 기간동안 실내에서 의무적으로 착용해야 했던 마스크 방역 정책의 변화가 처음 적용됩니다. 당장 30일은 실내마스크 차용이 ‘의무’에서 ‘권고’로 전환되는 날입니다. 감염취약시설과 대중교통 등은 여전히 실내마스크 의무 착용이 의무되는 가운데, 현장에서는 혼선도 감지됩니다. 학교와 보육시설을 비롯해 헬스장, 수영장 등지에서의 착용 여부를 두고 갑론을박이 있습니다.지하철 마스크 착용 안내포스터지난해 서울아산병원 소속 간호사 사망 사건 이후 보건복지부는 필수의료를 강화하겠다는 입장을 여러번 밝혔습니다. 필수의료란, 응급・외상・감염・분만 등으로 필수 불가결한 의료서비스인데, 이미 의료현장에서는 해당 진료과들이 이른바 ‘기피과’로 전락한 지 오래입니다. 해당과의 전공의 지원은 지속적으로 감소하고 있는 상황에서 일할 의사가 없어 진료과를 폐쇄하는 병원들도 발생하고 있는 실정입니다. 복지부는 필수의료 강화를 구체적인 대책을 수립 중인데 관련한 구체적인 로드맵이 공개될지 여부에 관심이 쏠립니다.연준, 오는 1일 FOMC 금리 결정…아마존웹서비스-구글클라우드 실적 공개게임업계에서는 이번주 확률형 아이템 관련 규제법이 통과될지 주목을 받고 있습니다. 문화체육관광위원회는 오는 30일 오후 2시 법안소위를 열고 게임법 개정안을 심사합니다. 해당 개정안이 심사에 통과하면 31일 전체회의 이후 법제사법위원회와 본회의 의결 등을 통해 법적 효력을 갖게 됩니다. 게임법 개정안은 자율 규제와 강제 규제에 대한 의견 차이로 약 2년간 계류 중입니다.올해 처음 열리는 게임전시회도 있습니다. 오는 2일부터 3일까지 양일간 대만에서 개최되는 타이베이 게임쇼2023입니다. 올해는 한국, 일본, 동남아시아 등 25개국 275개 업체가 참가해 신작 등을 선보일 예정입니다. 컴투스는 행사 기간 서머너즈워: 크로니클을 출품합니다. 크로니클은 서머너즈워 IP 기반 최신작으로, 이르면 1분기 대만 출시 관련 소식을 전할지 주목을 받고 있습니다.제롬 파월 연준 의장 (사진=미국 연방준비제도이사회 홈페이지 영상 화면 캡처)소프트웨어 업계 소식입니다. 2일(현지시간) 아마존웹서비스(AWS)와 구글클라우드의 실적이 모기업의 실적공시와 함께 발표됩니다. 주요 경쟁사인 마이크로소프트가 가까스로 클라우드 사업의 성장세를 유지했지만 다소 정체되는 느낌을 주고 있는 가운데, 업계 1위와 3위 사업자의 성적표에 관심이 쏠리고 있습니다. AWS는 선두주자로서 지위를 입증할 지 관심입니다. 구글클라우드는 그동안 계속 적자를 기록하면서도 매출 성장을 유지해왔는데, 지난 분기에도 같은 흐름을 유지했을 지 주목됩니다.마지막으로 금융업계 소식입니다. 오는 1일(현지시간) 미국 연방준비제도(연준)이 공개시장위원회(FOMC)를 열고 연방기금금리 수준을 결정합니다. 이미 시장은 연준이 25bp 정도 금리를 올릴 것으로 예측하고 있습니다. 인플레이션이 둔화되는 지표가 나오고 있기 때문입니다.미국 상무부에 따르면 2022년 12월 근원 PCE물가 상승률은 전년 대비 4.4%로 전월 4.7% 대비 하락했습니다. 시장 예상치와도 일치했습니다. 지난해 9월 5.2%를 기록한 이후 꾸준히 하락하고 있어 인플레이션이 둔화되고 있다는 관측이 지배적입니다.다만 1월 소비자심리지수는 64.9로 전월 59.7 대비 오르고 예상 수준인 64.6을 상회했습니다. 이 같이 경제지표가 엇갈리는 가운데 연준의 선택이 어떨지, 또 이로 인해 금융시장에 어떤 영향을 끼칠지 귀추가 주목됩니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2023.01.16.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>금리 장사 ‘성과급 파티’ 금융권, 서민 대출은 ‘셧다운’</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001580188?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>사채 시장으로 내몰릴 위기 커져정부 “저신용층에 긴급 소액대출”사진=뉴시스지난해부터 이어지고 있는 금리인상 여파로 서민들이 대출 받기가 점점 어려워지고 있다. 이자 부담이 늘어난 것도 문제지만 제2금융권 등 제도권 기관들은 ‘역마진’을 이유로 이들에 대한 대출 창구를 닫고 있다. 금융 취약계층이 사채 시장으로 내몰릴 위기가 커지면서 정부는 저신용층을 대상으로 한 긴급 소액대출을 준비 중이다.15일 금융권에 따르면 2금융권 업체 10여곳은 카카오페이, 토스 등 대출 중개 플랫폼을 통한 대출 신청을 막아둔 상태다. DGB캐피탈·웰컴캐피탈은 이달 말까지 신용대출 신청을 받지 않고 있다. 캐피탈 업계 1위 현대캐피탈도 지난해 말 외부 플랫폼을 통한 신규 대출 영업을 중단했다. 예가람·대신·고려·DB저축은행 등은 저소득·저신용층을 위한 정책금융상품인 ‘햇살론’ 신청도 받지 않고 있다. 조달금리 급등으로 역마진이 발생할 수 있다는 이유에서다. 금융당국은 이같은 의견을 반영해 근로자 햇살론 대출금리 상한을 이달 초부터 연 10.5%에서 연 11.5%로 1.0%포인트 높였지만 업계는 여전히 원가 상승 대비 대출금리 인상분이 적다는 입장이다.서민들의 급전 창구 역할을 했던 보험약관대출 문턱도 높아졌다. 약관대출은 보험 해지환급금을 담보로 하며 일반 신용대출과 비교해 금리가 상대적으로 낮다. 최근 교보생명은 오는 3월까지 대출중개 플랫폼을 통한 약관대출을 중단키로 했다. 현대해상은 지난 2일부터 일부 보장성 상품의 약관대출 한도를 해약환급금의 60%에서 만기에 따라 0~60% 이내 범위로 차등 적용하는 것으로 변경했다.대출금리 상승 및 금융권의 대출 조이기 속에 지난해 가계대출은 7년 만에 감소세를 보였다. 금융위원회에 따르면 지난해 전체 금융권의 가계대출은 8조7000억원 감소했다. 가계대출 감소는 2015년 통계작성 후 처음 있는 일이다. 일반 신용대출과 마이너스통장 대출, 비주택담보대출을 포함한 기타대출이 35조6000억원 감소한 영향이다.‘돈빌리기’가 어려워지면서 당장 급전이 필요한 금융 취약계층은 사채 등 불법 대부업체를 찾을 수밖에 없다. 정부는 이들에 대한 정책 금융을 강화한다는 방침이다. 우선 연체 이력과 관계 없이 50만~100만원 수준의 긴급 생계비를 즉시 대출해주는 프로그램을 이르면 3월 출시할 계획이다. 총 공급 목표는 1000억원, 금리는 연 15.9%를 적용할 것으로 보인다. 또 신용점수 하위 10% 이하인 최저 신용자를 대상으로 특례 보증 상품 공급도 늘릴 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2023.01.31.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>[단독]카카오페이지 '채팅소설' 서비스 종료…몸집 줄이는 플랫폼</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006602548?sid=105</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>MZ세대 '쇼트폼' 콘텐츠 수요 노린 채팅소설, 서비스 종료 수순카카오엔터테인먼트가 지난해 9월 선보인 '채팅소설' 서비스 이미지(카카오엔터 제공)(서울=뉴스1) 남해인 기자 = 카카오엔터테인먼트(카카오엔터)가 '쇼트폼' 콘텐츠에 열광하는 MZ(밀레니얼+Z세대) 세대를 공략하기 위해 야심차게 선보인 '채팅소설' 서비스를 종료할 전망이다. 전세계적인 경기 위축 우려에 과도한 사업 확장보다는 운영 효율화에 집중하는 IT업계의 현 상황과 맞물린 행보로 풀이된다.31일 업계에 따르면 카카오엔터는 웹소설 플랫폼 '카카오페이지'에 지난해 9월 신설한 채팅소설 서비스를 종료하는 방안을 검토하고 있다. 채팅소설은 카카오톡으로 대화하듯 등장인물의 이야기를 채팅창으로 보여주는 방식이다. 기존 다른 장르 웹소설 대비 짧은 분량으로 '쇼트폼(짧은 형식)'에 익숙한 Z세대를 겨냥했다.카카오엔터는 차세대 킬러 콘텐츠로 키우기 위해 채팅소설을 지난해 9월부터 '베타(임시)'로 운영해왔고 '악당의 아빠를 꼬셔라'를 비롯한 기존 인기 웹소설·웹툰 IP를 채팅소설로 재구성하는 등 서비스 확대를 노렸다. 하지만 베타 서비스를 선보인 결과, 정식 출시보다는 서비스 종료에 무게를 싣고 관련 사업부서 인력 이동을 타진중인 것으로 알려졌다. 이와관련 카카오엔터 관계자는 "자세한 내용은 확정되지 않았다"고 말을 아꼈다.최근 IT 업계는 사업 규모를 축소하는 행보를 보이고 있다. 지난 3년간 전대미문의 코로나19 사태로 비대면 수요가 급증한 호황기 때 선보인 신사업들을 줄이고 수익성 개선과 운영 효율화에 방점을 찍는 모습이다. 글로벌 경기 침체 우려가 커지면서 '선택과 집중' 전략에 주력하는 것으로 풀이된다.네이버, 카카오와 라인플러스(라인), 비바리퍼블리카(토스) 등 플랫폼 기업들이 잇따라 서비스 종료에 나섰다.네이버는 지난 25일 '네이버 영화' 사이트 팝업 공지문을 통해 네이버 영화 PC 사이트 서비스 운영을 종료한다고 발표했다. 공지문에서 "'영화 지식베이스'라는 이름으로 네이버 통합검색에서 영화 정보를 제공하는 데 힘써왔다"며 기존 네이버 영화 사이트를 닫고 향후 지식베이스 기반의 영화 검색 서비스에 주력할 방침을 밝혔다. 카카오는 2021년 6월 시작한 상품·서비스 정기 구독 플랫폼 '구독온(ON)' 서비스를 지난 16일 종료했다. 개별 카카오톡 채널에서만 이용할 수 있었던 구독 서비스를 한꺼번에 관리할 수 있도록 만든 서비스였다. 커머스(상거래) 부문을 사내독립법인(CIC)으로 분리하면서 체질 개선에 나선 것으로 분석된다.라인플러스도 플랫폼 '라인'에서 지원하는 '쇼폼' 동영상 기반 사회관계망서비스(SNS)인 '라인 붐(VOOM)'의 국내 서비스를 2월 28일 종료한다.토스는 2021년 9월 카카오톡 메신저·오픈채팅 기능과 비슷한 '토스 채팅'을 토스 애플리케이션 내에서 출시했지만 2월 10일 서비스를 종료할 예정이다.게임사인 엔씨소프트(엔씨)도 지난 11일 '팬덤 플랫폼'인 '유니버스' 사업을 접고 경쟁사였던 디어유에 매각했다. 자회사 클렙이 생산하는 독점 콘텐츠로 차별점을 뒀지만, 수익성이 악화돼 엔씨는 매각을 단행하고 게임 사업에 집중하기로 한 것으로 알려졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2023.01.17.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>이복현 "여전업계, 자체 위기대응체계 구축해야"</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005206444?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>이복현 금융감독원장이복현 금융감독원장이 카드·캐피탈 등 여신전문금융회사(여전사)들을 향해 "자체 위기대응체계를 구축하는 방안을 고민해달라"고 당부했다.이 원장은 17일 오전 서울 플라자호텔에서 여신금융협회 주관으로 열린 신년 간담회에 참석해 이같이 말했다. 이날 간담회에는 정태영 현대카드·현대커머셜 부회장을 비롯해 여신금융협회 회원사 대표 58명이 참석했다.이 원장은 이날 간담회에서 "여신전문금융사는 시장성 차입 의존도가 높아 금융시장 변동에 취약한 구조적 약점이 있다"며 "유동성위험과 신용위험 등에 선제적으로 대응할 수 있도록 충분한 위기 대응 능력을 확보해달라"고 말했다.그는 "최근 일부 여전사들이 유동성 확보, 리스크 관리 등을 위해 대출 취급을 축소함에 따라 서민·취약계층의 어려움이 가중되지 않을까 우려된다"며 "앞서 말씀드린 내용과 상충하지만 금융권의 지원이 꼭 필요한 실수요자의 경우에는 자금 이용에 애로가 없도록 세심히 살펴봐 주셨으면 한다"고 요청했다.이 원장은 또 이 자리에서 "여전사와 빅테크가 공정하게 경쟁할 수 있는 환경을 조성하기 위해 규제체계 전반을 세심하게 살펴보고 규제차익을 해소해 나갈 것"이라고도 강조했다. 한편 이 원장은 최근 금융권 최고경영자(CEO)들과 활발한 소통 행보를 펼치고 있다. 이날 오후에는 윤호영 카카오뱅크 대표, 서호성 케이뱅크 행장, 홍민택 토스뱅크 대표 등 인터넷전문은행 CEO 3명과 오찬 간담회도 가졌다. 18일 오전에는 은행연합회에서 주요 시중 은행장들과 간담회를 가질 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2023.01.26.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>저축은행에 치이고 핀테크에 밀리고…힘 못쓰는 증권사 CMA</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000038733?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>CMA 상품 3% 금리 인상에도 고객 이탈1년 사이 CMA 잔고 18조 6054억원 ↓서울 여의도 증권가 전경. [게티이미지뱅크][이코노미스트 마켓in 김연서 기자] 한국은행의 기준금리 인상에 따라 증권사들도 자산관리계좌(CMA) 금리를 잇달아 올리고 있지만, 저축은행과 인터넷전문은행 등의 파킹통장 상품에 밀려 경쟁력을 잃었다는 지적이 나온다.26일 금융투자업계에 따르면 이달 13일 금융통화위원회 이후 주요 증권사들은 환매조건부채권(RP)형 CMA 금리를 줄줄이 인상했다. CMA는 가입자가 맡긴 돈을 증권사가 단기금융상품으로 굴려 수익을 돌려주는 상품이다. 운용 대상에 따라 ▶RP형 ▶머니마켓펀드(MMF)형 ▶발행어음형(CP) 등으로 나뉜다. 이중 RP형 CMA는 전 유형 가운데 잔고 비중이 가장 크다.지난 17일부터 미래에셋증권은 개인 고객 대상 RP형 CMA 금리를 연 2.85%에서 3.10%로 올렸다. 한국투자증권은 RP형 CMA 금리를 연 3.00%에서 3.20%로 0.20%포인트 인상했다. NH투자증권, KB증권, 삼성증권 등도 RP형 CMA 금리를 연 3%대에 제공하기로 했다. CMA 금리가 3%대에 진입했음에도 돈을 끌어모으지 못하면서 CMA잔고는 감소세를 이어가고 있다. 금융투자협회에 따르면 CMA 잔액은 지난 19일 기준 총 48조3262억원으로 1년 전(66조9316억원)보다 27.79% 줄었다.금리 인상 전인 이달 13일 RP형 CMA 잔고는 23조5822억원이었으나 금리 인상 이후인 17∼19일 사흘간 일평균 잔고는 23조4624억원으로 줄었다. CP형 CMA 잔고 역시 이달 초엔 12조960억원이었으나 꾸준히 감소해 지난 18일엔 11조3974억원으로 감소했다.업계에서는 지난해 말부터 저축은행과 인터넷전문은행이 파킹통장 금리를 인상하면서 증권사 CMA만의 장점이 희석됐다고 지적이 나온다.파킹통장은 하루만 맡겨도 이자를 주는 수시입출금통장으로, 일부 저축은행에선 최고 연 5%대 금리를 적용해 경쟁적으로 단기 자금을 조달하고 있다. OK·애큐온·JT친애저축은행은 수시입출금통장 금리를 연 4.0~5.5%까지 올렸다. 인터넷은행 토스뱅크는 파킹통장 금리를 최고 연 4.0%로 높이는 한편 CMA의 강점이던 일복리 기능도 제공하고 있다.반면 CMA 중 가장 금리가 높은 발행어음형 CMA 금리는 이보다 낮은 3.70∼3.80% 수준이다. 발행어음은 자기자본 4조원 이상의 대형 증권사들이 자체 신용을 바탕으로 발행하는 1년 이내의 단기 금융상품이다. 발행어음형 CMA는 미래에셋증권·한국투자증권·KB증권·NH투자증권 등 4곳만 취급 가능하다. 한 증권업계 관계자는 “CMA 금리는 최근 핀테크 은행이나 저축은행의 파킹통장 금리보다는 낮은 편이지만 시중 은행보다는 높은 편”이라며 “CMA 상품의 매력이 떨어져서가 아니라 증시 상황이 안 좋아지면서 증시대기자금이 빠져나간 것이 잔고 감소의 원인”이라고 설명했다.업계에선 CMA로 자금이 이동할 유인이 부족하다는 우려와 함께 경쟁력을 높이기 위한 대응책 마련이 필요하다는 지적도 나온다. 한 증권사 관계자는 “CMA 우대금리 적용을 통해 경쟁력을 확보해야 하지 않느냐는 이야기도 나오고 있으나 현재는 이에 대해 고려하지 않고 있다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2023.01.19.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>금리인하요구 75%는 ‘퇴짜’… 은행들 ‘인하폭’ 공시 의무화 [뉴스 투데이]</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003775843?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>금감원, 2월 중 개정안 시행신청 건수 위주 공개 제도 보완평균 금리 얼마나 내렸나 알려야비대면 신청률도 따로 공시 예정대출 종류 구분… 정보 제공 확대50대 김모씨는 최근 주거래 은행에서 온 금리인하요구권 안내 메시지를 받고 연봉이 오른 소득세원천징수확인서와 승진됐다는 재직 증명서를 은행에 제출했지만 결과는 낙방이었다. 상담 직원은 “알고리즘대로 결정되기 때문에 이유는 정확히 모른다”는 답답한 설명만 들었다. 50대 이모씨도 부동산담보대출과 신용대출 만기가 다가온 시점에 은행에서 금리인하요구권 안내를 받았다. 이씨의 신용등급은 거의 1∼2등급이었고, 직원으로부터 승진 사실도 ‘금리 인하’에 반영될 것이라고 안내를 받았지만 허사였다. 이씨는 “요즘은 워낙 대출받기도 어려워서 은행이 ‘갑’이라 금리인하요구권이 거절돼도 항의하거나 민원을 넣을 생각은 못한다. 은행들이 각자 기준이 있다고 하는데 어쩌겠나 싶다”고 하소연했다.     서울의 한 은행에 붙은 금리 인하 요구권 관련 안내문. 연합뉴스    지난해 3월 퇴거자금 목적으로 삼성생명에서 1억5000만원가량의 주택담보대출을 받았던 30대 황모씨는 다니던 스타트업 회사가 대기업에 인수되면서 그해 연봉이 40∼50% 오르자 인상된 소득을 근거로 금리 인하를 요구했지만 거절당했다. 보험사 측으로부터는 “대출을 실행할 때 이미 소득이 높은 편이라서 우대금리를 받았기 때문에 더 이상의 금리 인하는 불가능하다”는 설명밖에 듣지 못했다.  금융 소비자의 신용 상태가 좋아졌을 때 금융회사에 요청할 수 있는 ‘금리인하요구권’이 소비자들의 공분을 사고 있다. 대출해줄 때는 신용등급부터 소득 수준까지 꼼꼼히 따지며 금리를 결정하면서도 막상 금리 인하 요구에는 소비자의 신용 상태 개선 상황을 제대로 반영하지 않는다는 지적이 잇따르고 있다. 금융회사마다 제각각의 기준을 적용하고 제대로 된 설명도 없다 보니 소비자 불만이 고조되고 있는 것이다. 인터넷에 공개되고 있는 금리인하 요구 현황도 단순히 몇 건 신청에 몇 건 받아줬다는 정도에 그치고 있어 금융회사별 비교가 어렵다는 지적도 나온다.     이복현 금융감독원장이 지난 18일 서울 중구 은행회관에서 열린 은행장들과의 간담회에서 모두발언을 하고 있다. 뉴스1    금융감독원은 19일 금리 인하 요구를 둘러싼 소비자의 이런 불만을 수용해 금리 인하 요구 수용에 따른 평균 금리 인하 폭도 함께 공시해 건수 위주의 공시를 보완하기로 했다. 금리인하요구권 통계를 가계와 기업으로 구분하고 수용률도 신용과 담보, 주택담보대출로 따로 공시해 소비자에게 더 많은 정보를 제공하기로 했다.  앞서 이복현 금융감독원장은 18일 시중은행장 간담회에서 “신용도가 개선된 차주가 금리인하요구권을 활용하여 금리 부담을 줄일 수 있도록 금리인하요구권 활성화 노력도 지속해달라”고 당부했다.  금감원은 또 “금리 인하 요구 행사 시 비대면(온라인) 신청이 가능하고 중복 신청이 가능하기 때문에 수용률이 낮다”는 금융회사의 의견을 수용해 금리 인하 요구 통계를 비대면과 대면으로 분리해 공시하기로 했다. 요구권 신청 시 직접 은행 창구를 방문할 때와 비대면 방식인 온라인으로 할 때 차이를 알 수 있도록 비대면 신청률을 추가로 공시하기로 하는 식이다. 비대면과 대면을 분리하는 방식으로 수용률을 공개하도록 해 금융업계 경쟁을 촉진하겠다는 복안이다. 금감원은 2월 중 이 같은 개편안을 시행할 예정이다.     은행업 감독 업무시행 세칙. 금융감독원 제공    2019년 법제화한 고객의 금리인하요구권은 그동안 단순 신청 건 위주의 수용률 공시만 이뤄졌다. 은행연합회은 홈페이지에 분기별로 은행별 금리 인하 요구 수용률을 게재하는데 기존에는 신청 건수, 수용 건수, 이자 감면액, 수용률 정도만 게재됐다. 지난해 상반기 기준, 은행권 평균 금리 인하 요구 수용률은 25%정도였다. 가계대출의 수용률이 기업대출보다 상대적으로 낮았다. 카카오뱅크(19%), 토스뱅크(17.8%), 케이뱅크(24.6%)등 이른바 ‘인터넷 전문 은행’의 가계대출 금리인하요구권 수용률은 다른 은행에 비해 더 낮았다.  한 인터넷은행 업계 관계자는 이날 통화에서 “인터넷은행은 애플리케이션(앱)에서 ‘클릭’ 몇 번만 하면 지점 방문과 상관없이 금리 인하 청구를 해볼 수 있다”며 “저도 월급이 오를 때마다 한 번씩 해보지만 할 때마다 수용되지는 않는다”고 말했다. 기업대출의 금리인하요구권 수용률이 높은 것도 ‘착시효과’라는 것이 은행권의 주장이다. 한 시중은행 관계자는 통화에서 “기업들은 매년 신용평가를 하다 보니, 본인들의 등급이 개선되는 경우에 (금리인하요구권을) 신청하는 경우가 많다”며 “그래서 가계에 비해 기업은 신청건수에 비해서 수용률이 높다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2023.01.31.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>아이엠택시 운영사 진모빌리티, ‘타다’ 합병 시동</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002141584?sid=105</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이나연 기자] 아이엠(IM)택시를 운영하는 진모빌리티가 모빌리티 플랫폼 타다 합병을 논의 중이다.    31일 업계에 따르면 진모빌리티는 타다 최대 주주인 토스 운영사 비바리퍼블리카, 타다 운영사 브이씨엔씨(VCNC) 측과 타다 합병을 검토하고 있다.  다만, 양사는 아직 협의 단계라며 구체적인 방식 등은 결정된 바 없다고 선을 그었다.   타다 관계자는 “합병을 논의 중인 건 사실이나 아직 확정된 내용은 없다”며 “합병 방식 역시 최대 주주 보유 지분 비율에 변화를 주는 것을 고려 중이지 매각은 아니다”라고 설명했다.    한편, 이번 합병 논의는 토스 운영사 비바리퍼블리카가 쏘카로부터 VCNC 지분을 인수한 지 1년여 만에 제기됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2023.01.31.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>‘카카오페이 전세계서 가장 비싸’…외국계證 매도 리포트에 2% 하락 [특징주]</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004150506?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>투자의견 중립에서 ‘비중 축소’로 하향글로벌 핀테크 중 가장 비싸다고 지적“올해 매출·이익 17%, 58% 하향 조정”“카톡 주식거래 가능성 낮아···거래량에 실망할 것”[서울경제] 외국계 증권사인 JP모건이 카카오페이(377300)에 대해 사실상 매도 의견의 보고서를 내놓자 카카오페이의 주가가 2%대 급락을 나타내고 있다.31일 오전 9시 57분 카카오페이는 전날보다 1700원(2.64%) 내린 6만 2800원을 나타내고 있다.전날인 30일(현지시간) JP모건이 내놓은 보고서가 투자심리를 위축시키는 모습이다. JP모건은 카카오페이에 대한 투자의견을 기존 중립에서 비중 축소로 하향했다. 비중 축소는 사실상 매도 의견으로 여겨진다.JP모건은 카카오페이의 목표주가를 3만 8000원으로 상향하기는 했지만, 현재 주가 수준에서 40%가량 낮은 수준이다.JP모건은 현재 카카오페이의 주가가 글로벌 핀테크 종목 중 가장 비싼 수준이라고 지적했다. 올해 실적 전망이 양호하지 않은 수준이지만, 지난해 11월 이후 80% 넘게 주가가 상승하면서 평가가치(밸류에이션)가 높아졌다는 분석이다.스탠리 양 JP모건 애널리스트는 “올해 매출과 조정 EBITDA(법인세·이자·감가상각비 차감 전 이익)을 각각 17%, 58% 하향한다”며 “토스와 네이버페이가 있는 시장에서 시장 점유율의 증가세가 둔화되고 있다”고 말했다. 그는 이어 “지난해 대출 부문의 성장률을 23%에서 3%로 하향하는데, 카카오페이의 밸류에이션 상향을 막는 요인”이라고 말했다.카카오톡을 통한 모바일트레이딩시스템(MTS) 활용을 못하고 있는 점도 근거로 들었다. 카카오페이는 지난해 연내 카카오톡을 통한 주식 거래를 가능하도록 하겠다고 밝힌 바 있다. 이에 스탠리 양 애널리스트는 “자회사인 증권의 모바일트레이딩시스템(MTS)이 카카오톡 메신저에 내장되는 개편 가능성이 지난해 10월 대규모 서비스 중단 문제 이후 현저히 낮다는 점에 주목한다”며 “MTS 서비스 거래량에 실망하게 될 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2023.01.31.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>함께하는 100년을 향해 뛴다… 초일류 금융그룹으로 가는 전략 제시</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003476731?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>NH농협금융이석준 NH농협금융지주 회장(사진)은 취임사에서 “2022년 우리는 향후 미래 10년을 내다보고 농협금융의 비전과 그에 따른 전략 과제를 새롭게 확정했다”며 “고객과 함께하는 생활금융 생태계 구현, 미래형 금융서비스를 선도하는 개방형 사업 모델을 완성하겠다”고 강조했다. 이 회장은 이달부터 NH농협금융지주의 수장으로 활약하게 됐다. 그는 부산 동아고와 서울대를 졸업한 뒤 1983년 제26회 행정고시에 합격했다. 금융위원회 상임위원, 기획재정부 제2차관, 국무조정실장 등을 역임한 바 있다.  NH농협금융지주가 새롭게 수립한 비전은  ‘금융의 모든 순간, 함께하는 100년 농협’이다. 미래를 선도하는 대표 금융그룹으로 도약하고자 하는 의지가 담겨 있다. 이 회장은 “자회사를 비롯한 범(汎)농협의 시너지 경쟁력으로 고유의 목적을 달성하고 지속 가능 경영을 지향해야 한다”며 “이 비전과 전략을 속도감 있게 추진할 것”이라고 말했다. NH농협금융지주는 초일류 금융그룹으로 도약하기 위한 다섯 가지 전략을 제시했다. 첫 번째는 본원 사업 경쟁력을 강화하는 것이다. 업권별 핵심 사업의 경쟁력을 키우는 동시에 비이자 부문의 기반도 키워 나갈 계획이다. 이를 위해 각 계열사 간 시너지 창출을 확대해 나가는 청사진을 갖고 있다. 두 번째 전략은 미래 성장 동력을 확충하는 것이다. 디지털 비즈니스 부문의 혁신과 성과 창출에 힘쓰고, 신사업을 지속적으로 물색할 예정이다. 글로벌 사업에 대한 내실도 함께 다진다는 방침이다.  세 번째 전략은 경영 효율성을 높이는 것이다. 자산 포트폴리오를 최적화하고 자산운용을 효율화하는 방식으로 중장기 경영 안정의 토대를 구축하고 있다. 전략적 영업 채널을 운영하는 것도 병행할 계획이다. 네 번째 전략은 고객 중심의 경영을 확립하는 것이다. 금융 소비자를 보호하고 신뢰 경영을 정착시키며, 사회적 금융과 상생 경영을 강화한다는 방침이다. 끝으로 경영 기반 고도화도 빼놓을 수 없다. 위험 관리 체계를 견고하게 구축하며 ESG(환경, 사회, 지배구조) 경영을 내재화시켜 경영의 질을 높여갈 계획이다. 이 회장은 임직원의 도전 정신과 각 계열사 간 화합을 강조했다. 그는 “농협금융의 한 분 한 분이 명확하게 비전과 전략을 인식하고 빠르게 실행해 갈 수 있도록 하겠다”며 “농협중앙회, 경제지주 등 내부사업 부문과 적극 소통해 각자의 입장을 존중하면서도 함께 문제를 풀어가는 지혜가 필요하다”고 말했다. 이 회장은 ‘농협은 불가능할거야’라고 생각하는 많은 사람들에게 잘할 수 있다는 것을 보여주고 싶다는 바람으로 취임사를 마무리했다. 그는 “실패의 경험이 있는 조직만이 큰 성공을 이룰 수 있다”며 “개인의 성장을 위한 노력에 적극 함께하겠으며 제가 할 수 있는 한 최대한의 지원을 아끼지 않을 것”이라고 말했다. 이 회장은 처음 주재한 경영전략회의에서 △고객과의 소통 △디지털 혁신 △시너지 확대 등을 주제로 자율토론을 진행하며 농협금융을 초일류 회사로 성장시키기 위한 방안을 논의했다. 금융 플랫폼 ‘토스’를 창업한 이승건 비바리퍼블리카 대표를 연사로 초청해 디지털 금융의 방향성과 중요성을 토론하기도 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2023.01.16.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>연말정산 시즌 본격화…신용카드·대중교통 공제 확대</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001077497?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>연말정산 간소화 서비스가 15일 개통됐다.올해 연말정산에서 받을 수 있는 신용카드와 대중교통 공제는 더욱 확대된다.국세청에 따르면 근로자들은 이날부터 홈택스에서 간소화 자료를 확인해 내려받을 수 있다.올해는 간소화 서비스 간편인증(민간인증서)이 작년보다 확대된 점이 특징이다.기존 인증 7종(카카오톡, 통신사PASS, 삼성패스, 국민은행, 페이코, 네이버, 신한은행)에 토스, 하나은행, 농협, 뱅크샐러드 등 4종이 추가되면서 이용자는 총 11종의 간편인증을 활용할 수 있게 됐다.보건복지부와 국가보훈처에서 수집한 장애인 증명자료도 간소화 자료로 제공된다.월세를 신용카드로 납부한 경우에는 국세청이 카드사로부터 신용카드로 결제한 월세액 자료를 수집해 제공하는 간소화 자료를 이용할 수 있다.신용카드 사용액과 대중교통 지출액에 대한 공제는 더욱 확대된다.개정 세법에 따르면 작년 신용카드 사용액, 전통시장 사용액이 그 전해인 2021년보다 5% 넘게 증가한 경우 100만원 한도에서 추가 소득공제를 받을 수 있다.대중교통 이용금액 소득공제는 작년 7∼12월 이용분에 한해 공제율이 40%에서 80%로 올라간다.무주택 세대주인 근로자가 주택을 임차하기 위해 차입한 자금의 공제 한도도 300만원에서 400만원으로 확대됐다.작년 12월 31일 기준 무주택 세대의 세대주가 주택법에 따른 국민주택규모 주택(주거용 오피스텔 포함)을 임차하기 위해 대출기관 등에서 주택 임차자금을 차입하고 차입금의 원리금 상환액을 지급하는 경우 상환액의 40%를 400만원 한도로 소득에서 공제하는 식이다.총급여 7천만원 이하 무주택 근로자가 지출하는 월세에 대한 세액공제율은 10∼12%에서 15∼17%로 올라갔다.월세 세액공제를 받으려면 작년 12월 31일 현재 무주택 세대 세대주로서 총급여액이 7천만원 이하인 근로자여야 한다.국민주택규모 이하나 기준시가 3억원 이하인 주택을 임차하고 임대차 계약증서 주소지와 주민등록표 등본 주소지가 같은 경우 월세 세액공제를 받을 수 있다.세액공제액은 연 750만원 한도 월세 지급액에 15∼17% 공제율을 곱해 계산하면 된다.이외 난임 시술비는 20%에서 30%로, 미숙아·선천성 이상아를 위해 지출한 의료비는 15%에서 20%로 각각 세액공제율이 상향됐다.작년 낸 기부금에 대해서는 1천만원 이하 20%, 1천만원 초과 35% 세액공제가 적용된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2023.01.20.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>“데이터 주권, 금융사 선택할 때 중요 가치 될 것”</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002093492?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>김보람 비바리퍼블리카 프로덕트 리드·임희진 프라이빗 사일로 TPO 인터뷰토스의 개인정보 안심리포트사용내역 한눈에...불안감 해소이용자 80%가 긍정적 반응임희진(왼쪽) 비바리퍼블리카 TPO와 김보람 프로덕트 리드는 토스의 개인정보 안심리포트에 대해 “고객들의 긍정적인 반응이 나타나고 있다”고 평가했다. [토스 제공]“2000개가 넘는 고객의견을 꼼꼼히 정독했습니다. 가장 많이 나온 의견이 ‘서비스는 편리한데, 막연하게 개인정보에 대해 불안감이 든다’는 것이었죠. 이 말에 답이 있다고 생각했어요. 개인정보를 어떻게 이용하는지 투명하게 공개해, 토스에 대한 신뢰를 안겨줘야겠다는 결론에 도달했습니다.”토스는 최근 특별한 리포트를 내놓았다. 사용자가 자신의 개인정보 내역을 확인할 수 있는 ‘개인정보 안심리포트’다. 그동안 금융사 고객들은 자신의 개인정보가 어디에 어떻게 활용되는지 인지하지 못했다. 토스는 고객이 송금을 하거나 신용점수를 조회할 때, 또 대출심사를 받을 때 어떤 개인정보가 어떤 목적을 위해 쓰이는지 공개하기로 했다. 국내 금융권에서 최초로 단행된 실험이자 혁신이다.임희진 프라이버시 사일로 TPO(Technical Product Owner)는 최근 비바리퍼블리카 본사에서 헤럴드경제와 가진 인터뷰에서 개인정보 안심리포트 고안 배경에 대해 “아무리 우리 제품이 안전하다고 해도 고객들은 믿기 어렵다. 그래서 실제로 어떻게 개인정보를 다루는지 투명하게 공개하자고 의견을 모았다”며 “토스 내 개인정보를 활용하는 서비스들에 안심리포트를 연동시키고 있다. 현재까진 90% 정도가 연동됐고, 나머지 10%와 신규 서비스를 연동하는 그림을 그리고 있다”고 설명했다.김보람 프로덕트 리드는 “토스는 15~20명 규모일 때부터 적극적으로 보안 관련 팀을 꾸리고 인력을 채용했다. 그 결과 2017년에는 국제 데이터 보안인증 PCI DSS를 공식 획득했고, 이듬해 과기부 주최 ‘정보보호 대상’에서 대상도 수상했다”며 “최근에는 화이트 해커를 채용해 내부 문제 개선 노력을 이어가고 있다”고 했다.김보람 리드는 국내 금융사들의 개인정보 보호 노력에 대해 “지금까지 규제에 따라 컴플라이언스를 준수하며 개인정보를 보호하기 위한 노력을 해왔다면, 이제는 금융소비자들에게 ‘데이터 주권’을 돌려주고 GDPR(유럽연합 개인정보 보호 규정) 원칙에 기반해 개인정보를 다루는 노력이 시작되고 있다고 생각한다”고 했다. 이어 “GDPR은 국민들의 개인 데이터와 프라이버시를 보호할 것을 의무화하고, 이를 위반하는 기업들은 값비싼 대가를 치르도록 하고 있다. 이 원칙이 지켜지는 과정에서 국내 금융사들의 개인정보 보호에 대한 혁신이 일어날 것”이라고 내다봤다.임희진 TPO는 향후 금융권의 개인정보 보호 서비스 전망에 대해 “금융도 결국은 고객들의 선택을 받아야 하지 않나. 앞으로 마이데이터나 오픈뱅킹 등이 확산하면서 결국 각 금융사의 특성은 서로가 매우 비슷해질 것이다”면서 “결국 고객들이 금융 앱을 선택할 때 특별한 ‘가치’가 있어야 한다. 개인정보 보호가 바로 금융사 선택을 좌우하는 중요한 가치가 될 거라고 본다. 만약 토스가 다른 금융사보다 개인정보 보호를 더 잘한다면, 더 많은 이들이 토스를 선택할 것이다”고 자신감을 보였다.홍승희 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2023.01.23.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>[스프] 유니콘 기업의 공통점은?…과감한 실패, 끊임 없는 노력과 실험</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/055/0001030207?sid=102</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>이제껏 없던 길을 개척해나가는 '개척자들' 이야기"혹시 당근이세요?" "저한테 바로 토스해주세요." "컬리 시켰어?" "배민 오고 있대?"...시계를 거꾸로 돌려 4,5년 전으로만 돌아가더라도 저 말들은 대단히 낯설게 들릴 것 같습니다. 하지만 2023년 현재는 그렇지 않습니다. 당근은 말이 좋아하는 채소나 당연하지의 준말이 아니라 중고 거래의 대명사가 됐고, 토스는 빠르고 간편한 송금을 뜻하게 됐습니다. 좋은 품질의 신선식품을 새벽에 받아볼 수 있는 컬리나, 중국집 철가방을 넘어선 음식 배달의 상징이 된 배달의 민족 등은 모두 일찍이 없거나 불편하던 분야를 새롭게 개척해 나간 '개척자들'입니다.스브스프리미엄, 스프는 고려대 남대일 교수 연구팀과 함께 한국의 혁신 스타트업을 분석하고 그 기업의 대표들과 심층 인터뷰해 성공 비법과 과제를 짚어보는 &lt;개척자들&gt;을 연재하고 있습니다. 설 연휴를 맞아 한 번에 몰아보는 개척자들을 준비했습니다. 하이퍼 로컬 중고거래 시장의 개척자, 당근마켓 한국 핀테크 시장의 개척자, 토스 물류테크의 시대를 앞당긴 개척자, 컬리 배달 시장 개척과 기부 문화의 지각변동까지, 배달의민족 스카우트 시장의 강자가 된 명함정리비서, 리멤버하이퍼 로컬 중고거래 시장의 개척자, 당근마켓당근마켓의 시작은 판교의 일부 회사원들을 대상으로 운영되던 '판교장터'였는데, 판교장터는 원래 판교테크노밸리에서 IT 종사자 간에 IT 제품을 거래할 수 있는 어플리케이션으로 만들어졌다. 이는 당시 카카오의 사내 중고거래 게시판이 활성화되던 것에서 얻은 아이디어로, 판교에 있는 수많은 기업들이 서로 중고거래하면 재미있겠다는 생각으로 시작된 것이었다."당신 근처의 마켓"이라는 뜻을 담은 당근마켓으로 사명을 변경하고 점차 서비스 범위를 늘려 결국 전국 단위의 서비스를 론칭하게 되었다.코로나 사태 이후 모든 것이 비대면화하는 것이 당연해진 시대에, 역설적이게도 당근마켓은 지역 주민들이 직접 만나서 함께 소통하도록 함으로써 '이웃사촌'이라는 개념이 다시 강조되는 사회를 만드는 데 일조하고 있다.[ https://premium.sbs.co.kr/article/42zVmGXfC- ]한국 핀테크 시장의 개척자, 토스한국의 금융 산업에서는 급진적인 혁신이 탄생하기 어렵다는 의견이 팽배하던 시기에, 이러한 편견을 깨고 '고객 주도형' 비즈니스 모델을 통해 핀테크를 개척한 기업이 있다.현재는 핀테크 서비스 분야의 유니콘이며 데카콘을 향해 성장해 나아가고 있는 비바리퍼블리카 토스다. 토스는 송금 서비스를 이용하는 고객들의 가치 활동을 분석한 결과, "비즈니스의 목적은 고객을 창출하는 것이다"라는 피터 드러커의 격언처럼, 새로울 것이 없어 보였던 송금 서비스 분야에서 새로운 고객을 창출하였다.토스의 간편 송금 서비스를 지금은 모두가 당연히 받아들이지만, 서비스 론칭 당시에는 많은 어려움이 있었다. 어찌 보면 토스가 핀테크 서비스를 선보이기까지의 과정은, 단지 새로운 서비스를 선보였다는 것이 아니라 불가능한 것을 가능하게 만든 진정한 개척자의 모습이 담긴 과정이라고도 할 수 있다.[ https://premium.sbs.co.kr/article/9bnjNefgZR ]물류테크의 시대를 앞당긴 개척자, 컬리"강남 워킹맘들에게 꼭 필요한 것"먹는 것 하나도 깐깐하게 챙기고 싶어 하는 엄마들, 미식을 위해 기꺼이 남과 차별화된 식재료를 사고 싶어 하는 고객들을 위한 서비스를 제공하는 기업이 있다. 바로 마켓컬리다. 마켓컬리가 처음 타깃으로 한 고객은 3-40대 강남 워킹맘이었고 실제로 강남 워킹맘들에게 없어서는 안 될 앱으로 입소문이 나면서 유명해졌다.기존 온라인이나 앱에서 식재료를 주문하더라도 배달 마감시간이 있어서 이 시간을 놓치면 배달을 받을 수 없었고 제품의 신선도 또한 보장받을 수 없는 경우가 다반사였다.마켓컬리는 이 문제를 해결하기 위해 '샛별 배송'으로 이름 붙인 새벽 배송 시스템을 선보였다. 새벽 배송이라는 개념이 존재하지 않으니 이를 위한 시스템도 물류업계 내에는 갖춰지지 않은 상태였다. 즉, 마켓컬리는 고객의 불편을 해결하기 위해 혁신적인 서비스를 생각해냈을 뿐만 아니라, 그 결과 물류 산업의 시스템까지도 함께 개척해 나가고자 하게 된 것이다.[ https://premium.sbs.co.kr/article/XZtq5_W-sT ]배달 시장 개척과 기부 문화의 지각변동까지, 배달의민족배달의민족은 초창기 전화번호부 책자를 모바일 앱으로 옮겨보고자 한 아이디어로 시작했다. 그러나 수익이 나지 않아 발 빠르게 서비스를 피봇한 배달의민족은, 현재 각 지역의 음식점과 소비자를 연결해 주문-결제-배달까지 한 번에 진행할 수 있도록 하는 통합형 배달 플랫폼을 제공한다.또한 독특한 마케팅, 리뷰 기능 제공 등을 통해 국내 배달 앱 산업을 개척하고 활성화한 배달의민족은 25조 원에 달하는 배달 시장(2021, 통계청)에서 가장 높은 점유율을 차지하고 있다.김봉진 의장이 배달의민족을 통해 자수성가 부자 대열에 합류면서 통과하기 어렵기로 유명한 사전 절차를 모두 거쳐 '더기빙플레지'에 가입했다. 이는 국내에서 내로라하는 대기업들의 재벌가 일원이 아닌, 아무것도 없이 시작한 김봉진 의장이 처음이다.'더기빙플레지'에 가입하며 우리나라의 배달 문화뿐만 아니라 기부 문화까지도 개척한 배달의 민족은 성공한 창업가의 사회적 역할에 대한 새로운 정립과 함께 창업 후배들의 롤 모델로서 스타트업 생태계 활성화에 큰 영향을 미치고 있다.[ https://premium.sbs.co.kr/article/nfn88JeP7z ]스카우트 시장의 강자가 된 명함정리비서, 리멤버"미국에서는 내 프로필을 만인한테 공개하도록 오픈해놓고 이직 활동에 열려있는 것이 크게 흠이 아닌데 한국에서는 내가 이 프로필을 올려놓고 업데이트하면서 새로운 잡에 열려 있음을 보여주는 것 자체가 굉장한 불편함을 야기하는 것 같았어요. 그런 지점들을 저희가 미세하게 보완하면 한국에서 잘 동작할 수 있는 그런 서비스가 될 수 있겠다 이런 기대를 가졌죠."2013년 7월에 설립된 드라마앤컴퍼니는 2014년 1월 명함 관리 애플리케이션 '리멤버'를 론칭하면서 현재까지 3억 장 이상의 누적 명함을 보유한 국내 1위 명함관리 서비스로 자리잡았다.리멤버를 한 번 이용하기 시작한 사람은 계속해서 이용하게 된다. 이직할 때마다 새 직장의 명함을 리멤버에 새롭게 입력하게 되고, 따라서 이용자는 리멤버를 이용하는 내내 본인의 커리어 패스를 리멤버 내에 쌓아가고 있는 셈이 된다.**'보러가기' 버튼이 눌리지 않으면 해당 주소를 주소창에 옮겨 붙여서 보실 수 있습니다.[ https://premium.sbs.co.kr/article/kzZuwtk7V3 ]</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2023.01.29.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>박완주 의원 "알뜰폰 생태계 전반 점검해야"</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002141476?sid=105</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>[디지털데일리 강소현 기자] 최근 알뜰폰 가입자 수가 대폭 증가한 것으로 알려진 가운데 이는 사실과 다른 것으로 드러났다.29일 박완주 의원실이 과학기술정보통신부(이하 ‘과기정통부’)로부터 제출받은 자료에 따르면 최근 알뜰폰 가입자 수의 폭증은 사물인터넷(IoT) 회선 수가 518% 증가했기 때문인 것으로 나타났다.실 소비자인 핸드폰 회선의 가입자 수는 2020년부터 2021년까지 오히려 감소했다. 지난해 12월 기준 전체 증가율도 겨우 5%에 지나지 않은 것으로 확인됐다.2022년 통신3사 자회사의 알뜰폰 핸드폰 회선 가입자 수는 2019년 대비 54% 증가했다. 대기업·빅테크 군의 가입자 수도 국민은행 알뜰폰 사업의 영향으로 무려 162% 증가했다. 하지만 같은기간 우체국사업자를 포함한 중소·중견 사업자의 핸드폰 회선 가입자 수는 약 30% 감소했다.전체 알뜰폰 가입자 수 중 IoT회선을 제외하면 통신3사 자회사 점유율은 2019년 35%에서 2022년 51%로 약 16% 증가한 사실도 확인됐다. 알뜰폰 시장에서도 통신3사의 영향이 여전히 강세인 것이다.다만 우체국사업자를 포함한 중소·중견 사업자의 매출액은 2021년 약 3850억으로 2019년 대비 23% 증가해 이동통신 자회사의 매출 증가율인 19%를 넘어섰다. 일각에서 이제 중소사업자도 설비투자 및 이용자 보호와 편의를 위한 최소한의 의무를 법제화해야 한다는 주장이 제기되는 이유다.박완주 의원은 “알뜰폰 제도 도입 13년 차를 맞았지만 도매제공의무·대가산정방식·소비자 보호조치 의무 등 여러 쟁점에 대해 과기정통부가 교통정리에 나서지 않고 있어 제도 공백으로 인한 시장 불안정이 가중되고 있다”고 지적했다.이어 박 의원은 “특히 국민은행·토스·신한은행과 같은 금융대기업도 이미 알뜰폰 시장에 진출했거나 진출을 계획하고 있는 만큼, 알뜰폰 생태계 전반을 점검할 필요가 있다”라며 “당사자간 견해차가 큰 쟁점인 만큼 조속히 여론 수렴 과정을 거쳐 제도 정착화를 위한 논의를 시작해야 한다”라고 촉구했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2023.01.23.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>[새해 이것 투자할까④]코인 사볼까</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011655313?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>기사내용 요약국내 코인 VC 관계자들, '레이어1 코인' 꼽아솔라나·앱토스·수이 등 3가지 뽑혀앱토스는 열흘 만에 100% 상승하기도VC 자금 역시 '레이어1'에 몰려전문가들 "장기적 관점으로 봐야"[서울=뉴시스] 김선웅 기자 = 비트코인 등 가상화폐 가격이 연일 상승하는 가운데 18일 서울 서초구 빗썸 고객지원센터 전광판에 각종 가상화폐 가격이 표시되고 있다. 2023.01.18. mangusta@newsis.com[서울=뉴시스]이지영 기자 = 요즘 투자할만한 '코인'은 뭐가 있을까. 국내 주요 가상자산 벤처캐피탈(VC)관계자들은 '레이어1 코인'을 가장 먼저 꼽았다. 올해 레이어1 생태계 확장이 예상되는 만큼 관련 코인 역시 가치가 커진다는 진단에서다. '레이어1'에서 레이어는 말 그대로 쌓여있는 층(Layer)을 말한다. 즉 다른 네트워크의 개입 없이 기존에 존재했던 기존 네트워크란 뜻이다. 탈중앙화금융(디파이)과 대체불가토큰(NFT) 등 블록체인 서비스가 개발될 수 있도록 뒷받침하는 인프라 역할을 하고 있다. 대표적인 레이어1 코인으로는 비트코인과 이더리움 등이 있다. 이밖에 VC 관계자들은 솔라나와 앱토스, 수이 등을 유망한 레이어1 코인으로 언급했다.솔라나·앱토스, 업비트 상승률 상위 5위 안에 들어특정 코인에 대한 인기는 '높은 상승률'에서 시작되는 경우가 많다. 코인이 널뛰는 변동성의 상징으로 꼽히는 만큼, 큰 폭으로 오를 때 투자자들의 관심을 쉽게 끌기 때문이다.[서울=뉴시스] 20일 오후 5시 업비트 기준 전달 대비 상승률 상위 코인 5위에 앱토스(101.84%)와 솔라나(66.46%) 등이 포함됐다. (사진=업비트 홈페이지 캡처) 2023.01.20 *재판매 및 DB 금지솔라나(SOL)와 앱토스(APT)는 새해부터 급등하며 투자자들의 이목을 집중시켰다. 20일 오후 5시 업비트 기준 전달 대비 상승률 상위 코인 5위 안에는 앱토스(101.84%)와 솔라나(66.46%) 등이 모두 포함됐다.특히 솔라나는 최근 비트코인의 급등이 시작되기도 전인 지난 6일부터 일주일 새 40% 넘게 급등하며 주목을 받은 바 있다. 이후 현재까지 강세를 이어가고 있다. 지난 1일 1만4000원대에 거래되던 솔라나는 20일 현재 2만6000원대에 거래되고 있다.'메타(구 페이스북) 코인'으로 유명해진 앱토스 역시 지난 10일 새벽 치솟은 이후 현재까지 상승 곡선을 그리는 중이다. 앱토스는 지난 9일 한국에서 올해 로드맵을 발표한 이후 국내 거래소 업비트서 30% 넘게 폭등했다. 발표 당시 5000원 초반대에 거래되던 앱토스는 20일 현재 9900원대를 기록했다. 열흘 만에 100% 가까이 상승한 셈이다.'레이어1'에 VC 자금 몰려상승률뿐 아니라 레이어1에 업계 관심이 쏠리는 추세도 매력적인 요소다. 시작은 앱토스였다. 지난해 말 앱토스가 메타 출신 개발자들이 만든 '레이어1 블록체인 플랫폼'이라는 점을 내세워 국내외 주요 VC로부터 총 3억5000만달러(약 4335억원) 규모의 투자를 유치하자 레이어1에 대한 관심 자체가 높아진 것이다. 특히 한동안 디파이와 NFT 등 블록체인 서비스에 몰렸던 VC 자금이 블록체인 인프라 프로젝트로 넘어가고 있다는 풀이다.국내 주요 가상자산 벤처캐피탈(VC) 임원 A씨는 "메타 출신들이 새로운 프로그래밍 언어인 '무브'를 활용하여 시작한 앱토스와 수이 같은 경우 많은 블록체인 생태계 참여자들이 기대하고 참여하려 하고 있다"며 "생태계에 참가하는 투자사의 질과 수 역시 높은 편이다. 생태계의 활성도가 높아질 가능성이 높다고 점칠 수 있다"고 분석했다. 앱토스와 함께 언급되는 '수이(SUI)' 역시 메타 출신 개발자들이 개발한 레이어1 블록체인 플랫폼이다. 앱토스는 보안과 확장성, 탈중앙화라는 블록체인의 트릴레마를 해결하는 데 중점을 뒀다면, 수이는 블록체인을 기반으로 다양한 서비스를 설계할 수 있도록 지원하는 데 초점을 뒀다. 대표적인 레이어1 블록체인으로 꼽히는 솔라나 역시 탄탄한 기술력으로 FTX 파산 여파를 이겨낼 거란 평가를 받는다. 솔라나는 FTX 자회사 알라메다리서치의 투자를 받으며 관련 코인으로 분류됐다.A씨는 "솔라나는 FTX 파산 사태 등 외생변수로 인해 엄청난 부침을 겪었지만 솔라나 위에서 무엇인가를 만들고 있는 회사들이 여전히 많다. 투자사들 역시 많은 상황"이라며 "지난해 솔라나 체인을 괴롭히던 기술 부채 역시 점점 줄어들고 있다"고 전했다. 이어 "디파이에 강점을 가진 솔라나는 생태계 내 유동성이 돌아온다면 충분히 재성장할 수 있다고 생각한다"고 덧붙였다."단타성 투자에는 적합…장기적 관점으로 봐야"다만 아직 성장세라는 점에서 '장기적 관점'으로 봐야 한다는 의견도 나온다. 국내 주요 가상자산 VC 임원 B씨는 "앱토스, 수이 등은 지난해와 올해 가장 주목을 받은 만큼 매력적으로 느껴질 수 있지만, 그만큼 하방 압력이 셀 수밖에 없다"며 "아직 검증된 내용이 없어 지금 투자하면 사실상 도박에 가깝다. 단타성 투자에는 적합할 수 있을 것"이라고 조언했다.A씨 역시 "세 레이어1 체인 모두 FTX와 알라메다에 어느 정도 얽매여 있다 보니 가격 측면에서 완전히 자유롭진 못하다"며 "특히 올해는 글로벌 경기가 계속 침체를 겪을 예정이라 강세장이 돌아온다고 보기에도 무리"라고 꼬집었다.그러면서도 "이러한 통제 불가한 외생변수를 제외하고 장기적 관점에서 생각한다면 앱토스, 수이, 솔라나 등은 모두 주목할만한 가치가 충분하다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
